--- a/기사데이터/토스/엑셀파일/news(토스, 2022.04.01~2022.04.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.04.01~2022.04.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.04.10.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>금감원, 핀테크 수시검사도 나선다</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004817477?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>그동안 네이버·카카오·토스 등 '빅테크'에 검사 역량을 집중했던 금융감독원이 중소형 핀테크기업도 들여다본다.   빅테크들이 받는 '정보기술(IT)리스크 계량평가 제도'를 간이검사 형식으로 핀테크에 적용해 상시 평가 기능을 강화하는 방식으로다.   10일 금감원은 이런 내용을 중심으로 하는 '2022년도 IT리스크 상시감시 및 검사업무 운영방향'을 발표했다.   최근 전자금융업 진출이 활발한 핀테크들이 대형 금융회사에 비해 IT인프라·정보보호 기반이 열악해 IT리스크가 증가할 우려에 따른 것이다.   먼저 감시와 관련해선 지금까지 빅테크에만 적용되던 IT리스크 계량평가 제도가 모든 전자금융업체들에 적용된다는 게 골자다.   금감원은 2016년부터 'IT리스크 계량평가 제도'를 도입해 자산규모 2조원 이상인 대형 금융회사에 대해 IT인프라 운영상의 주요 리스크를 정기적으로 점검하고 있다.   올해부터는 자산규모가 2조원 이상이거나 IT 의존도가 높은 금융회사에 대해서는 'IT리스크 계량평가'를 실시하고, 중소형 금융회사 및 전자금융업자에 대해서는 계량평가 항목을 간소화 한 간이평가를 실시한다.   취약점이 확인되는 핀테크를 중심으로 자체 감사 요구제도도 도입한다. 업계와 금감원이 참여하는 협의체도 만든다.   아울러 올해부터는 빅테크는 정기검사로 돌리고 핀테크에는 수시검사에 나선다.   금융회사의 특성, 규모, IT 의존도 등을 감안해 2~5년 주기로 IT부문에 대한 정기검사에 나선다.   또 IT사고로 소비자 피해가 발생했거나, 내부통제가 취약한 금융회사등을 대상으로 테마검사가 강화된다.   금감원 관계자는 "IT리스크 수준을 조기 판별이 가능한 상시평가 모형을 개발하는 한편, 4월중 금융업권의 의견을 청취해 IT상시협의체를 구성하고, 이 협의체를 통해 금융회사 및 전자금융업자와 각종 현안사항 등에 대한 소통을 확대해 나갈 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.04.13.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>[스페셜리포트]마이데이터 시행 100일…단기 안정화 '성공적', 새로운 경험은 '숙제'</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003009944?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>개인 데이터 주권 회복 일조연말 100여개 기업 진출 예상은행-카드-핀테크 경쟁 치열신기술로 서비스 고도화해야지난 1월 5일 마이데이터(본인신용정보관리업)가 본시행을 시작한지 100일을 맞았다. 시범 서비스 초기 개인정보 유출 문제가 불거졌고 부족한 기관 연결, 정보전송 요구 호출 오류 등으로 서비스 완성도가 기대에 미치지 못한다는 평가를 받기도 했다. 시행 100일을 맞은 4월 현재 마이데이터 서비스 체계는 당초 기대 이상으로 빠르게 안정화됐다는 평가를 받고 있다. 이제 금융 마이데이터에 이어 공공·의료 등 전 분야로 마이데이터 체계를 확산하는 것이 앞으로의 숙제다.◇개인의 데이터 주권 회복, 기업 데이터 활용 기반 갖춰국내 마이데이터 서비스는 민감한 개인정보이자 중요도가 높은 데이터로 분류되는 금융권 개인신용정보를 주축으로 도입됐다. 금융·공공·의료 등 다양한 분야에서 금융 마이데이터가 가장 먼저 확산을 시작한 이유다.마이데이터 도입 이전에는 사용자가 서비스 가입·이용 과정에서 '개인정보제공 및 수집에 동의하시겠습니까?'라는 질문에 '네' 혹은 '아니오'로만 답변할 수 있었다. 만약 동의했다면 이후 해당 기업이 내 데이터를 어떻게 활용하고 있고 그 결과 내가 어떤 서비스나 이익을 누리는지 알 수 없었다. 단순히 마케팅용 혜택을 받느냐 받지 않느냐의 선택 수준에 머물렀던 셈이다.마이데이터 도입 후 사용자는 기업에 내 정보제공 동의 여부를 좀 더 명확히 표현하고 이후 내 데이터를 어떻게 활용하는지도 확인할 수 있게 됐다. 개인이 원하면 언제든 데이터 제공도 쉽게 중단할 수 있는 환경이 조성됐다. 개인이 자신의 데이터에 대한 권리(주권)를 명확히 행사하고 데이터 제공에 따른 혜택과 이익을 분명하게 돌려받는 체계가 형성된 것이다.마이데이터 도입은 결국 기업이 합법적으로 개인정보를 활용할 수 있도록 관련 기술과 제도를 강화하는 효과로 이어졌다.정부는 마이데이터 체계에서 정보보호를 강화하고 개인의 정보제공 동의 체계를 구체화하기 위해 업계와 오랜 논의를 거쳐 기술·제도 장치를 마련했다. 신용정보원을 마이데이터 산업 총괄 지원기관으로 삼고 2019년 4월부터 2020년 7월까지 마이데이터 워킹그룹을 운영하며 정보항목 표준화 등 초기 산업 형성을 위한 주요사항을 업계와 협의했다.본시행 1년을 앞두고 작년 2월 마이데이터지원센터를 신용정보원에 개소하고 가이드라인을 발간했다. 이후 마이데이터 종합포털 개설, 중계기관 구축 등이 이어지며 마이데이터 산업 핵심 인프라를 점차 완성해갔다.정부 주체로부터 공동인증서 등 본인확인수단을 위탁받아 정보를 수집하는 스크린 스크레이핑 방식을 금지하고 정보보안기술을 적용한 표준API 방식으로 전면 전환하는 과정은 쉽지 않았다. 고객 인증정보를 직접 저장하지 않고 암호화한 대체정보를 활용하고 별도 통합인증 체계를 도입해 본인확인 기능을 강화하는 등 다양한 시도를 했다.정보보호 강화를 위한 방안이었지만 더 간편하고 쉬운 금융서비스에 익숙해진 사용자는 초기에 불편을 호소하기도 했다. 특히 사용자가 마이데이터 체계에서 정보전송 의미를 명확히 이해할 수 있도록 도입한 '알고하는 동의'는 지금도 절차 간소화에 대한 요구가 끊이지 않고 있다.현재 마이데이터 본허가 사업자는 56개다. 허가 심의를 받고 있는 곳은 예비허가 신청사와 본허가 신청사를 합쳐 총 25곳이다. 올 연말이면 약 100여개 기업이 마이데이터 시장에 진출했거나 진출을 본격 준비할 것으로 예상된다.◇사용자에 마이데이터 경험 알리기 '안간힘'마이데이터 본시행부터 각 사업자는 서비스 안정화에 우선 주력해왔다. 정보전송 연결 기관을 최대화해 사용자가 단일 플랫폼에서 은행·카드·증권·보험·저축은행·핀테크 등에 흩어진 금융자산을 한눈에 정확하게 확인할 수 있도록 구현하는데 집중했다. 금융자산을 넘어 부동산과 자동차, 더 나아가 디지털자산까지 확인할 수 있도록 차별화하고 있다.4차산업혁명위원회가 마이데이터 본시행 직후인 지난 1월 19일 공개한 마이데이터 대국민 인식조사에서 국민 약 75%는 마이데이터에 대해 '알고 있거나'(잘 알고 있다 3.7%, 알고 있다 35%) '최소한 들어본 적은 있다'(35.0%)고 응답했다. IT 친숙도가 높을수록(77.3%), 스마트폰 활용에 적극적인 사람일수록(76.5%) 마이데이터를 알거나, 잘 알고 있다고 응답한 비율이 높았다. 반면 마이데이터에 대해 '전혀 모른다'는 응답도 25.8%에 달했다.금융위원회에 따르면 출범 약 두 달 만에(2월 21일 기준) 39개 마이데이터 서비스가 출시됐고 누적 125억건 이상 데이터 API가 전송됐다. 누적 가입자는 1840만명(중복집계)으로 나타났다.오픈뱅킹과 비교해 상당히 빠른 속도로 마이데이터가 대국민 서비스로 안착한 것으로 볼 수 있는 지표다. 오픈뱅킹은 출범 2년간 누적 API 전송량이 83억3000만건이었다.시행 100일 동안 마이데이터 사업자 중 가장 두각을 나타낸 곳은 토스(비바리퍼블리카)다. 기존 서비스를 마이데이터 체계로 전환하면서 가장 많은 사용자와 월간활성사용자수(MAU)를 기록한 것으로 추정된다. 금융권에서는 KB국민은행의 KB마이데이터가 상대적으로 좋은 성적을 보인 것으로 추산됐다.은행·카드·증권·핀테크 등 다양한 업권에 걸친 사업자들은 자사 마이데이터 서비스 사용자 확대 방안을 고심하고 있다. 마이데이터 기반으로 초개인화 서비스를 설계·제공하려면 충분한 사용자 데이터를 우선 확보해야 하기 때문이다. 사용자 입장에서 마이데이터가 어떤 혜택을 주는지 제대로 경험할 수 있으려면 풍부한 데이터 기반과 높은 분석 능력이 반드시 필요하다는 것이 업계 중론이다.은행권 한 관계자는 “마이데이터 서비스를 유료화해서 수익을 내는 것이 아니라 마이데이터로 확보한 고객 데이터를 잘 분석해 만족스러운 초개인화 서비스를 구현하고 여기서 파생되는 수익을 기대하는 것이 맞다”며 “빅데이터, 머신러닝, 인공지능(AI) 등 신기술 역량을 스스로 갖추고 얼마나 고도화하느냐가 마이데이터 차별화 핵심 포인트”라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.04.11.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>카카오뱅크, 자체신용 중금리대출 ‘홀로서기’</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001975802?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>인뱅 CSS 투자 성과 가시화11일부터 사잇돌대출 중단데이터 협력 CSS 정확도 향상1분기 중저신용대출 11.6배 ↑케이뱅크·토스뱅크도 취급액 ↑인뱅 대출 전년말 대비 2.7억 ↑인터넷전문은행의 신용평가시스템(CSS) 투자 성과가 본격적으로 나타나고 있다. 인터넷은행들은 업력이 짧아 그간 신파일러(금융이력부족자·Thin filer) 리스크를 판단할 수 있는 충분한 데이터를 확보하지 못했으나, 꾸준한 인력·기술 확보와 업무제휴 등을 통해 해결책을 찾은 모양새다.11일 카카오뱅크는 SGI서울보증의 보증에 기반한 ‘직장인 사잇돌 대출’의 신규 신청을 중단하고 카카오뱅크 자체 신용에 기반한 중신용대출 상품만으로 운영한다고 밝혔다.지난해 6월부터 적용 중인 카카오뱅크의 새로운 CSS가 고도화됨에 따라 중저신용자 대출에서 ‘홀로서기’를 선언한 것이다. 카카오뱅크는 CSS 정확도를 높이기 위해 카카오 공동체와 데이터 협력을 진행해왔고, 교보그룹과도 업무협약을 맺은 바 있다. 이에 따라 카카오뱅크의 올해 1분기 중저신용 고객 대출은 6253억원 규모로 전년 동기(538억원)보다 11.6배 늘었다.카카오뱅크 뿐만 아니라 다른 인터넷은행들도 CSS 투자 성과가 나타나고 있다.케이뱅크는 올 2월 ‘맞춤형 CSS’를 선보였다. 중저신용과 신파일러 등 고객군별 특성을 반영해 특화 신용평가 모형을 만들어냈다. 통신/쇼핑 정보도 활용했다. 스마트폰 요금제, 할부금, 요금 납부이력 등 통신 서비스 이용 관련 데이터와 백화점 및 마트에서 패션, 여가활동, 외식, 생활용품 등에 대한 구매 및 이용 경향이 신용평가 대안정보로 사용된다. 이와 함께 인공지능(AI) 머신러닝 기법을 적용해 CSS 모형이 보다 정교한 신용평가를 수행할 수 있도록 했다.케이뱅크는 이번 맞춤형 CSS 도입으로 중저신용 고객군 대출 승인율은 기존 모형 대비 약 18.3%, 신파일러 고객군은 승인율이 약 31.5% 상승한다고 설명했다.토스뱅크 역시 자체 개발한 신용평가모형(TSS)에 소상공인에 특화된 심사기준을 반영해 인터넷은행에서는 처음으로 개인사업자 대출을 내놨다. 모회사 플랫폼인 토스 내 축적된 데이터로 신용평가 정확성을 높인 게 특징이다. 토스뱅크 ‘사장님대출’은 출시 한달 만에 취급액 2000억원을 돌파했다.인터넷은행들이 상대적으로 취약했던 CSS 부문에서 자리를 잡아가면서 대출 증가세 측면에서 시중은행과 상반된 결과를 보이고 있다.올해 인터넷은행 3개사의 대출은 월평균 약 9000억원 증가했지만 5대 시중은행(KB국민·신한·우리·하나·NH농협)의 가계대출은 월평균 2조원 가량 줄어든 것으로 나타났다. 3월 말 기준 인터넷은행들의 가계대출 잔액 합계는 36조1439억원으로 지난해 말 잔액보다 2조 6610억원(7.9%) 불어났다. 반면 5대 시중은행은 5조8592억원(-0.8%)이 쪼그라들었다.여기에 최근 인터넷은행이 비중을 높이는 데 애를 먹고 있던 중저신용자 기준이 완화되면서, 인터넷은행들의 대출 성장세는 당분간 이어질 전망이다. 코리아크레딧뷰로(KCB)와 나이스평가정보 등 신용평가(CB)사들은 이달부터 개인신용평점 하위 50%로 중저신용자 기준을 상향했다. 대상자가 늘어나면 중저신용자를 대상으로 한 영업은 한결 수월해진다.앞서 인터넷은행들은 당국에 약속한 중저신용자 대출 비중을 맞추기 위해 지난해부터 이자를 지원하는 등 막대한 마케팅 비용을 지출해왔다. 카카오뱅크는 지난해 11월부터 고신용자 신규 신용대출을 중단하는 등 특단의 조치를 이어가고 있다. 박자연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.04.11.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>[분석] 인터넷전문은행 '삼국시대'…토스뱅크 상승세 "무섭네"</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000665404?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>여·수신 빠르게 성장…출범 6개월 만에 케이뱅크 앞질러토스뱅크가 여신과 수신이 빠른 속도로 늘면서 인터넷전문은행 간 순위를 뒤흔들고있다. 영업재개 3개월 만에 여수신 잔액이 가파르게 늘어나며 케이뱅크를 제치고 카카오뱅크를 추격하는 모습이다. 다만 전문가들은 외형 성장만으로는 순위변동을 일으키는 데 한계가 있는 만큼 차별화된 경쟁력과 자산건전성을 확보해야 한다고 당부했다.◆ 토스뱅크 수신규모 17조원…케이뱅크 역전카카오뱅크, 토스뱅크. 케이뱅크 로고. [사진=박은경기자]11일 토스뱅크에 따르면 토스뱅크의 지난해 말 기준 수신잔액은 13조7천900억원으로 집계됐다. 지난달 18일에는 17조원까지 확대됐다. 3개월 만에 3조2천100억원을 모은 것이다.지난해 말 카카오뱅크와 케이뱅크의 수신잔액은 각각 33조414억원, 11조5천400억원을 기록했다. 토스뱅크가 출범 6개월 만에 케이뱅크를 앞지르고 카카오뱅크를 절반 가까이 추격했다.여신잔액도 가파르게 늘고 있다. 지난달 18일 기준 토스뱅크의 여신잔액은 2조5천억원으로 전년말 5천315억원 대비 크게 성장했다. 영업재개 후 3개월 만에 2조원 가까이 늘린 것이다.이는 케이뱅크의 연평균 여신 성장규모를 앞지르는 수준이다. 케이뱅크의 3월말 여신규모는 7조8천100억원으로 연평균 1조5천600억원씩 성장했다. 3개월 만에 케이뱅크의 연평균 여신 성장규모를 따라잡았다,카카오뱅크의 여신 성장규모도 둔화된 모습이다. 카카오뱅크의 지난달 말 여신 규모는 25조9천651억원으로, 작년 말 25조8천614억원 대비 약 1천억원 정도 늘었다. 카카오뱅크가 1천억원을 늘리는 동안 20배에 가까운 여신을 늘린 셈이다.이는 연 2%(세전) 금리 제공 통장, 무보증·무담보 개인사업자대출, 일복리 이자 지급 등 다른 인터넷은행과 시중은행에서 볼 수 없는 상품 및 서비스를 선보인 덕분이다. 신용대출 금리도 토스뱅크가 최저 연 3.37%로 은행권에서 가장 낮다.이를 기반으로 이용자 수도 빠르게 늘고 있다. 지난달 21일 기준 토스뱅크의 가입자 수는 235만 2천202명으로 집계됐다. 지난해 10월 첫 영업을 시작해 167일 만에 고객을 235만 명 넘게 확보한 것이다.케이뱅크의 경우 출범 5년만인 지난달 말 750만명을 넘기며 1년에 약 150만명씩 고객을 확보했고, 카카오뱅크는 1천799만명으로 1년간 약 359만8천명을 확보했다. 출범 6개월 만에 케이뱅크의 고객증가 속도를 앞지르고 카카오뱅크의 증가속도를 65% 따라잡았다.출범 첫 해 손실규모도 인터넷전문은행 중 가장 적은수준이다. 지난해 10월 출범한 토스뱅크의 순손실 규모는 806억원으로 출범 첫 해 카카오뱅크 1천45억 손실, 케이뱅크 838억 손실 대비 낮다.중·저신용대출 취급액도 앞섰다. 지난해 말 토스뱅크의 중저신용 대출 비중은 23.9%를 기록했다. 같은 기간 카카오뱅크는 17.0%, 케이뱅크는 16.6%를 기록했다.◆ 심화된 경쟁…건전성관리·차별화가 '관건'전문가는 토스뱅크의 등장으로 경쟁이 치열해진 만큼 순위경쟁은 지속될 것으로 예상됐다.전배승 이베스트투자증권 애널리스트는 "토스앱의 월간활성이용자수(MAU)가 이미 1천300만명에 달해 기존 대형은행지주 수준을 상회하는 만큼 인터넷전문은행간 지속적인 경쟁구도 변화가 일어날 것"이라고 말했다.하지만 외형 성장만으로는 순위변동을 일으키기엔 한계가 있단 지적도 따른다.구경회 SK증권 애널리스트는 "만약 올해 토스뱅크 자산이 10조원 늘고 카카오뱅크가 5조원에 그친다 해도 누적된 자산규모가 차이가 나기 때문에 외형성장만으로 따라잡는 데는 한계가 있을 것"이라고 우려했다.토스뱅크의 향후 성공여부는 차별화된 경쟁력확보와 자산건전성에 달렸다.은경완 메리츠증권 애널리스트는 "토스뱅크는 초기 흥행 기대감과 함께 각종 우려도 공존한다"면서 "자본력, 손익구조, 대출규제 적용 가능성 등 현재의 여·수신 정책은 지속 가능성이 높지 않은 만큼 차별화된 경쟁력 확보 여부를 지켜볼 필요가 있다"고 말했다.박선지 나이스신용평가 연구원은 "토스뱅크는 출범효과를 극대화하기 위해 공격적인 영업을 수행할 가능성이 높다"면서 "이 때문에 경쟁이 심화될 것으로 예상되는 만큼 수익성 및 자산건전성 하락 가능성을 염두하고 살펴봐야한다"고 당부했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.04.12.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>결별 1년 반만에…카카오페이-토스 재결합</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004041317?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>18일부터 페이먼츠 가맹점서 카카오페이 가능간편결제 시장 경쟁 격화···가맹점 확보 사활페이먼츠, 상반기 중 네이버페이와도 제휴(위쪽부터)카카오페이 CI, 토스페이먼츠 CI. 사진 제공=각 사[서울경제] 카카오페이와 토스페이먼츠가 1년 반 만에 다시 뭉쳤다. 간편결제사업자 간 경쟁이 심화되는 가운데 카카오페이가 적극적인 가맹점 확대를 통한 결제액 규모 키우기에 나선 것으로 풀이된다.12일 업계에 따르면 카카오페이는 이달 18일부터 토스의 전자금융 결제대행(PG) 자회사인 토스페이먼츠와의 사업 제휴를 재개하기로 했다. 당장 다음 주부터 토스페이먼츠 가맹점에서 결제를 할 때 카카오페이도 결제 수단 중 하나로 이용할 수 있게 된다. 이번 계약을 통해 카카오페이는 토스페이먼츠의 네트워크와 현재 9만 개 이상의 가맹점을 얻게 된다. 카카오페이 관계자는 “가맹점 확대를 위해 다양한 PG사들과 제휴를 맺고 있으며 토스페이먼츠와의 제휴도 그 일환”이라고 설명했다.PG 업계 시장점유율 2위인 토스페이먼츠와 간편결제 시장 강자 카카오페이의 만남은 이번이 처음이 아니다. 앞서 두 회사는 2020년 8월 토스가 LG유플러스의 PG사업부를 인수해 토스페이먼츠를 설립·출범한 후 제휴 계약을 맺었다. 하지만 그해 10월 말 카카오페이가 토스페이먼츠에 계약 연장 의사가 없다고 통지하면서 제휴는 3개월 만에 종료됐다.업계에서는 당시 계약 종료가 송금업에서 결제업으로 사업 확대에 나선 토스를 견제하기 위한 것으로 분석했다. 토스페이먼츠로서는 네이버페이와 함께 온라인 간편결제 시장을 양분하는 카카오페이를 잃을 경우 타격이 불가피하기 때문이다. 자체적으로 가맹점을 빠르게 늘려갔던 카카오페이 역시 굳이 PG사와 제휴할 필요성을 느끼지 못하기도 했다.하지만 최근 간편결제 시장에서 기업 간 경쟁이 치열해지면서 상황이 변했다. 지난해 4분기 기준 네이버페이 결제액은 10조 9000억 원으로 전년 동기 대비 36% 늘었다. 카카오페이 역시 거래액이 32% 증가한 26조 3000억 원을 기록했지만 이 중 결제액 규모는 아직 네이버페이에 못 미치는 것으로 알려졌다. 아울러 오프라인 영역은 삼성페이가 80% 이상의 압도적인 점유율을 차지하고 있다. 이 가운데 지난달 카카오페이와 네이버페이 운영사인 네이버파이낸셜 대표가 바뀌면서 긴장감은 더해졌다. PG 업계의 한 관계자는 “카카오페이 입장에서는 토스페이먼츠와의 제휴를 통해 기존에 간편결제사와 직접 계약을 맺지 않았던 소규모 가맹점 등에서도 결제 규모를 끌어올리는 효과를 볼 수 있을 것”이라고 내다봤다. 한편 토스페이먼츠는 카카오페이에 이어 상반기 중 네이버페이 지원도 마무리할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.04.11.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>"봉쇄한 건 중국인데…" 왜 세계 경제까지 답답한 거야</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004731489?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>[편집자주] 중국 경제 수도 상하이시 코로나19 감염자 수가 줄어들 기미를 보이지 않는다. 집단 봉쇄가 풀릴 시기도 기약할 수 없다. 생필품난은 심화되고 주민들의 불안과 불만은 고조되고 있다. 중국을 넘어 세계 경제에 미치는 부정적 영향은 점차 커지고 있다.[[MT리포트]벼랑끝 中 '제로 코로나'③]9일(현지시간) 코로나19 전면 봉쇄령이 내려진 중국 상하이의 텅 빈 거리에 방역요원들이 자전거를 타고 있다. / AFP=뉴스1 중국의 코로나19 방역정책에 세계 경제도 흔들릴 위기에 놓였다. 시진핑 정부의 '제로 코로나' 정책에 주요 도시의 경제활동이 멈추면서 중국 경제성장 둔화에 대한 우려가 커졌고, 이것이 세계 경제위기로 이어질 거란 전망이 지배적이다. 중국 당국이 지난달부터 코로나19 재확산세에 경제수도인 상하이까지 봉쇄하는 고강도 방역규제에 돌입하면서 중국 경기는 급속히 둔화했다. '세계의 공장', '세계 경제 2위국'인 중국의 경제 위기는 세계의 문제이기도 하다. 세계은행(WB)은 최근 중국의 경기둔화 등을 이유로 올해 동아시아 경제성장률 전망치를 기존 5.4%에서 5.0%로 하향 조정했다. WB는 "중국의 '제로 코로나' 정책은 중국뿐 아니라 다른 지역 경제에도 부정적인 영향을 준다"며 "중국이 경기 부양에 실패하면 동아시아의 경제성장률이 4%대로 떨어질 수도 있다"고 경고했다. 11일 외신 보도를 종합해보면 전문가들은 중국의 '제로 코로나' 정책이 팬데믹(세계적 대유행)과 우크라이나 전쟁으로 이미 고조된 공급망 불확실성을 악화시킬 것이라며 세계 경기 둔화를 경고한다. 중국의 봉쇄 조치로 테슬라 등 주요 기업의 현지 공장 운영이 중단돼 목표생산량 조절이 불가피한 가운데 트럭 운행, 항만 가동 등에도 차질이 생겨 공급망 상황이 더욱 어려워질 거란 의미다. 애플의 최대 협력업체인 대만 폭스콘은 지난달 초 선전의 봉쇄정책으로 현지 아이폰 공장 가동을 일시 중단했었는데, 이 여파로 올해 매출이 최대 3% 감소할 것으로 예측한 바 있다. 지난달 28일부터 이날까지 15일째 봉쇄 중인 상하이는 세계 최대 컨테이너 항구를 보유한 곳이자 세계 항공물류 중심지 중 한 곳이다. 지난해 상하이항에서 처리된 컨테이너 물동량만 4700만TEU(1TEU=20피트 컨테이너) 이상으로, 12년 연속 세계 1위 자리에 올랐다. 항공 분야에서는 푸둥국제공항이 지난해 324만톤(t)의 국제화물을 처리해 세계 항공화물 물동량 3위를 기록했다. 세계 경제에 중요한 장소들이다. 중국 당국은 앞서 상하이의 단계적 봉쇄에도 해운, 항공 등의 운영을 이어가겠다고 했지만 현실은 다르다. 항구, 공항으로 연계되는 육상운송과 주변 창고 폐쇄로 물류작업이 원활하게 이뤄지지 않았다. 또 운송을 담당하는 사람들에게 음성 확인서를 요구하는 등 여러 장애물이 생겨 항공기, 선박이 오래 묶이게 됐다. /사진=블룸버그세계 해운 데이터 제공업체인 배슬스벨류에 따르면 상하이 봉쇄 시작 다음 날인 지난달 29일 기준 상하이 주요 항구에서 대기 중인 선박의 수는 2주 반 전보다 5배가량 는 300척 이상으로 급증했다. 이는 상하이 당국이 봉쇄 종료일을 언급하지 않는 사실상 무기한 봉쇄 연장을 발표하기 전 나온 수치로, 현재 대기 선박 수는 이보다 많을 것으로 추산된다.중국발 봉쇄에 따른 물류비용 상승으로 현재 세계 경제의 최대 걸림돌인 인플레이션(물가상승) 압력은 한층 고조될 것으로 보인다. 홍콩 기반 화물 예약서비스 플랫폼인 프레이토스의 즈비 슈라이버 최고경영자(CEO)는 "(도시) 셧다운은 중국에서 수입되는 상품에 추가 인플레이션 압박을 줄 수 있다"며 상하이 도시 봉쇄 이후 상하이로 향하는 모든 항공기 운항이 중단됐고, 상하이-북유럽 간 항공 화물 운임은 봉쇄 전보다 43%가량 급등했다고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.04.14.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>[단독] 靑 내달 10일 전면 개방... 카톡·네이버로 방문 예약하세요</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003685137?sid=100</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>인수위, 예약 시스템 구축 나서청와대 전경/뉴스1										윤석열 대통령 당선인이 다음 달 10일 임기 시작과 함께 청와대를 전면 개방하겠다고 약속한 가운데, 대통령직인수위원회가 카카오·네이버 등을 통한 방문자 예약 시스템 구축에 착수한 것으로 확인됐다.인수위 ‘청와대 이전 태스크포스(TF)’는 최근 카카오·네이버·토스에 청와대 방문자 예약 시스템 구축 관련 협조 요청을 한 것으로 알려졌다. 청와대 개방 초기 관광객들이 대거 몰릴 것으로 예상되는 만큼, 역량 있는 민간 업체들과의 협업으로 개방 절차를 매끄럽게 마무리 짓겠다는 취지다. 이에 따라 이르면 이달 말부터 카카오톡 메신저나 네이버 홈페이지, 토스 애플리케이션(앱) 등에서 청와대 관광을 신청할 수 있을 것으로 보인다.인수위는 청와대 개방 관련, “신분증, 검문·검색, 예약 없이 누구나 자유롭게 드나들며 산책할 수 있는 청와대”를 콘셉트로 잡았다고 한다. 하지만 내부 시설 정비와 물건 정리에 시간이 필요하고, 코로나 우려도 완전히 가시지 않은 만큼 개방 초기에는 예약 신청을 받아 제한된 인원만을 받기로 결정한 것으로 알려졌다. 또 시설 점검과 안전 시설 미비 등을 이유로 야간 개방도 당분간 하지 않기로 했다. 경내에서는 취식도 불가능하다.한편 인수위는 문화재청과 함께 청와대·경복궁 내부와 주변 북악산 둘레길 산책로, 문화재 정보 등을 담은 앱도 개발 중이다. 여민관·춘추관 등 청와대 건물 내부 활용 방안에 대해서는 국민 공모에 나선 상태다. 인수위 관계자는 “박물관이나 공연장으로 활용해달라는 요청이 많다”고 했다. 청와대 개방일에 맞춰 윤 당선인이 참석하는 기념 행사를 여는 방안도 검토되고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.04.11.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>티사이언티픽, 플로토스디에스 지분 60% 241억원에 인수</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005187714?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>[이데일리 김소연 기자] 티사이언티픽(057680)은 가상자산 거래소 사업을 하는 플루토스디에스 주식 10만6218주(60.36%)를 241억4500만원에 인수한다고 11일 공시했다. 취득 금액은 자기자본 대비 10.88%에 해당하며 현금 취득방법으로 취득한다. 회사 측은 취득 목적에 대해 신규 사업 진출이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.04.14.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>[삼성금융 출범] ② 보험·카드·증권·자산운용 '맞손'…금융發 '초격차' 예고</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000666324?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>애플 등 빅테크 기업 금융진출 대응…자산관리 서비스 강화도 전망반도체와 스마트폰, 디스플레이 등에서 등에서 '초격차'를 강조하며 글로벌 시장을 누비는 삼성전자에 이어 이번엔 금융 계열사들이 손잡고 '삼성금융發' 초격차에 나섰다. 삼성생명과 삼성화재, 삼성카드, 삼성증권, 삼성자산운용 등 삼성 금융 5사들은 '삼성파이낸셜네트워크'라는 공동 브랜드를 공개한 데 이어 통합 애플리케이션을 공개했다. 빅테크 기업의 금융 진출 등 산업 융합이 가속화하는 상황에서 금융 계열사 경쟁력을 강화하기 위한 포석이라는 분석 속에 이를 바탕으로 타 업종과의 협업도 확대될 것이라는 관측에 무게가 실린다. 특히 카드를 통해 고객 소비성향을 파악하고 보험과 증권, 자산운용사들의 자산관리 노하우를 접목한 정밀 맞춤 상품 등 출시가 예상되면서 국내 금융 시장 판도도 크게 출렁일 것으로 전망된다.삼성 금융사 공동 브랜드 BI. [사진=삼성생명]◆ 산업 융합 확대에 금융 경쟁력 제고…"계열사간 시너지 강화 시동"삼성금융네트웍스(삼성생명·화재·카드·증권)가 14일 금융 통합 앱 '모니모(monimo)'를 출시하고 본격적인 서비스 제공에 나섰다. 모니모는 하나의 계정으로 삼성금융 4사의 거래현황을 한번에 조회할 수 있는 '원앱(OneApp)' 서비스로, 각 사의 대표 금융상품들을 손쉽게 접할 수 있다.앞서 자산운용을 포함한 삼성그룹의 금융 5개사들은 지난 12일 공동 브랜드(BI)인 '삼성금융네트웍스(Samsung Fiancial Networks)'를 론칭했다. 새 브랜드는 '삼성' 표기 아래 금융 협업을 의미하는 '금융 네트웍스'를 함께 표기해 계열사 간의 협업을 강화하겠다는 의지를 담았다는 것이 삼성금융 측 설명이다.이러한 협업 강화는 빅테크 기업의 금융진출 등 산업 융합이 가속화되는 가운데, 경쟁력을 확보하기 위한 조치로 분석된다.실제 삼성그룹 금융 계열사 최고경영자(CEO)들은 모두 빅테크와의 경쟁을 화두로 내세우고, 디지털경쟁력 강화를 올해 목표로 제시했다.전영묵 삼성생명 사장은 올해 신년사에서 "보험산업 근간인 인구가 감소하기 시작했고, 빅테크까지 경쟁에 가세해 치열한 힘겨루기가 전개될 것"이라며 "올해는 새로운 상품과 혁신적인 서비스로 고객가치를 창출하는 과감한 도전을 시작하겠다"고 밝혔다.여기에 IT기업인 애플은 간편결제 시스템인 애플페이, 신용카드 서비스인 애플카드 등 금융 서비스를 외부 금융 파트너사와 협력해 제공해 왔다. 향후에는 이를 독자적으로 진행하기 위해 자체 결제처리 기술과 인프라를 개발하는 점도 삼성 금융이 손을 맞잡은 배경으로 풀이된다.국내에서도 최근 카카오 계열사 카카오페이가 금융위원회로부터 '카카오손해보험' 본인가를 획득했다. 소액 미니보험 등 디지털보험 시장에 우선 집중한 뒤 자동차보험과 장기보험으로도 시장을 넓힌다는 계획이다. 네이버 역시 '네이버페이' 등 간편결제 서비스를 제공하고 보험업 진출을 추진 중에 있으며 토스는 인터넷전문은행과 증권을 론칭했다.금융데이터 분석업체 딥서치의 이성규 팀장은 "애플의 경우 은행업 진출까지 고려하고 있으며, 카카오는 IT기업임에도 불구하고 인터넷전문은행과 보험, 증권까지 금융업권 진출을 확대하고 있다"면서 "삼성그룹 역시 이에 대응해 금융업권의 경쟁력을 강화해 나가기 위한 조치를 취한 것"이라고 설명했다.삼성금융 관계자 역시 "삼성 금융 통합플랫폼 '모니모' 중심으로 향후 삼성 금융 계열사간 시너지 강화에도 본격적으로 나설 것"이라며 "업의 경계가 모호해지고, 생존을 위한 경쟁과 협력이 일상화되는 상황에서, 미래를 고민해 온 삼성도 이번 금융사간 협업이 새로운 도약의 발판이 될 것"이라고 말했다.◆ 고령화 시대 자산관리 강화로 승부수…'과잉해석' 시각도 제기금융업계에서는 삼성금융 계열사들이 고객 데이터를 활용해 맞춤형 서비스를 제공할 것에 무게를 두고 있다. 카드 결제 정보를 통해 고객 소비성향을 파악하고 보험과 증권, 자산운용사들의 자산관리 노하우를 접목한 초개인화된 맞춤 상품을 기획할 수 있다는 설명이다.특히 생명보험의 장기상품과 더불어 증권사의 투자상품과 개인퇴직연금(IRP) 등을 종합 제공하면서 개인 자산관리 시장에서의 영업력을 강화할 수 있다는 관측도 나온다.삼성증권의 경우 다른 증권사가 브로커리지(주식 위탁매매)에 치중하던 2000년대 초반부터 자산관리자산관리(WM) 부문에 집중하는 전략을 추진해 왔으며, 지난해 기준 예탁자산이 200조원에 육박하는 등 '자산관리의 명가'로 자리잡고 있다.생보업계 한 관계자는 "고령화 사회로 접어들면서 노후대비에 대한 중요성이 커지고 있기 때문에 생보사 장기보험을 통해 각종 위험을 보장하고 투자활동으로 자산을 불리는 서비스를 구축할 수 있을 것"이라며 "카드사에서 수집한 데이터를 기반으로 소비 성향도 분석해 접목하면 개인에 집중된 초개인화 서비스도 제공할 수 있다"고 분석했다.삼성그룹의 브랜드 가치를 등에 업은데다, 삼성전자의 '삼성페이' 지원 등 비금융 계열사와의 협업도 기대할 수 있기 때문이다.한 금융지주 관계자는 "금산분리법으로 인해 은행사업을 하지 못하는 점이 단점이지만, 은행을 제외한 비은행 계열사들의 경우에는 파급력이 상당할 것"이라며 "론칭과 동시에 대형 금융지주사에 육박하는 고객을 확보하고 시작하는데다 삼성전자의 '삼성페이' 같은 독자적인 결제 시스템을 제공할 수 있는 등 확장성도 클 것으로 예상한다"고 말했다.다만, 자산관리 경쟁력 강화가 과잉 해석이라는 시각도 일부 존재한다.정태준 유안타증권 연구원은 "원래 계열사간 협업이 없었는데 생겨난 것이 아니라 과거에도 협업사례가 있어왔다"면서 "현재까지는 토스처럼 한 앱에서 다양한 서비스를 제공한다는 취지 정도로 보인다"며 지나친 해석은 경계했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.04.09.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>갱년기…남녀 차이점, 좋은 식품도 달라</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/296/0000055328?sid=103</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>[사진=게티이미지뱅크]갱년기는 인체가 성숙기에서 노년기로 접어드는 시기를 말한다. 대개 40대 후반부터 50대까지 신체기능이 저하되는데, 여성의 경우 생식기능이 없어지고 월경이 정지되며, 남성의 경우 성기능이 감퇴되는 현상이 나타난다.  여성은 45~55세(평균 50세)가 되면 생식기관인 난소가 노화해 여성호르몬 분비량이 급격히 감소하게 되고, 남성은 30대 후반부터 서서히 남성호르몬이 줄어든다. 여성은 여성호르몬인 에스트로겐과 프로게스테론이, 남성은 남성호르몬인 테스토스테론의 분비가 저하되면서 여러 가지 증상을 나타난다.  성호르몬의 감소를 일으키는 생식기의 퇴화는 노화뿐 아니라 불규칙한 생활습관, 흡연, 스트레스, 고혈압과 당뇨와 같은 질환들이 있는 경우, 여러 약물 등으로도 악화될 수 있다.  전문가들은 "갱년기 증상들은 대부분 생리적인 현상으로 대개는 좋아지므로 두려워할 필요는 없다"며 "골다공증이나 생식기 증상처럼 지속되는 문제들에 대해서는 잘 관리하고 치료받는다면 건강한 노년을 보낼 수 있다"고 말한다. 이와 관련해 '웹 엠디' 등의 자료를 토대로 갱년기의 남녀 차이점과 남녀 별 증상 완화에 좋은 식품에 대해 알아본다.  ◇남녀 차이점  갱년기를 맞았을 때 남녀 간의 차이점은 무엇일까. 여성 갱년기는 호르몬 수치가 급격하게 떨어지는 반면, 남성 갱년기는 수치가 서서히 줄어든다는 점에서 차이가 생긴다.  여성은 45세~55세가 되면 생식기관인 난소 기능이 저하되면서 여성호르몬 분비량이 급격하게 감소하게 돼 발생한다. 여성의 갱년기 증상으로는 신체적 변화가 있다. 월경주기와 기간, 양이 불규칙하다가 1년 이상 월경을 하지 않게 되면서 폐경이 된다.  이와 함께 혈관 운동 조절의 변화로 얼굴과 상체가 화끈거리는 느낌이 자주 발생하고, 식은땀이 많고, 가슴이 두근거리기도 한다. 이로 인해 수면장애도 나타난다. 뼈의 보호 작용을 하는 여성호르몬의 분비 변화로 뼈의 밀도가 낮아져 골다공증의 발생 위험이 높아진다.  뼈와 근육의 통증도 발생하게 된다. 비뇨생식기 위축으로 인해 성욕 감퇴와 성교 시 불편감이 발생할 수도 있다. 심리적 변화도 일어난다. 여성호르몬 분비 변화로 인해 자율신경의 균형이 깨지면서 극심한 기분 변화를 느끼게 된다.  불안하고 우울한 감정이 밀려오기도 하고, 신경이 예민해져 신경질적으로 변하기도 하며 건망증과 자신감을 상실하기도 한다. 그러나 폐경만으로 이러한 증상이 나타나는 것이 아니라 평소의 감정과 정서 상태에 따라 사람마다 다양하게 나타나며, 이러한 심리적인 변화가 없는 사람도 있다.  남성 갱년기는 남성 호르몬인 테스토스테론의 수치가 점진적으로 떨어진다는 의미다. 남성 호르몬인 테스토스토론은 30대부터 감소하기 시작해 갱년기 증상의 원인이 된다. 반면에 남성 호르몬의 역할을 저하시키는 성 호르몬 결합 글로불린은 매년 1.2%씩 증가한다.  30대 남성은 평균적으로 매년 1%씩 테스토스테론 수치가 떨어지며 60대까지 급격한 변화 없이 꾸준히 떨어진다. 그러다가 80대에 이르면 어느새 상당히 낮은 수치에 도달해 있게 된다. 남성의 갱년기 증상은 여성과 비슷한 점이 있다.  테스토스테론이 감소하면 피로감을 쉽게 느끼고 기억력 저하, 우울감이 자주 나타난다. 근력이 떨어져 하체의 힘이 예전 같지 않고, 체지방이 증가해 뱃살이 나온다. 성 기능도 저하돼 발기부전, 성욕 감소로 부부생활이 원만하지 않게 된다.  하지만 테스토스테론 수치는 혈액 검사만으로도 간단하게 판별할 수 있으며 수치가 낮다는 사실이 판명되면 남성 갱년기 치료를 받을 수도 있다. 물론 그에 앞서 낮은 테스토스테론 수치가 다른 질병에서 기인한 것은 아닌지 확인해볼 필요가 있다.  특별한 질환이 없다는 사실이 드러났을 때 테스토스테론 보충 요법을 받을 수 있다. 이 치료법은 남성 갱년기 증상을 완화하는 방법이다. 단, 테스토스테론 보충요법이 전립선암과 연관성이 있다는 연구 결과가 있으므로 전문의와 충분히 상담한 뒤 치료를 받아야 한다.  ◇갱년기 남성에게 좋은 식품  남성의 갱년기 증상 완화에는 운동과 테스토스테론 분비를 촉진하는 음식 섭취를 병행하는 게 좋다. 우선 1주일에 3회 이상 걷기나 조깅 등의 유산소와 근력 운동을 해야 한다.  이와 함께 테스토스테론 분비를 저해하는 카페인과 알코올의 섭취를 줄이는 대신, 분비를 촉진하는 음식을 먹는 게 좋다. 테스토스테론 분비를 돕는 식품에는 다음과 같은 것들이 있다.  △마늘  마늘을 비롯해 양파, 견과류에는 셀레늄이라는 성분이 많이 들어 있다. 연구 결과, 혈중 테스토스테론과 셀레늄의 농도가 비례하며 임신이 어려운 남성에서 셀레늄과 테스토스테론이 부족한 것으로 나타났다.  △달걀  테스토스테론의 원료는 콜레스테롤이다. 하루 한 개 정도의 달걀을 먹는 등 콜레스테롤을 적당히 섭취하면 테스토스테론 분비 촉진에 도움이 되는 것으로 나타났다.  △연어  연어를 비롯해 고등어, 참치 그리고 우유에는 비타민D가 들어 있다. 비타민D의 혈중 수준이 높을수록 테스토스테론 수치가 크게 높다는 연구 결과가 있다.  △홍삼  쥐를 대상으로 한 연구 결과, 홍삼을 매일 복용했을 때 혈중 테스토스테론 수치는 증가하고 정자의 운동성과 정자 수도 늘어나는 것으로 나타났다. 홍삼에는 고환에 작용해 이런 효과를 내는 성분이 있는 것으로 조사됐다.  △굴  아연은 테스토스테론 분비를 촉진하는 성분이다. 이런 아연이 많이 든 식품으로는 굴이 대표적이고 이외에 게, 새우 등의 해산물과 콩, 깨, 호박씨가 꼽힌다.  ◇갱년기 여성에 좋은 식품  여성 역시 꾸준한 운동과 적절한 체중 유지, 균형 잡힌 식사가 갱년기 증상을 완화하는데 도움이 된다. 이와 함께 금주, 금연, 충분한 수면 등 건강한 생활습관을 유지하고 솔직한 감정과 우울감에 대해 가족이나 주변 사람과 대화하며 풀기, 폐경과 갱년기는 누구나 경험하는 인생의 과정으로 자연스럽게 받아들이는 태도 등이 갱년기 증상을 줄인다. 갱년기 여성에게 특히 좋은 식품에는 다음과 같은 것들이 있다.  △석류  석류에는 타닌이란 성분이 있는데 이는 고혈압이나 동맥경화 개선에 도움이 되는 물질이다. 갱년기 장애 여성의 경우 폐경기를 겪으며 동맥 경화가 심해지는 경우가 곧잘 일어나기 때문에 석류의 꾸준한 섭취가 도움이 된다.  △콩  갱년기 여성 3명 중 1명이 앓는 요실금 증세는 증상의 부끄러움으로 인해 우울증까지 동반하는 경우가 많다. 콩은 이러한 증상 개선에 도움이 된다.  콩류 중에서도 검은콩에 다량 함유돼 있는 이소플라본은 여성 호르몬인 에스트로겐과 유사해 체내 에스트로겐 분비를 유도하는 역할을 해 '식물성 에스트로겐'으로도 불린다. 또 콩은 몸을 따뜻하게 해주는 성질 역시 있어 갱년기 장애의 증상 중 하나인 냉증 개선에도 도움이 된다.  △우유  갱년기 여성들이 곧잘 겪는 증상이 잠을 잘 못 이루는 불면증이다. 이로 인해 갱년기 여성들 중 상당수가 수면 전 술을 마시는 경우가 많은데, 결코 바람직한 방법은 아니다.  기분을 조절하는 물질로 이 세로토닌이 있다. 이것이 부족 할 때 불안증, 불면증, 우울증 등을 유발할 수 있다. 우유에는 필수아미노산인 트립토판 성분이 함유돼 있다. 트립토판은 뇌혈관 장벽을 통과해 뇌신경세포에 들어가 세로토닌 신경전달물질을 만드는 원료로 사용된다.  따라서 우유를 통한 트립토판 성분 섭취는 갱년기 장애 증상 중 불면증과 우울증, 불안감 개선에 도움이 된다. 트립토판은 우유를 비롯해 귀리, 치즈, 요구르트, 달걀, 생선, 견과류 등에 함유돼 있다.  △자두  자두에는 항산화 플라보노이드의 일종인 안토시아닌이 풍부하게 들어있다. 안토시아닌은 만성질환을 예방하는 데 도움이 된다.  자두는 폐경기 여성의 뼈 미네랄 밀도를 향상시키고 남녀 모두에게서 체중 감소에 도움을 준다는 연구 결과도 있다. 또 자두에는 붕소 성분이 들어있어 여성 호르몬을 촉진시키는 작용을 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.04.05.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>토스뱅크, 금리인하요구권 신청자 5명 중 1명은 혜택</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004682117?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>사진=연합뉴스인터넷은행 토스뱅크에 금리인하요구권을 행사한 소비자 5명 중 1명 이상의 신용점수가 높아지거나 금리가 인하되는 등 혜택을 받은 것으로 나타났다. 토스뱅크가 금리인하요구권 알림서비스를 실시한 결과다. 요구권을 행사한 소비자도 40% 가까이 증가했다.토스뱅크는 작년 10월5일부터 지난달 31일까지 금리인하요구권 행사건수가 총 2만4910건으로 집계됐다고 밝혔다. 지난해말까지 6개월간 국민·신한·하나·우리·농협은행이 소비자로부터 받은 평균 금리인하 신청건수(1만7809건)보다 40% 가량 많은 수치다. 토스뱅크는 작년부터 금리인하요구권 알림서비스를 제공하고 있다. 토스앱에서 '금리 낮아질 때 알림받기'에 동의하면 소비자의 신용도가 개선됐을 때 토스뱅크로부터 알림을 받을 수 있다. 금리인하요구권은 취업이나 승진, 이직, 성실상환 등 신용점수가 올라간 사실을 근거로 소비자가 금리를 내려달라고 은행에 요구할 수 있는 권리다. 토스뱅크에서 금리인하를 신청한 소비자 5명 중 1명 이상(22%)이 혜택을 누린 것으로 나타났다. 금리인하요구권 행사로 금리 인하 혜택을 받은 소비자 3명 중 1명은 신규 대출을 받은 지 일주일이 안 된 신규 차주로 조사됐다. 금리인하요구권 행사로 신용점수는 KCB(코리아크레딧뷰로) 기준 최대 379점까지 개선됐다. 다만 토스뱅크에서 대출을 받고 제2금융권 등에서 추가 대출을 받은 경우에는 대부분 금리인하가 거절됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.04.14.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>깔끔한 첫 화면…'젤리' 모아 현금처럼 사용</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004949884?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>삼성 금융앱 '모니모' 출시계좌통합관리·송금·환전에부동산 시세 서비스도 선봬걷기 수행때마다 젤리 제공"생활 필수앱으로 만들 것" "카드사 앱보다 '토스'에 가깝다." 삼성금융네트웍스가 새롭게 선보인 통합 앱 '모니모(monimo)'는 핀테크 앱과 비슷했다. 앱을 켜는 첫 번째 클릭에서 얻을 수 있는 정보도 명료했다. 모니모에서 사용되는 보상인 '젤리'의 현황, 간편 송금 기능, 삼성카드 결제 예정 금액이 표시됐다. 앱에서 화면을 아래로 내리면 주식, 소비생활, 여행 등 원하는 정보를 보여줬다. 바로 필요한 기능과 생활 정보만 깔끔하게 첫 화면에 모았다. 너무 많은 추천 상품, 단숨에 접하기 힘든 필요한 기능 등 기존 금융사 앱이 가진 단점을 과감히 버렸다. 14일 삼성금융네트웍스는 금융 통합 앱 모니모를 본격 출시했다. 삼성 금융사의 공동 브랜드인 삼성금융네트웍스에서 제공하는 첫 번째 서비스다. 통합 앱의 명칭 '모니모'는 '모이는 금융, 커지는 혜택'이라는 의미를 담았다. 다양한 자산과 모니모의 전용 리워드인 젤리가 모인 모습을 형상화한 모니모의 이니셜 'M' 형태의 로고도 공개됐다. 모니모는 기존에 삼성금융에서 제공하지 않았던 계좌 통합 관리, 간편 송금, 신용 관리, 환전 및 부동산·자동차 시세 조회 등 종합 금융 서비스를 제공한다. 오픈뱅킹을 활용해 각종 금융사에 흩어진 고객의 자산도 한눈에 볼 수 있다. 타 금융사 앱과 가장 차별되는 점은 '젤리'와 '모니머니'다. 모니머니는 젤리를 교환해서 얻을 수 있는 현금성 포인트다. 삼성카드 앱카드와 연동해 곧바로 온·오프라인 결제나 송금을 할 수 있다. 즉 모니모 앱에서 걷기, 저축 등 각종 생활 미션을 수행해 젤리를 모으고, 이 젤리를 모니머니로 바꿔 바로 결제가 가능한 셈이다. 단순히 금융계열사의 기능을 모아서 '모니모'를 만들기보다 젤리를 활용한 송금과 생활 정보 위주의 앱 '모니모'에 삼성 금융사의 기능을 더한 설계다. 모니모는 앱 사용자의 흥미를 불러일으키기 위해 '투데이' '걷기 챌린지' 등 다양한 서비스도 제공한다. 고객이 '투데이' 메뉴에서 관심 있는 분야를 선택하면 삼성의 금융 전문가들이 추천하는 다양한 콘텐츠를 이용할 수 있다. '걷기 챌린지'는 삼성헬스 앱 또는 아이폰 건강 앱과 연동해 목표 걸음 수 달성 미션을 제공한다. 전용 금융상품도 제공한다. '혈액형별 보장보험' '1년 만기 저축보험' '모니모 카드' 등이 이에 해당한다. 삼성금융네트웍스는 모니모 출시를 기념해 오는 6월 2일까지 50일간 매일 1명씩 총 50명에게 추첨을 통해 비스포크 냉장고 등 삼성 브랜드 경품을 제공하는 이벤트를 실시한다. 또 이벤트에 응모한 전원에게 '스페셜 젤리' 1개를 제공한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.04.05.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>[연합뉴스 이 시각 헤드라인] - 07:30</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013092488?sid=004</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>■ 김여정 "南향해 총포탄 한발도 안쏠것…같은민족 무력상대아냐"북한 김여정 노동당 중앙위원회 부부장이 5일 이틀 만에 또다시 담화를 내 서욱 국방부 장관의 '사전 발사원점 정밀타격' 발언을 재차 비난하면서도 "남조선을 겨냥해 총포탄 한 발도 쏘지 않을 것"이라고 밝혔다. 김 부부장은 이날 조선중앙통신을 통해 발표한 담화에서 "우리는 남조선을 무력의 상대로 보지 않는다"면서 이같이 말했다. 그는 "이것은 순수 핵보유국과의 군사력 대비로 보는 견해가 아니라, 서로 싸우지 말아야 할 같은 민족이기 때문"이라며 "우리는 전쟁을 반대한다"고 강조했다. 전문보기: https://www.yna.co.kr/view/AKR20220405009751504김여정 북한 노동당 부부장[연합뉴스 자료사진]■ 한미 북핵대표 "北도발에 유엔 안보리 새 결의 포함 강력조치"한미 양국은 북한의 대륙간탄도미사일(ICBM) 시험 발사를 비롯해 계속되는 무력 도발에 대해 새로운 유엔 안전보장이사회 결의 추진을 포함해 강력히 대응한다는 입장을 재확인했다. 성 김 미 국무부 대북특별대표와 노규덕 외교부 한반도평화교섭본부장은 4일(현지시간) 워싱턴DC 국무부 청사에서 만나 북한의 도발을 포함해 역내 외교·안보 현안에 대한 의견을 교환했다. 김 대표는 협의 직후 기자들과 만나 "우리는 최근 ICBM을 포함한 북한의 탄도 미사일 발사에 대한 규탄을 재확인했다"며 "이(탄도미사일 발사)는 복수의 유엔 안보리 결의안 위반"이라고 밝혔다. 이어 "나는 새로운 안보리 결의를 추구하기 위해 노 본부장 및 그의 팀, 유엔의 동료들과 협력하길 고대한다"고 덧붙였다. 전문보기: https://www.yna.co.kr/view/AKR20220405003100071■ '윤석열 정부 첫 최저임금' 심의 오늘 돌입…인상률 등 쟁점윤석열 정부 첫 최저임금에 대한 심의가 5일 시작한다. 최저임금위원회는 이날 서울 중구 프레스센터에서 전원회의를 열고 내년도 최저임금 심의에 돌입한다. 최저임금법은 최저임금위가 고용노동부 장관에게 최저임금 심의를 요청받은 날로부터 90일 이내 안을 의결해 장관에게 제출해야 한다고 규정한다. 최저임금 심의의 제일 관심사는 인상률이다. 현 정부가 출범한 2017년 시간당 최저임금은 6천470원이고 현재 최저임금은 9천160원이다. 최저임금 산입범위가 확대된 점 등을 반영하지 않고 단순하게 계산하면 5년간 41.5%(2천690원) 늘었다. 전문보기: https://www.yna.co.kr/view/AKR20220404150500530■ 올해 5대은행 가계대출 줄었지만 인터넷은행 2조7천억원 늘어올해 들어 5대 주요 시중은행의 가계대출이 월평균 2조원가량 줄었지만 인터넷은행 3개사의 대출은 월평균 9천억원 가까이 증가하는 추세를 보이고 있다. 5일 금융권에 따르면 카카오뱅크, 케이뱅크, 토스뱅크의 3월 말 기준 가계대출 잔액 합계는 36조1천439억원으로 파악됐다. 작년 말 잔액보다 2조6천610억원, 7.9% 증가한 규모다. 전문보기: https://www.yna.co.kr/view/AKR20220404143000002■ 편의점·PC방도 일회용품 사용 규제…환경부 가이드라인 제공카페·식당 등 식품접객업 매장 내 일회용품 사용이 이달 1일부터 다시 금지되면서 현장의 혼란을 막기 위해 환경부에서 가이드라인을 내놨다. 식품접객업 영업 허가를 받았을 경우 편의점이나 PC방 등도 이번 규제를 적용받고, 케첩·머스터드 등과 같이 포장된 상태로 생산된 제품은 그대로 제공할 수 있다. 5일 환경부의 '식품접객업 매장 내 일회용품 사용규제 적용범위' 가이드라인에 따르면 이번 규제가 적용되는 식품접객업 유형은 휴게음식점, 일반음식점, 단란주점·유흥주점, 제과점 등이다.전문보기: https://www.yna.co.kr/view/AKR20220404142600530■ 부산대 '조민 입학취소' 여부, 오늘 교무회의서 결정조국 전 법무부 장관 딸 조민 씨에 대한 부산대 의학전문대학원(의전원) 입학 취소 예비행정처분 결정이 5일 나올 것으로 보인다. 부산대는 이날 오후 교무회의에서 관련 심의가 예정돼 있다고 밝혔다. 이날 교무회의에는 총장을 비롯해 단과대학 학장, 대학본부 보직자 등 32명이 참석한다. 교무회의에서 이견이 없으면 바로 결론이 나올 것으로 알려졌다. 부산대 관계자는 "교무회의 결과를 토대로 입장문을 낼 것"이라고 말했다. 전문보기: https://www.yna.co.kr/view/AKR20220404137700051■ '부정채용 의혹' 은수미 성남시장, 11시간 조사받고 귀가선거캠프 출신 인사를 시 산하기관에 부정 채용한 의혹을 받는 은수미 경기 성남시장이 11시간가량의 경찰 조사를 받고 5일 새벽 귀가했다. 경기남부경찰청 반부패수사계는 전날 오후 2시 은 시장을 피의자 신분으로 소환해 이날 오전 1시까지 조사를 벌였다. 은 시장은 혐의를 대부분 부인한 것으로 알려졌다. 그는 조사를 끝내고 경기남부청을 나서면서 취재진의 질문에 아무런 대답을 하지 않았다. 부정 채용 의혹과 관련해 '윗선'으로 지목돼 온 은 시장이 경찰에 출두한 것은 이번이 처음이다. 은 시장은 2018년 말 선거캠프 전 상황실장 이모 씨와 성남시청 전 인사 담당 과장 전모 씨 등과 공모해 자신의 선거캠프 출신을 서현도서관에 부정 채용하는 데 관여한 혐의를 받고 있다.전문보기: https://www.yna.co.kr/view/AKR20220405002300061■ "암 진단받아도 10명 중 3명 여전히 고위험 음주"암 진단을 받은 경험이 있는 사람 10명 중 3명가량은 암 발생 위험을 높이는 '고위험 음주'를 지속하고 있는 것으로 확인됐다. 연세의대 세브란스병원 가정의학과 연구팀은 국민건강영양조사 제7기 1차연도(2016년), 2차연도(2017년) 자료에 나타난 20세 이상 1만1천388명 중 암으로 진단받은 603명의 설문조사 결과를 분석한 결과 이같이 나타났다고 5일 밝혔다. 분석 대상 603명 중 현재 암으로 투병 중인 사람은 259명(43.5%)이었으며, 치료를 받은 경험이 있는 환자는 209명(34.1%)이었다. 암진단군에서 폭음과 과음의 비율은 27.2%와 5.3%였다. 암 진단을 받은 경험자 10명 중 3명이 폭음을 한다는 의미다.전문보기: https://www.yna.co.kr/view/AKR20220404133500017■ 하남 위례신도시 청량산 불…3시간40분 만에 진화4일 오후 7시 43분께 경기도 하남시 학암동 남한산성 인근 청량산에서 불이 나 3시간 40분 만에 진화됐다. 불은 남한산성 북쪽으로 확산했으나, 신고 접수 3시간 15분 만인 오후 10시 58분께 초진(불길을 통제할 수 있고 연소 확대 우려가 없는 단계)됐고 오후 11시 23분께 완전히 꺼졌다. 소방 당국은 "아파트 뒷산에서 불이 났다"는 신고를 접수하고 경찰과 시청, 산림청 등 유관기관에 상황을 전파한 뒤, 소방 장비 39대와 인력 240여 명을 투입해 산불 확산을 막는 데 주력했다. 전문보기: https://www.yna.co.kr/view/AKR20220404154853061■ [우크라 침공] "러, 우크라 북부지역서 병력 대부분 철수"러시아가 우크라이나 동부지역 전투에 집중하겠다고 밝힌 이래 키이우(키예프)를 비롯한 북부지역의 병력 철수가 사실상 마무리됐다는 보고가 잇따르고 있다. 로이터 통신에 따르면 드미트로 지비스키 수미주(州) 주지사는 4일(현지시간) 국영방송에 러시아 군대가 북부 수미 지역 어떤 곳도 더는 점령하고 있지 않으며 대부분 철수했다고 밝혔다. 키이우 주변 지역 역시 애초 배치된 러시아군 병력의 3분의 2가 떠났다는 게 미국 국방부의 분석이다. 러시아는 우크라이나군의 강력한 저항으로 키이우 일대를 비롯한 주요 지역에서의 진격이 정체 상태를 보이던 지난달 25일 우크라이나 동부 돈바스 지역의 완전한 해방에 주력하겠다며 전략 수정 가능성을 시사했고 이후 북부지역을 중심으로 병력 철수의 징후가 감지됐다. 다만, 이러한 병력 철수가 일시적 후퇴라기보다 전략상의 병력 재배치일 가능성이 높다는 게 서방의 대체적인 관측이다.전문보기: https://www.yna.co.kr/view/AKR20220404156751109■ 바이든 "푸틴, 전범재판 회부해야…더 많이 제재할 것"조 바이든 미국 대통령은 우크라이나 부차 지역에서 러시아군에 처형된 것으로 추정되는 수백 구의 민간인 시신이 발견된 것과 관련해 블라디미르 푸틴 러시아 대통령을 전범 재판에 회부할 것을 촉구했다. 바이든 대통령은 4일(현지시간) 취재진에게 "여러분은 부차에서 무슨 일이 일어났는지 봤다. 이 사람(푸틴)은 잔인하고 부차에서 일어난 일은 너무 충격적이며, 모두가 그것을 봤다"며 이같이 언급했다고 AP통신이 보도했다. 그는 재판을 위해 "모든 구체적인 사항들을 수집해야 한다"고 강조했다. 바이든 대통령은 "그(푸틴) 책임을 져야 한다"면서 "러시아에 대해 더 많은 제재를 가할 것"이라고도 밝혔다. 전문보기: https://www.yna.co.kr/view/AKR20220405000351071</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.04.12.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>삼성 금융 5사 공동브랜드 ‘삼성 파이낸셜 네트워크’ 런칭</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004684862?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>비대면 금융 ‘태풍의 눈’ 되나사진=뉴스1삼성그룹 산하 금융 계열사인 삼성생명·화재·카드·증권·자산운용 등 5개 회사가 공동의 금융브랜드인 ‘삼성파이낸셜네트워크(로고)’를 12일 선보였다. 빅테크(대형 IT기업)와 핀테크 업체의 '금융 공습'이 활발해진 가운데 계열 회사 간에 적극적인 협업을 꾀하려는 행보로 풀이된다. 삼성 금융사들이 오는 14일 통합 모바일 앱인 ‘모니모’ 공개를 앞두고 먼저 브랜드 통합에 나선 것이라는 평가도 나온다. ○따로는 '그만' 함께 시장공략 나선다삼성 금융계열사들은 지난해 말 MZ세대(밀레니얼+Z 세대)를 직원을 중심으로 새로운 브랜드 전략에 대한 요구가 제기되면서 새 브랜드아이덴티티(BI) 마련에 돌입했다. 그동안 생명, 화재, 카드, 등 각사가 필요에 따라 협업하는 '따로 또 같이' 전략을 펴왔다. 각사는 MZ세대 금융 소비자의 변화된 욕구에 부응하고, 비대면 위주의 새 금융환경에 대응하려면 협업이 필요하다는 데 중지를 모으고, 공통의 브랜드 마련에 착수했다.이 과정은 철저히 '바텀업(상향식)' 방식으로 진행됐다는 설명이다. 브랜드 전문가들이 모여 직원 대상 심층 인터뷰, 고객 패널조사, 전문가 리뷰 등의 과정을 거쳤고, 직원들의 공모와 투표를 거쳐 최종 BI를 정했다.새 BI는 '삼성(Samsung)' 표기에 금융과 협업을 의미하는 '금융 네트웍스(Financial Networks)'를 영문으로 표시한 형태다. 전문성과 시너지를 제고하고 금융 생태계를 넓혀 나가겠다는 의지를 표현했다는 설명이다. 각사별 공동 활용도를 높이고, 혼돈을 막기 위해 별도 한글 BI는 만들지 않았지만, '삼성금융 네트웍스'라고 표기도 가능한 방식이다. 삼성생명이 브랜드 등록을 마쳤고, 소유권을 공동으로 나눠 갖는 방안을 협의하고 있다.새 브랜드는 삼성을 대표하는 금융BI라는 설명이다. 삼성 금융사들은 조만간 기업 이미지를 새 BI로 전면 교체하고 옥외 간판과 명함 및 홈페이지를 바꾸는 작업에 착수하고, 각사 제품과 서비스에 적용되는 하위 브랜드에 대한 개편작업도 순차적으로 진행할 계획이다. ○핀테크 시너지 가속화삼성 파이낸셜네트웍스의 첫 협업은 원(one) 앱 모니모가 될 가능성이 높다. 모니모는 삼성카드 주도로 계열사들이 힘을 합쳐 1년여간 개발한 앱이다. 각 사가 앱에서 제공하던 간편결제, 보험료 청구, 내 자산 보기, 현금 포인트 등의 기능을 한데 모은 '슈퍼 앱'이다.금융권에선 모니모가 카카오페이와 토스 등의 공룡 핀테크 앱의 대항마가 될 가능성이 있다고 여긴다. 삼성생명·화재·카드·증권의 모바일 채널 고객 수는 중복가입자를 포함해 약 3200만명으로 알려져 있다. 중복가입자를 빼더라도 약 2000만명의 가입자를 단숨에 확보할 수 있는 대형 앱이 탄생할 수 있는 셈이다. 은행 앱 1위 국민은행(1500만명)은 을 넘어서고, 핀테크 1위 카카오페이(2000만명)를 위협할만한 숫자로 평가된다. 1500만여명의 고객을 확보한 삼성페이와 결합할 경우 시너지가 적지 않을 것이라는 평가도 있다.경쟁력 제고와 미래지향 이미지 제고를 브랜드 통합의 목표로 내건 만큼 삼성 금융사들이 향후 어떤 공동 사업을 벌일지도 주목된다. 삼성 금융사들은 그룹이 리스크가 큰 금융업에 대한 관심이 적어 공격적인 영업을 꺼린다는 평가를 받아왔다. 합산 자산규모(529조원)로는 신한금융(648조원)에 못 미치지만 하나금융(502조원) 넘어섬에도 '금융이 주력은 아니다'라는 평을 받았던 것도 사실이다.금융권 관계자는 "삼성은 디지털 역량이 뛰어나고 전략적인 협업에 장점이 있는 조직"이라며 "향후 금융 마이데이터(본인신용정보관리업)업이 가능해자묜 데이터분석 역량을 활용해 핀테크 분야에서 초개인화 서비스로 승부를 볼 수 있을 것"이라고 평가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.04.15.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>우후죽순 대출비교 서비스… 어, 주요 은행은 다 빠졌네</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003685320?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>캐피털사까지 앱 쏟아지지만 1금융권은 대부분 참여 안해은행 대출 금리 알아보려면 각사 들어가봐야… 반쪽 서비스							이사를 앞둔 대기업 직장인 A씨는 제휴 금융사가 60곳으로 가장 많다는 대출 비교 플랫폼 ‘핀다’를 이용해보고는 한숨을 쉬었다. 금리가 낮은 은행 대출 상품을 찾고 싶었는데, 핀다에는 5대 은행(KB국민·신한·하나·우리·농협)이 모두 빠져있었기 때문이다. 금리가 저렴하다는 인터넷 전문 은행 중에서는 토스뱅크만 제휴돼있었다. A씨는 결국 각 은행 앱을 하나하나 들어가보는 수밖에 없었다. 그는 “‘대출 상품 조회부터 신청까지 ‘원스톱’으로 가능하다는 광고가 무색하지 않으냐”며 “이중으로 품을 들여야 해 번거로웠다”고 했다.대출 비교 플랫폼이 우후죽순 격으로 늘어나고 있지만 비교할 수 있는 대출 상품이 2금융권에 치중돼 ‘속 빈 강정’이라는 지적이 나온다. 14일 현대캐피탈이 캐피탈업계 최초로 내놓은 대출 비교 서비스에도 저축은행과 캐피탈 등 2금융권 13곳만 입점해있다. 이러다 보니 은행 대출을 비교해보고 싶은 고객에게는 대출 비교 플랫폼이 무용지물이 되고 있다. 한 핀테크 관계자는 “1금융권인 은행 상품을 취급하고 싶지만 대형 은행들이 협업에 소극적”이라고 말했다. 모든 은행 대출 비교하는 곳은 없어							대출 비교 서비스는 2019년 정부의 혁신 금융 서비스(금융 샌드박스)로 시작해 급성장하고 있다. 정부의 전방위적인 가계 대출 규제로 대출 문턱이 높아지자 1·2금융권을 통틀어 조금이라도 금리·한도 조건이 좋은 곳을 찾으려 대출 비교 플랫폼을 이용하는 고객이 늘어났기 때문이다. 지난해 선두 업체인 핀다가 취급한 신규 대출금은 1년 전보다 450%나 증가했다. 각종 대출 중에서 주택 대출만 중개하는 ‘담비’와 ‘뱅크몰’까지 등장했다. 금감원에 온라인대출모집법인으로 등록한 대출 비교 플랫폼은 총 17곳에 달한다.하지만 외형적인 급성장에도 불구하고 업계의 고민은 크다. 제휴 금융사와 상품을 늘리고 있지만, 정작 중요한 5대 은행과의 협력이 속도를 내지 못하고 있어서다. 상위 6개 대출 비교 플랫폼 중 업계 선두인 토스와 카카오페이만이 신한·하나·우리은행 등 은행 3곳의 비대면 신용대출 상품을 제공하고 있을 뿐, 나머지 4곳은 대형 은행 상품을 전혀 취급하지 못하고 있다. 하나은행과 손잡은 핀크도 소액 생활비대출만 취급하고 있다. 한 플랫폼 관계자는 “지속적으로 5대 은행의 문을 두드리고는 있지만 상품을 주지 않는다”며 “은행들이 집토끼(기존 고객)를 뺏길 수 있다고 우려하는 것 같다”고 했다. 결국 이 플랫폼들에는 저축은행과 카드, 캐피탈, 보험, P2P(개인 간 금융)업체 상품이 주를 이루고 있어 은행을 주로 이용하는 고객들을 유치하기 어려운 상황이다. 은행 중에서는 대형 은행보다 규모가 작은 지방은행과 일부 외국계 은행 정도가 플랫폼과 제휴하고 있다. 모든 금융사 조회하는 플랫폼은 무산							금융사 창구를 거치지 않는 비대면 대출은 코로나19 등을 겪으며 크게 증가했다. 한국은행에 따르면, 지난해 모바일·온라인으로 이뤄진 대출금은 하루 평균 7545억원으로 전년 대비 56.9%나 늘었다. 이런 흐름에 맞춰 시중은행들도 비대면 채널을 강화하고 있지만, 핀테크와의 협력에는 소극적이다. 5대 은행 중 KB국민·농협은행은 아예 대출 비교 플랫폼과 제휴하지 않았다. 신한·하나·우리은행은 주택 대출은 제외하고 신용대출만 대출 비교 플랫폼에 입점시켰다. 은행권 관계자는 “KB국민과 농협은 오프라인 점포가 많은 데다 이미 개인 대출 비율이 높기 때문에 굳이 외부 핀테크와 손잡고 대출 마케팅을 해야 할 필요성을 느끼지 못할 수 있다”고 했다.지난해 금융위원회가 추진했던 ‘원스톱’ 대환 대출(대출 갈아타기) 플랫폼이 좌초되지 않았다면 대출 소비자들의 편익은 더 높아졌을 수 있다. 당시 금융위는 1·2금융권 대출 상품을 한데 모아 비교하고 더 싼 금리의 상품으로 갈아탈 수 있는 플랫폼을 만들려 했으나 일부 은행의 반대로 무산됐다. 은행이 핀테크에 종속될 수 있고, 금리 경쟁이 과열될 수 있다는 우려 때문이었다. 이에 플랫폼 개발이 무산되고, 그 대안으로 은행연합회가 은행들만 참여하는 자체 대출 비교 플랫폼을 개발하겠다고 했지만 별 진척이 없는 상태다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.04.14.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>‘타다 넥스트’ 공식 출시, 연내 서울 중심 1500대 공급</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002122772?sid=105</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>-서울 중심, 내년까지 3000대 확대  -작년 11월 베타서비스 이후 신규 가입자 13만 명, 누적 가입자 수 210만명  -데이터 활용해 공차율 낮추고, 드라이버 위한 ‘파트너케어센터’ 구축 [디지털데일리 최민지기자] ‘타다’가 재정비를 마치고 ‘타다 넥스트’를 공식 출시했다.    모빌리티 플랫폼 타다는 14일 온라인 기자간담회를 열고 서울 지역 내 ‘타다 넥스트’ 공급량을 연내 1500대, 내년에는 3000대까지 확대하겠다고 밝혔다.    호출 중개 비즈니스 모델인 타다 넥스트는 7~9인승 승합차를 기반으로 최소 5년 이상 무사고 경력 고급택시 면허를 보유한 드라이버가 운행하는 모빌리티 서비스다.    타다 넥스트는 호출부터 이동, 하차까지 전 과정에서 사소한 불편감을 제거하고 매끄러운 이동 경험을 선사하는 심리스 모빌리티(Seamless Mobility), 어떤 차량을 호출하더라도 표준화된 서비스를 제공하는 ‘고퀄리티 라이드’를 표방한다.    반려동물과의 탑승은 물론 늦은 밤 혼자 귀가하는 이용객, 가족 단위 고객 등 모두가 편안하고 안전하게 이동할 수 있고, 각종 전자 기기 충전 잭 구비 및 차내 와이파이 지원으로 움직이는 업무 공간 제공까지 가능하다.   신임 대표 부임 후 공개 석상에 처음으로 등장한 이정행 타다 대표는 “타다 넥스트를 이용자뿐만 아니라 드라이버까지 모두가 만족할 수 있는 퀄리티 높은 모빌리티 서비스로 차별화하겠다”고 말했다.    타다는 작년 11월말 베타서비스 실시 이후 13만명 이상 신규 가입자를 유치했다. 현재까지 누적 가입자 수는 210만명에 달한다. 타다는 고객 재탑승률도 회차가 반복될수록 높아지고 있으며, 5점 만점 기준 평균 고객만족도 점수는 4.95에 달한다. 3월 기준 타다 넥스트 하차완료 수(호출해서 하차까지 완료한 횟수)는 전달 대비 30% 가까이 증가했다.   이날 타다는 새로워진 타다 앱 사용자경험(UX)을 선보였다. 메인 화면이 대표적이다. 앱을 켰을 때 목적지 입력란만 보이도록 해, 자연스럽게 호출로 이어지도록 사용성을 강화했다. 최소 3번의 터치면 차량 호출이 가능하다.    자주 탑승‧하차하는 위치를 기억해, 다음 이용 때 위치를 직접 지정할 필요도 없다. 출발지와 목적지 사이에 원하는 곳을 들렀다 갈 수 있는 ‘사전 경유지 설정’, 특정 시간대 차량을 예약해 이용할 수 있는 ‘호출 예약 기능’도 시연했다.    타다는 데이터 활용 능력을 기반으로 차량 운행 효율성을 개선시킬 방침이다. 일반적인 택시 공차율이 평균 40% 수준에 머문다. 데이터를 분석해 미리 수요를 예측하고, 플랫폼 호출 최적화를 통해 공차율을 개선할 수 있다는 설명이다. 실제, 타다는 서울 지역 내 수요 변화 모니터링 시스템을 통해 공차율을 최대 10%대까지 낮춘 바 있다.    운행 효율성이 개선되면 이용자는 택시 수요가 많은 시간대나 지역에서도 원활하게 배차받을 수 있고, 드라이버는 배회 시간이 줄어 안정적인 영업 활동이 가능하다.    이와 함게 타다는 이용자와 드라이버 모두가 만족할 수 있는 모빌리티 플랫폼이 되기 위한 비즈니스 핵심 이념으로 ‘퀄리티 라이드 포 올(Quality Ride for All)’을 소개했다.    이용자에게는 타다만이 선사할 수 있는 최상의 서비스를 제공하고, 이런 서비스를 전달할 수 있는 드라이버들과 파트너십을 맺기 위해 최고의 처우를 부여해 양질의 일자리 마련에 노력하겠다는 방침이다.    장기적으로 자회사 ‘편안한이동’과의 파트너십을 기반으로 드라이버와의 공생 방안을 발굴하고 실행할 계획이다. 이를 위해 ‘타다 파트너 케어 센터’ 구축 계획을 발표했다. 이는 드라이버 운행 매뉴얼 제공부터 차량 상품화까지 한 번에 가능한 중앙 관리 거점이다.   이 대표는 “쾌적한 여건에서 근무하는 드라이버가 이용자에게 최상의 서비스를 제공하고, 타다 서비스에 만족한 이용자가 반복해서 타다를 탑승하는 선순환을 만드는 것이 목표”라며 “편안한이동은 이 목표를 위한 든든한 파트너가 될 것”이라고 전했다.   올해 타다는 공급량 확대를 위해 박차를 가한다. 토스와는 견고한 파트너십을 바탕으로 택시 시장에서 금융적으로 개선이 필요한 부분을 함께 발굴하고 긍정적인 방향으로 고도화한다.   이 대표는 “모빌리티 플랫폼은 이미 대중화됐기에 이제부터는 서비스 경쟁”이라며 “타다 넥스트를 통해 최고 수준의 서비스로 비즈니스를 차별화하고, 타다 넥스트 서비스가 택시 비즈니스의 새로운 이동 기준(TADA NEXT STANDARD)이 되도록 만들겠다”고 강조했다.    한편, 타다는 타다 넥스트 공식 출시를 기념해 오는 30일까지 타다 앱 신규 가입자를 대상으로 ‘1만 원 쿠폰’과 ‘50% 할인 쿠폰’ 랜덤 선물 이벤트를 실시한다. 쿠폰은 타다 플러스에도 적용 가능하다. 친구에게 초대 코드를 공유하고, 초대된 친구가 30일 이내 타다를 이용하면 3000원 할인 쿠폰을 지급한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.04.03.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>800억대 순손실이지만…5개월 새 예금 17조 끌어들인 토스뱅크</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005068150?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>예금은 이미 케이뱅크 앞질러대출 확대로 경영 실적 개선이 과제홍민택 토스뱅크 대표토스뱅크가 출범 이후 5개월 만에 수신(예금)액 17조원을 돌파했다. 출범한지 5년 된 첫 인터넷전문은행 케이뱅크를 추월한 것이다. 다만 아직 여신 규모가 부족하고 800억대 적자도 기록한 만큼 추가로 내실을 다지는 성장이 과제로 꼽힌다.3일 금융업계와 토스뱅크의 공시에 따르면 지난해 토스뱅크는 이자순손실은 112억원을 기록했다. 두 달 동안 수신 잔액 13조7900억원을 달성하며 이자비용으로 424억원을 지출했다. 대출에 대한 이자수익은 312억원으로 집계됐다. 누적순손실은 806억원을 기록했다. 지난 1년 간 직원들에게 지급됐던 급여와 ATM 수수료 등 주로 초기 투자 비용이 540억원에 달한 점이 영향을 끼친 것으로 보인다.다른 인터넷은행들도 첫해 모두 손실을 기록한 점을 감안하면 큰 문제는 아니라는 반응이 나온다. 2017년 4월 출범한 케이뱅크는 그해 837억원 가량 순손실을 기록했다. 같은 해 7월 문을 연 카카오뱅크도 그해 1045억원 규모 순손실을 나타냈다. 이후 이들은 각각 4년, 2년 만에 흑자 전환했다.특히 예금 유치 규모가 첫 인터넷은행인 케이뱅크를 이미 앞질렀다는 점이 주목된다. 증권사 위탁계좌 여윳돈과 시중은행에 유치됐던 월급통장 등이 옮겨오면서 토스뱅크의 수신액은 17조원을 기록했다. 카카오뱅크(32조5000억원)에는 아직 못 미치지만 케이뱅크(11조6900억원)는 5조원 넘게 웃돌았다.다만 여신은 아직 부족한 규모다. 2조5000억원으로 카카오뱅크(25조9000억원)는 물론 케이뱅크(7조4900억원)에도 한참 못 미친다. 금융당국의 가계대출 총량규제 영향으로 출범 직후부터 대출이 중단된 두 올해 들어서 재개할 수 있었던 사정 때문으로 보인다.실제로 올해 들어 대출을 재개하면서 가파른 성장세를 보이고 있다. 지난달 18일 기준 여신잔액은 약 2조5000억원 규모로 전년 말 대비 5배 가까이 증가했다. 특히 중저신용자, 개인사업자 대출 등 에도 진출하면서 순이자마진(NIM)이 빠르게 늘어나는 추세다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.04.06.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>디캠프, 올 스타트업 투자 3배 확대</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004682753?sid=105</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>직·간접 투자금 280억 확보15개 펀드 조성해 공격 투자국내 최대 스타트업 지원 기관인 디캠프(은행권청년창업재단)가 올해 스타트업 투자 규모를 대폭 확대한다. 국내 유망 스타트업 지원을 강화하기 위해서다.디캠프는 올해 직·간접 투자용 실탄으로 280억원을 확보했다고 6일 밝혔다. 1년 전(100억원)보다 2.8배 늘렸다. 간접 투자 확대를 위해 올해 관련 펀드 15개를 조성할 계획이다. 디캠프가 2013년 출범 이후 8년 동안 26개의 펀드를 조성한 것을 감안하면 올해 이례적으로 공격적인 투자에 나서는 것이다.디캠프는 국내 은행 18곳과 주택금융공사가 8450억원을 출연해 설립했다. 이 자금으로 직간접 투자 또는 보증을 통해 국내 스타트업의 성장을 돕고 있다. 출연금의 90%는 간접 투자 및 위탁 보증 방식으로 운영한다.디캠프는 그동안 7513억원 규모의 투자를 약정했다. 관련 펀드가 투자한 스타트업은 2868곳이다. 성장사다리펀드, 은행권일자리펀드 등을 통해 초기 유망 스타트업 발굴에 기여했다는 평가를 받고 있다. 앱 배달 서비스 ‘배달의 민족’을 운영하는 우아한형제들, 금융 서비스 토스의 비바리퍼블리카 등 국내 유니콘 기업(기업 가치 10억달러 이상 스타트업) 18개 사 중 절반을 디캠프가 간접 투자했다.디캠프가 직접 투자한 스타트업도 144곳으로 186억원 규모에 달한다. 국내 관련 법률상 공익재단은 특정 회사 지분을 5% 이상 소유하지 못하기 때문에 직접 투자 규모가 간접 투자보다 적다. 한국신용데이터, 핀다 등이 디캠프로부터 직접 자금을 받은 대표적인 기업이다. 디캠프의 직접 투자는 해당 스타트업의 5529억원 규모 후속 투자 유치도 이끌었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.04.12.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>BC카드, 쿠콘 API 활용해 대출 비교 서비스</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004818499?sid=105</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>카카오페이, 토스, 핀다 등 시중 대출 비교 서비스 쿠콘 통해 구현 … 기술력 및 안정성 입증   [파이낸셜뉴스] 카카오페이, 토스, 핀다에 이어 BC카드도 쿠콘의 '대출한도 및 금리조회 API'를 사용하게 됐다.   12일 쿠콘에 따르면, BC카드는 '페이북'의 대출 비교 서비스에 쿠콘의 API를 탑재했다.   BC카드의 생활금융 플랫폼 '페이북'이 제공하는 대출 비교 서비스는 페이북 내 '재테크' 카테고리 '대출' 메뉴에서 이용할 수 있다. 본인 인증만으로 신용등급 영향 없이 여러 금융기관 대출 상품의 금리와 한도를 확인할 수 있다. BC카드는 금융 소비자 보호를 위해 '이해상충 방지 알고리즘' 인증을 받아 서비스 신뢰도를 높였다.   쿠콘의 대출한도 및 금리조회 API는 해당 서비스를 준비하는 기업 및 기관에 최적화된 API 상품으로, 서비스 이용자가 본인이 대출 가능한 상품과 금리를 바로 비교해볼 수 있다.   또한 쿠콘은 '간편 대출 서비스 시스템' 특허도 보유하고 있어 대출 비교 서비스 관련 기술력도 입증했다. 뿐만 아니라 높은 안정성과 신뢰성을 인정받아 시중에 출시된 대부분의 대출 비교 서비스에 활용되고 있다.   쿠콘 측은 쿠콘을 통해 대출 비교 서비스를 오픈하는 금융기관 및 핀테크 기업은 꾸준히 늘고 있으며, 다양한 업권에서 들어오는 연계 문의 또한 활발하게 이어지고 있다고 설명했다.   김종현 쿠콘 대표는 "쿠콘과 BC카드와의 협업 범위를 넓혀 대출 비교 서비스까지 함께 제공할 수 있게 되어 기쁘다"며, "쿠콘은 BC카드 페이북의 대출 비교 서비스가 시장에서 성공적으로 자리 잡을 수 있도록 최선을 다해 지원하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.04.06.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>[매경경영지원본부 칼럼] 혜택은 누구에게나 열려 있지만 받는 양은 제 각각 다르다!</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004945797?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>자연 생태계의 먹이사슬에서 큰 물고기는 작은 불고기를 잡아먹는다. 그러나 4차 산업혁명의 생태계에서는 빠른 물고기가 느린 물고기를 잡아먹는다. 4차 산업혁명이 진행중인 만큼 초지능, 초연결, 초경쟁의 기업환경으로 빠르게 변화하고 있다. 빠른 변화에 민첩하게 적응해야 하는 부담이 격동의 시기를 살아가는 인간과 기업에게는 생존의 문제이다. 청소년기까지 인간의 몸은 성장하며 그에 따라 뇌도 커진다. 그 때는 변화가 흥미진진하니 가볍게 받아들이고 적응해 나간다. 그러나 그 이후에는 대부분의 사람들은 서서히 변화를 꺼려한다. 그 이유는 사람마다 제 각각이다. 불확실성에 대한 공포, 습관, 자신감 부족, 현 상태에 대한 만족과 안정 지향성 그리고 기득권 등이 변화를 싫어하는 각각의 심리적 이유인데, 거기에다 모든 변화는 필연적으로 스트레스를 동반한다고 믿으니  더욱 어렵게 느껴진다. 그래서 나이 50 이후에는 변화에 적응하려는 노력과 새로운 지식의 습득에 소극적으로 된다. 그러나 공자는 인생 말년 70세에서 주역(周易)과 춘추(春秋)를 열심히 공부하다 보니 책을 묶은 가죽 끈이 세번이나 끊어졌다는 위편삼절(韋編三絶)의 고사성어를 나오게 했다. 공부도 변화이다.인간의 뇌 속에는 약 천 억 개의 신경세포 단위인 뉴런(Neuron)있고, 각 뉴런과 뉴런 사이에는 평균 7,000개의 시냅스(Synapse)가 있어 그것이 신경 전달물질을 토스하면서 뉴런 사이에 의사소통이 되게 한다. 얼마전까지만 해도 뉴런은 나이들수록 소멸되기만 할 뿐 새로이 만들어지지는 않는다고 믿었다. 그러나 최근의 뇌과학은 뇌 스스로 변화하고 교체하며 장기간 안 쓰는 시냅스가 있으면 용도폐기하고 새로운 용도로 재편성한다는 것을 밝혀냈다. 이것이 뇌의 가소성(Plasticity; 可塑性)이다. 가소성이란 말이 어렵다면 뇌의 ‘유연성과 평생 발전 가능성’으로 이해하면 된다. 즉, 뇌는 환경, 경험 또는 신체 상태에 따라 유연하게 변하고 평생에 걸쳐 새로운 능력을 배우고 변화에 적응하며, 자주 쓰는 부위는 계속 발달 시키고 안 쓰는 것은 퇴화시키면서 철저하게 용불용설(用不用說)을 지킨다는 의미이다. 뇌 세포는 나이가 들수록 줄어들지만 시냅스는 계속 만들어지며, 뇌간 물질을 활성화 시키는 지적활동, 창의력 발휘 또는 예측할 수 없는 일을 할 때 뇌는 자극 받아 더욱 발전한다. 물론 뇌도 휴식이 필요하다. 갑자기 과도한 자극을 주면 부작용이 날 수 있지만 실제로 뇌는 평생 변화를 즐기고 기꺼이 변화에 순응하니 지적활동이 곧 안티애이징(Anti-aging)이다. 그러므로 인간이 스스로 변화하려는 의지만 있으면 뇌는 나이에 상관없이 그 노력을 지원해준다. 지금은 모든것이 빠르게 변화하면서 낯선 것이 새로운 표준이 되는 뉴 노멀(New Normal)의 시대이다. 또 기대수명까지 90세로 육박하는 상황에서 개인의 과거 지식과 경험 또는 기업의 기존 전략과 전통적 기업문화만으로 4차 산업혁명의 변화에 대응하려 한다면, 개인은 화석인간으로 여생을 살게 될 것이고 기업은 도태의 수순을 면치 못하게 된다.“4차 산업혁명”이라고 검색어를 쳐서 관련 학술 문헌을 찾아내고, 그들 중에서 가장 빈번하게 쓰인 단어를 추려 내면 단연 “변화”가 압도적이다. 산업혁명은 일하는 방식과 환경의 변화를 가져와 궁극적으로는 생산성 향상을 구현하는 것이다. 그러나 4차 산업혁명은 기존의 산업혁명과는 달리 생산성의 향상 뿐만 아니라 인간의 본질, 사고방식 그리고 인간관계까지도 변화를 몰고 올 것이므로 포스트휴먼과 포스트휴머니즘에 대한 담론을 불러 일으키고 있다. 그렇지만 어디까지나 산업혁명이지 인간혁명으로 불릴 것은 아니다. 4차 산업혁명이 그 기본 무대인 산업계에 가져올 변화를 총체적으로 크게 요약한다면 무엇일까?첫번째 변화로 학자들이 공통적으로 꼽는 것은 ‘초연결’, ‘초지능’ 그리고 ‘기술융합’으로 인해 각 산업의 규모와 범위가 확장되면서 시장과 산업 간의 경계가 모호해진다는 것이다. 기존처럼 지역별로 차근차근 시장에 진입할 필요가 없고 단숨에 글로벌 시장 전체를 보고 신제품을 론칭 할 수 있을 정도로 영역이 확장 되었다. 산업간 경계가 무너지는 예로 흔히 회자되는 것이 있다. 구글이나 애플이 자율주행차를 출시하면 그것은 더 이상 기계산업의 꽃이 아니라 바퀴 달린 스마트폰 내지 가전제품으로 보일 것이다. 따라서 제조업과 서비스업의 경계도 모호해지면서 제조업의 서비스화가 가속되고 산업계 전반에서 서비스업의 비중은 더 확대된다.둘째로, 경계가 사라진 토대 위에 디지털 경제가 더욱 심화되면 종국에는 거대 플랫폼 경제로 산업이 재편된다는 것이다. 그 플랫폼에서의 승자는 영향력의 승자이니 그가 창조한 시장에서 일시적 독점을 하며 모든 과실을 휩쓸어가는 독식의 짜릿함을 맛볼 것이다. 그러나 그 생태계에 실력 있는 자의 진입은 언제나 자유롭고 진입장벽은 없다. 그만큼 초 경쟁이다. 경쟁이 가열되면 승자는 그 시장을 지키기 위해 피 터지는 경쟁을 하기보다는 그의 영향력을 바탕으로 새로운 시장을 창조하고 민첩하게 옮겨가는 전략을 구사할 것이다. 아마존의 제프 베조스와 테슬라의 일론 머스크가 그런 전략의 대표적 구사자이며 승자이다.  제조업과 서비스업의 경계가 허물어지면 반도체, 화장품, 제약 등 경박단소(輕薄短小) 뿐만 아니라 자동차, 석유화학, 조선 등 중후장대(重厚長大) 산업 또한 GAFA와 같은 거대 플랫폼 기업의 하청업체로 전락할 수 있다고 모 자동차그룹 최고경영자가 걱정하고 있다. 경영의 석학 피터 드러커는 “자동차산업은 모든 산업의 어머니”라고 말한 적 있지만, 이제 자동차 제조업체는 새롭고 확실한 성장 동력을 향후 몇 년 내에 만들지 못하면 그렇게 전락될 수 있다. 그런 상황에서 ‘스마트 모빌리티(Smart Mobility)’라는 새로운 서비스 산업으로 사업 다각화를 모색하지 않을 수 없는 것이 자동차산업의 현실이다. 이런 엄청난 파장이 4차 산업혁명이 가져올 수 있는 변화의 폭이다.셋째는 인공지능과 빅데이터를 이용한 의사결정의 정밀성과 속도의 극대화이다. 이제 탁월하고 신속한 의사결정 능력은 어느 특정 경영자만이 가지는 천부적 재능이 아니다. 4차 산업혁명의 핵심기술은 경영자 모두에게 공평하게 오픈되어 이용가능한 환경이다. 초지능 기술이 제공하는 사회의 공통 역량이므로 승부는 변화에 재빠르게 적응하는 개별 기업가의 민첩성에 달려 있다. 고객 계좌에서 얻은 정보를 가지고 단순한 상품 광고지를 보낼 것인지 아니면 그 고객의 일상생활을 파악해 다음 단계의 소비를 권고할 것인지의 판단은 민첩성의 한 예이다. 20세기 한국 경제성장을 주도한 재벌그룹은 수직계열화라는 명분아래 모든 자원과 역량을 내부에 골고루 갖추어 놓았다. 건설회사를 모태로 한 그룹에 조선, 자동차, 가구, 철강, 증권 그리고 보험회사까지 다 갖추어야 규모의 경제와 경쟁력을 가지는 것으로 알았다. 그러나 이제는 그럴 필요 없이 플랫폼에서 자원을 공유하고, 거기에서 필요시에는 경쟁사라도 협력한다. 우리의 뇌는 이런 변화를 수용하고 적응한다. 이미 변화된 환경에서 내 자신을 변화 시키겠다고 상상만 하지 말고 구체적으로 행동에 옮길 때 뇌의 더 많은 영역이 사용되므로 그 만큼 빨리 적응된다. 4차 산업혁명의 혜택은 사회간접자본 인프라처럼 누구에게나 공평하게 이용 가능하다. 다만 그 혜택을 얼마만큼 받을 지는 각 개별 경영자의 변화를 수용하는 자세와 그에 따른 뇌의 변화에 달려 있다. [진의환 매경경영지원본부 칼럼니스트/ 현) 소프트랜더스 고문/ 서울대학교 산학협력 교수]</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.04.15.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>'청와대, 국민 품으로'…인수위가 만든 靑 개방 홈페이지, 어떤 식으로 운영되나</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/088/0000753932?sid=100</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>'청와대 국민 품으로' 홈페이지 캡처윤석열 대통령 당선인이 임기 시작일인 내달 10일 0시부터 청와대를 개방하겠다고 공언한 가운데 문재인 대통령은 임기 마지막 날인 다음 달 9일 근무를 마친 뒤 청와대를 떠날 예정이다. 이에 발맞춰 대통령직인수위원회도 관련 정보를 담은 온라인 홈페이지를 개설하는 등 개방 준비에 속도를 내고 있다.인수위 청와대 이전 태스크포스(TF)는 14일 '청와대, 국민품으로'라는 이름의 청와대 개방 관련 홈페이지(https://www.opencheongwadae.kr)를 공개했다.여기에는 ▷개방의 의미 ▷청와대 소개 ▷등산로 ▷국민소통 등의 항목이 마련됐다. 청와대 소개 항목에는 역사와 지도 및 주요시설, 경내 주요 유적으로 나뉘었다. 다만, 일부 항목은 세부 내용이 아직 준비되지 않았다.이와 함께 TF 측이 최근 카카오·네이버 등을 통한 방문자 예약 시스템 구축 관련 협조를 요청한 것으로 알려졌다.청와대 개방 초기 방문객이 대거 몰릴 것으로 예상돼 원활한 입장과 관람, 안전사고를 예방하고, 코로나19 감염 우려도 불식할 수 있을 것이라는 판단이다.게다가 정확한 수요가 확인되어야 추후 전면 개방 여부를 판단할 수 있을 것이라는 고려도 깔렸다.이르면 이달 말부터 카카오톡 메신저나 네이버 홈페이지, 토스 애플리케이션(앱) 등에서 청와대 관광을 신청할 수 있을 것으로 보인다.또한 시설 점검과 안전 시설 미비 등을 이유로 야간 개방도 당분간 하지 않기로 했다.인수위 관계자는 "경내 건물은 일정기간 동안 출입을 통제하게 될 것"이라며 "사용연한이 남은 집기는 이전하는 대통령 집무실로 가져가야 하는데 9일까지는 청와대가 정상 근무를 하는 만큼 옮길 수가 없다. 게다가 의미있는 물품은 훼손을 막고, 박물관처럼 국민께서 직접 보고 확인하실 수 있게 하려면 내부 정비 기간도 필요하다"고 설명했다.아울러 현재 있는 청와대 관람 안내 해설사 5명은 문화해설사 개념으로 그대로 유지할 계획이다. 대통령집무실 이전 절차가 완전히 끝나고 청와대 관리 주체가 정해지면 이들을 고용승계 하도록 할 계획이다.인수위 관계자는 "방문객과 해설 수요 등을 살펴봐야 알겠지만, 현재 인원보다는 더 많은 해설사가 필요할 것으로 본다. 이런 부분 확인을 위해서도 예약제가 필요한 부분이 있다"면서도 "추가 인력 고용은 향후 관리 주체가 판단할 문제"라고 말했다.한편, 박경미 청와대 대변인은 15일 서면 브리핑을 통해 "문 대통령은 5월 9일 집무 후 청와대를 떠나 5월 10일 취임식에 참석하고, 경남 양산 사저로 이동할 예정"이라고 밝혔다.박 대변인이 밝힌 '집무 후'는 오후 6시가 될 수도 있고 더 늦어질 수도 있다. 청와대 관저에서 9일 밤을 보내지 않겠다는 의미다.문 대통령 임기는 9일 자정까지이지만, 윤 당선인이 10일 0시부로 청와대를 완전히 개방하겠다고 밝힌 데 따른 결정인 것으로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.04.01.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>토스뱅크 첫해 806억 원 순손실…“경영지표 빠르게 개선하겠다”</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002508417?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>이자 순손실 112억 원…“대출 중단에도 2%대 금리 혜택 등 제공”지난해 10월 출범한 지 열흘 만에 대출 총량 규제에 가로막혀 영업을 일시 중단해야 했던 토스뱅크가 작년 806억 원대 순손실이 난 것으로 집계됐다.1일 토스뱅크의 경영 공시에 따르면 토스뱅크는 지난해 10∼12월 영업하며 약 806억 원의 순손실을 냈다. 먼저 문을 연 인터넷 전문은행들도 첫해에는 모두 손실을 냈다. 2017년 4월 출범한 케이뱅크는 그해 837억 원대 순손실을, 같은 해 7월 출범한 카카오뱅크는 그해 1044억 원대 순손실을 냈다. 각각 영업 8개월, 5개월 만이었다. 지난해 토스뱅크는 이자수익으로 312억 원을 거뒀지만, 이자 비용으로 424억 원을 지출하면서 약 112억 원의 이자순손실이 발생했다. 지난해 말 기준 토스뱅크 이용자 수는 124만2700명이었으며, 총자산은 14조3485억 원이었다.수신 잔액은 13조7907억 원이었다. 여신 규모는 5315억원에 그쳤다. 작년 10월 토스뱅크가 출범한 지 열흘 만에 대출액이 금융당국이 정한 대출 총량(5000억 원)을 넘어서면서 대출을 중단하게 된 영향이다. 토스뱅크는 “대출 영업은 열흘 만에 중단할 수밖에 없었지만, 세전 연 2% 금리 혜택의 토스뱅크 통장과 월 최대 4만6500원의 캐시백 혜택을 제공하는 체크카드는 고객에게 차등 없이 제공했다”고 강조했다. 그러면서 “이는 고객이 중심이 되는 서비스를 포기하지 않았기 때문”이라고 말했다.토스뱅크는 올해 1월 대출 영업을 재개하며 본격적인 영업에 돌입한 만큼, 경영지표를 빠르게 개선해나갈 것이라고 강조했다. 토스뱅크에 따르면 올해 3월 18일까지 여신 잔액은 약 2조5000억 원 규모로 늘었다. 같은 날 기준 수신 잔액은 약 17조 원이며, 고객 수는 235만 명으로 늘었다. 추가 증자에 따라 자본금도 8500억 원으로 확대됐다. 토스뱅크 관계자는 “다른 인터넷 전문은행들처럼 성장하는 기업의 사업 초기에는 많은 투자 비용이 든다는 점을 경험하고 있다”며 “여·수신 상품 확대, 신상품 출시 등으로 이른 시일 안에 재무적 개선을 이뤄나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.04.06.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>카뱅 등 인터넷은행 중·저신용 대출 대상 늘어난다</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006011272?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>'신용 인플레'에…중·저신용 기준, KCB 820점→850점 이하로각사 중·저신용 대출 비중도 높아질 듯…"목표 달성에 도움"© News1 최수아 디자이너(서울=뉴스1) 민선희 기자,서상혁 기자 = #30대 황모씨는 지난달 인터넷전문은행 카카오뱅크에서 신용대출을 받으려다 다른 은행을 알아봐야했다. 카카오뱅크는 고신용자 대상 신용대출을 중단했는데, 황씨의 신용점수는 코리아크레딧뷰로(KCB) 기준 821점으로 중·저신용자 기준인 820점보다 높았기 때문이다. 그러나 이달부터 황씨도 카카오뱅크에서 신용대출을 받을 수 있게 됐다.6일 금융권에 따르면 인터넷은행들의 중·저신용자 대출 기준이 KCB 기준 820점 이하에서 850점이하로 확대됐다. 금융당국은 인터넷은행들의 중·저신용자 대출 기준을 '개인신용평점 하위 50%(KCB 820점 이하)'로 두고 있었는데, KCB가 이달 1일부터 하위 50% 기준 점수를 820점에서 850점으로 상향해 공시했다.은행권 관계자는 "전반적으로 신용도가 많이 오른 점을 감안해 하위 50% 기준을 높인 것으로 보인다"고 말했다.인터넷은행 중 카카오뱅크는 중·저신용 대출 공급을 위해 지난해부터 고신용자 대상 신용대출을 중단했다. 이에 따라 KCB 기준 820점 이하만 신용대출을 받을 수 있었는데 이달부터 850점 이하 고객까지 대출을 받을 수 있게됐다.케이뱅크와 토스뱅크의 경우 고신용자들을 대상으로도 대출영업을 해왔고, 별도로 중·저신용자 전용 대출 상품을 운영하고 있지 않아 고객 입장에서 큰 변화는 없을 전망이다.다만 인터넷은행들은 중·저신용 차주를 위해 종종 이자지원 이벤트 등을 진행했는데, 앞으로 이 기준이 KCB 850점으로 높아질 것으로 보인다.한편 인터넷은행들 입장에서는 이번 기준 상향으로 중·저신용대출 비중이 오르는 효과를 기대할 수 있다. 앞으로 가계신용대출 대비 중·저신용대출 비중을 산출할 때 KCB 기준 850점까지 중·저신용대출로 잡히기 때문이다.인터넷은행들은 가계신용대출 대비 중·저신용대출 비중 목표치를 금융당국에 제출했는데, 올해말 기준 각사 목표치는 카카오뱅크와 케이뱅크가 25%, 토스뱅크가 43%다.다만 4월 이전에 내준 KCB 821~850점 대출까지 소급해서 중·저신용대출로 인정할지 여부는 아직까지 결정되지 않았다. 이와 관련해 은행연합회는 현재 금융당국에 관련 문의를 한 것으로 전해졌다.또다른 은행권 관계자는 "대부분 KCB 신용등급을 참고지표로 두고 자체 신용평가 시스템을 통해 대출 한도와 금리를 산출하기 때문에 큰 변화는 없을 것"이라면서도 "인터넷은행들이 중·저신용대출 비중 목표치를 달성하는 데는 도움이 될 것"이라고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.04.03.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>토스뱅크, 개인사업자대출 한달반 만에 2000억원</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003262737?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>2월 14일 출시한 ‘사장님 대출’한달만에 1000억, 46일만에 2000억토스인터넷 전문은행 최초로 개인사업자 대출상품을 출시했던 토스뱅크의 대출상품 잔액이 한 달 반 만에 2000억원을 넘어섰다.3일 은행권에 따르면 토스뱅크의 ‘사장님 대출’ 잔액은 지난달 31일 기준 2095억원인 것으로 나타났다. 지난 2월 14일 출시한 후 46일 만으로 출시 한 달 째 이미 잔액이 1167억원을 돌파한 바 있다. 해당 대출 상품은 보증기관의 보증서나 고객의 부동산 등을 담보로 하지 않고 개인의 신용에 따라 최고 1억원 한도를 부여한다.특히 기존 은행에서는 대출이 어려웠던 중·저신용자의 대출 비중이 40%를 넘어섰는데, 이는 토스뱅크가 다양한 비금융 정보를 활용해 개발한 자체 신용평가모형(CSS)으로 개인의 신용도를 평가하고 있어서다. 기존 신용평가에서 중·저신용자로 분류된 개인사업자의 45%가 토스뱅크 자체 신용평가모형을 거친 후 우량고객이 되기도 했다. 토스뱅크 관계자는 “기존 신용점수가 400점 후반대(8등급 수준)인 고객의 대출이 실행된 경우가 있다”고 전했다.다만 대출 문턱을 낮춘만큼 시중 은행에 비해 평균 금리가 높은 특징을 보이기도 한다. 토스뱅크 측은 “최저 금리는 3.42%로 고객 3명 중 1명 이상(38%)이 4% 미만 저금리 혜택을 받았다”는 입장이다.이런 가운데 다른 인터넷 전문은행들도 비슷한 상품을 잇따라 출시할 예정이다. 지난달 신용보증재단중앙회와 업무협약을 맺은 케이뱅크는 오는 18일 개인사업자 운전자금 대출을 출시한다. 카카오뱅크는 하반기 개인사업자 대상 소호 대출 출시를 준비하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.04.12.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>'네이버 통장' 나오면 예금이자 올라 소비자에 이득… 예금자 보호는 과제</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000669117?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>'빅테크' 지급서비스 등 전금법 개정안 분석은행-비은행 경쟁으로 예대마진 축소 전망예금자 보호는 한계… '중개형 예금' 도입 제안네이버의 간편결제서비스 '네이버페이' 화면. 네이버 제공 한국일보 자료사진빅테크 기업이 지급결제서비스에 진출해 이른바 ‘네이버 계좌’가 가능하게 되면 예금 금리가 높아지고 예대마진이 줄어들어 소비자 후생에 도움이 된다는 분석이 나왔다. 다만 현재 논의되는 규제 수준으로는 예금자 보호 문제가 생길 수 있어, 이용자 자금을 예금으로 인정해야 한다는 지적이 나왔다.황순주 한국개발연구원(KDI) 연구위원은 12일 ‘전자금융거래법 개정이 금융소비자에게 미치는 영향과 보완과제’ 보고서를 통해 “지급서비스 시장을 개방하면 은행 예대마진이 축소돼 금융소비자 후생에 기여할 것으로 예상되지만, 이용자 자금이 충분히 보호되지 않는 문제가 발생할 수도 있다”고 말했다.2020년 11월 국회에 발의된 전자금융거래법 전면개정안에는  ‘빅테크’ 기업이나 카드사 등 비은행 금융회사에 지급서비스를 개방하는 내용이 담겨 있다. 법이 통과되면 이들도 △현금입출금 △급여이체 △송금 등의 서비스를 제공할 수 있다. 이에 전자상거래와 금융업무를 연계하는 등  업권을 넘나드는 새로운 경쟁이 에상된다.가시적 변화는 은행과 신규 사업자의 예금 유치 경쟁이다. 이미 △네이버파이낸셜 △카카오페이 △토스 △코나아이 등 이른바 ‘4대 빅테크’ 기업의 선불충전금 잔액이 지난해 말 기준 1조 원을 넘어섰는데, 이들이 지급서비스에 본격 뛰어들면 은행 자금의 이동이 더 활발해질 것으로 예상된다.KDI는 은행이 빅테크와 경쟁하면 예금 금리와 대출 금리 차이를 좁힐 수 있다고 분석했다. 2010~2020년 자료를 기반으로 분석한 결과 은행 결제성 예금이 1% 줄어들면 예금 금리는 1년간 0.29%포인트 상승했고, 대출금리 상승 폭은 0.17%포인트 수준이었다.황 연구위원은 “대출시장은 전 금융권에 일정 부분 개방돼 있어 별도의 치열한 경쟁에 직면해 있다”며 “대출금리 상승 폭이 (상대적으로) 제한적일 것”이라고 말했다.황순주 한국개발연구원(KDI) 거시ㆍ금융정책연구부 연구위원이 12일 정부세종청사에서 ‘전자금융거래법 개정이 금융소비자에게 미치는 영향과 보완 과제’에 대한 발표에 앞서 관련 자료를 소개하고 있다. 세종=뉴스1다만 이들 기업이 은행은 아니기 때문에 예금 수준의 보호를 받기가 힘들다. 법 개정안은 예금자 보호를 적용하지 않는 대신 지급서비스 사업자가 이용자 자금의 50~100%를 제3의 은행 등에 별도로 예치해야 한다는 장치를 마련해 놓았지만 여전히 미흡하다는 평가다.이에 대안으로 제시한 것은 이용자 예치금을 사업자 명의가 아닌 각 이용자 명의로 예금하고, 이를 통해 일반 은행 예금과 마찬가지로 5,000만 원까지 보호하는 ‘중개형 예금’ 방식이다.황 연구위원은 “사용자가 경영 위험에 직면하면 이용자 자금을 유용할 가능성이 있고, 보증보험 가입 의무, 안전자산 투자 의무 역시 한계가 있다”며 “중개형 예금은 현행 예금보험료 부과 체계를 바꿀 필요가 없어 실행 가능성이 높고, 사업자 수용성도 높을 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.04.06.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>집주인·사장님도 이젠 "비대면·모바일 대출"</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004729546?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>[편집자주] 국내에 인터넷전문은행이 설립된 지 꼭 5년이다. '기대반 우려반'으로 출범했지만 성공적으로 안착했다는 평가다. 우려가 완전히 사라지지는 않았지만 인터넷은행의 등장으로 금융 일상의 시공간 제약이 사라지고, 금융산업의 비대면화가 가속화하고 있다. 다섯 살이 된 인터넷은행의 혁신 시도가 바꾸고 있는 금융시장의 변화상을 들여다본다[[MT리포트-인터넷전문은행 5년, 금융을 바꾸다]]인터넷전문은행 출범 5년 만에 국내 '리테일 뱅킹'(소매금융·가계대출) 시장의 모바일화와 비대면화가 빠르게 진행되고 있다. 인터넷은행 3곳이 개인신용대출 중심에서 주택담보대출과 개인사업자 대출까지 영역을 급속히 확장하면서 금융판이 바뀌고 있다. 인터넷은행의 공격적인 가격(금리)·서비스 혁신 경쟁이 금융 소비자 편의성과 편익 개선으로 이어지고 있다는 평가도 나온다. 반면 고신용자에 집중하는 등 기존 은행을 답습하고 있고 인터넷은행 접근이 어려운 고령층 등 디지털 소외계층에 대한 배려가 부족하다는 지적도 나온다. 6일 은행권에 따르면, 카카오뱅크의 대출(여신) 잔액은 출범 첫 해인 2017년 말 4조6218억원에서 지난해 말 25조8614억원으로 4년 만에 5.6배 불었다. 2017년 4월3일 출범한 국내 첫 인터넷은행 케이뱅크의 대출 자산도 같은 기간 8200억원에서 7조900억원으로 8.6배 커졌다. 출범 후 은산분리 규제에 따른 케이뱅크의 증자 지연과 지난해 금융당국의 강도높은 가계대출 규제로 인터넷은행 영업 환경이 여의치 않았다는 점을 감안하면 의미 있는 성장세다. 올해 들어서도 인터넷은행의 성장성이 도드라진다. 카카오뱅크, 케이뱅크, 토스뱅크의 지난 1분기 가계대출 합산 잔액은 36조1439억원으로 전년 말(33조4829억원)보다 7.9% 늘었다. 지난해 하반기부터 이어진 대출 규제와 대출금리 상승에 1~3월 5대 시중은행(KB국민 신한 하나 우리 NH농협은행) 가계대출 잔액이 약 6조원 줄어든 것과 또렷이 대비된다. 특히 지난해 10월 출범 직후 9일 만에 대출 영업을 중단했던 토스뱅크 여신은 지난해말 5315억원에서 지난 3월 말 2조3688억원으로 3개월 만에 4.5배 성장했다. 인터넷은행의 약진은 비대면·모바일 플랫폼의 편의성과 상대적으로 싸고 후한 수수료·금리, 서비스 혁신 덕에 젊은 세대 중심의 이용 고객이 빠르게 유입되고 있어서다. 카카오뱅크 앱 가입자는 1827만명, 케이뱅크는 750만명에 달한다. 토스뱅크도 235만명의 가입자를 확보했고, 토스 앱 MAU(월간활성이용자)는 약 1400만으로 성장했다.대출 포트폴리오도 신용대출과 전월세대출에 이어 주담대, 가계대출 성격의 기업대출인 개인사업자(자영업자) 대출까지 확대되고 있다. 리테일 분야에서 인터넷은행이 몰고 온 모바일·비대면화가 가속화하고 있는 셈이다. 지난 2월 챗봇 대화형 인터페이스를 적용한 모바일 주담대를 선보인 카카오뱅크는 약 한 달만에 1000억원 넘게 팔았다. 전날부턴 대출 대상을 KB 부동산 시세 9억 원 이상으로 확대해 대출 한도를 6억3000만원에서 10억원으로 올렸다. 토스뱅크도 지난 2월 인터넷은행 최초의 개인사업자 대상 '사장님 대출'을 출시해 한 달 반인 지난달 말 대출 잔액 2000억원을 돌파했다. 케이뱅크는 오는 18일 개인사업자 대출을 출시하고 카카오뱅크도 올 하반기 소호(SOHO) 대출을 선보인다. 은행권 관계자는 "은행 산업이 투자업무(IB)와 대기업 중심의 대형 시중은행과 모바일 리테일 중심의 인터넷은행으로 재편되는 변화를 예상해 볼 수 있다"고 했다. 인터넷은행의 혁신이 몰고 온 가격·서비스 경쟁 활성화는 금융소비자 편익 증대로도 나타나고 있다. 인터넷은행 관계자는 "오프라인 점포 비용과 인건비가 적어 대출금리를 상대적으로 낮게 책정하거나 예금금리를 높게 가져갈 여력이 있다"며 "각종 수수료 감면과 중도상환료 면제, 금리인하요구권 확대로 소비자 편의와 편익이 동시에 개선되고 있다"고 자평했다.   과제도 없지 않다. 인터넷은행 3사 모두 지난해 설립 취지인 중저신용자 대출(중금리 대출) 비중 목표에 미달했다. 중금리 대출 확대로 고신용자 대출이 줄면서 자산 건전성 부담도 안고 있다. 인터넷은행들은 중금리 대출 확대 필요성엔 공감하면서도 목표 비율을 설정하기보단 '공급액' 기준 목표로 정책 전환이 이뤄져야 한다는 입장이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.04.06.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>'코인 대박' 덕 봤다…한국 10대 부자 된 이는?</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000664533?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>두나무 송치형 회장, 포브스 억만장자 순위 첫 진입'코인 대박'을 꿈 꾼 개인투자자들은 오늘도 열심히 코인(가상자산) 거래에 몰두하고 있다. 하지만 실제 대박을 본 이는 따로 있었다. 그는 바로 국내 가상자산 거래소 업비트의 운영사인 두나무 송치형 회장이다.송 회장은 5일(현지시간) 미국 경제지인 포브스가 선정한 세계 억만장자 순위 중 국내 8위, 세계 801위 부자로 선정됐다. 포브스가 추정한 송 회장의 자산은 37억 달러로, 한화로는  4조5천100억원이다. 송 회장은 올해 처음으로 포브스의 억만장자 명단에 이름을 올렸다.가상자산 거래소 업비트의 운영사인 두나무 송치형 회장이 올해 처음으로 포브스 세계 억만장자 순위에 이름을 올렸다. [사진=픽사베이 ]코인 열풍은 송 회장 외에도 또 다른 국내 억만장자를 만들었다. 역시나 같은 두나무를 이끌고 있는 김형년 부회장이다. 김 부회장 역시 올해 포브스 억만장자 순위에 처음 이름을 올렸다. 포브스가 추정한 김 부회장의 자산은 19억 달러(2조3천100억원)로, 한국 부자 중 20위, 세계 1천579위에 올랐다.포브스가 집계한 자산 10억 달러(약 1조2천200억원) 이상 세계 억만장자 총 2천668명 중 한국인 억만장자는 41명으로 집계됐다. 작년보다는 3명이 줄었다.포브스가 추정한 한국 최고 부자는 김범수 카카오 창업자와 이재용 삼성전자 부회장인 것으로 나타났다. 이들 두 사람은 각각 91억 달러(약 11조900억원)의 자산을 보유한 것으로 추정돼, 나란히 세계 부자 순위 중 공동으로 223위에 올랐다. 한국인 중에선 가장 높은 순위다.김범수 창업자의 재산은 작년보다 2억 달러 가량 줄어든 반면, 고(故) 이건희 회장으로부터 재산을 상속받은 이 부회장의 자산은 8억 달러 가량 늘었다.김 창업자와 이 부회장에 이어 서정진 셀트리온 명예회장이 70억 달러(약 8조5천300억원), 게임업체 스마일게이트의 권혁빈 창업자가 68억 달러(8조2천900억원)의 재산을 보유한 것으로 추정, 각각 세계 343위, 363위 부호 자리에 올랐다.또한 이 부회장의 어머니인 홍라희 전 리움미술관장은 63억 달러(7조6천800억원)로 국내 5위, 세계 403위 부호에 이름을 올렸다. 이 부회장의 동생인 이부진 호텔신라 사장(41억 달러·709위)과 이서현 삼성복지재단 이사장(35억 달러·851위)도 각각 한국 10위, 세계 1천위 안에 랭크됐다.이 외에도 넥슨 창업자인 고 김정주 NXC 이사의 부인 유정현 NXC 감사도 세계 부호 순위에 새롭게 이름을 올렸다. 유 감사의 재산은 29억 달러(3조5천300억원)로 한국 12위, 세계 1천53위다.SD바이오센서의 조영식 의장, 스마일게이트 권혁빈 창업자, 펄어비스 김대일 창업자, 크래프톤 장병규 창업자, 토스 창업자인 이승건 비바리퍼블리카 대표 등도 한국인 억만장자 순위에 올랐다. 특히 이 대표는 40세의 나이로 한국인 억만장자에 선정돼, 최연소 억만장자가 됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.04.06.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>인터넷은행, 비대면·저금리로 대출 '흥행몰이'</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000141790?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>'인뱅 영토 확장'에 시중은행들도 예의주시케이뱅크와 카카오뱅크, 토스뱅크 등 인터넷전문은행 3사가 대출 영토 확장에 나서는 모양새다. /더팩트 DB케이뱅크·카카오뱅크·토스뱅크 등 인터넷전문은행들이 대출 조건을 완화하고 신상품 출시하는 등 대출 영업에 본격적으로 시동을 걸었다.6일 은행권에 따르면 카카오뱅크는 KB부동산 시세 9억 원 이하의 수도권 소재 아파트를 대상으로 하는 주택담보대출 상품 대상 가격 제한을 해제하고, 대출 한도는 6억3000만 원에서 10억 원으로 상향했다.이에 따라 수도권 아파트의 경우 시세에 관계없이 대출을 받을 수 있다. 다만, 투기 및 투기과열지구 소재 시세 15억 원 초과 아파트의 경우 주택구입목적, 임차보증금 반환 목적의 대출은 제한된다. 카카오뱅크 관계자는 "이번 (상품 대상) 확대로 보다 많은 고객들이 주담대를 이용할 수 있게 됐다"고 말했다.저금리도 눈길을 끈다. 5일 기준 카카오뱅크 주담대 금리는 최저 연 3.01%(변동금리)로, 최근 시중은행들의 변동형 주담대 금리가 최고 연 5%대를 넘어선 것을 감안하면 파격적인 수준이다.이에 카카오뱅크 주담대는 시장에서도 큰 관심을 받고 있다. 지난 2월 15일 출시 이후 지난달 말까지 누적 약적금액은 약 1100억 원을 넘어섰다.인터넷은행들의 공격적인 대출 영토 확장에 시중은행들도 예의주시하는 분위기다. /더팩트 DB인터넷은행들은 주담대뿐만 아니라 전세대출, 개인사업대출 시장으로도 영토를 확장 중이다.케이뱅크의 전세대출은 출시 6개월 만에 6000억 원을 돌파했다. 100% 비대면 대출 실행과 연 2.90%의 낮은 금리가 흥행을 견인한 것으로 풀이된다.토스뱅크는 개인사업자 대출에서 두각을 나타내고 있다. 토스뱅크가 지난 2월 14일 출시한 '사장님 대출' 잔액은 지난달 31일 기준 2095억 원을 기록했다. 100% 비대면은 물론 신청부터 실행까지 3분 이내에 이뤄진다.케이뱅크와 카카오뱅크도 개인사업자대출 출시를 준비 중인 것으로 알려졌다. 케이뱅크는 신용보증재단중앙회와 협력해 개인사업자대출 상품 출시를 앞두고 있으며, 카카오뱅크도 올해 하반기 개인사업자 대상 소호(SOHO) 대출을 내놓을 예정이다.인터넷은행들의 공격적인 대출 영토 확장에 시중은행들도 예의주시하는 분위기다.시중은행 관계자는 "아직 고객 이탈로 이어지고 있지는 않는 것으로 보고 있다"면서도 "인뱅들의 성장세가 눈에 띄게 빨라진 만큼 꾸준히 모니터링은 하고 있다"고 말했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.04.07.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>U+알뜰모바일이 본인인증 수단 늘린 이유</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002253148?sid=105</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>기존 신용카드 방식 본인확인 성공률 낮아...MZ세대 겨냥 편의성 확대"기존에는 본인확인 수단으로 신용카드와 범용 공동인증서를 사용해 인증해야만 했다. 하지만 신용카드가 없는 사람은 이용 자체가 불가능했고, 범용 공동인증서의 경우에도 은행에 직접 방문해 유료로 발급받아야 하는 불편함이 있었다. 우리는 이런 점 때문에 통합간편인증을 기획했다."알뜰폰은 가격이 저렴한 대신 대부분 온라인 가입만 지원한다. 그 과정에서 선불요금제가 아닌 이상 본인인증은 반드시 필요한 절차다. 하지만 신용이 부족하거나 본인인증 수단이 없는 사람이라면 가입 자체에 어려움을 겪을 수밖에 없다.LG유플러스의 알뜰폰 자회사 U+알뜰모바일(미디어로그)은 이런 점 때문에 네이버, 페이코, 패스, 토스, 금융결제원을 이용 가능한 통합간편인증 서비스를 만들었다.5일 LG유플러스 상암사옥에서 통합간편인증을 기획한 손효규 미디어로그 온라인채널기획팀 팀장, 임일규 미디어로그 온라인채널기획팀 책임을 만나봤다.(오른쪽부터) 손효규 온라인채널기획팀 팀장, 임일규 온라인채널기획팀 책임. (사진=강준혁 기자)■ 알뜰폰 이용자 50%가 MZ세대..."통합간편인증 필요한 이유"U+알뜰모바일 가입자의 50%가 20~30대다. 통합간편인증은 처음 이들의 가입 편의성을 높이기 위해 기획됐다.손효규 팀장은 "MZ세대가 알뜰폰 주요 고객층으로 부상했다"며 "모바일 네이티브인 20대, 30대는 경험하는 과정에서 불편함이 있으면 바로 이탈한다. 더 편리한 인증 서비스가 필요한 이유"라고 강조했다.손 팀장은 기존 신용카드 인증 방식은 본인확인 성공률이 낮다고 말했다. 그는 "기존 방식은 U+알뜰모바일 기준으로 월평균 50% 정도가 본인확인에 실패하는 것으로 파악된다"라고 설명했다.LG유플러스 상암사옥에서 통합간편인증 서비스 기획자들과 인터뷰를 진행했다. (사진=강준혁 기자)U+알뜰모바일은 지난해 4월, 알뜰폰 사업자 중에선 처음으로 네이버 간편인증 수단을 도입했다. 하지만 당시에는 전자서명인증사업자 제도가 없어서 ICT 규제 샌드박스를 통해 임시허가를 취득해 서비스를 만들어야 했다. 그 과정에서 어려운 점도 많았다.손 팀장은 "당시 네이버와 긴밀하게 협조하고 우여곡절 끝에 과기부 승인을 받았다. 이후 임시허가 번호를 부여받아 겨우 서비스를 출시할 수 있었다"며 "통합간편인증이라는 이름을 만들면서도 고민이 많았으며 이용자들에게 최대한 친근한 서비스 언어로 명칭을 만들고자 결정하게 됐다"고 설명했다.■ 간편인증 수단 지속 확대임일규 책임은 통합간편인증 서비스에 카카오가 빠진 데 대해 카카오의 내부 정책으로 최근 서비스 도입에는 제외됐지만, 정책이 결정된다면 즉시 도입할 예정이라고 설명했다.통합간편인증은 MZ세대의 가입 편의성을 위해 기획됐지만 U+알뜰모바일은 노령층이 이 서비스를 어떻게 하면 편하게 이용할 수 있을지도 고민 중이다.임일규 책임이 통합간편인증 서비스를 설명하고 있다. (사진=강준혁 기자)임 책임은 "중장년층의 알뜰폰 가입비중도 20% 이상이다. 서비스 기획은 MZ세대의 가입 편의성 때문이었지만 우리는 통합간편인증을 전 연령층이 이용하기 편하도록 하는 게 목표"라며 "때문에 중장년층을 위해 전화가입 시에도 통합간편인증을 사용할 수 있도록 지원하고 있다"고 언급했다.그는 "인증 서비스가 다양해지면 이용자의 선택지를 늘릴 수 있어 긍정적이라고 생각한다"라고 부연했다.U+알뜰모바일은 앞으로도 전자서명인증을 통과한 사업자들과의 협약을 맺고 통합간편인증을 더 확대한다. 또 신규 서비스도 늘릴 예정이다.손 팀장은 "이용자의 요구사항을 파악하는 과정에서 통합간편인증도 기획하게 된 것이다. 새로운 서비스나 기능들에 대해서 적극적으로 검토하고 빠르게 도입할 수 있는 문화가 우리의 강점"이라며 자신감을 드러냈다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.04.10.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>비대면 시대 `금융 메기`의 디지털 혁명, 판을 바꾸다</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002728878?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>케뱅 앱 가입자만 750만명 보유카뱅, 대출잔액 약 26조원 육박토뱅, 사장님 대출 등 파격 대박스톡옵션·저신용자 외면은 논란금융권 '메기'로 떠오른 인터넷 은행의 성장세에 관심이 몰린다. 각사 제공    인터넷전문은행 케이뱅크와 카카오뱅크가 출범 5년을 맞았다. 인터넷전문은행은 오프라인 영업점이 전혀 없는 100% 비대면이라는 특징 하나로 예·적금 통장 개설, 투자 등 많은 부분에서 혁신을 이끌어냈다는 평가를 받고 있다. 주택담보대출과 개인신용대출, 개인사업자대출에 이르기까지 모든 금융거래를 비대면으로 구현해 금융 편의성을 높였다. 후발주자로 지난해 영업을 시작한 토스뱅크는 금융의 디지털 전환과 편의성에 방점을 두고 많은 이용객을 끌어모으고 있다. 다만 '중저신용자 금융 공급'이라는 인터넷전문은행의 설립 취지와 다르게 초기 고신용자 위주의 대출이 이뤄졌고, 상장 직후 임직원의 스톡옵션 행사를 놓고는 논란을 빚기도 했다. 본보는 인터넷전문은행 출범 5주년을 맞아 인터넷전문은행의 금융혁신과 논란을 살펴보는 기획을 마련했다[편집자주].인터넷전문은행 출범 5년① 금융시장의 빛과 그림자10일 은행권에 따르면 출범 5년을 맞은 케이뱅크의 여신(대출)과 수신은 연간 평균 각각 1조5600억원, 2조3100억원이다. 지난달 말 기준 여신 잔액은 7조8100억원, 수신은 11조5400억원으로 나타났다. 카카오뱅크의 대출 잔액은 출범 첫 해인 2017년 말 4조6218억원에서 지난해 말 25조8614억원으로 5.6배 늘었다. 지난해 기준 순이자마진(NIM)은 국내은행 중 가장 크게 늘어났다. 카카오뱅크의 지난해 말 기준 명목 NIM은 1.98%로 전년 대비 0.30%포인트나 커졌다.지난해 출범 직후 금융당국의 가계부채 총량관리로 대출 중단 사태를 겪은 토스뱅크도 대출 성장세를 기록 중이다. 올해 1분기 세 은행의 가계대출 합산 잔액은 36조1439억원으로 전년 말(33조4829억원)보다 7.9% 커졌다.세 인터넷은행이 최근 출시한 개인사업자 대출과 주택담보대출은 시중은행을 위협할 정도로 많은 인기를 얻고 있다. 카카오뱅크가 지난 2월 내놓은 비대면 주택담보대출은 출시 한 달 만에 누적 약정금액 약 1100억원을 돌파했다. 같은 달 토스뱅크가 인터넷전문은행 최초로 내놓은 '사장님 대출'도 한 달 만에 1160억원을 넘어섰다. 케이뱅크도 하반기 내로 개인사업자 보증 대출 출시를 앞두고 있다.인터넷은행은 기존 주요 은행보다 보기 편리한 시스템과 경쟁력 있는 금리·ATM수수료 무료 등 혁신적인 행보로 젊은 층은 물론이고 50대·60대까지 이용층을 끌어모으고 있다. 카카오뱅크 앱 가입자는 1827만명, 케이뱅크는 750만명에 이른다. 토스뱅크도 235만명의 가입자를 보유하고 있으며, 토스 앱 MAU(월간활성이용자)는 약 1400만에 달한다.금융권의 메기라는 평가를 받으면서 짧은 시간 큰 성과를 냈지만 그만큼 논란에 서기도 했다. 카카오뱅크의 경우 상장 과정에서 고평가 논란, 임원의 스톡옵션 행사 등으로 비판을 받기도 했다. 지난해 8월 카카오뱅크 주요 임원들은 상장 직후 두어 차례에 걸쳐 주식을 대량 매도했다. 임원 5명이 팔아치운 주식은 29만5182주로, 상장 전 미행사된 스톡옵션의 11%에 달했다. 카카오페이의 대규모 스톡옵션 행사와 성과에 대한 보상이라는 논리에 가려지긴 했지만, 카뱅 임원의 스톡옵션 행사는 인터넷전문은행 설립 취지를 되돌아보기에 충분했다.특히 중저신용자 대출 비중 확대는 여전한 과제로 꼽힌다. 지난해 세 은행은 모두 금융당국에 제출한 중저신용자 신용대출 비중 목표치를 달성하지 못했다. 은행연합회 공시에 따르면 지난해 말 기준 각 인터넷은행의 '중·저신용자 대상 신용대출 비중(잔액 기준)'이 카카오뱅크는 17%, 케이뱅크는 16.6%, 토스뱅크는 23.9%로 각각 목표치보다 3.8%포인트, 4.9%포인트, 11%포인트 부족하다. 이에 따라 인터넷은행들은 올해 더 높은 목표치를 제시하고 고신용자 대출을 중단하는 등 중저신용자 대출 확대에 나서고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.04.12.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>[임현우의 Fin토크] 제로페이와 핀테크</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004684619?sid=110</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>임현우 금융부 기자지난해 가을 서울의 한 전통시장에 제로페이 사용을 권하는 현수막이 붙어 있다.   한경DB한동안 잊고 지냈던 제로페이에 다시 주목하게 된 것은 두 달 전이다. 세간의 관심이 대통령 선거에 쏠려 있던 올해 초, 핀테크업계에선 또 다른 선거전 열기가 후끈 달아올랐다. 300여 개 핀테크 기업을 회원사로 둔 한국핀테크산업협회의 회장 선거다. 핀테크 위상이 높아지면서 여러 최고경영자(CEO)가 출사표를 던졌다. 제로페이 운영을 전담하는 한국간편결제진흥원의 수장이 당선됐다.개인적으로 의외의 결과라고 생각했다. 이 협회 역대 회장의 면면을 보면 이승건 토스 대표와 류영준 전 카카오페이 대표처럼 ‘테크 기업의 역동성’을 상징하는 인물들이었다. 냉정히 말해 제로페이가 그런 서비스는 아니다는 평이 많다. 4년 전 울며 겨자 먹기식으로 제로페이 행사에 참석해야 했던 핀테크 CEO들이 털어놓던 하소연이 지금도 생생히 기억난다.직접 투표권을 행사한 회원사 관계자들과 얘기하면서 의문이 조금은 풀렸다. 핀테크에 대한 신임 회장의 지식과 애정이 크고, 업계와 협회를 두루 거치며 경륜을 쌓았다는 평가가 많았다. 개인의 경쟁력을 인정받은 선거였다는 것이다. 전자금융법 개정을 비롯해 규제 현안이 많은 핀테크업계로선 그의 대관(對官) 역량에도 기대를 걸고 있었다. '官製' 오명 못 벗은 제로페이제로페이 홈페이지 첫 화면에는 그간의 이용 실적이 공개돼 있다. 137만8501개 가맹점에서 3조5092억4500만원어치 결제가 이뤄졌고, 이를 통해 소상공인이 아낀 수수료는 289억2000만원이라고 한다. 첫 1년 동안 가맹점이 30만 개, 결제액은 700억원 남짓이었음을 감안하면 고무적 성과처럼 보인다.그런데도 왜 제로페이에는 ‘관제(官製) 페이’ ‘박원순 페이’라는 수식어가 여전히 따라다닐까. 관료들이 세금을 투입해 ‘멱살 잡고 하드캐리’하지 않았더라면 불가능했을 성과라는 점이 팩트로 입증됐기 때문일 것이다. 제로페이는 지역상품권을 10% 싸게 팔기 시작하며 상승세를 탔는데, 그 할인액은 시비와 국비로 메꿔줬다. 이렇게 팔린 상품권은 식당 같은 영세 골목상권보다 학원비 납부에 더 많이 쓰였다는 통계가 있다. 서울시 공무원은 제로페이 가맹점을 늘리는 데 동원됐고, 업무추진비는 제로페이로만 쓰라는 지시도 받았다. 제로페이가 널리 보급되면 다양한 민간 핀테크 기업이 활용하는 ‘금융 인프라’ 역할을 할 것이라던 출범 당시 청사진은 아직 먼 얘기다. '민간페이'의 치열함 이길 수 있나시장의 선택을 받는다는 것은 말처럼 쉬운 일이 아니다. 제로페이가 등장할 즈음 택시 호출, 부동산 매물 정보, 숙박 예약 등의 분야에서 공공성을 강조한 앱들이 유행처럼 쏟아졌다. 택시단체와 노조가 보급한 ‘티원 택시’, 한국공인중개사협회가 만든 ‘한방’, 대한숙박업중앙회의 ‘이야’ 같은 것들이다. 하나같이 민간 기업의 ‘수수료 폭리’에 맞선다는 명분을 내걸었지만 끝내 자생력을 기르지 못했다.간편결제 시장은 삼성페이, 카카오페이, 네이버페이 등 몇몇 선발주자가 선점한 지 오래다. 언뜻 보면 경쟁 구도가 절대 바뀌지 않을 철옹성 같다. 하지만 내부적으론 피 말리는 싸움이 이어지고 있다. 지난달 CEO가 나란히 교체된 네이버페이와 카카오페이는 대대적인 외형 경쟁을 예고했다. 신원근 카카오페이 대표가 “올해 결제액 선두 자리에 오르겠다”고 도발하자 박상진 네이버파이낸셜 대표는 “더욱 압도적인 1위를 굳히겠다”고 응수했다.자신만의 강점을 살려 틈새 수요를 파고드는 후발주자들의 도전도 매섭다. 쿠팡페이는 결제 과정을 초단순화해 쿠팡의 구매율과 충성도를 높이는 도구로 쏠쏠하게 활용되고 있다. 최근 후불결제 기능을 추가한 데 이어 조만간 대출사업에도 뛰어들어 덩치를 키울 예정이다.‘국민 중고장터’로 자리 잡은 당근마켓도 핀테크 시장에 도전장을 냈다. 중고물품을 거래할 때 낯선 사람에게 계좌번호를 알려주거나 현금을 건넬 필요 없이 채팅창에서 바로 송금하는 당근페이를 출시했다. 온·오프라인 가맹점을 늘려 결제사업까지 키운다는 구상이다. 무엇을 내놓으면 잘 먹혀들지 치열하게 고민하는 이런 모습을 ‘관제 페이’에선 본 기억이 없다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.04.05.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>중·저신용자 겨냥…시중은행 대출 줄 때 인터넷은행은 늘었다</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003185432?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>중저신용자를 겨냥한 대출이 늘어나며 인터넷은행의 대출 잔액이 올들어 2조6610억원 늘었다. 사진은 오후 서울 강남구 토스뱅크 본사 모습. [중앙포토]           신용점수가 700점대(KCB 기준·과거 4~5등급)인 직장인 A씨(36)는 지난 2월 급히 생활비가 필요해 시중은행에서 신용대출로 300만원을 빌리려 했지만 번번히 거절당했다. 전세 자금에 보태려 지난해 10월 저축은행에서 2500만원을 이미 빌린 것이 발목을 잡았다.        2금융권에서 추가대출을 알아보려다 지푸라기라도 잡는 심정으로 대출을 시도해본 한 인터넷은행에서 연 14% 금리에 500만원 한도로 겨우 돈을 빌릴 수 있었다. A씨는 "중금리 대출이라 신용점수가 다소 떨어지겠지만, 1금융권에서 대출을 받을 수 있어서 한 시름 놨다”고 말했다.      올해 들어 인터넷은행의 대출액이 2조원 넘게 늘었다. 같은 기간 시중은행의 대출 잔액이 6조원 가까이 감소한 것과는 다른 움직임이다. 대출 금리가 치솟자 고신용자의 '빚투(빚내서 투자)' 열기가 한풀 꺾였지만 중·저신용자가 인터넷은행으로 몰린 영향이다. 금융당국 압박에 인터넷은행이 중·저신용자 대출 문턱을 낮춰 중금리 대출을 늘리면서다.         5일 금융권에 따르면 지난달 말 기준 3대 인터넷은행(케이뱅크·카카오뱅크·토스뱅크)의 대출 잔액(36조1439억원)은 지난해 말(33조4829억원)보다 2조6610억원(7.9%) 늘어났다. 토스뱅크 대출 잔액이 1분기(1~3월) 동안 1조8000억원 늘면서 증가세를 이끌었다. 케이뱅크(7200억원)와 카카오뱅크(1037억원)도 모두 가계대출 잔액이 늘었다.      올해들어 대출이 늘어난 인터넷 은행. 그래픽=김은교 kim.eungyo@joongang.co.kr           같은 기간 가계대출 잔액이 쪼그라든 시중은행과 대조적이다. 지난달 말 5대 시중은행(국민·신한·우리·하나·농협)의 가계대출 잔액(703조1937억원)은 석 달 사이 5조8592억원 감소했다. 대출 금리가 뛰고 총부채원리금상환비율(DSR) 규제 등이 강화되며 고신용자의 대출 수요가 줄었다는 게 시중은행의 공통된 설명이다.        반면 인터넷은행은 대출 시장을 공격적으로 넓혀가고 있다. 사업자 대출과 주택담보대출(주담대) 시장에도 진출했다. 지난달 처음으로 주담대 상품을 선보인 카카오뱅크는 시중은행보다 낮은 연 3%대 금리와 중도상환 수수료 면제 등의 조건을 내걸었다. 토스뱅크도 지난달 비대면 개인사업자 대출인 ‘토스뱅크 사장님 대출’을 내놨다. 출시 한 달 만에 대출 규모는 1167억원을 넘어섰다.        인터넷은행이 금융당국의 요구에 중금리 대출을 확대한 것도 대출 잔액이 늘어난 이유다. 인터넷은행이 금융당국에 제출한 목표치에 따르면 카카오뱅크와 케이뱅크는 올해 말까지 신용대출 잔액 가운데 중·저신용자 비율이 25%를 차지해야 한다. 지난해 10월 출범한 토스뱅크는 이보다 많은 42%가 중금리 대출 목표치다. 이에 따라 카카오뱅크는 지난해 10월부터 고신용자 대상 신용대출을 중단한 채 올해에도 중·저신용자에게만 신용대출을 내주고 있다. 케이뱅크는 지난해 11월 중·저신용자의 대출 이자 한 달 치를 면제해주는 행사를 지난달 말까지 한 차례 연장했다.신용등급 구간에 따라 일부 인터넷은행의 신용대출 금리가 시중은행보다 싼 경우도 발생하며 ‘금리 매력’까지 생겼다. 중·저신용자 확대 기조 영향이다. 은행연합회 공시에 따르면 지난 2월 3대 인터넷은행이 5~6등급에 내준 신용대출 평균금리는 연 6.52~7.80%로, 국민은행(8.38%)보다 낮고 신한은행(7.2%)과 비슷한 수준이었다.      그 결과 인터넷은행의 중·저신용자 비중은 계속 커지고 있다. 토스뱅크는 올해 1분기 중·저신용자 대상 신용대출 비중(잔액 기준)이 31.5%라고 5일 밝혔다. 지난해 말(23.9%)보다 7.6%포인트 늘었다. 같은 기간 카카오뱅크와 케이뱅크의 중·저신용자 대출 비중은 19~20%대로 추정된다. 지난해 말보다 2~3%포인트 늘어날 전망이다.      인터넷은행 관계자는 “올해 각종 자산의 변동성이 커지자 지난해 신용대출을 받아 주식 등에 투자했던 고신용자가 투자금을 회수해 대출금을 많이 상환하는 추세”라며 “반면 생계비나 생활비 위주의 중·저신용자의 대출 수요는 여전히 존재하기 때문에 이들의 대출 비중이 늘어나고 있다”고 설명했다.      다만 인터넷은행의 중·저신용자 대출 비중이 빠르게 확대되면서 위험 관리에 빨간불이 켜질 수 있다는 우려의 목소리도 나온다. 김상봉 한성대 경제학과 교수는 “중금리대출 활성화는 긍정적 효과가 있지만 중·저신용자 대상으로 연체율이 올라갈 수 있는 만큼 대출 관리가 중요하다”고 말했다.      성태윤 연세대 경제학부 교수도 “중금리 대출은 자칫 신용도가 낮은 사람에게도 문턱을 낮추게 되면서 (은행의) 대출 위험도 커질 수 있다”며 “금리가 오르는 상황에선 인터넷 은행도 신용도에 맞는 대출 경쟁을 펼쳐야 한다”고 조언했다.      박선지 나이스신용평가 금융평가실 수석연구원은 “인터넷은행은 금융당국의 권고에 따라 향후 불가피하게 중·저신용자 대출 비중을 늘릴 수밖에 없는 상황”이라며 “올해 금융당국의 대출만기 유예나 이자상환 유예 등 금융 조치가 끝난 뒤에 금융권 전반의 부실률이 높아질 경우 인터넷은행의 (건전성) 위험도 커질 수 있다”고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.04.13.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>세종대, 대학 최초로 SW코딩역량 평가 시험</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002253718?sid=105</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>'제 1회 토스크' 30일 시행...1~5급 선택해 볼 수 있어세종대학교(총장 배덕효) 산학협력단 SW역량평가인증원은 오는 30일 오전 10시 대양AI센터 에서 '제1회 SW코딩역량평가(Test Of Software Coding, TOSC)'를 개최한다고 13일 밝혔다.세종대가 국내 대학 최초로 코딩 인증서인 '토스크(TOSC)'를 수여한다. 토스크는 누구나 응시할 수 있으며, SW코딩 능력 향상과 저변 확대를 위해 마련했다.토스크는 논리적인 사고와 문제해결 능력을 바탕으로 코딩 기술을 평가한다. 1~2급과 3~5급 선택이 가능하다. 1~2급은 논리적 사고와 알고리즘 구현이 가능한 전공자 수준이고, 3~5급은 코딩기술로 문제를 해결할 수 있는 비전공자를 위한 것이다.토스크 시험은 오프라인으로 열린다. 사용언어는 파이선(Python)과 C를 선택할 수 있다. 채점은 세종대에서 개발한 온라인코딩평가시스템(OJ)으로 실시간 진행한다. 시험은 오는 30일 오전 10시 30분부터 12시까지 90분간이다. 응시자는 오전 10시 25분까지 입실하면 된다.시험 대상은 초중고, 대학생, 일반인으로 누구나 볼 수 있다. 접수는 선착순 240명이다. 신청은 토스크 홈페이지인 'tosc.kr'에 하면 된다. 응시료가 있다. 1~2급은 1만5000원, 3~5급은 1만원이다. 자세한 신청 방법과 샘플 문제는 홈페이지에 있다. SW역량 평가인증원으로 문의하면 된다. 한편 세종대는 대학 최초로 코딩을 필수과목으로 정해 전교생에게 교육하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.04.05.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>IT 신입 개발자, 최다 검색어는 '자바'</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003007980?sid=105</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>사진=게티이미지뱅크정보기술(IT) 신입 개발자의 관심 직무는 '자바(Java)', 관심 기업은 '카카오'인 것으로 나타났다. 커리어테크 플랫폼 사람인은 올해 1분기 자사 검색어를 6700만건 이상 분석, 구직자의 관심 업무와 선호 기업을 조사한 결과 이같이 나타났다고 밝혔다.IT 개발·데이터 직무 분야 검색어 280만건 가운데 신입 개발자들의 인기 검색어 1위는 '자바'가 차지했다. 뒤를 이어 △프론트엔드 △개발자 △인턴 △백엔드 △카카오 △웹개발 △퍼블리셔 △웹퍼블리셔 △데이터분석 등이 10위권에 들었다. 자바는 경력 개발자가 꼽은 인기 검색어에서도 3위를 차지했다. 1위와 2위는 '전산' '정보보안'이 각각 차지했다. 또 △C# △퍼블리셔 △카카오 △IT △QA △프론트엔드 △롯데정보통신이 경력 개발자 관심 직무로 꼽혔다.자바는 범용성이 가장 뛰어난 언어로, IT 신입 개발자를 채용하는 기업의 수요가 높다. PC나 스마트폰 등에서 사용되는 소프트웨어(SW)를 작동시키는 중추적 언어로, 심화 과정에 들어가면 개발자가 직접 웹이나 애플리케이션(앱)을 개발할 수 있기 때문이다. 자바 프로그래밍을 기초로 해서 응용·심화과정을 거쳐 e커머스 쇼핑몰을 구축하거나 플랫폼 앱을 개발할 수 있다.IT개발·데이터 직무 최다 검색 기업은 '카카오'가 1위를 차지한 가운데 △네이버 △쿠팡 △안랩 △롯데정보통신 △현대오토에버 △삼성전자 △토스 △삼성 △메가존클라우드 등이 뒤를 이었다. 자바는 이들 주요 IT 기업에서 IT개발·데이터 직무 필수역량의 하나로 꼽힌다.카카오는 기술직군을 경력·학력 무관하게 정규직으로 상시 모집한다. 카카오톡 '머신러닝 엔지니어'는 리포팅을 위한 단순 데이터 분석을 넘어 데이터가 문제 해결 중심이 되는 데이터 프로덕트를 만든다. 지원 필수조건으로 자바, 파이선, C++ 등 언어 가운데 하나 이상을 활용할 수 있어야 한다. 임민욱 사람인 커뮤니케이션팀장은 “IT개발 분야는 실무에서 사용하는 기술 스택 중심으로 채용이 진행된다”면서 “구직자 선호도가 높은 국내 주요 플랫폼 기업 '네카라쿠배당토'(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스)를 비롯해 공공·시스템통합(SI) 기업이 가장 많이 사용하는 스택이 자바·스프링이다 보니 취업포털에서 검색량이 지속 증가하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.04.14.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>'고급 대형택시'로 택시업계 문제 푼다는 '타다'...어떻게?</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000038741?sid=105</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>이정행 타다 대표가 14일 오전 온라인으로 진행된 기자간담회에서 발표를 하고 있다. (사진=황금빛 기자)“고급 대형택시 전략은 기존 택시 시장 문제들을 해결하기 가장 쉬운 방법이라고 생각한다. 플랫폼이 시장에 안착되고 여러가지 시도를 할 수 있는 파워를 갖는 것이 중요하기 때문이다. 그래서 파워를 모으는 데 집중하는 의미에서 ‘타다 넥스트(넥스트)’ 서비스를 먼저 시작하는 것이다.”이정행 타다 대표는 14일 오전 온라인을 통해 진행된 ‘타다 넥스트 공식 출시 기자간담회’에서 이같이 말했다. 넥스트는 타다가 토스에 인수된 후 선보이는 새로운 서비스로, 여객자동차운수사업법 개정안 상 타입3인 플랫폼 중개사업(이용자와 택시를 중개)에 해당한다. 고급 대형택시인 넥스트를 통해 택시 시장 문제를 해결할 수 있는 힘을 가질 수 있을 거라 자신한 건, 지난해 11월 말 넥스트 베타 서비스 실시 이후 13만명 이상의 신규 가입자를 유치한 데 따른 것이다. 이에 타다 누적 가입자 수는 210만명이 됐다.넥스트는 7~9인승 승합차로, 최소 5년 이상 무사고 경력의 고급택시 면허를 보유한 드라이버가 운행한다. 반려동물과의 탑승은 물론, 늦은 밤 혼자 귀가하는 이용객, 가족 단위 고객들이 편안하고 안전한 이동을 가능케 하고 있다. 각종 전자기기 충전과 차내 와이파이 지원으로 업무 공간 역할을 하기도 한다. 실제 베타 서비스 기간 동안 강남이나 여의도·용산 등과 같은 오피스 밀집 지역에서 수요가 높았다. 넥스트 이용 횟수가 늘어날수록 재탑승률도 높아졌다. 타다에 따르면 5번 넥스트에 탑승한 고객이 그 다음에도 넥스트에 탑승할 확률은 82% 이상이었다. 넥스트를 통한 타다의 성장을 확신하는 이유다. 타다는 원래도 기존 택시 시장 문제들을 해결하는 것을 가장 큰 미션으로 추구하고 있었다. 택시 업계에 승차 거부 없는 바로 배차를 처음 도입한 것도 타다다. 이 원칙을 고수하면서 타다는 택시 공차율을 낮추고, 호출부터 이동·하차까지 전 과정에서 일어나는 사소한 불편함까지 제거해 매끄러운 이동 경험을 선사하려 한다. 공차율은 어떻게 낮출까. 이 대표는 “일반적인 택시 공차율은 약 40% 수준인데 타다는 플랫폼 호출 최적화를 통해 공차율을 감소시키고 있다”면서 “10분 단위로 서울 지역 내 수요 변화를 모니터링하고 데이터 활용 기술을 통해 요일·날씨·시간대·지역별 수요 등을 미리 예측하기 때문이다”고 설명했다. 이로 인한 이점은 이용자 입장에서 택시 수요가 많은 지역에서도 편안하게 차량을 호출할 수 있다는 점이다. 드라이버 입장에선 수요를 예측해 운행할 수 있는데, 타다는 이를 위한 관련 데이터를 드라이버들이 요청한다면 알려주기도 한다. 효율적 운행과 매출 극대화에 도움을 주기 위해서다. 드라이버와의 ‘소통’은 타다가 강점으로 내세우는 것이기도 하다. 타다는 지난해 말 ‘편안한 이동’이라는 자회사를 설립한 바 있다. 택시업계의 고충을 듣고 드라이버들의 처우 등을 적극 개선하며 공생하기 위해서다. 드라이버 개인이 해결하기 어려운 서비스 품질·운행 노하우 등과 관련해 컨설팅도 제공 중이다. 이를 ‘타다 파트너 케어 센터’로 점차 구축해 나갈 계획이다. 드라이버를 위한 운행 매뉴얼, 차량 상품화 등을 집중 관리하기 위한 것이다. 더불어 드라이버들에게 업계 평균 이상의 급여를 지급해 높은 수준의 서비스를 제공한다는 자부심을 갖고 운행할 수 있도록 한다는 목표다. 이는 ‘탄력요금제’ 기반 운행을 통해 실현한다. 그리고 이 역시 기술을 통한 수요·공급 분석을 통해 이뤄진다. 같은 운행 시간이라도 수요가 높은 시간대 더 좋은 수익을 낼 수 있는 구조를 만든다는 것이다. 특히 이는 배회영업으로 인한 스트레스도 줄여줄 것으로 기대하고 있다. 이날 자리에 함께 한 노현철 타다 사업책임자는 “배회영업 없이 라이드헤일링(차량호출)만으로 배차 로직을 통해 충분히 하루 매출을 달성할 수 있을 것”이라고 강조했다. 타다는 일단 연내 넥스트를 1500대까지 공급하면서, 시장에 빠르게 안착한다는 목표다. 이를 통해 라이트(타다 가맹택시)와 플러스(타다 준고급택시) 등까지 낙수효과를 기대할 수 있을 것으로 보고 있다. 이 대표는 “손익분기점 달성에 대한 계획은 갖고 있지 않고 일단 빠른 성장에 대한 투자가 더 중요하다고 생각한다”면서 “연내 1500대 정도를 달성하면 활성 이용자 수가 12만~16만명 정도가 될 것이라고 보고 있다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.04.12.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>"이름값 할까" 삼성 거대 금융 플랫폼 '모니모' 나온다</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004948599?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>핀테크 경험한 금융소비자 눈높이 높아져혁신 보여줄 것 VS 어렵다…관측 엇갈려[사진 출처 = 연합뉴스] 삼성카드를 주축으로 삼성생명과 화재, 삼성증권 등 삼성 금융 계열사 통합 애플리케이션(앱) '모니모'가 오는 14일 출범한다. 금융권 안팎에서는 '삼성'이라는 브랜드에 걸맞는 획기적인 콘텐츠를 내놓을 것이라는 기대감과 함께 요즘 핀테크 기업이 서비스하는 수준 이상의 그 무엇을 보여주기 어려울 것이란 전망이 교차한다.12일 삼성카드에 따르면 삼성 금융 계열사들은 '삼성카드 마이홈' 앱을 재단장하는 방식으로 통합 앱 모니모를 14일 선보인다. 삼성 금융 계열사들은 지난해 4월부터 통합 앱 개발에 착수했다. 삼성카드가 통합 플랫폼 구축과 운영을 맡았고, 삼성생명과 화재, 삼성증권이 공동 시스템 구축을 위해 비용을 삼성카드에 분담했다.모니모에는 자산조회, 금융 팁, 무료 송금 등의 금융서비스와 내 차 시세 조회, 신차 견적, 부동산 시세 조회 등 각 계열사의 데이터를 활용한 콘텐츠가 담길 것으로 전해졌다. 걷기, 저축 등의 목표를 달성하면 보상을 주는 등 '리워드' 시스템도 함께 도입될 것으로 알려졌다.카드업계에서는 특히, 삼성페이와 모니모가 연계할 경우 지급결제 시장에서 시너지와 파급력이 상당할 것으로 보고 있다. 현재 삼성생명과 화재, 카드, 증권 등 삼성 금융 고객만 2500만명으로 추산된다. 이는 최대 금융사인 KB금융(앱 기준 1700만명)보다 많다.이같은 움직임에 대비해 이미 삼성카드를 제외한 카드사들은 연합군을 구성, A사의 앱 카드에서 B사 카드를 등록해 사용할 수 있게 하는 개방형 앱 카드 '오픈페이' 플랫폼 구축을 올해 상반기를 목표로 진행하고 있다. 이렇게 되면 신한카드의 앱 카드 신한플레이에서 국민카드나 롯데카드, 하나카드, 비씨카드 등을 등록해 사용하는 것이 가능해 진다. 기존 서비스 뛰어 넘는 혁신 기대 어려워금융권에서는 모니모 출범에 촉각을 곤두세우면서도 다른 한편으로는 찻잔 속 태풍에 머물 것이란 관측도 나온다. 모니모에 담길 금융서비스나 콘텐츠 상당수가 이미 기존 은행이나 핀테크 기업에서 서비스하는 것이기 때문이다.  일례로 이용자가 2000만명을 넘어선 토스에서는 토스뱅크와 토스증권을 이용할 수 있고 자산조회 서비스, 걷기나 저축 목표 달성 시 리워드 제공, 대출 비교와 신청, 차 보험료 조회, 신용점수 조회 등이 가능하다. 뿐만 아니라 보험 가입까지 중개한다. 이용자가 130만명인 대출비교 서비스 플랫폼 핀다만 해도 대출 상품 비교 외에도 장기렌트, 리스료 견적 내기와 현대캐피탈과 계약까지 중개해 5일 안에 차량을 이용할 수 있게 지원한다.1000만명 이상 이용하는 마이데이터(본인신용정보관리업) 전문 기업으로 거듭난 뱅크샐러드는 이용자 건강 정보를 바탕으로 주요 질병에 대한 통계적 발병 가능성을 예측하는 '내 위험 질병 찾기' 서비스를 운영하고 있다. 10년 단위의 주요 질병 발병률 예측 그래프와 모니터링 서비스를 통해 미래 발병률을 제공한다. 이 서비스를 기반으로 향후 보험 상품을 추천해 주는 서비스를 추진 중이다.핀테크 기업이 내놓은 혁신 서비스를 경험한  금융소비자의 눈높이를 맞추려면 보다 혁신적인 금융서비스나 콘텐츠를 모니모 출범과 함께 선보여야 하지만 이미 출시 예정으로 알려진 콘텐츠로는 차별화가 어려운 실정이다.경쟁사 이미 하는데…삼성, 마이데이터 사업도 차질더구나 삼성생명과 자회사인 삼상카드의 경우 경쟁사들이 이미 진출한 마이데이터 사업에도 차질을 빚고 있다. 지난 1월 금융위원회는 암보험 요양병원 입원비를 지급하지 않은 삼성생명에 대해 기관경고와 함께 과징금 1억5500만원 등을 부과하는 제재안을 의결했다. 앞서 지난 2020년 12월 금융감독원은 삼성생명을 대상으로 기관경고 제재안을 결정했다.이에 따라 삼성생명과 자회사(삼성카드 등)는 1년간 금융당국의 인허가가 필요한 마이데이터 등 신규 사업 진출이 불가능한 상황이다. 기관경고를 받으면 향후 1년간은 금융당국의 허가가 필요한 신사업 분야에 진출할 수 없기 때문이다.반면 경쟁사인 KB국민은행, 우리은행, 신한은행 등은 그 계열사와 함께  마이데이터 서비스에 이미 돌입했다. 이 외에도 모니모 출범 시 기존 금융권과의 형평성 논란도 불거질 수 있다. 현재 금융지주사는 금융지주회사법에 따라 같은 금융그룹 계열사 간의 통합 앱 구축에 장애 요인이 많다. 가령 동일한 금융그룹이라고 하더라도 개별 회사별로 별도의 앱을 구축해 놓고 금융소비자가 이중 하나의 앱으로 접속한 뒤 동일 금융그룹 내 다른 계열사의 금융서비스를 이용하고자 하면 단순 링크 또는 API로 연결된 다른 앱으로 넘어가서 거래를 종결하도록 구축돼 있다. 하지만 삼성 금융사의 경우 금융지주사가 아니기 때문에 이런 규제에서 자유롭다. 이에 형평선 논란이 제기될 수도 있다. 이대기 금융연구원 선임연구위원은 모니모 출범 시 이같은 문제가 발생할 수 있다며 "빅테크 기업과 경쟁을 벌이는 국내 은행들이 종합 금융 플랫폼 서비스를 할 수 있도록 규제 개선 등 제도적 여건을 마련해야 한다"며 "검색과 쇼핑, 결제가 하나의 앱에서 연속적으로 가능한 네이버 등 빅테크의 서비스 대비 불편이 크고 혁신적인 금융서비스를 제공하기 어렵다"고 지적했다. 한편, 모니모 출범을 앞두고 삼성생명과 삼성화재, 삼성카드, 삼성증권, 삼성자산운용 등 삼성 금융사 5개사는 글로벌 경쟁력 강화와 미래지향적 이미지 형성을 위해 공동 브랜드 '삼성 금융 네트웍스(Samsung Financial Networks)'를 출범했다.삼성 금융사 관계자는 "금융 통합 플랫폼인 모니모를 비롯해 향후 삼성 금융사의 협업을 통한 경쟁력 제고와 미래지향의 이미지를 만들기 위해서는 삼성 금융사들의 공동 BI가 필수적이라는 결론에 도달했다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.04.09.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>"봄 여행 떠나볼까"…온라인서 펼쳐진 '숙박대전'</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005071047?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>각 업체들 '2022 대한민국 숙박대전' 동참하며 혜택 차별화 경쟁이커머스 기업들과 여행 플랫폼 업체들이 봄을 맞아 다양한 여행 상품을 선보이고 큰 폭의 할인을 제공하는 기획전을 잇따라 마련하고 있다. 특히 문화체육관광부와 한국관광공사가 주관하는 'ESG와 함께하는 2022 대한민국 숙박대전'에 참여하며 차별화된 서비스로 경쟁을 펼치고 있다.티몬은 이번 대한민국 숙박대전에 참여하며 전국민 대상 국내 숙박 할인쿠폰 발급 이외 추가 10% 할인과 최대 2만원의 독점 혜택을 제공한다. 이번 숙박대전에서는 선착순으로 할인쿠폰 총 100만장이 제공된다. 숙박비가 7만원 이하면 2만원 할인, 7만원 초과면 3만원 할인쿠폰을 발급받아 사용할 수 있다. 티몬에서 쿠폰을 발급받는 고객들에게는 기본 숙박대전 할인에 더해 최대 10% 즉시 할인이 추가되고 카카오페이로 결제한다면 5만원 이상 2500원, 7만원 이상 5000원, 10만원 이상 1만원, 20만원 이상 2만원 할인을 또 받을 수 있다. 티몬은 제주도를 포함한 전국 총 3만여곳의 다양한 국내 숙박 상품을 준비했다.위메프도 이번 행사를 위해 국내 호텔, 리조트, 펜션 등 1만여 개 국내 숙박 상품을 준비했다. 위메프 고객만을 위한 혜택으로는 중복으로 사용 가능한 최대 10%할인 쿠폰을 지급한다. 제휴카드 결제 시에는 5% 포인트 적립 혜택을 제공한다.야놀자도 숙박대전에 참여하면서 단독 혜택을 마련했다. 야놀자를 통해 숙박대전에 참여한 모든 고객에게 결제액 기준 10%(최대 1만 원) 상당의 리워드를 제공한다. 또한 강원도, 제주, 부산 지역 숙소와 레저 또는 교통 상품 동시 구매 시 최대 30% 상당의 리워드를 지급한다. 간편결제 서비스나 제휴 카드로 결제하면 최대 10% 중복 할인이 적용된다. 숙박대전 쿠폰에 야놀자 단독 혜택을 더하면 최대 70% 할인가로 국내 여행을 즐길 수 있다는 설명이다.마이리얼트립은 숙박대전을 기념해 쿠폰을 발급받은 고객 모두에게 총 7만 5000원의 숙박 쿠폰팩을, 쿠폰 사용 고객 중 10명을 추첨해 100만원 여행 포인트를 지급한다. 쿠폰 사용 시 추가로 토스페이를 통해 7만원 이상 결제한 고객 중 선착순 3000명에게 5% 추가 할인을 제공한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.04.14.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>삼성금융, 마이데이터 맞서 승부수 던졌지만…우물 안 모니모?</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000282325?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>[앵커] 발목을 잡힌 마이데이터 사업에 대응하기 위해 삼성 계열 4개 금융사가 통합앱을 내놨습니다. 중복 가입까지 포함하면 이들의 보유 고객은 3200만 명에 달하는데요. 하지만 야심차게 준비한 것과는 달리 파급력에 있어서는 의구심이 제기되고 있습니다. 왜 그런지 윤성훈 기자가 취재했습니다. [기자] 삼성금융 계열사가 야심차게 선보인 통합앱 '모니모'입니다. 삼성카드와 삼성생명, 삼성화재, 삼성증권의 거래현황을 한 번에 확인할 수 있습니다. 보험 상품 가입부터 카드 발급, 증권 계좌도 개설할 수 있습니다. 특히 보험과 카드 등 통합앱에서만 가입할 수 있는 상품도 있습니다. 이처럼 삼성금융이 통합앱을 내놓은 이유는 마이데이터 사업에 발목 잡힌 위기감 때문입니다. 앞서 금융당국의 제재로 삼성금융은 1년 동안 마이데이터 서비스 진출이 막혔습니다. 반면 네이버와 카카오, 토스 등 핀테크 업체들은 빠르게 금융서비스 영역을 확장하고 있습니다. 위기를 느낀 삼성 금융사들은 이에 맞서 지난 1년 동안의 준비 끝에 통합앱을 선보인 겁니다. 그러나 야심찬 출시치고 평가는 냉랭합니다. 다른 업체들의 다양한 서비스와는 달리 통합앱에서는 삼성 금융사 상품만 가입이 가능합니다. 또, 자체 데이터만으로는 고객 맞춤형 서비스를 내놓기엔 역부족이라는 지적도 나옵니다. [서지용 / 상명대 경영학과 교수 : 삼성금융계열사 같은 경우 은행이 없어요. 삼성은 가장 금융자산의 비중이 높은 은행 데이터를 받을 가능성이 높지 않거든요. 자산 운용과 관련한 데이터 분석을 하는데 제한 요인이 될 것 같고요.] 결국 통합앱의 한계를 어떻게 극복하느냐가 마이데이터 사업에서 구겨진 삼성의 자존심을 회복하는 열쇠가 될 것으로 보입니다. SBS Biz 윤성훈입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.04.06.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>"자랑스런 토스인에게 대표가 주식 쏩니다"</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004682768?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>뉴스카페우수 성과 직원에게 주식 1주10만원 상당 사내 포인트 지급토스가 우수 직원에게 주식을 주고 직원들을 위해 맛집 추천과 여행 플래닝 같은 ‘컨시어지 서비스’ 전담 조직을 두는 등 다양한 사기 진작 프로그램을 운영해 업계의 주목을 받고 있다.6일 금융권에 따르면 토스는 작년 초부터 ‘토다행(토스다운 행동)’이란 사내 리워드 프로그램을 운영 중이다. 팀워크나 ‘임팩트’, ‘실패할 용기’, ‘주도적 학습’ 등 토스의 핵심 가치를 실현한 직원에게 비바리퍼블리카(토스 운영사) 주식 1주와 10만원 상당의 사내 포인트, 자체 제작한 메달 등을 준다. 우수한 성과를 낸 직원에게 현금이나 현물 등으로 보상해주는 기업은 많지만 주식을 나눠주는 것은 이례적이란 평가다.토스 관계자는 “이승건 대표(사진)가 개인 주식을 증여하는 방식”이라며 “이를 통해 직원들이 더욱 주인의식을 느낄 수 있다”고 했다. 주식의 경우 최초 토다행 우수 직원으로 선정된 직원에게만 제공된다. 두 번째로 선정됐을 때부터는 사내 포인트만 받는다. 포인트로 사내 굿즈숍에서 후드티나 우산 등을 사거나 현금으로 바꿔 쓸 수도 있다.토다행 우수 직원은 경영진이 아니라 사내 구성원들이 직접 뽑는다. 지난해에만 약 300명이 토다행 우수 직원으로 뽑혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.04.12.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>[광화문]'공룡' 금융사의 족쇄도 풀어주자</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004731543?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>흥망성쇠. 흥하다가 망하고 융성하다가 쇠퇴하는 게 세상이치다. 수많은 제국들이 그러했고 산업과 기업도 이같은 이치에서 벗어나지 못했다. 제국에서는 로마제국과 몽골제국이, 기업에서는 대우가 대표적인 예다. 금융산업은 쇠퇴하는 대표 산업 중 하나다. 심지어 전통적인 금융사는 사라질 것이란 예상도 나온다. 지금은 돈을 잘 벌고 있지만 앞으로도 벌이가 좋을 것이라고 장담할 수 없다. 주식시장은 이를 명확히 보여준다. KB금융지주와 신한금융지주(신한지주)가 리딩 금융그룹 자리를 두고 다투지만 PBR(주가순자산비율)은 각각 0.5배도 안된다. 주가가 자산가치도 온전히 반영하지 못하고 있는 셈이다. 다른 금융사도 사정은 비슷하다. 예금 금리는 낮고 배당수익률은 높다. 금융주식을 사서 배당을 받는 게 예금에 가입하는 것보다 수익 측면에서 유리하지만 선뜻 주식을 사진 못한다. 주가가 떨어질 수 있어서이기도 하지만 지금만큼 돈을 벌지 못해 배당을 못할 수 있다는 우려 때문이다. 지난해엔 돈은 많이 벌었지만 마음대로 배당도 못했다.PBR 1배를 넘는 금융회사를 찾기 어려운 것도, 금융주식에 손이 가지 않는 가장 큰 이유는 '규제' 때문이다. 강력한 규제 아래에선 어떤 산업도 성장하기 어렵다. 금융산업은 전형적인 규제산업이다. '사양산업'이 될 수 밖에 없었던 건 정해진 수순일지도 모른다. 사양산업이면 쇠하다가 망해야 할까. 거대 금융사를 '공룡'에 비유해 멸종할 것이라고 한다. 하지만 공룡은 2억5000만년전부터 6600만년전까지 2억년 가량 지구를 지배했다. 오랜 시간 수많은 진화를 거듭한 결과다. 게다가 완전히 사라지지도 않고 '새'라는 이름으로 지금까지 살아남았다. 거대 금융사들도 공룡처럼 살아남을 수 있다. 다만 규제로 발을 묶고 날아가지 못하게 한다면 멸종 위기에 놓일 수밖에 없다.  금융사들을 묶는 대표적인 규제 중 하나가 핀테크 인수 제한이다. 은행 등 금융사는 비금융 회사 지분 20%를 확보하려면 당국의 승인을 받아야 한다. 은행은 비금융 스타트업 지분 15% 이상을 보유할 수 없다. 금융지주내 금융사는 다른 계열사의 정보를 마음대로 공유할 수 없고 비금융 정보를 확보하는데 제한이 따른다. 규제가 풀리면 핀테크와 다양한 스타트업을 인수해 미래 먹거리로 삼을 수 있다. 신한은행이 배달앱 '땡겨요'를 만드는 것 대신 기존 배달앱을 인수했다면, KB국민은행이 알뜰폰 서비스 '리브엠'을 론칭하는 게 아니라 기존 알뜰폼 사업자를 사들였다면 어땠을까. 토스가 금융의 '미래'라는 확신이 선다면 금융그룹들이 아예 토스를 인수하지 않을 이유도 없다. 스타트업들과 핀테크들은 금융사로의 피인수를 원하기도 한다. 얼마전 만난 빅테크 대표는 "기존 금융권이 가지고 있는 힘 중 하나는 '돈'이고 그 '돈'을 (핀테크 인수에) 쓰는 것에 반대하지 않는다"고 했다.물론 기존 금융사가 핀테크와 스타트업을 인수하더라도 잘 되리라는 보장은 없다. PMI(인수 후 통합)을 이유로 자신의 문화를 스타트업에 전수하고 금융사 레가시(유산)의 원천인 '부장님들'이 스타트업으로 가면 답이 없다. 실패가 겁나 '용기'를 내지 못하는 금융사도 있다. 용기가 없으니 '규제'를 탓한다. 규제 완화를 바라지도 않는다. 이들은 결국 멸종하는 공룡이 될 것이다. 순수히 금융사와 CEO(최고경영자)의 책임이다. 반면 '용기'를 낼 여건조차 만들지 않아 혁신을 막아버려 금융산업 자체가 쇠하고 망하게 되는 건 정부와 정책이 책임져야 한다.다행히 윤석열 정부 대통령직인수위원회는 부동산 정책(LTV(주택담보인정비율)나 DSR(총부채원리금상환비율) 정책)과 지역균형발전 정책(산업은행의 부산 이전)만 보는 게 아니라 금융산업 혁신을 가져올 '금융정책'도 보고 있다고 한다. 새 정부가 금융사인 '공룡'들이 '새'가 될 수 있도록 발목을 잡고 있는 족쇄를 풀고 모래주머니를 벗겨 주길 기대한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.04.12.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>쿠콘, BC카드 대출비교 서비스에 API 연계</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002729222?sid=105</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>카카오페이, 토스, 핀다 등 시중 대출비교 서비스도 지원비즈니스 데이터 플랫폼 기업 쿠콘(대표 김종현)은 BC카드 '페이북'의 대출비교 서비스에 자사 상품 '대출한도 및 금리조회 API(애플리케이션 인터페이스)'가 탑재됐다고 12일 밝혔다.BC카드의 대출비교 서비스는 페이북 내 '재테크' 카테고리 '대출' 메뉴에서 이용할 수 있다. 본인 인증만으로 신용등급 영향 없이 여러 금융기관 대출 상품의 금리와 한도를 확인할 수 있다. BC카드는 금융 소비자 보호를 위해 '이해상충 방지 알고리즘' 인증을 받아 서비스 신뢰도를 높였다.최근 비대면 금융 서비스 범위가 확장되면서 많은 금융기관, 핀테크 기업이 대출비교 서비스를 내놓고 있다. 쿠콘의 대출한도 및 금리조회 API는 서비스를 준비하는 기업 및 기관에 적합한 상품으로, 서비스 이용자가 본인이 대출 가능한 상품과 금리를 바로 비교해볼 수 있게 해 준다. 쿠콘은 '간편 대출 서비스 시스템' 특허도 보유하고 있다. 이 회사의 기술은 시중에 출시된 대부분의 대출비교 서비스에 활용되고 있다.쿠콘 대출한도 및 금리조회 API를 활용해 서비스를 제공하는 기업으로는 토스, 카카오페이, 현대카드 등이 대표적이다. 최근에는 금융상품 연계 기관을 대부업권까지 확대하고 있다. 김종현 쿠콘 대표는 "BC카드와의 협업 범위를 넓혀 대출비교 서비스까지 제공할 수 있게 돼 기쁘다"며 "BC카드 페이북의 대출비교 서비스가 시장에서 성공적으로 자리 잡을 수 있도록 최선을 다해 지원하겠다"고 말했다.쿠콘은 금융, 공공, 의료, 물류, 통신 등 국내 500여 개 기관과 해외 40여 개국, 2000여 개 기관의 데이터를 수집·연결해 API 형태로 제공한다. 2021년 4월 코스닥에 상장한 쿠콘은 2021년 1월 금융위원회로부터 마이데이터 사업자로 선정돼 마이데이터 전문 플랫폼을 제공하고 있으며, 마이데이터 서비스 기능적합성 심사를 통과해 마이데이터 서비스 안정성을 공인 받았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.04.03.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>토스뱅크, 개인사업자대출 출시 한달반만에 2천억원 돌파</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013088878?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>'사장님 대출' 지난달 197%↑…최근 2주 하루평균 59억원 대출토스뱅크서울 강남구 토스뱅크 본사의 모습. [연합뉴스 자료사진]    (서울=연합뉴스) 오주현 기자 = 토스뱅크가 인터넷 전문은행 최초로 선보인 개인사업자 대출 상품의 잔액이 출시 한 달 반 만에 2천억원을 넘어섰다.    3일 은행권에 따르면 토스뱅크의 '사장님 대출' 잔액은 지난달 31일 기준 2천95억원으로, 2월 말 대비 197.5%(704억원) 증가했다.    토스뱅크는 지난 2월 14일 인터넷 전문은행 최초로 개인사업자 대출 상품인 '사장님 대출'을 선보이며 기업금융 첫발을 내디뎠다.    사장님 대출은 출시 한 달만인 3월 14일 잔액이 1천167억원을 돌파한 데 이어, 최근 2주간은 하루 평균 약 59억2천만원의 대출을 취급했다.    시중은행의 보증부 대출을 제외한 개인사업자 대출(무보증)이 하루 평균 6억7천만∼10억원 규모로 취급되는 것을 고려하면 토스뱅크의 개인사업자 대출 성장세가 두드러진다.    토스뱅크 사장님 대출은 보증기관의 보증서나, 고객의 부동산 등을 담보로 하지 않고 개인의 신용에 따라 한도(최고 1억원)를 부여한다.    다양한 비금융 정보를 활용해 개발한 자체 신용평가모형(CSS)을 통해 개인의 신용도를 평가하고 있어 '신 파일러(금융이력 부족자)' 고객들 사이에 입소문이 났다.     중저신용 개인사업자들의 대출 비중이 잔액의 약 40%에 육박한 것으로 집계됐다.    토스뱅크 관계자는 "운수업 종사자 등 기존에 증빙 소득으로 신용도를 평가받기 어려웠던 금융 사각지대 계층을 포용한 것이 (최근 성장의) 주요한 요인으로 보인다"고 말했다.    토스뱅크의 선전 속에 다른 인터넷 전문은행들도 개인사업자 대출 준비에 박차를 가하고 있다.    케이뱅크는 이달 18일 신용보증재단중앙회와 협력한 개인사업자 운전자금 대출을 출시할 예정이다.     카카오뱅크는 하반기 개인사업자 대상 소호(SOHO) 대출 출시를 준비하고 있다.    자영업자 대출이 내수 경기에 따른 영향을 크게 받는 만큼 이에 따른 리스크 관리 역량 확보가 개인사업자 대출을 취급하려는 인터넷 전문은행의 과제로 꼽힌다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.04.13.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>“개발자 뽑는 사람을 뽑아요” 스타트업 진풍경</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003684795?sid=105</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>IT업계 구인난 심해지자 개발자 채용 전담인력 모시기							소상공인 경영 관리 서비스 스타트업 한국신용데이터(KCD)는 이달 개발자 채용만 전담하는 직원을 새로 뽑았다. 임직원 100여 명인 이 회사에는 이미 일반 채용 담당자가 2명 있는데, 개발자만 뽑는 직원을 따로 두 명 더 두게 됐다. 중고거래 앱 당근마켓, 온라인 명품 플랫폼 발란, IT 물류 스타트업 메쉬코리아 등도 최근 개발자만 뽑는 전담 직원을 구하고 있다.IT 기업들이 몰려 있는 판교테크노벨리 전경./이명원 기자										IT 업계 개발자 구인난이 심화하면서 아예 개발자 전담 채용 인력을 두거나 지원 조직을 만드는 스타트업들이 늘고 있다. ‘테크 리크루터(개발자 채용 전담자)’ ‘디벨로퍼 릴레이션(개발자 커뮤니티 매니저)’ 같은 직무를 두고 있는 구글·애플·아마존과 같은 빅테크들처럼 국내 스타트업 업계도 성장의 핵심인 우수 개발 인재를 확보하기 위해 특별한 일자리들을 만들고 있는 것이다.배달의민족 운영사 우아한형제들, 채용 플랫폼 원티드랩은 올해 초 개발자 전담 지원 조직을 신설했다. 개발자 채용과 처우, 소통, 교육 등을 전방위적으로 담당한다. 원티드랩 관계자는 “일 잘하는 개발자를 뽑기 위해 그들만의 언어와 기술을 이해하고 네트워크도 갖춘 채용 담당 인력들에 대한 수요도 덩달아 커지고 있다”며 “개발자 친화적인 인력과 조직을 갖추면 인재 영입에도 유리하다”고 말했다.핀테크 회사 토스는 개발자 채용 전담 직원을 기존 8명에서 최근 17명으로 늘렸다. 회사 전체 채용 담당 인력(30명)의 절반이 넘는다. 사업을 키우기 위해 개발자를 대거 영입하려다 보니 채용 담당자도 크게 늘렸다. 350여 명 규모의 부동산 중개 스타트업 직방에는 채용 담당 인원이 5명인데, 이 중 3명이 개발 인력 채용 전담이다.개발자 채용 전담 직원을 두는 건 스타트업 입장에선 비용 절감 효과도 있다. 헤드헌팅 업체를 통하면 팀장급 개발 인력의 경우 수수료가 연봉의 최대 40%에 달해 비용이 만만찮기 때문이다. 한 스타트업 관계자는 “팀장급 개발자 연봉이 2억원이라고 하면 1명을 영입하는 데만 8000만원을 써야 한다”며 “회사가 성장하면서 수시로 인력을 뽑아야 하는데 그럴 바엔 그 돈을 사내 전담자에게 연봉으로 주고 안정적으로 인재를 구하는 게 낫다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.04.06.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>롤러코스터 타는 카카오뱅크…'尹 대표 수혜株' vs '고속성장 끝'</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004729615?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>[편집자주] 편집자주 국내에 인터넷전문은행이 설립된 지 꼭 5년이다. '기대반 우려반'으로 출범했지만 성공적으로 안착했다는 평가다. 우려가 완전히 사라지지는 않았지만 인터넷은행의 등장으로 금융 일상의 시공간 제약이 사라지고, 금융산업의 비대면화가 가속화하고 있다. 다섯 살이 된 인터넷은행의 혁신 시도가 바꾸고 있는 금융시장의 변화상을 들여다본다.[MT리포트-인터넷전문은행 5년, 금융을 바꾸다]/사진=김다나 디자이너카카오뱅크 주가 하락세가 심상찮다.  상장 전후로 긍정적 전망이 쏟아졌던 것과 달리 시장 평가도 엇갈린다. ━시무룩한 '카카오뱅크'…실적도, 주가도 ↓━ 6일 유가증권시장에서 카카오뱅크는 전 거래일 보다 1450원(2.91%) 떨어진 4만8350원으로 장을 마쳤다. 이번 달 들어 4거래일 연속 하락이다. 지난  5일(현지시간) 미국 연방준비제도(연준, Fed)에서 강한 긴축 예고 발언이 나오면서 같은 섹터에 속하는 KB금융, 신한지주, 하나금융지주, 우리금융지주 등이 오름세를 보인 것과 대조적이다.금리 인상기 대표 수혜주로 꼽히는 금융주인 카카오뱅크의 행보는 실망스럽다. 카카오뱅크는 지난해 8월6일 공모가(3만9000원)의 2배에 가까운 6만9800원으로 상장 첫날을 마쳤다. 비록 '따상'(상장 첫날 공모가 두배로 시초가를 형성한 뒤 상한가를 치는 것)을 기록하진 못했지만 8거래일 만에 9만4400원으로 신고가를 경신했다.이랬던 카카오뱅크가 지난 연말부터는 쭉 내리막세다. 올해 들어 카카오뱅크는 18%가량 하락했다. 지난 1월28일에는 공모가 수준에 불과한 3만9550원을 찍었다. 현재는 5만원 박스권 안에서 등락을 반복하고 있다.'금융주 1위'라는 타이틀도 KB금융에 내줬다. 코스피 시가총액 순위도 한때 9위까지 올랐지만 현재는 14위(6일 기준 시총 23조원)까지 밀렸다. 최근 카카오뱅크가 약세를 보이는 원인 중 하나로는 지난해 4분기 컨센서스(시장 평균 전망치)를 하회한 실적이 꼽힌다. 카카오뱅크는 4분기 영업익과 당기순이익은 직전해 동기 대비 각각 57.6%, 30.2% 증가한 520억원, 362억원으로 집계돼 컨센서스를 하회했다. ━카뱅의 미래는?…"상승 여력 제한적" vs "尹 정부서 가장 많은 수혜"━서울 영등포구 여의도 카카오뱅크 오피스 모습 /사진제공=뉴스1카카오뱅크에 대한 시장 시각도 우호적이지만은 않다. 한화투자증권은 카카오뱅크에 대해 목표주가 4만7000원과 투자의견 '보유'(hold)를 제시했다.김도하 한화투자증권 연구원은 "카카오뱅크는 브랜드 파워와 안정적인 자본 조달, 우호적인 시장 환경을 바탕으로 한계가 없는 고속 성장의 가도를 달려왔다"면서도 "현재는 가계대출시장의 성장 제한, 중신용대출 비중, 규제의 정상화 등으로 제약조건이 생기는 구간에 처음으로 직면했다"고 했다.이어 "2022년 이후 고성장을 기대하며 중장기 가치를 반영해 5년 목표 PBR(주가순자산비율) 2.6배를 제시하지만 상승 여력은 제한적"이라며 "또 케이뱅크가 영업을 정상화하고 신규 인터넷은행인 토스뱅크가 출범해 경쟁자가 출현한 상황에서 대체재 성격인 인터넷은행 간의 침투(penetration)가 발생할 수 있다"고 했다.반면 윤석열 대통령 당선인 선출로 주택시장 활성화 기조에 따른 대출 규제 완화가 예상된다며 실적 개선을 기대하는 의견도 존재한다. 특히 카카오뱅크는 지난 2월 출시한 주택담보대출(주담대) 누적 약정 금액 1000억원을 돌파하며 흥행에 성공했고 최근에는 대출 대상을 확대하기도 했다.하이투자증권은 카카오뱅크에 대해 목표주가 6만원과 '매수'(buy) 의견을 제시했다. 김현기 하이투자증권 연구원은 "동사의 1분기 당기순이익은 711억원으로 컨센서스에 부합할 전망"이라며 "순이자마진(NIM)은 중금리대출 성장과 기준금리 인상으로 인해 큰 폭으로 개선되고 있다"고 했다.아울러 "원화대출채권은 금융 당국의 가계대출 규제로 인해 전분기대비 소폭 높은 3.5% 성장을 예상한다"면서도 "신용대출은 고신용자대상 신규 대출 중단으로 인해 소폭 증가에 그칠 것"이라 했다.키움증권은 목표주가 5만7000원과 '시장수익률 상회'(outperform) 의견을 내놨다. 서영수 키움증권 연구원은 "새 정부가 금융안정에서 주택시장 활성화 중심으로 정책기조를 변경한다면 동사가 가장 많은 수혜를 입을 것"이라며 "올해와 내년 순이익을 각각 20%, 48% 상향 조정한다"고 밝혔다.다만 그는 "금융안정 위험이 높아지는 상황에서 새 정부가 정책 기조를 전면 수정하고 주택시장 부양을 위해 모든 대출 규제를 완화한다고 단정하기는 어렵다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.04.04.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>[주간투자동향] 마스오토, 150억 원 규모의 시리즈A 투자 유치</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003420456?sid=105</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>바야흐로 스타트업 시대입니다. 2010년부터 시작한 국내 스타트업 열풍은 지난 10년 동안 급속도로 성장했습니다. 대한민국은 어느새 유니콘 기업 11개를 배출한 세계 5위 스타트업 강국으로 자리매김했는데요. 쿠팡, 우아한형제들, 야놀자, 블루홀 등 경쟁력을 갖춘 스타트업이 우리 실생활 속으로 파고들었고, 지금 이 순간에도 성공을 꿈꾸는 수많은 스타트업이 치열한 경쟁 속에서 도전하고 있습니다. 이에 IT동아는 이러한 국내 스타트업의 현장을 [주간투자동향]으로 정리해 제공합니다.마스오토, 150억 원 규모의 시리즈A 투자 유치자율주행 트럭 스타트업 마스오토(Mars Auto)가 150억 원 규모의 시리즈A 투자를 유치했다. 이번 투자는 GFT벤처스와 미래에셋벤처투자, 센트랄(CTR) 등이 참여했다. 투자를 주도한 GFT벤처스의 공동 창업자이자 마스오토 담당 파트너인 제프 허브스트는 엔비디아에서 20년간 사업개발 업무를 담당했던 전문가로, 미국 나스닥에 상장한 자율주행 트럭기업 투심플(TuSimple)에 투자해 이사회 멤버로 활동한 바 있다.마스오토의 자율주행 트럭, 출처: 마스오토마스오토는 화물 운송용 트럭을 위한 인공지능 기반 자율주행 소프트웨어를 개발한 스타트업이다. 고가의 장비 없이 카메라를 활용한 머신러닝 모델을 활용해 스스로 학습하고 발전하는 자율주행 트럭을 구현하는 것이 핵심 기술이다.마스오토는 이번 시리즈A 투자 유치 자금을 통해 머신러닝 개발 인력을 채용하고, 자율주행 상용화를 위한 트럭 및 설비 구매, 인프라 확충 등에 나설 예정이다.지난 2017년 10월 설립한 마스오토는 2년만에 국내 최초로 자율주행 트럭 시험주행에 성공했다. 카메라와 소형 컴퓨터 등을 탑재한 트럭으로 운전자 개입 없이 서울~부산 구간 고속도로를 5시간 30분 동안 자율주행했다. 2020년 11월에는 기업화물 전문 운송사 로지스퀘어와 협업해 5.5톤 자율주행 트럭 1대로 경기도 파주와 대전 물류창고 간 왕복 450㎞를 운행하는 화물 운송도 시작했다.이번 투자에 앞서 마스오토는 케이큐브벤처스(現 카카오벤처스)와 카카오모빌리티, 와이콤비네이터(Y Combinator), 소마 캐피탈(Soma Capital) 등으로부터 시드 투자를 유치한 바 있다.에프앤에스홀딩스, 100억 원 규모의 시리즈B 투자 유치에프앤에스홀딩스가 100억 원 규모의 시리즈 B 투자를 유치했다. 이번 투자는 디에스자산운용, 유니온투자파트너스, 피앤피인베스트먼트를 비롯해, 기존 투자사인 오픈워터인베스트먼트, 넥스트지인베스트먼트, 윈베스트벤처투자 등이 참여했다. 에프앤에스홀딩스는 이번 투자 유치를 통해 패션 메타버스 몰 플랫폼 개발에 속도를 더하고, 해외 디지털 패션 산업 시장을 선점할 계획이다.출처: 에프앤에스홀딩스에프앤에스홀딩스는 지난 2018년 패션 기업, 개인 등 누구나 디지털 패션 콘텐츠를 생산하고 유통할 수 있는 서비스를 제공하고자 설립했으며, 관련 플랫폼 패스커(FASSKER)를 2020년 베타 런칭했다. 이를 통해 VR 스토어, AR룩북 등 3D 콘텐츠를 개발했으며, 현재 가상세계와 현실세계가 공존하는 공간에서 디지털 콘텐츠를 활용할 수 있는 메타버스 몰 플랫폼 개발을 준비 중이다.패스커는 이번 투자 유치를 바탕으로 패션 메타버스 기술을 한 단계 올려 해외 시장 공략에 나설 예정이다. 지난 2월 스페인에서 열린 ‘MWC(모바일 월드 콩그레스) 2022’에 참여해 해외 참관객들에게 실제 매장을 방문하는 것과 같은 경험을 제공하는 ‘VR 스토어’, 3D로 실제 제품을 손 안에서 경험할 수 있는 ‘3D 쇼룸’, 멈춰 있는 2D 룩북이 아닌 움직이는 3D ‘AR 룩북’ 등 패스커만의 기술과 콘텐츠를 선보였다.에프앤에스홀딩스는 디올, 펜디, 발렌시아가, 에스티로더, 토즈, 한섬, 신세계인터내셔날, 삼성물산, LF 등 여러 국내외 브랜드와 협업하며 서비스의 가능성을 검증했다. 또한, 중소벤처기업부의 팁스(TIPS)와 과학기술정보통신부의 ‘소프트웨어 고성장 클럽 200’ 사업 선정, 2021 경기 스타트업 Talking Day의 ‘넥스트 유니콘’ 부문에서 중기부 장관상 수상 등 사업성과 기술력을 인정받았다.아크로스테크놀로지스, 45억 원 규모의 투자 유치인공지능 기반의 자산운용 핀테크 서비스를 제공하는 아크로스테크놀로지스(이하 아크로스)가 피플펀드로부터 45억 원(시드 14억 원, 프리-시리즈A 31억 원) 규모의 투자를 유치했다.아크로스는 데이터 중심으로 접근해 기존 자산운용업에 존재하는 비효율적 요소를 제거해 소비자의 투자 가치를 제고하고자 한다. 금융투자상품 유통 과정에서 소비자가 수익을 받기까지 여러 금융사를 거치며 누적 발생하는 금융사 수수료를 투자 상품 직접 개발과 판매 과정 단축 등을 통해 80% 이상 제거해 환원하는 것이 첫 목표다.김정훈 부대표, 문효준 대표, 정진엽 부대표(왼쪽부터), 출처: 아크로스테크놀로지스지난 2021년 1월 설립한 아크로스는 1910년부터 현재까지 10TB 이상의 자체 정밀 데이터 인프라 및 분산컴퓨팅 환경을 구축해 데이터 기반 투자 기술과 인공지능 모델을 완성했다. 이를 통해 오는 3월말까지 모닝스타의 지수 사업계열사 무어게이트 벤치마크와 함께 2개의 지수를 개발 완료할 예정이다. 이어, 해당 지수를 벤치마크로 삼는 ETF 투자상품 2종을 미 뉴욕증권거래소에 연내 상장할 계획이다.또한, ETF 상품의 운용 성능을 높이기 위해 자체 인공지능을 지속 업그레이드하며, B2C 서비스 및 헤지펀드 등으로 사업 영역을 확장할 예정이다. 이를 위해 지난 2021년 12월, 투자자문사 인수 및 사명 변경을 통해 아크로스인베스트먼트를 자회사로 편입했다.아크로스 문효준 대표는 "아크로스는 데이터 인프라와 인공지능 기술력으로 기존 금융을 뒤바꾸기 위해 설립한 스타트업"이라며, "자산운용 분야부터 집중해 국내외 투자자를 위한 투자 옵션을 제공하고, 투자상품 유통과정에서 발생하는 비효율적인 비용을 제거해 소비자 혜택으로 환원할 것"이라고 설명했다.테아트룸, 16억 원 규모의 프리-시리즈A 투자 유치AR 캐릭터로 즐기는 온라인 공연 플랫폼 ‘라이블리’를 서비스하는 테아트룸이 16억 원 규모의 프리-시리즈A 투자를 유치했다. 이번 투자는 콘텐츠테크놀로지스, 마이다스동아 인베스트먼트, 특허법인 도담이 새롭게 참여했으며, 기존 투자자인 스프링캠프가 후속 투자했다.출처: 테아트룸라이블리는 관객이 AR 캐릭터로 아티스트의 공간에 참여해 즐기는 온라인 공연 서비스다. 지난 2021년 4월 정식 선보인 뒤, 200팀 이상의 아티스트가 공연했다.테아트룸 김범준 대표는 “온라인 접근성 이점과 기술을 결합해 음악 시장에 긍정적 변화를 만들고 싶다”라며, “라이블리는 언제 어디서나 라이브 음악을 경험할 수 있는 세상을 꿈꾼다”라고 말했다.모모프로젝트, 시드 투자 유치모모프로젝트가 굿워터캐피탈과 스마일게이트 인베스트먼트로부터 시드 투자를 유치했다. 굿워터캐피탈은 쿠팡, 토스, 당근마켓, 메타(전 페이스북), 트위터, 스포티파이 등에 투자한 실리콘밸리 소재 투자사이며, 스마일게이트 인베스먼트는 1.1조 원 규모의 자산을 운용하는 국내 투자사다.출처: 모모프로젝트지난 2020년 4월 설립한 모모프로젝트는 미국 반려동물 맞춤 건강관리 플랫폼 기업이다. 반려동물의 품종, 생애 주기별 발달 단계 등 반려동물별 특성을 고려한 정보를 제공해 양육 편의를 돕는다. 동일 견종의 선행 질병을 경험한 견주들이 쉽게 정보와 의견을 나눌 수 있는 커뮤니티를 제공하며, 이를 통해 전문가들이 활발하게 지식을 공유할 수 있도록 ‘AI Pet Nanny’ 서비스를 개발하고 있다.미국의 반려동물 시장은 전세계에서 가장 큰 133조 원 규모다. 반려견 6,900만 마리, 반려묘 4,530만 마리 등 미국의 반려동물은 1억 1,430만 마리에 이른다. 한국의 3.4조 원 시장 규모 대비 약 40배, 한국 반려동물 수 860만 마리 대비 약 13배 큰 시장이며, 시장 규모는 매년 성장하고 있다. 특히, 코로나19 발생 이후 2,300만 마리 추가 입양 등으로 규모가 커졌지만, 늘어난 수요 대비 수의사 인력은 2030년까지 정해져 있어 수요와 공급의 불균형을 야기하고 있다.모모프로젝트는 수의사 부족에 따른 반려동물 건강 문제를 사전에 예방하길 원하는 견주들을 위해 반려동물 헬스케어 데이터를 분석한 인공지능 질병 예방 건강 관리 솔루션을 제공할 예정이다. 이를 통해 종합적인 반려동물 헬스케어 원스탑 플랫폼으로 사업을 확장하고자 한다.모모프로젝트 강윤모 대표는 “이번 시드 투자를 발판으로 상반기 중 서비스를 선보이고, 이를 지속적으로 발전시켜 유의미한 데이터를 바탕으로 성장할 계획”이라고 전했다.브이유에스, 시드 투자 유치대중교통 모빌리티 스타트업 브이유에스(Vetter than bUS, 이하 VUS)가 스타트업 엑셀러레이터 뉴플라이트와 마크앤컴퍼니·윤민창의투자재단 등으로부터 시드 투자를 유치했다. 금액은 비공개다.대중교통 통합 솔루션, 출처: 브이유에스VUS는 대중교통 솔루션을 제공하는 스타트업이다. 카카오 택시, 타다 프리미엄 등을 선보인 황윤익 대표가 지난 2021년 9월 설립했다. 대중교통이 비효율적으로 운영되는 지역에 솔루션을 제공해 지속가능한 대중교통을 제공하고자 한다.‘2020 농림어업총조사’에 따르면, 전국 행정리에서 하루 10회 미만 버스를 운행하는 지역은 56%이며, 대중교통이 전혀 없는 마을은 2,224곳에 달한다. 지난 2014년부터 일부 지자체에서 100원 택시, 행복콜버스 같은 수요응답형 교통(Demand Reponsive Transport, 이하 DRT)을 도입하고 있으나 여전히 문제를 해결하는데 어려워하고 있다.VUS는 ‘DRT 운영 시스템 설계’, ‘빅데이터 분석 기반 기대효과 시뮬레이션’, ‘교통 개편 계획 방안’ 등 대중교통 전반을 개선할 수 있는 통합 솔루션을 제공한다. 예를 들어 VUS의 솔루션 시스템에 특정 지역의 시내버스 승하차 현황 등 이동 데이터를 입력하면, 수요응답형 버스 도입 시 유류비를 얼마나 절감할 수 있는지 등을 확인할 수 있다.VUS는 이번 투자를 바탕으로 교통 데이터, 인구 분포, 지역 특성 변화 등을 반영해 웹 기반 대중교통 솔루션을 개발할 계획이다.VUS 황윤익 대표는 “본격적인 모빌리티 플랫폼 시대의 시작은 모빌리티의 중심이 자가용과 택시에서 대중교통으로 바뀔 때라고 생각한다”라며, “행정리의 대중교통 체계를 바로잡고, 사회에 이바지할 수 있는 대중교통 솔루션을 제공하고자 노력할 것”이라고 밝혔다.밴플, 코베아로부터 프리-시리즈A 투자 유치캠핑카 예약 플랫폼 밴플이 코베아로부터 프리-시리즈A 투자를 유치했다. 금액은 비공개다. 밴플은 이번 투자 유치를 통해 양사가 긴밀한 협력 관계를 구축할 계획이다. 이를 통해 차박 용품 렌트 서비스, 캠핑 페스티벌 개최 등 사업적 시너지 효과를 창출할 예정이다.출처: 밴플밴플은 경량형 레이 캠핑카, 프리미엄 모터홈 등 다양한 레저 차량을 대여할 수 있는 캠핑카 예약 플랫폼이다. 사용자가 플랫폼을 통해 캠핑카 예약, 차박 용품 렌트 및 구매 등을 이용할 수 있으며, 렌트 업체들은 유휴 차량을 줄일 수 있다. 전체 예약 건수 중 평일 예약률은 41%로 유휴 차량 활성화를 고민하는 캠핑카 렌트 업체에게 월평균 300만 원 이상의 추가 수익을 제공한다.또한, 밴플은 지역 환경 정보를 포함한 차박 지도와 캠핑 요리 밀키트를 선보였으며, 캠핑카와 카라반을 이용한 기업형 워케이션(workcation) 상품 등을 출시했다.밴플 조수빈 대표는 “이번 투자 유치를 통해 플랫폼 기능을 고도화하기 위한 인재를 충원할 계획”이라며, “고객들이 차박 캠핑을 긍정적인 여행 방법으로 생각할 수 있도록 지역과 협업해 차박 문화 활성화에 주력할 예정”이라고 말했다.동아닷컴 IT 전문 권명관 기자 tornadosn@itdonga.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.04.08.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>[단독]금융당국 "은행 실명계좌 연동 코인거래소 3~4곳 추가"</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004730299?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>(서울=뉴스1) 김진환 기자 = 국내 1위 가상자산 거래소인 업비트가 지난 2017년부터 챙긴 거래 수수료가 무려 4조 원에 달하는 것으로 드러났다.   또한 업비트에서 거래되는 코인 가운데 절반이 불과 3년도 안 돼 상장 폐지되고 있어 수수료 장사에 몰두한 채 코인 검증에 소홀했다는 비판이 제기되고 있다.   사진은 5일 서울 강남구 업비트 사옥의 모습. 2021.10.5/뉴스1   올 하반기중 은행 실명계좌를 확보한 원화마켓 가상자산(암호화폐) 거래소가 2~3곳 늘어날 전망이다. 가상자산 거래소와 입출금 계좌를 제공하고 싶어하는 주요 은행은 우리은행, 하나은행, 카카오뱅크 등이 거론된다.7일 정치권과 관가에 따르면 금융위원회는 이같은 내용을 포함한 가상자산 거래소 활성화 방안을 대통령직인수위원회에 보고했다. 인수위는 이를 토대로 연내 최대 10개 원화 마켓 거래소가 생길 것으로 판단하고 '디지털 자산 기본법(가칭)' 제정을 국정과제로 추진할 계획이다.4월 기준 시중은행 실명입출금 확인 계좌를 확보한 가상자산 거래소는 5곳이다. 금융위 산하 금융정보분석원(FIU)에 사업자 신고를 마친 업비트(K뱅크), 빗썸(NH농협), 코인원(NH농협), 코빗(신한) 등 4곳이다. 고팍스는 최근 JB전북은행과 실명계좌 제공 계약을 체결한 뒤 FIU의 승인절차를 밟는 중이다.인수위 핵심 관계자는 "올 하반기 가상자산 거래소 3곳 정도가 추가로 은행과 실명계좌 제공 계약을 체결해 원화마켓을 열 것으로 보고 있다"며 "금융위도 은행의 요구사항을 반영해 긍정적으로 검토하고 있는 것으로 알고 있다"고 설명했다.현재 가상자산 업계 진출을 적극적으로 추진 중인 은행은 우리, SC제일, 하나 등 시중은행과 카카오뱅크, 토스은행 등 인터넷은행 등이 거론된다. 업계에 따르면 플랫타익스체인지, 프로비트 등 가상자산거래소가 이들 은행들과 실무 협상을 추진 중으로 전해진다.금융위 관계자는 "원화마켓 가능한 거래소 숫자가 정해진 게 아니라 추가 협의 가능하다는 입장"이라며 "은행을 포함해 자산운용사, 증권사 등이 가상자산거래소와의 협업하고 싶다는 입장을 여러번 전달한 것으로 알고 있다"고 설명했다. 당국과 인수위가 원화마켓 가상자산 거래소를 늘리겠다는 입장을 정리한 것은 K뱅크에 힘입어 시장점유율 1위를 달성한 '업비트'의 독과점 논란이 작용한 것으로 풀이된다.지난 국정감사 기간 동안 국회 정무위원회 소속 윤창현 국민의힘 의원은  국내 전체 비트코인 거래량의 83.28%를 업비트가 차지한다며 독과점 논란을 제기한 바 있다. 윤 의원은 "현재의 업비트 독점 구조는 시장질서와 소비자 선택이 아니라 행정 허가절차가 사실상 은행에 떠넘겨진 불공정 입법 때문"이라고 지적하며 원화마켓 거래소 확대를 주장해왔다. 인수위 관계자는 "금융위가  사실상 원화마켓 가능 거래소 4개만을 허용해 일종의 독점점 특혜를 부여한 것 아니냐는 문제제기를 받고 대안을 만들어 온 것"이라며 "블록체인 산업을 더 키우고 육성하기 위해선 자격 요건을 갖춘 나머지 거래소들도 원화거래를 열어줘야 한다는 원칙"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.04.05.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>올해 5대은행 가계대출 줄었지만 인터넷은행 2조7천억원 늘어</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013092464?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>토스 등 인터넷은행 3개사 모두 증가…"중저신용자 확대 영향"금융당국 "전체 가계부채 감소 고려하면 개입 불필요"    토스뱅크 본사  [연합뉴스 자료사진]    (서울=연합뉴스) 하채림 오주현 기자 = 올해 들어 5대 주요 시중은행의 가계대출이 월평균 2조원가량 줄었지만 인터넷은행 3개사의 대출은 월평균 9천억원 가까이 증가하는 추세를 보이고 있다.    5일 금융권에 따르면 카카오뱅크, 케이뱅크, 토스뱅크의 3월 말 기준 가계대출 잔액 합계는 36조1천439억원으로 파악됐다.     작년 말 잔액보다 2조6천610억원, 7.9% 증가한 규모다.     작년에 가계대출 영업을 시작한 토스뱅크가 석달 새 1조8천373억원이나 늘렸고 케이뱅크와 카카오뱅크에서 대출이 각각 7천200억원과 1천37억원 증가했다.     이는 금융당국이 제시한 올해 연간 가계대출 증가율 목표치 4~5%대에 비해 증가 속도가 빠른 편이며 올해 들어 가계대출 잔액이 축소되고 있는 5대 시중은행과 대조적이다.      지난 1분기에 5대 주요 시중은행은 가계대출 잔액이 작년 말보다 5조8천594억원 감소했다. [그래픽] 5대은행·인터넷은행 가계대출 증감 현황(서울=연합뉴스) 김영은 김민지 기자 = 올해 들어 5대 주요 시중은행의 가계대출이 월평균 2조원가량 줄었지만 인터넷은행 3개사의 대출은 월평균 9천억원 가까이 증가하는 추세를 보이고 있다.    5일 금융권에 따르면 카카오뱅크, 케이뱅크, 토스뱅크의 3월 말 기준 가계대출 잔액 합계는 36조1천439억원으로 파악됐으며 이는 작년 말 잔액보다 2조6천610억원, 7.9% 증가한 규모다.    0eun@yna.co.kr    트위터 @yonhap_graphics  페이스북 tuney.kr/LeYN1    이처럼 인터넷은행의 가계대출이 증가한 것은 신생 토스뱅크의 시장 안착을 배려한 금융당국의 유연한 관리방침과 중·저신용자를 겨냥한 업계의 영업전략 결과로 보인다.     각 은행과 금융당국이 협의로 결정한 정확한 총량 목표는 공개되지 않았지만 인터넷은행은 시중은행의 4~5%대보다는 높게 책정된 것으로 알려졌다.    토스뱅크의 경우 지난해 대출영업을 시작한 점을 고려해 증가율이 아닌 별도 기준으로 총량 목표를 설정했으며, 카카오뱅크는 시중은행보다 약간 높은 수준으로 협의한 것으로 전해졌다.     금융당국은 인터넷은행에 대해선 은행별 총량 목표를 정한 후 설립 취지대로 중·저신용자 대출 계획은 각 은행이 자율적으로 정하고 나머지를 고신용자에 배분하도록 했다. 케이뱅크 사옥 [케이뱅크 제공. 재판매 및 DB 금지] photo@yna.co.kr인터넷은행의 한 관계자는 "인터넷뱅크 가계대출 증가는 신용점수 820점 이하 중저신용자 중심으로 대출이 늘어난 것"이라며 "이자 지원 등 인터넷은행의 프로모션에 따라 저축은행을 비롯한 제2금융권 중저신용자들의 대환(대출 갈아타기) 수요가 유입된 영향도 있다"고 설명했다.     그는 "시중은행은 고신용자를 상대로 영업하는데 올해 들어 고신용자 대출 수요가 줄어서 잔액이 계속 줄어든 것으로 안다"고 덧붙였다.    다른 인터넷은행 관계자도 "인터넷은행에서도 고신용자 가계대출은 규모가 줄어들고 있는 상황"이라고 전했다.     금융당국 관계자는 "자산시장이 냉각되면서 고신용자들이 기존 대출을 갚거나 관망세에 들어가 대출 수요도 줄어든 것으로 보인다"며 "중저신용자는 생활비·생계비 목적의 대출이 많은데 이러한 수요는 꾸준히 유지가 된다"고 분석했다. 카카오뱅크[카카오뱅크 제공]    이처럼 인터넷은행의 가계대출이 상대적으로 빠르게 늘고 있지만 금융당국은 현재로선 특별히 개입할 필요가 없는 상황으로 판단하고 있다.     금융당국 관계자는 "총량 관리는 전체 가계부채 규모를 관리하는 것이 목표인데 올해 들어 전체 규모가 감소하고 있기 때문에 일부 은행의 증가 속도가 다소 빠르다고 해서 문제 삼을 상황은 아니다"고 말했다.     인터넷은행 측에서도 "금융당국으로부터 가계대출 취급액에 관해 특별한 의사 전달은 없었다"고 전했다.    tree@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.04.13.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>고객 2300만명, 삼성 5개 금융사 뭉쳤다</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003187185?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>삼성 금융 네트웍스           삼성그룹 금융 계열사가 12일 공동 브랜드(BI)인 ‘삼성 금융 네트웍스(Samsung Financial Networks)’를 발표했다. 오는 14일에는 금융 계열사의 통합 앱인 ‘모니모’를 출시하는 등 계열사 간 협업을 늘리기로 했다. 삼성생명·삼성화재·삼성카드·삼성증권·삼성자산운용 등 5개 금융 계열사는 이날 글로벌 경쟁력 강화와 미래지향적 이미지 형성을 위해 새 BI를 출범한다고 밝혔다.      새로운 삼성 금융사의 BI는 ‘삼성(Samsung)’ 표기 속에 금융 협업을 의미하는 ‘금융 네트웍스(Financial Networks)’를 병기했다. 삼성 금융사 측은 금융사 간의 시너지와 전문성을 제고하고 금융 생태계 확장의 비전과 의지를 표현했다고 설명했다. 기존 삼성의 상징이었던 타원형(오벌) 마크는 사용하지 않았다.      삼성 금융사는 향후 사별로 혼용해 쓰던 기업 이미지(CI)도 공동 브랜드에 맞춰 개편할 예정이다. 사별 옥외 간판과 명함, 홈페이지 등을 교체하고 각 사의 상품과 서비스에 적용되는 하위 브랜드와 자회사에 대한 개편도 순차적으로 진행할 예정이다. 사명은 기존대로 유지한다.      삼성 금융사가 공동브랜드를 출범한 건 빅테크와의 경쟁이 치열해지며 계열사 간 시너지 창출의 중요성이 커지면서다. 삼성 금융사는 “소비자의 욕구와 높아진 기대치에 부응하기 위해 각 사가 가진 경쟁력을 바탕으로 시너지 창출을 위한 협업이 필요한 시기”라며 “경쟁력 제고와 미래지향의 이미지를 만들기 위해 공동 BI가 필수적이라는 결론에 도달했다”고 설명했다.      삼성 금융사는 오는 14일 각 회사의 서비스를 한 번에 이용할 수 있는 통합 앱인 ‘모니모’도 출시한다. 돈(Money)과 더한다는 뜻의 모어(more)를 합친 말이다. 삼성 금융사 중 앱이 가장 활성화된 삼성카드가 주도해 만들었다.      모니모는 삼성 금융사의 서비스 뿐만 아니라 자산조회, 간편 결제, 무료송금, 보험금 청구 등 다양한 서비스를 제공한다. 삼성 금융사는 내부적으로는 모니모의 잠재 사용자를 2300만명 정도로 예상하고 있다. 토스앱의 가입자(2100만명)와 비슷한 수치다.      삼성 금융사 관계자는 “업의 경계가 모호해지고, 생존을 위한 경쟁과 협력이 일상화되고 있다”며 “미래를 고민해 온 삼성도 이번 금융사 간 협업이 새로운 도약의 발판이 될 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.04.13.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>[크립토 어벤져스] ‘가보지 않은 길’을 같이 가는 사람들, 코인 거래소의 인재 채용법</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002122716?sid=105</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>[인터뷰] 정지훈 코인원 피플셀 오너2018년 말 ‘크립토 겨울’을 거치며 유행하던 ‘탈블(脫블록체인, 블록체인 업계에서 탈출한다는 뜻)’은 완전히 옛날 말이 됐다. 지난해 가상자산 시장이 크게 성장하면서 가상자산‧블록체인 업계는 내로라하는 인재들이 모이는 산업군으로 자리 잡았다. 이에 &lt;디지털데일리&gt;는 가상자산 산업을 움직이는 업계 리더들을 마블 캐릭터에 빗대 ‘크립토 어벤져스’라는 이름을 붙였다. 이들의 연속 인터뷰를 통해 국내 가상자산 업계의 속 깊은 고민, 그리고 경쟁력의 원천을 짚어보고자 한다. &lt;편집자 주&gt;    [디지털데일리 박현영기자] 지난해 가상자산 시장 규모가 급성장하면서 일어난 큰 변화 중 하나는 가상자산 기업들이 일제히 대규모 채용에 나섰다는 점이다. 특히 특정금융정보법(특금법) 시행 이후 제도권 안으로 들어온 대형 거래소들은 인력을 세자릿수 단위로 채용하기 시작했다.    코인원도 그 중 하나다. 코인원은 사옥 이전을 앞뒀던 지난 2월 100여명 규모 공개채용을 진행했다. 이후 여의도 랜드마크인 파크원으로 사옥을 옮기고, 현재까지도 상시채용을 진행 중이다.    인력 규모가 빠르게 커지면서 함께 커진 건 인사관리의 중요성이다. 코인원처럼 스타트업과 금융사의 성격을 모두 지닌 가상자산 거래소는 더욱 그렇다. 고객 자산 관련 업무는 금융기관 수준으로 하면서, 의사결정 방식은 스타트업다운 수평적 구조를 유지해야 하기 때문이다.    그렇다면 코인원은 어떻게 인사관리를 하고 있을까? &lt;디지털데일리&gt;는 지난 7일 서울 여의도 파크원빌딩에 위치한 코인원 신사옥에서 코인원의 인사 업무를 주도하고 있는 정지훈 코인원 피플셀 오너(Cell Owner, CO)를 만났다. 코인원은 조직 단위를 직무에 따라 ‘셀(Cell)’로 구성하고, 셀을 리드하는 ‘셀 오너’가 팀장 역할을 맡는 구조다.    ◆"특금법 이후 채용 분위기 긍정적으로 바뀌어"정지훈 코인원 피플셀 오너.  정 CO는 인사팀 업무만 줄곧 담당해온 베테랑 인사담당자다. 카카오와 합병되기 전 다음(Daum)에서 첫 인사 업무를 맡았고, 이후 JTBC에서도 인사를 담당했다. 유니콘으로 성장한 토스에서도 역시 인사 업무를 맡았다.    굵직한 기업에서 인사 업무를 담당해왔지만 가상자산 시장에는 특별한 점이 있다고 정 CO는 설명했다. 그는 “개발자들이 주가 되는 IT 업종이면서도 고객 자산이 크게 오고 가기 때문에 금융 전문가 역시 많은 점이 특징”이라고 말했다. 또 직원들이 사용하는 기술 용어, 언어가 남다른 점도 특징이라고 덧붙였다.    지난해 특금법이 시행된 이후엔 채용 현장의 분위기도 많이 바뀌었다고 정 CO는 설명했다. 그는 “이전에는 가상자산 시장의 불확실성이 심했지만, 정식 가상자산사업자로 등록이 된 다음부터는 채용 시장 분위기도 긍정적으로 바뀌었다”며 “코인원도 가상자산사업자 신고 수리를 받은 이후 업계 최고 대우로 인재를 채용하려고 노력하고 있다”고 말했다.    제도권 안으로 들어왔지만 가상자산 시장은 여전히 새로운 시장이기도 하다. 때문에 새로운 시장에 누구보다 먼저 뛰어든 ‘선구자’ 동료들과 함께 할 수 있다는 것도 장점이라고 정 CO는 강조했다.    그는 “업계 최고 대우를 내세우고 있지만 돈으로만 보상하는 시대는 아닌 것 같다”면서 “가보지 않은 길(가상자산업)을 같이 가는 동료들이 있다는 게 제일 장점”이라고 전했다.    ◆개발자 출신 대표의 AMA…코인원의 기업 문화는?   일반 IT기업이든, 핀테크 기업이든 개발자 인력난은 오랜 걸림돌이다. 코인원 역시 개발자를 활발하게 채용해왔지만 여전히 상시채용 중이다. 정 CO는 가상자산 산업의 장점을 소개하며 개발자들의 많은 지원을 당부했다.   그는 “올해 초 개발자 공개채용을 대대적으로 홍보하면서 좋은 분들이 많이 지원해주셨다”며 “코인원은 4대 거래소 중 하나고, 여전히 초창기인 가상자산 업종은 누구보다 빠르게 많은 것들을 경험해볼 수 있는 기회”라고 강조했다. 또 코인원의 경우 차명훈 대표가 개발자 출신인 점도 다른 거래소와 차별화되는 장점이라고 설명했다.    인재들이 지원해야 하는 이유 중 하나로는 자유로운 기업문화를 들었다. 정 CO는 “코인원은 자유롭게 의견을 개진하고 토론하는 문화가 확립돼있다”며 “일례로 최근에 파크원으로 이사하면서 주차지원에 관한 사안을 슬랙 공개 토론방에서 자유롭게 토론했다”고 말했다.    이어 “주차지원 같은 복지 제도는 인사팀이 단순하게 운영하는 경우가 많은데, 이런 사안에 대해서도 모두가 자유롭게 토론하기 때문에 더 나은 방향으로 기업이 나아갈 수 있는 것”이라고 강조했다. 이런 토론을 더 활성화하기 위해 코인원은 한 달에 한 번씩 타운홀 미팅을 개최, 대표가 직원들의 질문에 하나 하나 다 답하는 자리를 마련하기도 했다.    새로운 직원을 채용할 때 함께 일하는 동료들이 면접을 진행하는 것도 코인원의 기업 문화 중 하나다.    정 CO는 “셀 오너만 들어가는 게 아니라 조직에서 함께 일할 동료들이 직접 면접에 참석한다. CO를 뽑을 때도 주니어가 면접에 들어간다”며 “입사 후 채용과정에 대한 설문조사를 했을 때 면접에 대한 평이 10점 만점에 평균 9점이 나올 정도로 좋다”고 설명했다.    이 같은 기업 문화를 바탕으로 코인원은 유니콘으로 나아갈 계획이다. 정 CO는 “가상자산업이라는 아무도 가보지 않은 길을 가면서, 동료들을 믿고 함께 나아갔으면 한다”며 “이러한 코인원의 핵심 가치와 어울리는 인재들을 앞으로도 적극 채용하겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.04.12.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>코로나 확산 ‘상하이 봉쇄’… 전자·차 부품망 '비틀'(영상)</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011116224?sid=104</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>10일(현지시간) 현재 중국 경제수도 상하이는 록다운 12일째를 맞아 여전히 봉쇄가 풀릴 기미가 보이지 않고 있다. 출처: Twitter@DonnaWongHK *재판매 및 DB 금지[서울=뉴시스] 김광원 기자 = 코로나 확산을 막기 위해 상하이를 봉쇄한 중국의 ‘제로 코로나 정책’이 중국 경제에 막대한 타격을 주면서 연쇄적으로 세계 공급망과 에너지 가격 상승에 대한 압력이 커지고 있다. 10일(현지시간) CNN에 따르면 중국 금융의 중심이자 항구와 공항이 밀집한 상하이는 록다운 12일째를 맞아 여전히 봉쇄가 풀릴 기미가 보이지 않고 있다.  상점과 음식점들이 폐쇄되고 소규모 기업은 큰 타격을 입었다. 중국, 대만 제조업체뿐 아니라 테슬라 중국 공장도 언제 재가동될지 알 수 없다. 항구에는 화물이 적체되고 항공수송료는 치솟으며 국제무역에 한층 더 압박을 가하고 있다. 엄격한 봉쇄정책은 중국이 제로 코로나 정책을 완화할 지도 모른다는 일말의 기대도 할 수 없도록 만들었다. 매쿼리의 대중화(大中華) 담당 수석경제학자 래리 후는 “상하이에서 확진자 수가 치솟으면서 최고 지도층은 제로 코로나 정책과 위드 코로나 정책 사이에 중간지대는 없다고 확신하고 있다. 앞으로 강력한 봉쇄정책이 지속될 것”이라고 분석했다. 시진핑 주석은 경제 충격을 최소화하겠다고 약속했지만, 상하이의 상황이 악화되면서 전파력이 훨씬 강한 오미크론 바이러스에 대한 중국의 봉쇄정책에 대한 회의가 일고 있다.  노무라 증권의 중국담당 수석 경제학자 팅 루는 “전파력이 높은 오미크론 변이에 다른 나라들은 위드 코로나로 대응하고 있는데, 중국이 제로 코로나 정책으로 제대로 대응할 수 있는지 도전에 직면했다”고 밝혔다. 그는 상하이와 몇몇 도시 봉쇄로 인해 대면 서비스, 관광, 물류, 건축과 제조업 등의 경제활동이 광범위하게 위축될 것으로 내다봤다.노무라 증권에 따르면 지난달부터 23개 도시가 전면 혹은 부분 봉쇄에 들어갔는데 이들 도시의 인구를 합하면  중국 전체의 13.6%에 해당하는 1억9300만 명에 달하며 GDP의 23%를 책임지고 있다. 그는 “대도시에서 지구별로 진행되는 코로나 집단 조사가 미칠 영향이 너무 과소평가됐다”며 “중국의 대부분 지역에서 경제활동이 심각하게 위축되고 있다”고 덧붙였다.  지난 7일까지 상하이와 인근 쿤산 지역에서 적어도 40개 중국회사의 영업이 중단됐으며 대만계 회사 90개 이상이 록다운의 영향을 받고 있는데, 그 중에는 인쇄회로기판을 만드는 유니마이크론 기술도 포함돼 있다.세계은행과 주요 투자은행은 최근 중국의 제로 코로나 정책이 경제에 미치는 영향이 커지고 있다고 잇따라 경고했다. 세계은행은 지난 5일 중국 경제 성장률 전망을 작년 8.1%에서 올해 5%로 급격히 낮췄는데 이 수치는 중국당국의 5.5% 전망에도 못 미치는 것이다.  골드만 삭스는 이날 중국의 올해 경제성장률을 중국의 공식 전망치 보다 1%P 낮은 4.5%로 예상하면서 최근 상하이의 코로나 확산과 봉쇄는 중국 경제활동에 더욱 심각한 악영향을 주기 시작했다고 지적했다. 시티은행은 오미크론 확산으로 중국 1분기 GDP가 1%P 낮아질 것으로 예상하면서 오미크론 확산세가 이어질 경우 2분기엔 0.6%~0.9% 하락이 예상된다고 밝혔다. 중국경제가 이미 하강곡선을 그리는 가운데 봉쇄가 시작돼 상황은 더 악화될 수 있다. 중국의 위기는 세계의 문제이다. 세계은행은 중국의 경기후퇴는 러시아-우크라이나 전쟁, 미국의 금리인상과 더불어 올해 아시아 경제에 큰 충격을 줄 것으로 내다봤다.세계 최대 컨테이너 항구를 보유한 상하이의 봉쇄로 하역작업이 지체되면서 세계적 공급체인도 차질을 빚고 있다. 지난주 상하이항에서 하역을 대기 중인 선박의 수는 역대 최고치로 치솟았다. 홍콩 주재 화물운송 예약플랫폼인 프레이토스의 CEO 즈비 스크레이버는 “봉쇄조치는 공장 조업중단, 하역 지연과 트럭운전사 부족을 포함해 다방면에서 공급망에 영향을 준다”고 지적했다.중국 수입품 감소는 추가적인 인플레이션 압력을 유발할 수 있다.스크레이버는 또 “상하이 공항이 폐쇄되면서 상하이와 북유럽간 항공화물 운송료가 지난주 43% 폭등했다”고 밝혔다. 상하이와 인근 도시 공장폐쇄로 전자기기와 자동차 산업 주요 공급망이 붕괴될 수도 있다. 중국 제조업의 메카 쿤산에 자리잡은 유니마이크론은 애플에 인쇄회로기판을 공급하고 있으며, 에슨 프리시젼은 아이폰을 생산하는 팍스콘의 계열사다. 에슨 프리시젼은 테슬라에도 부품을 공급한다. 세계 공급망 분석회사 에버스트림의 CEO 쥴리 저드만은 “중국의 심각한 현황으로 봤을 때, 전자산업과 자동차산업 공급망은 다가오는 7~10일 안에 크게 와해 될 수 있다”고 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.04.14.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>'2200만' 토스 상대로 '2300만' 모니모 띄웠다…삼성 승부수</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003187655?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>삼성 금융 계열사 공동 브랜드 ‘삼성 금융 네트웍스’는 14일 통합 금융 앱인 ‘모니모(Monimo)’를 출시했다. 돈을 뜻하는 ‘머니(money)’와 더한다는 뜻 ‘모어(more)’를 합친 말이다. [사진 삼성카드]           열흘 연속 '걷기 챌린지'를 수행하면 리워드 포인트의 일종인 '일반 젤리'를 받는다. 한 달 연속으로 챌린지를 이어가면 '스페셜 젤리'를 받는다. 이렇게 모은 젤리는 앱상에서 현금처럼 사용할 수 있는 '모니머니'로 바꿀 수 있다. 개당 1원의 가치가 있는 모니머니는 현금으로 출금하거나, 보험 가입과 펀드 투자에 쓸 수 있다.      삼성 금융 계열사 공동 브랜드 ‘삼성 금융 네트웍스’가 14일 내놓은 통합 금융 앱(어플리케이션) ‘모니모(Monimo)’에서 선보인 서비스다. 앱 내부의 다양한 게임과 행사에 참여하면 현금처럼 쓸 수 있는 전용 리워드(젤리)를 제공한다. 새로운 상품에 가입하지 않고 앱을 자주 이용만 해도 리워드를 받을 수 있다.       돈을 뜻하는 ‘머니(money)’와 더한다는 뜻 ‘모어(more)’를 합쳐 만든 모니모는 삼성생명·삼성화재·삼성카드·삼성증권 등 삼성그룹 금융계열사 4곳의 서비스를 하나의 앱에 통합한 플랫폼이다. 앱 사용이 가장 활성화된 삼성카드 주도로 만들었다.       모니모는 토스와 카카오페이 등 빅테크에 맞서 삼성 금융사가 야심 차게 던진 승부수다. 일단 모니모 앱 통합 계정으로 삼성생명의 보험금 청구, 삼성화재의 자동차 고장출동 신고, 삼성카드의 한도상향 신청, 삼성증권의 펀드 투자 등 금융사별로 흩어져 있던 서비스를 모니모에서 원스톱으로 처리할 수 있다. 토스 등 기존 핀테크 업체가 내세우는 ‘원 앱(One App)’ 전략이다.       계좌통합관리나 간편 송금, 환전 등 종합금융서비스도 받을 수 있다. 다음 주에는 혈액형별 보장보험과 1년 만기 저축 보험, 모니모 카드 등 모니모 전용 상품도 출시된다. 이를 통해 '삼성 금융생태계'를 구축하겠다는 심산이다.     젤리는 개당 1원의 가치가 있는 ‘모니머니’로 교환할 수 있다. 젤리의 종류마다 모니머니로 바꿀 수 있는 비율도 차등화했다. 일반 젤리 하나 당 10 모니머니 이상 무작위로 받을 수 있고, ‘스페셜 젤리’는 1000 모니머니 이상 얻을 수 있는 식이다. [사진 삼성카드]           '삼성 금융생태계'인 모니모의 잠재 고객은 약 2300만명으로 추산된다. 모니모로 통합되는 각 금융 계열사 고객 중 중복자를 제외한 숫자다. 숫자로만 따지면 국내 경제활동인구(2862만명·3월 기준)의 90%에 육박한다. KB금융(1700만명·KB스타뱅킹 앱 기준) 앱 이용자와 대형 핀테크 경쟁자인 토스(2200만명) 가입자 수를 웃돈다.      핀테크 업계는 후발주자인 모니모의 출시를 조심스럽게 지켜보는 입장이다. 대형 핀테크 업계 관계자는 “삼성의 휴대전화 결제 기술인 삼성페이를 모니모와 연결할 수 있을지 지켜보고 있는 중”이라며 “기존 소비자 정보 등과 결합할 경우 다양한 수익원을 창출할 수 있는 만큼 기존 지급결제 서비스를 제공하는 빅테크 기업에 큰 위협이 될 것”이라고 말했다.반면 모니모가 다양한 기능을 제공하는 플랫폼의 역할을 하기 힘들 것이란 시각도 있다. 또 다른 대형 핀테크 업계 관계자는 “소비자가 자주 찾는 플랫폼이 될 수 있을지가 성공의 관건”이라며 “기존 핀테크에 위협이 되려면 경쟁 업체 금융 상품도 모니모에서 가입하고 사용하는 개방성이 필요한데, 그런 방식을 선택할지는 회의적”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.04.12.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>자체 '중신용대출' 집중하는 카카오뱅크</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003204248?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>[일간스포츠 권지예]   카카오뱅크 판교 오피스    카카오뱅크가 자체 신용평가 모형에 기반한 중신용 대출 늘리기에 나선다. 지난해 말부터 집중하고 있는 '중·저신용자 대출'을 더욱 견고히 하겠다는 의지로 풀이된다.  카카오뱅크는 11일 SGI서울보증의 보증에 기반한 '직장인 사잇돌 대출'의 신규 신청을 중단한다고 밝혔다. 급여 소득자 대상 중신용대출은 카카오뱅크 자체 신용에 기반한 중신용대출 상품만으로 운영한다는 것이다.     카카오뱅크는 2017년 7월 자체 신용대출과 함께 SGI서울보증의 보증부 신용대출 상품을 출시했다. 2019년부터는 정책 중금리 대출로 상품을 바꿔 급여 소득자들에게 중금리 대출을 공급했다.     SGI서울보증은 카카오뱅크를 통해 사잇돌대출을 활성화했고, 카카오뱅크는 SGI보증부 대출 및 직장인 사잇돌대출을 통해 중금리 대출 데이터와 노하우 등을 축적했다.     이를 카카오뱅크는 새로운 신용평가 모형에도 반영했다. 이 신용평가 모형을 바탕으로 카카오뱅크는 중신용대출의 최대 한도를 1억 원까지 확대하고, '중신용플러스대출' '중신용비상금대출' 등을 연달아 출시했다.     카카오뱅크 여신팀장은 "직장인 사잇돌 대출은 카카오뱅크가 자체 신용 기반의 중신용대출을 선보이고 확대할 수 있었던 마중물이자 단단한 디딤돌 역할을 해왔다"고 설명했다.     앞으로 카카오뱅크는 급여 소득자 대상 중신용대출은 카카오뱅크 자체 신용에 기반한 중신용대출 상품만으로 운영하게 된다.     업계는 카카오뱅크의 자체 신용 기반 중신용대출 상품으로 중·저신용대출 규모를 빠르게 늘려나갈 수 있을지 주목하고 있다. 카카오뱅크의 중·저신용자에 대한 대출 잔액은 전년 말 대비 2269억 원 증가한 2조6912억 원으로, 비중은 17%에서 20%로 3%포인트 늘었다. 카카오뱅크의 올해 중·저신용대출 비중 목표치는 25%다.     중·저신용자 대출을 늘리기 위해 카카오뱅크는 지난해 11월부터 고신용자에 대한 신용대출을 중단하고 코리아크레딧뷰로(KCB) 신용점수 기준 하위 50%인 중·저신용자에게만 공급하고 있다.       다른 두 인터넷전문은행인 케이뱅크와 토스뱅크는 신용대출을 풀고 영업에 집중하고 있지만, 카카오뱅크만이 금융당국이 요구한 중·저신용자 대출 비중 늘리기에 초집중하고 있는 것이다.     이에 카카오뱅크의 전체 신규 신용대출 중 중·저신용자가 차지하는 비중은 지난해 1분기 3.3%에 불과했으나, 이번에 100%가 됐다. 또 올해 1분기 중·저신용자에게 신용대출 6253억 원을 공급했다. 이는 1년 전(538억 원)의 11.6배 규모다.     카카오뱅크 관계자는 "2분기에도 중·저신용 위주의 대출 정책 기조를 유지하고, 변별력 강화를 위한 신용평가 시스템을 고도화할 방침"이라고 말했다.     권지예 기자 kwon.jiye@joongang.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.04.15.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>보험금 청구, 펀드 투자 한번에…삼성 금융통합앱 ‘모니모’ 나왔다</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003187759?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>삼성 금융 계열사 공동 브랜드 ‘삼성 금융 네트웍스’는 14일 통합 금융 앱인 ‘모니모(Monimo)’를 출시했다. [사진 삼성카드]           열흘 연속 ‘걷기 챌린지’를 수행하면 리워드 포인트의 일종인 ‘일반 젤리’를 받는다. 한 달 연속으로 챌린지를 이어가면 ‘스페셜 젤리’를 받는다. 이렇게 모은 젤리는 앱상에서 현금처럼 사용할 수 있는 ‘모니머니’로 바꿀 수 있다. 개당 1원의 가치가 있는 모니머니는 현금으로 출금하거나, 보험 가입과 펀드 투자에 쓸 수 있다.      삼성 금융 계열사 공동 브랜드 ‘삼성 금융 네트웍스’가 14일 내놓은 통합 금융 앱(어플리케이션) ‘모니모(Monimo·사진)’에서 선보인 서비스다. 앱 내부의 다양한 게임과 행사에 참여하면 현금처럼 쓸 수 있는 전용 리워드(젤리)를 제공한다. 새로운 상품에 가입하지 않고 앱을 자주 이용만 해도 리워드를 받을 수 있다.      돈을 뜻하는 ‘머니(money)’와 더한다는 뜻 ‘모어(more)’를 합쳐 만든 모니모는 삼성생명·삼성화재·삼성카드·삼성증권 등 삼성그룹 금융계열사 4곳의 서비스를 하나의 앱에 통합한 플랫폼이다.      모니모는 토스와 카카오페이 등 빅테크에 맞서 삼성 금융사가 야심 차게 던진 승부수다. 일단 모니모 앱 통합 계정으로 삼성생명의 보험금 청구, 삼성화재의 자동차 고장출동 신고, 삼성카드의 한도상향 신청, 삼성증권의 펀드 투자 등 금융사별로 흩어져 있던 서비스를 모니모에서 원스톱으로 처리할 수 있다. 토스 등 기존 핀테크 업체가 내세우는 ‘원 앱(One App)’ 전략이다.      계좌통합관리나 간편 송금, 환전 등 종합금융서비스도 받을 수 있다. 다음 주에는 혈액형별 보장보험과 1년 만기 저축 보험, 모니모 카드 등 모니모 전용 상품도 출시된다. 이를 통해 ‘삼성 금융생태계’를 구축하겠다는 심산이다. ‘삼성 금융생태계’인 모니모의 잠재 고객은 약 2300만명으로 추산된다. 국내 경제활동인구(2862만명·3월 기준)의 90%에 육박한다. KB금융(1700만명·KB스타뱅킹 앱 기준) 앱 이용자와 대형 핀테크 경쟁자인 토스(2200만명) 가입자 수를 웃돈다.      업계는 후발주자인 모니모의 출시를 조심스럽게 지켜보는 입장이다. 대형 핀테크 업계 관계자는 “기존 소비자 정보 등과 결합할 경우 다양한 수익원을 창출할 수 있는 만큼 기존 지급결제 서비스를 제공하는 빅테크 기업에 큰 위협이 될 것”이라고 말했다. 하지만, 또 다른 핀테크 업계 관계자는 “소비자가 자주 찾는 플랫폼이 될 수 있을지가 성공의 관건”이라며 “기존 핀테크에 위협이 되려면 경쟁 업체 금융 상품도 모니모에서 가입하고 사용하는 개방성이 필요한데, 그런 방식을 선택할지는 회의적”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.04.04.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>사회 초년생은 ‘실속형’ 어린이보험이 딱</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/262/0000015375?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>[금융 인사이드] 2030세대가 알아둘 보험테크● 1인 가구는 ‘차세대 종신보험’ ● 기혼자는 ‘계약자배당 생명보험’● 청년은 실손의료보험부터 ● ‘보험다모아’에서 비교해 보자전문가들은 2030세대가 보험 상품 하나만 가입한다면 실손보험부터 챙겨둘 것을 추천한다. [Gettyimage]올해 초 취업에 성공한 새내기 직장인 한진규(26) 씨는 3년 전 가입한 먼지 쌓인 보험증서를 최근 꺼냈다. 다음 달부터 월급이 나오면 지금까지 부모가 대신 내주던 보험료를 직접 납입하기 위해서다. 월 보험료는 25만 원 수준. 한씨는 “질병이나 사고에 대비해 보험을 드는 건 좋지만, 매달 지불하는 보험료가 월급의 10%에 달하는 금액이라서 계약을 계속 유지할지, 아니면 하루빨리 해지할지 고민하고 있다”고 털어놨다.청년 시기에는 당장은 건강하고 별일 없으니 보험 가입을 차일피일 미루기 쉽다. 더욱이 사회 초년생은 소득이 적을뿐더러 주거비용에 생활비, 결혼자금까지 걱정해야 하니 보험료를 내기가 부담스럽다. 그렇다면 2030세대는 어떤 보험상품에 가입해야 할까. 보험료 부담을 줄이는 방법은 뭘까.1인가구 겨냥한 건강 보장 강화 ‘차세대 종신보험’보험업계에 따르면 인구 고령화와 1인 가구 증가로 소비자의 사망보험 니즈가 줄고 있다. 최근 생명보험사들이 기존 사망 보장 중심에서 건강 보장을 강화하는 방향으로 진화한 차세대 종신보험을 줄줄이 선보이는 것은 이러한 배경과 무관하지 않다. 김헌수 순천향대 IT금융경영학과 교수는 “요즘에 나오는 종신보험은 남은 가족의 삶을 보장한다는 본질만 강조하던 예전과 달리 2030세대 특성을 고려해 개인 맞춤형으로 가입할 수 있다”며 “1인 가구가 많은 2030세대는 차세대 종신보험 가입을 고려하거나 연금보험처럼 살아 있는 동안 보장을 받을 수 있는 상품을 주목하는 게 바람직하다”고 조언했다.만약 배우자와 자녀를 둔 2030세대라면 생명보험의 계약자배당금 지급 제도를 활용해 미래를 설계해볼 만하다. 계약자배당은 생명보험에서 예정된 기초율과 함께 실적에 따라 발생한 이익을 가입자에게 추가로 돌려주는 제도다. 고금리 시대에 예정이율 보장형 상품에 가입했다면 지금처럼 초저금리 시대에도 높은 금리가 반영되는 특전을 누릴 수 있다. 생명보험사들이 축적한 보험료 적립금 중 상당 부분에 5% 이상의 금리가 적용된다.저금리 시대에 생명보험에 가입하면 실제로 적용되는 금리 측면에서 혜택을 볼 수 있을까. 한국보험학회장을 지낸 김두철 상명대 명예교수는 이에 대해 “생명보험의 예정이율은 시중금리보다 높게 책정돼 이자율 측면에서 경쟁우위를 가진다. 다시 고금리 시대가 오거나 예정이율이 고정돼 있더라도 더 많은 계약자배당금을 지급하는 방법으로 높아진 금리의 혜택을 가입자에게 되돌려준다”고 설명했다. 계약자배당금을 지급하는 생명보험을 통해 자산 형성의 기회를 잡을 수 있다는 얘기다.‘보험다모아’ 통해 한눈에 비교·가입어린이보험은 3대 중대 질병을 비롯해 성인용 보험에 들어 있는 대다수 보장을 최장 100세까지 받을 수 있는 데다 보험료가 성인용 상품보다 20%가량 저렴해 지갑이 얇은 만 30세 이하 청년에게 유익하다. [Gettyimage]가입 목적에 맞는 보험상품을 정한 뒤 가장 먼저 할 일은 가입하려는 보험의 내용을 확인하는 것이다. 청년층은 스스로 가입하기보다 부모나 지인의 권유로 보험을 드는 경우가 많다 보니, 가입 당시 판매인에게 상품 안내를 받았다고 해도 어떤 보상과 보장을 해주는지 기억조차 희미하다. 이럴 때 손해보험협회·생명보험협회가 운영하는 ‘내 보험 찾아줌’ 사이트에 접속하면 내가 가입한 모든 보험 계약을 쉽게 찾아볼 수 있다. 이렇게 하면 중복 가입으로 일부 보장을 받지 못하는 낭패를 미리 막을 수 있고, 보험료 낭비 방지에도 도움이 된다.모바일 시대이니만큼 보험 가입도 모바일 플랫폼에서 이뤄지는 경우가 많다. 최근 토스, 카카오페이 등을 이용하면 빠르고 간편하게 보험을 들 수 있다. 하지만 모바일 플랫폼은 보험상품을 내놓은 지 오래되지 않은 데다 제공하는 상품 대부분이 보장 항목이 적고 보장 금액이 낮은 ‘미니 보험’이다. 이보다 좀 더 장기적 관점에서 실효성 높은 보험상품에 가입하고자 한다면 손품을 팔아야 한다.보험상품을 비교하는 수고를 덜 유용한 방법은 금융위원회가 운영하는 ‘보험다모아’ 사이트를 활용하는 것이다. 보험다모아는 실손의료보험·자동차보험·어린이보험·여행자보험·연급보험·보장성보험·저축성보험 등에 대해 보험료와 보장 내용 등이 얼마나 차이 나는지 비교해 주는 온라인 사이트다. 가입자가 다양한 보험사의 보험상품을 쉽게 비교해 본 뒤 해당 보험사 홈페이지에 접속해 직접 가입할 수 있도록 돕는 것이 장점. 다만 모든 보험상품 정보가 보험다모아 사이트에 있는 것은 아니니 생명보험협회나 손해보험협회 홈페이지 공시실에서 어떤 상품이 가입자에게 맞는지 다시 한번 살피는 것이 좋다. 보험의 세부 내용은 온라인 공시나 해당 보험사 홈페이지에서 확인할 수 있다.실손보험은 가입자가 실제 부담한 의료비를 보장해 주는 건강보험이다. 병원에 입원하거나 통원치료를 할 때 소요되는 치료비를 보상해 준다. 어릴 때 가입하면 상대적으로 보험료가 저렴할 뿐만 아니라 실손보험의 높은 손해율(보험사의 보험료 수입에서 보험금 지급액 등 손해액이 차지하는 비율) 때문에 보험사들이 보험료를 정기적으로 인상할 가능성이 있어 가입을 서두르는 게 이익이다.실손보험료를 줄이려면 가입하기 전 해당 보험사의 손해율을 따져볼 필요가 있다. 손해율이 높은 상품은 갱신 때 보험료가 오를 가능성이 크다. 반면 손해율이 낮으면 손해율이 높은 보험사보다 보험료가 저렴하다. 통상 손해율이 100% 이하일 때 손해율이 낮은 것으로 간주한다. 손해보험협회나 생명보험협회 홈페이지에 들어가면 보험료 인상률 및 손해율 공시에서 최근 3년치를 확인할 수 있다.‘4세대 실손보험 할인·할증’ 제도로 보험료 절약이미 실손보험을 들었다면 ‘4세대 실손보험 할인·할증’ 제도를 이용해 보험료를 아낄 수 있다. 2021년 6월 이전에 1~3세대 실손보험에 가입한 사람이 4세대 상품으로 계약을 전환하면 보험료를 50% 깎아준다. 4세대 실손보험은 과잉 진료를 억제하고 가입자 간 형평성을 제고하기 위해 2021년 7월 출시된 상품이다. 보장 범위와 한도는 기존 상품과 비슷하지만 보험료가 훨씬 싸다. 2009년 9월까지 판매된 1세대 구(舊)실손보험과 비교하면 보험료가 75%가량 싸고, 2세대 표준화 실손보험(2009~2017년 3월 판매)과 3세대 신(新)실손보험(2017년 4월~2021년 6월 판매)보다는 각각 60%, 20% 저렴하다. 그 대신 진료비 자기부담비율이 20~30%로 높고, 보험료 할인·할증제가 적용돼 비싼 비급여 진료를 많이 받으면 보험료가 최대 300% 할증된다.홍양희 생명보험협회 상품혁신부 팀장은 “실손보험 적자가 누적되면서 1~3세대 실손보험의 보험료 인상이 계속되는 상황”이라며 “병원을 찾는 일이 적고 보험료 인상이 부담된다면 4세대로 전환을 고려할 만하다”고 말했다. 다만 비급여 진료를 계속 이용해야 하는 가입자라면 1~3세대 상품을 유지하는 편이 낫다. 계약 전환은 별도 심사 없이 보험사 고객센터나 담당 보험설계사를 통해 신청할 수 있다.어린이보험도 보험료 절약에 유리한 상품이다. 보험사마다 다르지만, 미성년자로 한정했던 어린이보험 가입 연령을 3년 전부터 만 30세 안팎까지 높였다. 원래 어린이보험은 자녀의 질병, 상해 등 의료비와 일상생활 중 각종 배상책임에 대비하는 상품이다. 3대 중대 질병(암·뇌혈관질환·심혈관질환)을 비롯해 성인용 보험에 들어 있는 대다수 보장을 최장 100세까지 받을 수 있다. 그러면서 보험료는 성인용 상품보다 20%가량 저렴해 일부 30세 이하 청년 사이에서 실속있다는 입소문이 퍼졌다. 한국보험학회장을 지낸 김두철 상명대 명예교수는 “3대 중대 질병 진단비를 우선 구성한 뒤 필요에 따라 수술비 담보 등을 추가하는 것이 좋다”며 “기존에 가입한 보험이 있다면 보장 내용을 분석하고 부족한 부분을 어린이보험에서 보완하는 것도 방법”이라고 말했다.보장성 보험 적정 보험료 소득 10% 수준어린이보험이라고 하더라도 최대 보장을 목표로 특약을 잔뜩 넣다 보면 보험료가 올라가 성인용 상품과 별 차이가 없어질 수 있다. 어린이보험에는 사망보험금같이 나이가 들수록 꼭 필요해지는 일부 보장이 빠져 있다는 점도 유의해야 한다. 노년층이 많이 걸리는 질병에 대한 보장도 상대적으로 부족할 수 있다. 이럴 땐 일정 연령을 넘어선 이후 다른 상품으로 전환하거나 부족한 보장을 채워줄 상품을 골라 추가 가입하는 게 좋다. 과거 어린이보험의 만기는 20∼30세였지만 최근에는 80세, 100세까지 보장되는 상품도 출시되고 있다. 질병, 상해 등에 대한 동일한 보장을 받기 위해 다시 가입하기가 번거로울 수 있으니 최대한 오래 보장해 주는 상품을 선택하는 것이 유익하다.2030세대에게는 매달 어느 정도 보험료가 적정한 수준일까. 김헌수 순천향대 IT금융경영학과 교수는 “보장성 보험이라면 소득의 10% 정도가 적정하다”고 말했다. 보험 가입 시 가장 중요한 건 보험을 계속 유지하는 것이다. 보험 계약을 중도에 해지할 것 같다면 애초에 들지 않는 것이 낫다. 다만 보험기간이 끝나더라도 돌려받을 보험금(만기환급금) 등이 없는 자동차보험 같은 소멸성 보험은 예외다.최근 목돈 마련과 재테크에 관심이 많은 2030세대를 대상으로 종신보험을 저축성 보험으로 속여 파는 사례가 급증하고 있다. 금융감독원에 따르면 2020년 7월부터 12월까지 접수된 전체 불완전판매 관련 보험 민원(4695건) 중 종신보험 관련 민원 비율이 3255건(69.3%)으로 비중이 가장 높다. 눈여겨볼 점은 젊은 종신보험 민원인이 압도적이라는 것. 전체 민원인 중 10~20대가 1201건(36.9%)으로 가장 높은 비중을 차지한다. 10~20대 민원인 대부분이 종신보험을 저축성 보험으로 설명을 듣고 가입했다며 이미 낸 보험료의 환급을 요구했다.종신보험은 사회 초년생 목돈 마련에 적합지 않아청년층에서 종신보험 민원이 빈발하자 지난해 6월 금융감독원(금감원)은 “종신보험은 사회 초년생의 목돈 마련에 적합하지 않다”며 소비자경보 ‘주의’를 발령했다. 보장성 보험은 사고가 발생했을 때 피보험자에게 약속된 보험금을 제공하는 상품이다. 저축성 보험은 보장성 보험을 제외한 보험으로, 보장성 보험에 비해 보험료 부담이 큰 대신 만기에 이자까지 얹어 보험금을 받는다. 서수양 금감원 금융상품분석국 조사역은 “부양가족이 없는 청년이라면 저축성 보험 가입은 잠시 접어두는 게 좋다. 종신보험을 저축성 보험상품으로 잘못 알고 가입했다가 비싼 보험료를 감당하지 못해 해지 시 납부한 보험료를 돌려받지 못하고 억울해하는 젊은이가 적지 않다”며 주의를 당부했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.04.11.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>‘탈출 러시’ 신의 직장, 그곳에 무슨 일이?</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003684378?sid=102</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>‘신의 직장’이라고 부르는 회사들이 몇 곳 있습니다. 사회적 지위도 있고 직업 안정성도 높으며 복지나 처우도 좋은 직장들이 그러하죠. 금융권에서는 한국은행이나 금융감독원이 이러한 ‘신의 직장’으로 불립니다. 그런데 신의 직장을 박차고 나가는 사람들이 적지 않다는 사실을 알고 계시나요? 한국은행에서는 2022년 2월에만 직원 6명이 퇴사했습니다. 매년 30명 정도가 한국은행을 퇴사한다고 하네요.더불어민주당 김수흥 의원이 한국은행에서 제출받은 자료에 따르면, 2012년부터 2021년까지 10년간 정년을 채우지 않고 중도 퇴직한 직원이 311명이었습니다. 이중 2030이 135명, 약 43%를 차지합니다. ◇부모님은 좋아하지만…“내가 답답해서”직장인 커뮤니티 ‘블라인드’에서 주고받는 속얘기를 볼까요? 우리가 일반적으로 이야기 하는 ‘신의 직장’이라고 하는 곳의 평점은 5점 만점에 2.7점밖에 되지 않습니다. 한국은행에 다니는 직원들이 커리어 향상, 업무와 삶의 균형, 급여 및 복지, 사내 문화, 경영진을 종합 평가한 결과입니다. 이들이 평하는 신의 직장의 실체가 다소 원색적이네요. ‘워라밸만 있음’, ‘고인물들이 많음’, ‘똑똑한 사람들이 들어와서 멍청해짐’ , ‘너무 큰 조직, 순환근무’, ‘급여 복지 개선이 너무 더뎌 여타 기관에 추월당한지 오래’, ‘잦은 지방근무’, ‘순환근무로 인해 업무의 전문성이 낮음’, ‘수직적 조직문화’, ‘중앙은행이라는 조직의 위상 약화’….한마디로 조직문화가 답답하고 성장의 기회를 잡기가 힘들다는 푸념입니다. 인사 적체도 심해 요즘 MZ세대가 꿈꾸는 조직문화와는 다소 거리가 있다는 점이 보이네요. 물론 ‘칼퇴 보장’, ‘외부 명성은 좋음’, ‘영업이나 대민업무 등 외부 압박이 적은 편’, ‘SKY(서울대·고려대·연세대) 출신의 훌륭한 동료들에게 배울점이 많음’, ‘회식은 적은 편’, ‘부모님이 좋아하신다’ 같은 장점도 있지만요.‘신의 직장’이라고 불리는 한국은행 젊은 퇴사자가 늘고 있다. /한국은행 홈페이지 ◇코인 업계로 떠나는 신의 직장인금융당국인 금융위원회나 금융감독원은 어떨까요? 윤주경 국민의힘 의원실이 두 기관에서 제출받은 자료에 따르면, 2021년 한 해 두 곳의 퇴직자 수는 93명입니다. 2018년 70명에서 2019년 81명, 2020년 91명으로 퇴직자는 계속 늘었는데요. 3년새 20%나 증가한 셈입니다. 특히 2022년에는 2월까지 이미 17명이 퇴사한 것으로 조사됐습니다. 1월 인사 때 퇴사자가 늘어 조직 안팎에서 당혹스러웠다는 후문입니다. 금융위원회보다는 금융감독원에서의 퇴직이 많았습니다. 2021년 금융감독원에서 78명이, 금융위원회에서 15명이 퇴사했습니다. 금융당국에서 고위 공직자는 퇴사 후 취업 심사를 받아야 하는 등 이직이 제한되는데요. 그런 제한이 없는 5급 이하 인력, 즉 젊은 직원이 퇴사하는 사례가 늘었다고 합니다. 실제로 금융위원회는 2021년 금융산업국 소속 A 사무관이 코인 거래소인 빗썸에 취업했습니다. 금융감독원에서는 핀테크 현장자문단 소속 부국장이 업비트를 운영하는 두나무로 자리를 옮겼고요. 금융감독원 자본시장국장 출신 인사가 코인 발행사로 이직하는 사례도 있었습니다. 역시 금융계에서는 금융 당국의 인사 적체와 폐쇄적 조직 문화를 ‘퇴사 러시’의 원인으로 꼽곤 합니다. 명예만으로 일하는 것도 옛말이란 뜻이죠. 무엇보다 금융 헤게모니(패권)가 빠르게 변화하고 있는 시대상이 반영됐다고도 볼 수 있어요. 금융당국의 힘이 과거에 비해 상대적으로 약해진 반면, 민간 영역에서 성장 중인 코인 업계나 핀테크 업계는 덩치를 계속 불려왔지요. 조직 안에서 성장하고자 하는 2030 직원이 빠르게 변화하는 민간 영역에 눈을 돌리는 것도 당연한 수순이라는 분석이 나옵니다. ◇코인 회사 ‘연봉 4억’에 자괴감특히 최근 코인 거래소 업비트를 운영하는 두나무의 직원 평균 연봉이 4억원에 육박한다고 알려지면서 이들 ‘신의 직장’ 직원들의 사기가 한풀 꺾였습니다. 신의 직장을 빠져나온 젊은 직원들은 사모펀드나  자산운용사, 벤처캐피털처럼 성과에 따라 연봉을 많이 챙길 수 있는 직장으로 많이 이직한다네요. 2021년 한국은행 직원들의 평균 연봉은 1억615만원이었습니다. 대졸 초임 연봉은 4900만원으로 알려져 있고요. 절대적으로 낮은 수준은 아닙니다. 다만 시중은행이 모두 연봉 1억원을 넘겼고, 인터넷전문은행인 카카오뱅크는 2021년 평균 연봉이 1억5300만원을 기록했다는 점을 감안하면 힘이 빠지긴 하겠네요. 게다가 몸집을 불리면서 직원 처우를 파격적으로 개선하는 핀테크 업체들과 달리 한국은행은 현행법상 기획재정부가 임금인상률을 승인합니다. 2018년 1.6%, 2019년 0.8%, 2020년 2.7%, 2021년 0.7%로 매년 0~2%대에 그칩니다. “물가상승률이라도 반영해달라”는 한국은행 직원들의 볼멘소리가 터무니 없게 들리지는 않네요. 금융감독원은 회계사나 변호사인 직원이 많습니다. 때문에 소득 면에서 안그래도 다른 전문직과 비교해 박탈감을 느끼는 경우가 많지요. 금융감독원의 예산 권한은 금융위원회가 쥐고 있습니다. 글로벌 금융위기 직후인 2009년 여론에 밀려 금융감독원 국실장급 연봉을 5% 삭감하고, 신입직원 연봉도 20% 줄인 바 있지요. 2021년 말까지도 당시 연봉을 복원하자는 논의가 계속되고 있었습니다. 한 금융감독원 직원은 “소득이 상대적으로 낮지만 직업 안정성이 좋고 이름값이 있기 때문에 금감원에 왔다”며 “그런데 해가 갈수록 회계사 친구들은 물론 일반 은행이나 금융권과도 연봉 격차가 벌어지니 자괴감이 든다”고 고백했습니다. 특히 금융감독원의 경우 대민 업무가 많고 언론의 관심도 많아 스트레스가 많은 편이라고 합니다. 아무리 신의 직장이라도 직장은 직장인가봅니다. 아무리 남들이 선망하는 직장이라도 정작 그 회사에 다니는 사람의 입장은 다를 수 있다. /픽사베이 ☞핀테크(Fintech)란 무엇인가말그대로 금융(finance)과 기술(technology)을 합성한 용어입니다. 모바일과 소셜미디어, 빅데이터 같은 첨단 정보기술(IT)을 활용한 금융 서비스, 또는 그런 서비스를 하는 회사를 가리킵니다. 은행에서 비대면으로 주택담보대출을 하는 사례가 있겠네요. 카카오뱅크나 토스뱅크 같은 기업을 핀테크 업체라고 부르기도 하고요. 금융을 중심에 두고 IT를 활용해 금융 사업을 확장한다는 뉘앙스가 강합니다. 요즘은 테크핀(Techfin)이라는 용어도 많이 보이는데요. 역시 기술과 금융을 합친 말이지만, 핀테크와 살짝 결이 다릅니다. 기술회사가 아예 금융업에 진출하는 형태를 테크핀이라고 하지요. 모바일 기술을 갖춘 삼성전자가 운영하는 간편결제 서비스 ‘삼성페이’, 온라인 포털사이트 네이버가 서비스하는 ‘네이버통장’ 같은 사례가 테크핀입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.04.11.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>인뱅 CSS 투자 성과 가시화…카뱅, 중금리 대출 홀로서기</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001975683?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>11일부터 사잇돌대출 중단케뱅, 토뱅 모회사와 협업인뱅 대출 전년말 대비 2.7억↑[헤럴드경제=박자연 기자]인터넷전문은행의 신용평가시스템(CSS) 투자 성과가 본격적으로 나타나고 있다. 인터넷은행들은 업력이 짧아 그간 신파일러(금융이력부족자·Thin filer) 리스크를 판단할 수 있는 충분한 데이터를 확보하지 못했으나, 꾸준한 인력·기술 확보와 업무제휴 등을 통해 해결책을 찾은 모양새다.11일 카카오뱅크는 SGI서울보증의 보증에 기반한 ‘직장인 사잇돌 대출’의 신규 신청을 중단하고 카카오뱅크 자체 신용에 기반한 중신용대출 상품만으로 운영한다고 밝혔다.지난해 6월부터 적용 중인 카카오뱅크의 새로운 CSS가 고도화됨에 따라 중저신용자 대출에서 ‘홀로서기’를 선언한 것이다. 카카오뱅크는 CSS 정확도를 높이기 위해 카카오 공동체와 데이터 협력을 진행해왔고, 교보그룹과도 업무협약을 맺은 바 있다. 이에 따라 카카오뱅크의 올해 1분기 중저신용 고객 대출은 6253억원 규모로 전년 동기(538억원)보다 11.6배 늘었다.카카오뱅크 뿐만 아니라 다른 인터넷은행들도 CSS 투자 성과가 나타나고 있다.케이뱅크는 올 2월 ‘맞춤형 CSS’를 선보였다. 중저신용과 신파일러 등 고객군별 특성을 반영해 특화 신용평가 모형을 만들어냈다. 통신/쇼핑 정보도 활용했다. 스마트폰 요금제, 할부금, 요금 납부이력 등 통신 서비스 이용 관련 데이터와 백화점 및 마트에서 패션, 여가활동, 외식, 생활용품 등에 대한 구매 및 이용 경향이 신용평가 대안정보로 사용된다. 이와 함께 인공지능(AI) 머신러닝 기법을 적용해 CSS 모형이 보다 정교한 신용평가를 수행할 수 있도록 했다.케이뱅크는 이번 맞춤형 CSS 도입으로 중저신용 고객군 대출 승인율은 기존 모형 대비 약 18.3%, 신파일러 고객군은 승인율이 약 31.5% 상승한다고 설명했다.토스뱅크 역시 자체 개발한 신용평가모형(TSS)에 소상공인에 특화된 심사기준을 반영해 인터넷은행에서는 처음으로 개인사업자 대출을 내놨다. 모회사 플랫폼인 토스 내 축적된 데이터로 신용평가 정확성을 높인 게 특징이다. 토스뱅크 ‘사장님대출’은 출시 한달 만에 취급액 2000억원을 돌파했다.인터넷은행들이 상대적으로 취약했던 CSS 부문에서 자리를 잡아가면서 대출 증가세 측면에서 시중은행과 상반된 결과를 보이고 있다.올해 인터넷은행 3개사의 대출은 월평균 약 9000억원 증가했지만 5대 시중은행(KB국민·신한·우리·하나·NH농협)의 가계대출은 월평균 2조원 가량 줄어든 것으로 나타났다. 3월 말 기준 인터넷은행들의 가계대출 잔액 합계는 36조1439억원으로 지난해 말 잔액보다 2조 6610억원(7.9%) 불어났다. 반면 5대 시중은행은 5조8592억원(-0.8%)이 쪼그라들었다.여기에 최근 인터넷은행이 비중을 높이는 데 애를 먹고 있던 중저신용자 기준이 완화되면서, 인터넷은행들의 대출 성장세는 당분간 이어질 전망이다. 코리아크레딧뷰로(KCB)와 나이스평가정보 등 신용평가(CB)사들은 이달부터 개인신용평점 하위 50%로 중저신용자 기준을 상향했다. 대상자가 늘어나면 중저신용자를 대상으로 한 영업은 한결 수월해진다.앞서 인터넷은행들은 당국에 약속한 중저신용자 대출 비중을 맞추기 위해 지난해부터 이자를 지원하는 등 막대한 마케팅 비용을 지출해왔다. 카카오뱅크는 지난해 11월부터 고신용자 신규 신용대출을 중단하는 등 특단의 조치를 이어가고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.04.08.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>[인터넷은행 5년⑥]카뱅 성공 보고 나서…동남아에도 인뱅 바람</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005070770?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>카카오뱅크, 주요 벤치마킹 사례로 손꼽혀그랩, 고젝 등 IT플랫폼 기반으로 금융시장 진출네이버, 토스 등 韓업체들도 '블루오션' 노려 동남아시아에도 인터넷전문은행, 디지털 기반의 새로운 은행 설립 바람이 불고 있다. 카카오뱅크 등 국내 인터넷은행의 성공이 효시가 되면서 경쟁이 치열해지고 있다는 분석이 나온다.해외서도 호평…주요 분석 대상으로 꼽혀8일 금융권에 따르면 해외 시장에서 카카오뱅크가 인터넷은행 주요 성공사례로 꼽혀 분석 대상이 되고 있다. 국내 A은행 고위관계자는 "카카오뱅크가 해외 시장에서 디지털 기반 인터넷 은행의 주요 벤치마킹 대상이 되고 있다"며 "카카오라는 막강한 플랫폼과 브랜드를 기반으로 정부의 규제 완화까지 맞물려 성장하는 모습이 인상적이라는 반응이 상당하다"고 말했다.실제로 카카오뱅크는 주요 분석 기관들의 우수사례로도 꼽힌다. 세계적인 경영자문사 보스틴컨설팅그룹(BCG)도 카카오뱅크를 인터넷은행 최상위권에 선정했다. BCG가 지난해 중순 내놓은 ‘아시아태평양지역에서의 디지털은행 승리 전략’에 따르면 전 세계 디지털은행 250곳 중 손익분기점을 넘어선 곳은 카카오뱅크를 포함해 13곳(5%, 당시 기준)에 불과하다. 동남아시아 지역에는 단 한 곳도 없었다.미국 경제전문지 포브스도 카카오뱅크를 높게 평가했다. 지난해 실시한 세계 최고 은행 조사에 꼽힌 500곳 중 한국 은행은 10곳에 불과했는데 카카오뱅크가 그중 1위를 차지한 것이다. 이 조사는 감사보고서·사업보고서 상 실적이 아닌 세계 각국 4만3000명 이상의 고객 답변으로 진행됐다. 개별 은행 만족도뿐만 아니라 신뢰도, 거래 약관, 고객 서비스, 디지털 서비스, 재무 자문 등 다섯 가지 하위 요소가 평가에 반영된 정성적 측면에 집중한 조사였다.현지에선 인터넷은행 경쟁전 한창동남아시아 시장에서는 이미 인터넷은행 경쟁이 격화되고 있다. 세계 최대 규모 회계법인 언스트앤영은 보고서를 통해 향후 3년간 싱가포르, 말레이시아, 필리핀, 인도네시아 등에서 10~15개에 달하는 인터넷은행이 등장할 것으로 내다봤다. 동남아시아 지역 인터넷 이용 인구가 미국을 웃돌 정도지만 은행 계좌가 없는 사람이 70%에 이를 정도로 금융의 문턱이 높은 상태인 만큼 현지 핀테크(금융+기술) 플랫폼 업체들에겐 ‘블루오션’이라는 분석이다.동남아시아 최대 승차공유 서비스로 성장한 그랩과 고젝이 대표적인 사례다. 그랩은 싱가포르 통신 대기업 ‘싱텔’과 손 잡고 컨소시엄을 구성, 싱가포르에서는 인터넷은행 인가를 획득했다. 말레이시아에서도 인터넷은행에 도전한 상태다. 고젝도 금융으로 영역을 확장, 상장 상업은행인 뱅크 자고의 지분을 22.16% 매입하는 등 디지털 뱅킹 사업에 속도를 내고 있다. 인도네시아의 기성은행인 BCA은행, BRI 등도 인터넷은행 시장에 뛰어들고 있는 상황이다.韓인터넷은행도 속속 진출동남아 시장이 ‘블루오션’인 만큼 국내 인터넷은행들도 눈독을 들이고 있다. 윤호영 카카오뱅크대표는 지난 2월 기자회견을 통해 "카카오뱅크가 가진 모바일 기술이 해외 진출에 가장 큰 자산"이라며 "우리나라 금융 기술 역량을 해외에 보여주고 싶다"고 해외 진출 의사를 내비친 바 있다. 대상 국가와 시점, 진출 형태는 미정이지만 동남아시아 지역이 유력하게 꼽히고 있다.국내에서 인터넷은행을 하지 않는 네이버도 동남아 시장에는 적극 진출하고 있다. 일본 관계사 ‘라인’의 모바일 메신저 점유율이 높은 태국과 대만, 인도네시아에 인터넷은행을 설립한 상태다. 태국에서는 현지 상업은행인 카시콘은행과 손잡고 은행서비스업을 확대했고 지난해 2월에는 대만 금융당국으로부터 인가를 획득, 라인뱅크를 공식 출범시켰다.모바일 종합 금융플랫폼 ‘토스’도 동남아시아 진출에 힘을 쏟고 있다. 이미 토스 베트남법인을 진출해 ‘만보기형 보상 서비스’를 출시했다. 이후 선불카드, 보험·대출 비교 서비스를 추가하면서 영역을 넓혀가고 있다. 올해에는 싱가포르에 글로벌 헤드쿼터도 설립할 계획이다.[인터넷뱅킹5년 시리즈 순서]①인뱅, 국민 절반이 사용…'은행의 미래' 보여줬나②50대까지 넘보는 카뱅…마음만 급한 케뱅③ "메기 역할 제대로 했다...시장·문화 바꾼 게 진짜 혁신④ 마이데이터, 금융사·핀테크 격전장...누가 승자될까⑤세계 인터넷은행 희비 가른 차별화…해답은 'IT금융'</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.04.15.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>“삼성 금융사 서비스 한곳서” 통합앱 모니모 출시</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003422676?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>보험-카드-증권 원스톱 처리삼성 금융계열사의 서비스를 한곳에서 이용할 수 있는 통합 애플리케이션(앱) ‘모니모’(사진)가 14일 본격적인 서비스를 시작했다. 2300만 삼성 금융 고객들이 모니모에 유입되면 단숨에 토스, 카카오뱅크를 뛰어넘는 거대 금융플랫폼으로 자리 잡게 돼 금융시장에 미칠 영향이 주목된다. 삼성 금융계열사의 공동 브랜드인 삼성금융네트웍스(삼성금융)는 첫 서비스로 모니모를 출시했다고 이날 밝혔다. 모니모는 삼성생명 삼성화재 삼성카드 삼성증권 등 4개사의 주요 서비스를 하나로 모은 앱이다. 보험금 청구, 자동차 고장출동 신고, 신용카드 한도 조정, 펀드투자 등 각 사의 홈페이지를 방문해 신청해야 했던 주요 기능들을 원스톱으로 처리할 수 있게 한 것이다. 또 하나의 계정만으로 4개 계열사에 흩어져 있는 금융 거래 현황을 한눈에 볼 수 있다. 모니모는 계좌통합관리, 간편송금, 신용관리, 환전 및 부동산·자동차 시세조회 등 새로운 종합 금융 서비스도 제공한다. 모니모에서만 가입할 수 있는 전용 금융상품도 선보일 방침이다. 각 사의 기존 앱과 차별화를 시도하려는 취지다. 혈액형별 보장보험, 1년 만기 저축보험, 모니모 카드 등이 이르면 다음 주 출시될 예정이다. 고객은 모니모에 접속해 출석 체크를 하기만 해도 보상 상품인 ‘젤리’를 받을 수 있다. 이 밖에 걷기 챌린지에 참여하거나 송금 서비스를 이용해도 젤리가 지급된다. 젤리는 모니모에서 보험 가입, 송금, 펀드투자 등에 현금처럼 이용할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.04.07.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>인터넷은행, 중·저신용자 대출 가속화</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005184658?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>인뱅 3사, 1분기 중·저신용자에 1조6687억원 대출카뱅 6250억으로 가장 많아…토뱅&gt;케뱅 순KCB, 하위 50% 기준 820→850점 상향…중·저신용자 대출 대상 증가[이데일리 박철근 기자] 인터넷은행들이 연초부터 중·저신용자 신용대출을 확대하고 있다. 케이뱅크와 카카오뱅크(323410), 토스뱅크 등 인터넷은행 3사는 올해 1분기에만 1조6687억원의 중·저신용자 대출을 한 것으로 나타났다. 설립취지인 중·저신용자 대출공급 확대에 맞게 지난해말부터 중·저신용자 대출을 확대한 결과로 풀이된다.특히 중·저신용자 대출 대상의 기준 중 하나인 코리아크레딧뷰로(KCB)가 이달부터 신용점수 하위 50% 기준을 상향조정하면서 중·저신용자 대출 대상이 늘어날 전망이다.7일 업계에 따르면 카카오뱅크(카뱅)는 올해 1분기에 중·저신용자에게 공급한 무보증 신용대출 규모는 6253억원으로 지난해 같은 기간(538억원)보다 11.6배나 늘어났다. 전체 신용대출 신규공급분에서 차지하는 중·저신용대출 비중도 같은 기간 3.3%에서 100%를 기록했다.토스뱅크(토뱅)도 올 1분기에 중·저신용자 신용대출 규모가 6203억원으로 전체 공급 규모에서는 카뱅의 뒤를 이었다. 케이뱅크(케뱅)도 올해 1분기에 4234억원의 대출을 중·저신용자를 대상으로 실시했다.지난해까지 인터넷은행 3사는 설립 취지였던 중·저신용자 대출 목표를 채우지 못했다. 정부의 대출총량 규제 등 대출규제를 강화한 것과 맞물린 결과다. 작년 5월 인터넷은행은 토뱅이 34.9%, 케뱅 21.5%, 카뱅은 20.8%를 각각 목표치로 제시했다. 하지만 연말에는 각각 23.9%, 17.0%, 16.6% 등 목표치에 미달했다.(그래픽= 문승용 기자)이에 연초부터 중·저신용자를 대상으로 한 신용대출을 확대하면서 올해 목표치(카뱅 25%, 케뱅25%, 토뱅 42%) 달성을 위해 박차를 가하고 있다.카뱅은 “중·저신용자 첫 달 대출 이자 지원 이벤트 진행과 금리인하 효과 등으로 2월말 18%대 후반을 기록한 중·저신용자 대출 비중은 3월말 20%로 상승했다”고 설명했다. 케뱅과 토뱅도 중·저신용자 대출비중이 3월말 현재 각각 20.2%, 31.6% 수준이다.업계에서는 올해 중·저신용자 대출 비중 목표 달성이 가능할 것으로 예상하고 있다.우선 신용평가기관(CB)가 중·저신용대출 기준에 포함되는 하위 50%의 기준 점수를 상향 조정했다. KCB는 지난 1일부터 개인신용평점 하위 50% 기준 점수를 820점에서 850점으로 상향 조정했다. 하위 50% 기준 점수가 오르면 인터넷은행으로부터 중·저신용자 대출을 받을 수 있는 사람이 늘어난다.이를 위해 2분기에도 중·저신용대출 위주 신용대출 공급 계획을 이어간다는 계획이다카뱅 관계자는 “2분기에도 중·저신용 위주의 여신 정책 기조를 유지할 예정”이라며 “중·저신용 고객에 대한 변별력 강화를 위한 신용평가시스템(CSS) 고도화 및 대안정보 활용 범위를 확대를 위한 기업 간 협업을 진행하고 있다”고 설명했다.또 다른 인터넷은행 관계자는 “CB의 하위 50% 기준 상향 조정으로 중·저신용자 대출이 더 활발해질 것으로 보인다”고 전했다.다만 목표치 달성을 위해 중·저신용자 대출을 늘리기만 할 경우 향후 부실채권으로 돌아올 가능성도 배제할 수 없다. 업계 관계자는 “각 은행별로 CSS(신용평가시스템)를 구축하고 고도화하는 작업을 이어가고 있다”며 “대출 확대를 통한 중·저신용자의 자금 융통에 도움도 주고 건전성 관리도 만전을 기하는 중”이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.04.10.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>'빅테크'만 봤던 금감원, '핀테크'도 검사한다</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004817300?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 그동안 네이버·카카오·토스 등 '빅테크'에 검사 역량을 집중했던 금융감독원이 중소형 핀테크 회사들을 들여다본다.   빅테크들이 받는 'IT리스크 계량평가 제도'를 간이검사 형식으로 핀테크에 적용해 상시 평가 기능을 강화하는 방식으로다.   10일 금감원은 이런 내용을 중심으로 하는 '2022년도 IT리스크 상시감시 및 검사업무 운영방향'을 발표했다.   최근 전자금융업 진출이 활발한 핀테크들이 대형 금융회사에 비해 IT인프라·정보보호 기반이 열악해 IT리스크가 증가할 우려에 따른 것이다.   먼저 감시와 관련해선 지금까지 빅테크에만 적용되던 IT리스크 계량평가 제도가 모든 전자금융업체들에 적용된다는 게 골자다.   금감원은 2016년부터 'IT리스크 계량평가 제도'를 도입해 자산규모 2조원 이상인 대형 금융회사에 대해 IT인프라 운영상의 주요 리스크를 정기적으로 점검하고 있다.   올해부터는 자산규모가 2조원 이상이거나 IT 의존도가 높은 금융회사에 대해서는 ‘IT리스크 계량평가’를 실시하고, 중소형 금융회사 및 전자금융업자에 대해서는 계량평가 항목을 간소화 한 간이평가를 실시한다.   취약점이 확인되는 핀테크를 중심으로 자체 감사 요구제도도 도입한다. 업계와 금감원이 참여하는 협의체도 만든다.   아울러 올해부터는 빅테크는 정기검사로 돌리고 핀테크에는 수시검사에 나선다.   금융회사의 특성, 규모, IT 의존도 등을 감안해 2~5년 주기로 IT부문에 대한 정기검사에 나선다.   또 IT사고로 소비자 피해가 발생했거나, 내부통제가 취약한 금융회사등을 대상으로 테마검사가 강화된다.   금감원 관계자는 "IT리스크 수준을 조기 판별이 가능한 상시평가 모형을 개발하는 한편, 4월중 금융업권의 의견을 청취해 IT상시협의체를 구성하고, 동 협의체를 통해 금융회사 및 전자금융업자와 각종 현안사항 등에 대한 소통을 확대해 나갈 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.04.05.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>"금리 깎아주세요" 요구했더니 5%P 인하…이게 된다고?</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004945421?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>승인고객 최대 5%P 금리 인하# 제2금융권에서 2600만원 상당 대출을 보유하고 있던 A씨는 최근 토스뱅크로 갈아탔다. 토스뱅크에 2000만원 상당 대출을 신청하고 기존 대출은 일부 상환했다. 원래 대출 신청 시 책정된 금리는 연 12.5%였지만, 토스뱅크는 A씨가 최근 상환한 것을 확인한 후 신용이 개선됐다고 판단해 이율을 5%포인트 가까이 깎아줬다. 원래 475점이었던 A씨의 토스뱅크 내 신용점수는 100점가량 상승했다.인터넷전문은행 토스뱅크의 금리인하요구권을 통해 대출 이자를 대폭 깎고 신용점수도 올라가는 사례가 속속 나오고 있다. 토스는 승진, 이직, 성실 상환 등으로 신용점수가 상승하면 먼저 알려줘 권리를 행사할 수 있도록 해준다. 5일 토스뱅크는 출범 직후인 지난해 10월 5일부터 올해 3월 31일까지 전체 금리인하요구 건수가 총 2만4910건에 달한다고 밝혔다. 지난해 말 5대 시중은행이 6개월간 고객에게 받은 평균 금리 인하 신청 건수 1만7809건 대비 40%가량 높은 수치다. 토스뱅크와 카카오뱅크 등을 제외한 대부분 은행은 차주가 직접 고객센터 등을 통해 금리인하요구권을 행사해야 금리를 깎아준다. 토스뱅크는 애플리케이션(앱) 내에서 '금리 낮아질 때 알림 받기'에 동의하면 자동으로 알려준다.금리 인하가 승인된 고객들은 최대 5%포인트 이상 금리가 낮아지는 효과를 누렸다고 토스뱅크는 밝혔다. 대부분 중저신용 고객이 토스뱅크에서 대출을 받은 뒤 기존에 보유하고 있던 현금서비스나 카드론 등 제2, 제3금융권의 대출을 상환한 경우다. 제1금융권으로 갈아타며 신용도도 개선됐다. KCB 기준 최대 379점(과거 기준 5개 등급)까지 신용도가 개선되는 고객도 있었다. 토스뱅크 관계자는 "토스뱅크 고객이라면 금리 인하 요구는 반드시 누려야 할 권리"라며 "고객들이 정당한 권리를 실현할 수 있도록 토스뱅크가 더 많은 부분을 고민하고 먼저 제안할 것"이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.04.05.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>인터넷은행 3개사 가계대출 증가…"중저신용자 확대 영향"</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001023898?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>올해 들어 5대 주요 시중은행의 가계대출이 월평균 2조원가량 줄었지만 인터넷은행 3개사의 대출은 월평균 9천억원 가까이 증가하는 추세를 보이고 있다.5일 금융권에 따르면 카카오뱅크, 케이뱅크, 토스뱅크의 3월 말 기준 가계대출 잔액 합계는 36조1천439억원으로 파악됐다.작년 말 잔액보다 2조6천610억원, 7.9% 증가한 규모다.작년에 가계대출 영업을 시작한 토스뱅크가 석달 새 1조8천373억원이나 늘렸고 케이뱅크와 카카오뱅크에서 대출이 각각 7천200억원과 1천37억원 증가했다.이는 금융당국이 제시한 올해 연간 가계대출 증가율 목표치 4~5%대에 비해 증가 속도가 빠른 편이며 올해 들어 가계대출 잔액이 축소되고 있는 5대 시중은행과 대조적이다.지난 1분기에 5대 주요 시중은행은 가계대출 잔액이 작년 말보다 5조8천594억원 감소했다.이처럼 인터넷은행의 가계대출이 증가한 것은 신생 토스뱅크의 시장 안착을 배려한 금융당국의 유연한 관리방침과 중·저신용자를 겨냥한 업계의 영업전략 결과로 보인다.각 은행과 금융당국이 협의로 결정한 정확한 총량 목표는 공개되지 않았지만 인터넷은행은 시중은행의 4~5%대보다는 높게 책정된 것으로 알려졌다.토스뱅크의 경우 지난해 대출영업을 시작한 점을 고려해 증가율이 아닌 별도 기준으로 총량 목표를 설정했으며, 카카오뱅크는 시중은행보다 약간 높은 수준으로 협의한 것으로 전해졌다.금융당국은 인터넷은행에 대해선 은행별 총량 목표를 정한 후 설립 취지대로 중·저신용자 대출 계획은 각 은행이 자율적으로 정하고 나머지를 고신용자에 배분하도록 했다.(사진=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.04.06.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>한국 최고 부자는 김범수·이재용…한국인 억만장자 41명</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013097252?sid=104</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>포브스 2022년 억만장자 명단…두나무·SD바이오센서 경영진 신규 진입김범수 카카오 창업자[카카오 제공. 재판매 및 DB 금지](서울=연합뉴스) 김윤구 기자 = 한국 최고 부자는 김범수 카카오 창업자와 이재용 삼성전자 부회장인 것으로 집계됐다.    미국 경제전문지 포브스가 5일(현지시간) 자산 10억달러(약 1조2천200억원) 이상의 세계 부호를 집계한 2022년 세계 억만장자 명단에 따르면 이들 두 사람은 각각 재산 91억달러(약 11조900억원)로 공동 223위에 올랐다. 한국인 가운데 가장 높은 순위다.    김범수 전 카카오 의장은 작년보다 재산이 2억달러 감소했지만, 고(故) 이건희 회장으로부터 재산을 상속한 이 부회장의 자산은 8억달러 늘어났다. 이재용 삼성전자 부회장[연합뉴스 자료사진]    서정진 셀트리온 명예회장이 70억달러(약 8조5천300억원), 게임업체 스마일게이트의 권혁빈 창업자가 68억달러(8조2천900억원)로 뒤를 이으며 각각 세계 343위, 363위에 자리했다.    삼성 이 부회장의 어머니인 홍라희 전 리움미술관장은 63억달러(7조6천800억원)로 국내 5위, 세계 403위에 랭크됐다. 이 부회장의 동생인 이부진 호텔신라 사장(41억달러·709위)과 이서현 삼성복지재단 이사장(35억달러·851위)도 각각 한국 10위, 세계 1천위 안에 들었다. 송치형 두나무 의장[두나무 제공]    포브스 억만장자 명단에 새로 이름을 올린 한국인 부호 가운데 가상화폐 거래소 업비트 운영사인 두나무의 송치형 회장이 가장 눈에 띈다. 송 회장은 자산 37억달러(약 4조5천100억원)로 한국 8위, 세계 801위에 올랐다.     역시 억만장자 순위에 신규 진입한 김형년 두나무 부회장은 재산이 19억달러(2조3천100억원)로 한국 20위, 세계 1천579위다.     게임업체 넥슨 창업자 고 김정주 NXC 이사의 부인 유정현 NXC 감사도 새로 명단에 올랐다. 그의 재산은 29억달러(3조5천300억원)로 한국 12위, 세계 1천53위다.    코로나19 신속진단키트로 '대박'을 낸 SD바이오센서의 조영식 의장도 억만장자 클럽에 처음 가입했다. 그는 자산 23억달러(2조8천억원)로 한국 16위, 세계 1천341위다.     세계 억만장자 2천668명 가운데 한국인 부호는 41명으로 지난해보다 3명 줄었다.    이들 가운데 스마일게이트(권혁빈), 펄어비스(김대일), 크래프톤(장병규) 등 게임회사 창업자들이 많았다. 전체 업종 가운데 게임업체 관련 부호가 8명으로 가장 많았다.     핀테크 기업 토스 창업자인 이승건 비바리퍼블리카 대표(12억달러)가 40세의 나이로 한국인 억만장자 가운데 최연소였다.    ykim@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.04.01.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>조아제약, '헤포스시럽' 리뉴얼… '헤파토스시럽' 출시</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005067373?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>조아제약이 간장 활성화제 '헤포스시럽'을 리뉴얼한 '헤파토스시럽'을 출시했다고 1일 밝혔다.일반의약품인 헤파토스시럽은 '지친 간(Hepatic)에 새로운 힘을 준다(Toss)'는 의미를 가진 간장 활성화제다. 아르기닌, 베타인, 구연산 세 가지 성분의 상승효과로 간세포를 보호하고 간 기능 개선 작용으로 간 질환의 보조 치료에 효과적이다.주성분인 아르기닌은 암모니아를 무독성의 요소로 중화시켜 체외로 배출해 간세포를 보호하고 간 기능을 개선해 간장 질환의 예방 및 치료에 도움을 준다. 베타인은 콜린 대사과정에서 콜레스테롤 수치를 낮추고 담즙 분비를 증가시켜 지방대사 및 소화작용을 원활하게 하고, 지방산 이용을 촉진시켜 체내 지방 축적을 방지해 지방간 등 간장 질환 치료 및 예방에 효과적이다. 구연산은 아미노산, 탄수화물, 지질 대사, 알코올 대사에 관여하며 체내의 중요한 에너지원인 ATP를 생산하는 TCA 회로의 주요 인자로서 에너지 합성을 유도하여 피로회복을 촉진한다.헤파토스시럽은 액제로 신속하게 체내에 흡수돼 간의 에너지 합성과 해독 작용 등에서 빠른 효과를 발휘한다. 특히 기존 헤포스시럽에 함유돼 있던 백당을 제거해 당뇨 환자 등 당 섭취에 걱정이 있는 사람도 부담 없이 복용할 수 있다.브랜드 가치 제고와 함께 제품의 정체성 및 효능·효과를 명확히 전달하기 위해 '간의 모양'을 '시럽'과 합친 말랑말랑한 형태로 제품 패키지에 적용했다. 조아제약 측은 심플하면서도 세련된 디자인으로 한층 젊은 디자인을 추구했다는 설명이다. 헤파토스시럽은 다양한 포장 형태로 복용 목적 및 선호에 따라 선택하여 복용할 수 있다. 1일 10~30㎖를 약 반 컵의 물에 희석해 식간에 분할 복용한다. 약국에서 구매 가능하며 제품에 대한 사항은 조아제약 고객상담실을 통해 문의하면 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.04.05.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>올 들어 시중은행 가계대출은 줄었는데…인터넷은행은 2조7000억원 늘어</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003849197?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>올 들어 5대 주요 시중은행의 가계대출은 월평균 2조원 가량 줄었지만 인터넷은행 3개사의 대출은 월평균 9000억원 가까이 증가한 것으로 나타났다.5일 금융권에 따르면 인터넷은행 3개사의 3월 말 기준 가계대출 잔액 합계는 36조1439억원으로 집계됐다. 지난해 말 잔액보다 2조6610억원, 7.9% 증가한 규모다.지난해 가계대출 영업을 시작한 토스뱅크가 석 달 만에 1조8373억원 늘렸고, 케이뱅크와 카카오뱅크에서 대출이 각각 7200억원, 1037억원 증가했다. 이는 올해 금융당국이 제시한 가계대출 증가율 목표치인 4~5%대에 비해 증가 속도가 빠른 편으로 올해 들어 가계대출 잔액이 감소하고 있는 시중은행과 대조적이다. 지난 1분기 5대 시중은행의 가계대출 잔액은 지난해 말 대비 5조8594억원 줄었다. 인터넷은행의 가계대출이 증가한 것은 신생 토스뱅크의 시장 안착을 배려한 금융당국의 유연한 관리방침과 중·저신용자를 겨냥한 업계의 영업전략 결과라는 분석이 나온다.은행과 금융당국이 협의로 정한 정확한 총량 목표는 공개되지 않았지만 인터넷은행은 시중은행의 4~5%보다는 높게 책정된 것으로 알려졌다.업계에 따르면 토스뱅크의 경우 증가율이 아닌 별도 기준으로 총량 목표를 설정했으며, 카카오뱅크는 시중은행보다 약간 높은 수준으로 협의한 것으로 전해졌다.금융당국은 인터넷은행의 가계대출이 상대적으로 빠르게 늘고 있지만 현재로선 개입할 필요가 없는 상황으로 보고 있다. 금융당국 관계자는 "올해 들어 가계부채 전체 규모가 감소하고 있기 때문에 일부 은행의 증가 속도가 빠르다고 해서 문제 될 상황은 아니다"라고 말했다.▶ 무료로 보는 오늘의 운세- Copyrightsⓒ 스포츠조선(http://sports.chosun.com/), 무단 전재 및 재배포 금지</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.04.15.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>카카오페이, ‘블루칩’ 평가받지만…성장 위협하는 의외의 리스크는?</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002122820?sid=105</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>카카오페이는 송금, 결제뿐만 아니라 투자, 대출, 보험 등 다양한 금융서비스들을 제공하고 있는 국내 1등 금융 플랫폼이다. 그러나 이러한 경쟁력을 가진 카카오페이도 주목해야할 몇가지 리스크를 가지고 있다.  삼성증권은 14일, 카카오페이에 대한 기업분석리포트를 통해 카카오페이가 가진 뛰어난 강점들을 열거하면서도 과도한 낙관보다는 리스크에 대한 점검에도 신중할 것을 투자자들에게 주문했다.물론 카카오페이가 가진 간편결제의 성장 여력은 여전히 높으며, 향후 금융의 디지털 전환 속 카카오페이의 금융 플랫폼 영향력은 더울 커질 것으로 예상하고 목표주가 16만2000원을 제시했다.◆카카오페이가 가진 강점, 단단한 기초 체력삼성증권에 따르면, 카카오페이는 카카오톡과의 듀얼 플랫폼 전략을 기반으로, 다양한 금융서비스가 가능한 명실상부한 국내 1등 금융 플랫폼이다. 또한 간편결제시장이 가파르게 성장하고 있고, 이에 강점이 있는 카카오페이의 결제서비스 영역은 여전히 높은 성장력을 보유한 것으로 판단된다. 간편결제 시장의 성장 및 카카오페이의 시장 점유율 확대,, O2O 결제 및 국내외 오프라인 결제 확대에 대한 성과의 가시화되고 있다.이와함께 현재 카카오페이는 결제 분야를 넘어 B2C 금융 플랫폼으로 진화하고 있다. 올해 마이데이터, MTS 출시 등 카카오페이는 단순 상품 중개를 넘어 보다 고차원적인 B2C 금융 플랫폼으로 한 단계 도약하고 있다는 평가다.삼성증권은 카카오페이의 2023년 및 2024년 매출을 각각 1.02조원, 1.54조원 수준으로 전망했다. 아울러 앞으로 카카오페이의 기업가치 상향을 위해선 ▲간편결제 시장 내 카카오페이의 지배력 강화 여부, ▲금융 서비스 비중 확대에 따른 수익성 개선, ▲ B2B 금융으로의 생태계 확장 등이 관건이라고 보았다.◆카카오페이를 위협하는 의외로 다양한 리스크삼성증권은, 카카오페이가 현재 높은 밸류에이션에 거래되고 있는 것은 국내 금융 플랫폼 시장에서 확고한 입지를 가질 것이란 기대때문이라고 보았다. 하지만 ▲대출 중개 서비스 시장 성장의 지연, ▲다양한 경쟁사의 시장 진입에 따른 경쟁 심화, ▲MAU(월간 활성 사용자 수) 성장 둔화가 나타날 경우, 카카오페이의 벨류에이션이 하락할 것으로 전망했다. 먼저, 국내 대출 중개서비스 시장 성장이 지연될 경우, 카카오페이에게는 힘든 상황이 될 것으로 예상했다. 특히 정부의 가계대출 규제 완화가 더디거나, 부동산 시장의 침체, 금리 상승에 따른 대출 갈아타기 수요 감소등이 나타날 경우, 대출중개서비스 시장 성장도 하락할 것으로 예상됐다.실제로 작년 하반기 중 카카오페이의 금융서비스 매출이 정부의 '가계대출 총량' 규제로 인해 성장세가 둔화됐다는 점을 지적했다.또한 삼성증권은, 카카오페이가 주력하고 있는 시장에서 새로운 경쟁자가 계속 진입하고 있는 것도 리스크 요인으로 꼽았다. 특히 간편결제시장은 네이버페이 외에도 토스, 페이코 등 플랫폼뿐만 아니라 KB페이, 신한플레이 등 대형 금융지주 산하 카드사와 쓱페이, 스마일페이 등 대형 리테일들도 적극적으로 시장에 진출하고 있다.삼성증권은, 여러 리스크중에서도 카카오페이의 MAU(월간 활성 사용자 수)의 성장 둔화를 가장 큰 리스크 요인으로 꼽았다. 특히 플랫폼 산업에서 MAU의 증가 둔화는 치명적인 리스크로 보았다. 실제로 글로벌 간편결제플랫폼인 페이팔(Paypal)은 2021년4분기 실적발표이후 주가가 25% 급락락했는데 그 이유는 회사측이 보수적인 순가입자수 가이던스를 제시했기 때문이었다. 당시 페이팔은 2022년 순 가입자 수 가이던스를 1500만~2000만명으로 제시했는데, 이는 당시 시장 예상치 5300만명을 크게 하회한 것이었고, 결국 큰 폭의 밸류에이션 조정과 함께 주가가 급락했다. 따라서 삼성증권은, MAU관점에서 봤을때 카카오페이의 가장 큰 리스크는 이미 너무나 많은 MAU를 확보했다는 점이라고 지적했다. 카카오페이가 발표한 MAU는 2150만명으로 국내 인구의 41,6% 수준이다. 이는 유소년층과 노년층을 제외하면 대부분이 카카오페이를 접한다는 것을 의미한다. 그러나 이는 역으로, MAU가 더이상 성장하지 못하고 둔화될 가능성이 높다.   이 때문에 삼성증권은 MAU와 관련하여, 카카오페이 앱에 접속하는 '순수 MAU'를 중심으로 다시 접근할 필요가 있다고 지적했다.카카오페이가 현재 발표하고 있는 MAU에는 카카오페이 앱을 별도록 구동하지 않고, 카카오톡상에서 공금, 결제 등의 인앱(In App)기능을 사용하고 있는 고객 모두 포함하고 있다. 그러나 와이즈리테일이 작년 12월 기준으로 발표한 '순수 카카오페이 앱 MAU'는 약 400만명 수준이다.즉, 카카오페이가 향후 'MAU 성장 둔화' 논란에 대응하려면 순수한 MAU 400만 명 수준으로 재조정할 필요가 있고, 이를 통해 향후 카카오페이 앱 MAU를 지속적으로 늘려나가는 것이 최대 관건이라고 진단했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022.04.14.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>핀다, 토스뱅크 합류로 60개 금융사 대출 비교 가능</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000669540?sid=105</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>금융기술(핀테크) 분야의 신생기업(스타트업) 핀다는 14일 인터넷은행 토스뱅크의 합류로 60개 금융사의 대출 비교 서비스를 제공한다고 밝혔다. 이에 따라  핀다에서 토스뱅크 대출을 신청하면 주말 등 원하는 시간에 대출을 받을 수 있게 됐다. 핀다는 직장인 신용대출과 사잇돌 대출을 시작으로 향후 사업자 대출까지 연계할 방침이다.이로써 핀다는 1분기에만 8개 금융사를 추가 입점시켰다. 이를 통해 1금융권을 비롯해 저축은행, 캐피탈, 신용카드업체, 보험 및 온라인투자연계금융업 등 다양한 금융사의 대출 상품 200여개를 중개하게 됐다.핀다 앱 이용화면. 핀다 제공특히 핀다가 강조하는 것은 시간에 상관없이 가능한 대출 서비스다. 핀다를 통해 주말에도 대출이 가능한 금융사는 토스뱅크 등 15개사다. 핀다에 따르면 주말에 대출을 받은 이용자는 지난해 대비 7.8배 늘었다. 박홍민 핀다 공동대표는 "토스뱅크의 입점으로 이용자들의 선택지가 더 넓어졌다"며 "이를 통해 핀다는 업계에서 가장 많은 종류의 대출 서비스를 중개할 수 있게 됐다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022.04.02.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>주담대 진출 카카오뱅크, 시험대 올랐다</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/262/0000015364?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>[금융 인사이드] ● 5년 전 첫 출범, 고신용층 개인대출 머물러● 개인대출 이외 주담대·개인사업자대출 진출 ● 비대면 불편 개선·리스크 관리 등 과제 산적[GettyImages]2017년 케이뱅크와 카카오뱅크 등 인터넷은행이 처음 출범했을 당시 시중은행들은 새로운 형태의 사업자 등장으로 긴장한 기색이 역력했다. 하지만 또 한편으로는 규제 산업인 금융시장에서 IT 기업들이 마음껏 역량을 발휘하기는 쉽지 않으리란 시선이 있었던 것도 사실이다. 금융권의 메기가 되기보다는 미꾸라지로 전락할 수 있다는 비관적인 시각이었다.이런 시각은 “금융업은 톡톡 튀는 아이디어보다는 안정적 운영이 중요하다”는 인식에서 비롯된다. 실제 하나금융경영연구소는 2017년 8월 ‘인터넷전문은행의 역할 재조명’이라는 보고서에서 “은행의 본질은 리스크 관리에 있다고 볼 수 있다”며 “인터넷전문은행의 성공 여부도 한두 번의 위기 상황을 버티고 난 후에 판단할 문제”라고 지적했다.이런 시선은 카카오뱅크가 지난해 8월 상장하면서 기존 대형 금융사들과 어깨를 나란히 한 뒤에도 쉽게 수그러들지 않았다. 이유가 있다. 인터넷은행이 단기간에 소비자를 많이 끌어모은 것은 사실이지만, 아직 제대로 된 은행 업무 영역에는 진출하지 않았기 때문이다.그동안 인터넷은행들이 지금껏 해온 대출 업무는 주로 개인 신용대출에 한정됐다. 그런데 개인 신용대출의 경우 건당 대출 금액이 크지 않고, 리스크 관리도 비교적 용이한 영역으로 여겨진다. 전체 시장규모 자체도 크지 않다.더욱이 인터넷은행들은 설립 당시 중저 신용자를 대상으로 한 중금리 대출에 집중한다는 약속과 달리 고신용층 위주의 보수적인 대출 영업을 해오기도 했다. 여태껏 리스크가 작은 영역에 머물러 있었다는 의미다. 이에 따라 금융 당국은 인터넷은행들에 중·저신용자 대상 신용대출 비중을 늘리라고 권고하기도 했다.그런데 최근 들어 인터넷은행들의 행보가 확 달라지기 시작했다. 주택담보대출(주담대)과 개인사업자대출 등으로 사업 영역을 확대하기 시작한 것.카카오뱅크는 2월 22일 주택담보대출을 시작했다. KB 시세 기준 9억 원 이하 서울·경기·인천 등 수도권 아파트 구매 자금에 대해 대출을 제공한다. 대출 가능 최대 금액은 6억3000만 원이다. 인터넷은행이 주택 구입 자금 용도의 주담대를 선보이는 것은 카카오뱅크가 처음이다.카카오뱅크·토스뱅크 공격적 영업 시작지난해 10월 5일 국내 3호 인터넷전문은행 토스뱅크가 공식 출범하면서 기자간담회를 열고, 홍민택 토스뱅크 대표가 금융 서비스 시작을 알렸다. [토스뱅크]카카오뱅크는 특히 기존 시중은행보다 낮은 금리를 책정하고 올해 연말까지 중도상환수수료를 받지 않기로 하는 등 공격적인 영업을 예고했다. 아울러 하반기 중에는 개인사업자 대출 상품도 출시하겠다고 밝혔다.이에 앞서 토스뱅크의 경우 2월 14일 인터넷은행 최초로 개인사업자 대출을 시작했다. 자사 신용평가 모형에 따라 무보증·부담보, 비대면으로 대출해 주는 게 특징이다. 자영업자와 소상공인 등을 대상으로 최대 1억 원을 대출해 준다.케이뱅크 역시 조만간 개인사업자 운전자금대출을 선보이며 경쟁에 가세한다. 또 케이뱅크는 앞서 2020년 8월 아파트담보대출을 출시한 바 있다. 아파트를 담보로 빌린 기존 대출을 더 낮은 금리로 대환해 주거나 생활안정자금을 대출해 주는 상품이다. 이 상품의 금리를 더욱 낮추며 전열을 다지고 있다.인터넷은행들은 출범 초부터 대출 영역을 점차 확장해 나가겠다는 계획을 밝힌 바 있다. 다만 급할 이유는 없었다. 신용대출 등 안정적인 상품을 운영하며 시장에 안착하는 게 우선이었다.하지만 금융 당국이 가계대출 총량 관리를 강화하면서 성장이 한계에 부닥쳤다. 주로 신용대출 이자로 영업수익을 내던 인터넷은행의 타격이 클 수밖에 없었다.아울러 금융 당국의 권고에 따라 중·저신용자 대출 비중을 높여야 하는데, 이 경우 수익성이 악화할 가능성도 있다. 특히 ‘비율’을 맞추기 위해서는 고신용자 대출에 소극적일 수밖에 없다는 점도 문제였다. 결국 다른 대출 영역으로 눈을 돌려야만 하는 상황에 처한 셈이다.주택담보대출이나 개인사업자대출의 경우 시장규모 자체가 크다. 한국은행에 따르면 지난 1월 기준 국내 은행 가계대출 잔액 중 주택담보대출은 781조 원가량이었다. 개인사업자 대출 잔액은 425조 원이다. 반면 신용대출이 포함된 기타 대출 잔액은 278조 원에 그친다.이에 따라 시중은행 관계자들 사이에서는 진짜 경쟁은 이제부터 시작이라는 말이 나온다. 기존 대형 은행들은 카카오뱅크의 시장 진출에 앞서 ‘비대면 주택담보대출’ 상품을 출시한 바 있다. 우리은행의 경우 지난해 7월 ‘우리WON주택대출’을 은행권에서 처음으로 내놨고, 이후 신한은행 역시 지난해 말 관련 상품을 출시하는 등 주도권을 놓치지 않기 위해 분주한 모습이다.카카오뱅크가 2월 22일 주택담보대출 상품을 처음 출시했다. 사진은 서울 영등포구 여의도 카카오뱅크 오피스 모습. [뉴스1]비대면 주담대·개인사업자 대출… 노하우 쌓아야먼저 시장에 진출한 카카오뱅크를 비롯해 인터넷은행들이 해결해야 할 과제도 있다. 비교적 크지 않은 금액을 취급하는 신용대출과 달리 주담대는 소비자 역시 보수적으로 인식하는 경향이 있다는 점이다. 수억 원에 이르는 대출을 ‘비대면’으로 손쉽게 하려는 이들이 많지 않을 수 있다는 지적이 나온다.실제 카카오뱅크 역시 이런 점을 고민했다. 백희정 카카오뱅크 주담대 서비스셀 팀장은 2월 15일 주담대 출시 기자간담회에서 “주택 구입은 생애 가장 큰 투자이자 설레는 경험이지만 주담대의 규모와 성격상 고객의 긴장감도 크다”며 “영업점을 통한 대면에서 오는 심리적 안도감을 모바일 애플리케이션 화면으로 구현하기 위한 방안으로 대화형 인터페이스를 채택했다”고 설명했다. 카카오뱅크는 이를 위해 챗봇(채팅+로봇) 기반의 대화형 인터페이스로 마치 은행원과 상담하듯 대출을 진행하는 서비스를 만들었다. 이런 형태가 실제 소비자를 안심시킬 수 있을지가 관건이 될 것으로 여겨진다.개인사업자 대출의 경우 리스크 관리가 까다롭다는 점이 해결해야 할 과제다. 직장인의 소득은 비교적 안정적인 반면, 개인사업자의 수익은 대외 환경에 따라 수시로 변할 수 있다는 점에서 그렇다. 각 사업자의 미래 소득을 예측해 적정 금리와 한도를 부여하기 위해서는 오랜 기간 축적된 노하우가 필요하다는 게 기존 시중은행 관계자들의 지적이다.인터넷은행들이 당장 계획을 밝히고 있지는 않지만, 중장기적으로 진출해야 하는 시장도 있다. 바로 기업대출이다. 한국은행에 따르면 지난 1월 말 기준 기업대출 잔액은 1079조 원에 이른다. 전체 가계대출 규모와 맞먹는 수준이다.특히 기업대출의 경우 각 대출금액이 워낙 큰 터라 경제 여건에 따라 작은 실수로 큰 타격을 받을 수 있다는 점에서 가장 공략하기 어려운 시장으로 여겨진다.한 대형 은행 관계자는 “가계대출의 경우 정부가 정한 범위 내에서 한도를 정하는 데다가 신용도를 책정하기도 용이하기 때문에 운용이 단순하다”며 “반면 기업대출은 신용등급이나 대출 한도를 산출하는 방법이 각 은행별로 축적한 데이터나 산업에 대한 관점 등에 따라 달라지는 등 상당히 까다로운 영역”이라고 설명했다.인터넷은행 설립 이후에는 과거 글로벌 금융위기 등 큰 파고가 없었다는 점에서 앞으로 갈 길이 멀다는 지적도 나온다. 다른 은행 관계자는 “국제통화기금(IMF) 외환위기나 리먼 브러더스 사태 등 큰 경제위기가 왔을 때 금융사에 타격을 줄 수 있는 영역이 바로 규모가 큰 기업대출이나 주택담보대출”이라며 “이제 인터넷은행들이 이 시장에 진출한 만큼 제대로 된 역량을 갖추고 있는지 시험대에 오르게 되는 것”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022.04.08.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>인터넷은행 중저신용 대출 늘린다</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011110315?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>기사내용 요약KCB·나이스, 중저신용자 기준 상향인터넷은행, 중저신용 대출 비중 증가 기대[서울=뉴시스]이주혜 기자 = 인터넷은행의 중·저신용 대출 대상이 확대된다. 신용평가사들이 개인신용평점 하위 50%의 기준을 상향하면서 인터넷은행의 중·저신용 대출 비중이 오르는 효과가 나타날 것으로 보인다. 올해 목표치 달성에도 '청신호'가 켜졌다.8일 금융권에 따르면 코리아크레딧뷰로(KCB)와 나이스평가정보 등 신용평가(CB)사들은 1일부터 중저신용자 기준을 상향했다.KCB는 1일부터 '개인신용평점 하위 50%'의 기준 점수를 820점에서 850점으로 상향해 공시했다. 이에 따라 중·저신용 대출 대상자는 기존(2월15일 기준)보다 190만명 늘어나게 됐다. 나이스도 기존 859점에서 874점 이하로 확대했다. 은행권 관계자는 "이번 기준 상향은 전반적으로 신용점수가 올라간 영향으로 보인다"면서 "은행 및 핀테크 업체의 신용점수 관리 서비스가 확대된 영향도 있을 것"이라고 말했다.금융당국은 현재 인터넷은행의 중·저신용자 대출 기준을 개인신용평점 하위 50%로 두고 있다. 기준 점수가 올라가면 인터넷은행의 중·저신용 대출 대상도 늘어나게 된다. 신용점수 821~850점인 고객이 고신용자에서 중·저신용자로 분류되기 때문이다.인터넷은행 중 카카오뱅크는 지난해부터 중·저신용 대출 공급을 위해 고신용자 대상 신용대출을 중단해왔다. 이에 지난달까지 KCB 기준 신용점수가 821점인 고객은 고신용자로 분류돼 신용대출이 불가능했다. 이달부터는 신용점수가 820~850점인 고객도 중신용 대출 대상이 된다. 케이뱅크 및 토스뱅크는 앞서 고신용자들을 대상으로도 대출영업을 해왔으나 중·저신용 차주를 위한 이자지원 이벤트 등을 진행해왔다.인터넷은행들은 이번 기준 상향으로 중·저신용자 신용대출 비중이 커지는 효과를 기대할 수 있다. 인터넷은행 관계자는 "중·저신용자 기준 상향으로 대출 대상이 늘어나면서 올해 목표 달성에 긍정적 영향을 줄 것으로 보인다"고 말했다. 지난해에는 3사 모두 목표치에 미달했다. 다른 관계자도 "공시 기준이 올라간다면 중·저신용 대출로 잡히는 비중이 올라가는 효과가 있을 것"이라며 "앞으로도 중·저신용 대출 비중을 높이는 방향으로 갈 계획"이라고 말했다.인터넷은행 3사의 올해 연말 중·저신용자 신용대출 비중 목표치는 케이뱅크와 카카오뱅크가 각각 25%이며 토스뱅크는 42%다. 카카오뱅크는 1분기 중·저신용 고객에게 공급한 무보증 신용대출 규모가 6253억원으로 집계됐다고 전날 밝혔다. 3월 말 기준 무보증 중·저신용 대출 잔액은 2조6912억원으로 전년 말 대비 2269억원 증가했다. 중·저신용 대출 비중은 지난달 말 20%로 지난해 말 17%에서 3%포인트 상승했다. 케이뱅크도 지난달 말 기준 중·저신용 대출 비중이 20%를 넘겼다. 케이뱅크 출범 이후 지난달까지 5년간 약 2조5000억원의 중·저신용 대출을 실행했다. 토스뱅크의 3월 말 기준 중·저신용 대출 비중은 31.55%를 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022.04.04.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>스마트스토어 입점업체에 0.8%P 우대금리</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004944259?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>우리은행 우리 오 클릭대출◆ 금융 트렌드 ◆ 토스뱅크 등 인터넷전문은행이 기업대출 시장으로 영역을 넓혀가는 중에 우리은행 등 시중은행도 신상품들을 출시하고 있다. 2019년 금융권 최초로 개인사업자 비대면 대출을 출시한 우리은행은 지속적으로 프로세스 간소화와 업무 제휴 등을 추진하며 새로운 메커니즘의 상품들을 선보이고 있다.우리은행 기업대출 베스트셀러 상품은 작년 3월에 출시된 '우리 오(Oh!·5)클릭대출'이다. 이 상품은 별다른 홍보 없이도 개인사업자 인터넷 커뮤니티 등을 통해 입소문이 나면서 하루에 10억원 이상 판매되는 기염을 토하기도 했다.이 상품은 사업기간 1년 이상인 개인사업자를 대상으로 최대 3000만원까지 대출 가능한 비대면 상품이다. 대출 신청부터 실행까지 모든 과정을 최소화하여 다섯 단계 만에 신속하게 대출이 가능하다. 고객은 직접 종이서류를 발급·제출하기 위해 관공서와 은행을 방문하지 않아도 된다.특히 상환 방식으로 만기일시상환, 분할상환, 통장식상환(마이너스통장)을 선택할 수 있어 자금 수요에 따른 상환 방식 선택폭을 넓혔다. 우리은행 대출 첫 거래 고객에게 0.2%포인트, 원금균등분할상환대출 시 0.1%포인트, 가맹점 매출대금이 입금되는 고객에게 입금금액별로 최대 0.4%포인트 우대금리를 제공한다. 건별대출 최대 0.8%포인트, 한도대출 최대 0.5%포인트까지 대출금리 우대가 가능하다.작년 7월에 출시된 '우리은행 네이버 스마트스토어대출'은 빅테크 기업과 시중은행이 서로의 강점을 발휘해 새로운 금융 서비스를 창출해 낸 성공 사례로 평가받고 있다.이 상품은 네이버 플랫폼을 연계한 '스마트스토어에 입점한 6개월 이상 개인사업자' 전용 대출 상품이다. '네이버 앱'에서 한도와 금리 확인 등 대출 신청부터 승인 후 '우리원(WON)뱅킹 기업'에서 계좌 개설을 포함한 대출 약정까지 원스톱으로 가능하다.상품 구성도 네이버 스마트스토어 사업자에게 특화돼 있어 매력적이다. 대출 한도는 최대 4000만원(마이너스 통장 포함)이며, 금리 우대는 스마트스토어 매출대금이 우리은행 계좌로 입금될 시 기본 0.4%포인트, 월 100만원 이상 입금 시 추가 0.3%포인트 등 일정 조건을 충족하면 최대 0.8%포인트까지 적용된다. 또 사업자 비대면 전용 통장에 스마트스토어 매출대금 입금 시 전자금융 수수료, ATM 수수료 등 각종 수수료 면제 혜택도 받을 수 있다.대출 한도가 높은 마이너스통장이 필요한 개인사업자라면 '우리사장님이(e)편한 통장대출'을 주목할 만하다. 이 상품은 가맹점 매출대금 인정 금액과 신용등급별 한도를 고려하여 최대 1억원까지 지원한다.2019년 11월 출시된 이 대출은 온라인 마켓셀러, 무점포 창업 등 최신 트렌드를 반영하여 온라인 기반 매출대금도 실적으로 인정한다는 특징이 있다. 특히 한도대출(마이너스대출)에 대해 최대 1억원까지 지원되기 때문에 일시적으로 유동성 부족을 느끼는 개인사업자 고객층에게 큰 사랑을 받고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022.04.15.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>'NFT 올인' 선언한 카카오 그라운드X, NFT뱅크에 첫 투자</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005191479?sid=105</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>지분 10.28% 확보, 기업가치 평가 따라 투자금액 최대 332억NFT뱅크는 NFT 가치 평가·자산 관리 서비스"전략적 사업 시너지 강화 기대"그라운드X 작년 영업익 8배 뛰어[이데일리 김국배 기자] 카카오(035720)의 블록체인 계열사인 그라운드X가 대체불가토큰(NFT) 스타트업 NFT뱅크에 지분 투자를 단행했다. 최근 NFT 사업 ‘올인’을 선언한 후 알려진 첫 투자로, NFT 시장에 본격 시동을 걸었다.15일 업계에 따르면 그라운드X는 NFT뱅크 운영사인 컨택스츠아이오에 약 10억원을 투자해 지분 10.28%(1230주)를 확보했다.다만 그라운드X 측은 공시를 통해 “향후 기업가치 평가에 따라 계약조건상 1주당 최대 2700만원 한도 내에서 투자 금액이 조정될 수 있다”고 설명했다. 산술적으로 투자금액이 최대 332억원 규모까지 뛸 수 있는 셈이다.그라운드X에서 데이터 사이언티스트로 일했던 김민수 대표가 만든 NFT뱅크는 NFT 자산을 관리하고, 가치를 평가해주는 서비스다. 토스나 뱅크샐러드에서 여러 계좌를 연동해 돈 관리를 하듯 NFT뱅크에 메타마스크 등 다양한 암호화폐 지갑을 연결하면 NFT 자산을 관리할 수 있다. 암호화폐 투자사 해시드로부터 초기 투자를 받기도 했다.이번 투자는 그라운드X가 ‘NFT 올인’을 선언한 후 첫 투자다. 올해 들어 그라운드X는 싱가포르에 있는 카카오 자회사 크러스트에 블록체인 플랫폼(클레이튼) 개발 사업을 완전히 이관한 뒤 지난달 양주일 카카오 부사장을 새 대표로 선임하며 NFT 사업에 집중하고 있다. 이전까지 그라운드X가 투자한 곳은 암호화폐 ‘밀크’ 운영사인 키인사이드 정도였다.지난해 7월 NFT마켓 ‘클립 드롭스’를 연 그라운드X는 이번 투자를 계기로 NFT뱅크와 다양한 시너지 효과를 창출하겠다는 계획이다. 최근엔 손쉽게 NFT를 구매할 수 있도록 클립 드롭스에 카드 결제 기능을 도입하는 등 NFT마켓을 확장하려 하고 있다. 그 동안은 암호화폐 ‘클레이’로만 결제가 가능했다. 조만간 계좌이체 기능도 추가한다.그라운드X는 최근 감사보고서에서 작년 매출 829억원, 영업이익 564억원을 냈다고 밝혔다. 매출은 전년보다 188%, 영업이익은 694% 성장했다. 클레이튼 개발 용역 등 서비스 매출이 277억원에서 767억원으로 크게 늘어난 데다 이전에 없던 클립 드롭스 등 수수료 매출(9억원)이 추가된 영향이다. 특히 전체 매출의 약 91%가 해외에서 나왔다. 현재 그라운드X는 클립 드롭스에서 판매하는 NFT 작품의 약 20% 정도를 수수료로 가져가고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022.04.05.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>5대은행 가계대출 줄었는데…인터넷은행 2조7000억원 증가</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003138510?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>[경향신문] 인터넷전문은행 토스뱅크 로고5대 주요 시중은행의 가계대출이 올해들어 월평균 2조원 가량 줄어들었으나 인터넷 은행 3개사의 대출은 월평균 9000억원 가까이 증가한 것으로 나타났다.5일 금융권에 따르면 카카오뱅크, 케이뱅크, 토스뱅크의 3월말 기준 가계대출 잔액합계는 36조1439억원으로 파악됐다. 지난해 말 잔액보다 2조6610억원(7.9%) 증가한 규모다.지난해 가계대출 영업을 시작한 토스뱅크가 석달 새 1조8373억원이 늘었고, 케이뱅크와 카카오뱅크에서의 대출은 각각 7200억원과 1037억원 증가했다.이는 금융당국이 제시한 올해 연간 가계대출 증가율 목표치(4~5%)에 비해 빠른 증가로, 올해들어 가계대출 잔액이 축소하고 있는 5대 시중은행과 대조적인 모습이다. 지난 1분기 5대 주요 시중은행의 가계대출 잔액은 지난해 말보다 5조8594억원 감소했다. 인터넷 은행의 가계대출이 증가한 것은 신생 토스뱅크의 시장 안착을 배려한 금융당국의 유연한 관리방침과 중·저 신용자를 겨냥한 업계의 영업전략 결과라는 분석이다.각 은행과 금융당국이 협의로 결정한 정확한 총량목표는 공개되지 않았지만 인터넷은행은 시중은행(4~5%)보다 높게 책정된 것으로 알려졌다. 토스뱅크는 지난해 대출영업을 시작한 점을 고려해 증가율이 아닌 별도 기준으로 총량 목표를 설정했으며, 카카오뱅크는 시중은행보다 약간 높은 수준으로 협의한 것으로 전해졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022.04.13.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>[플랫폼유통칼럼]상장 여부가 복불복인 현실</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003009990?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>작년 뉴욕증권거래소(NYSE)에 상장한 쿠팡의 시가총액이 무려 100조원을 돌파하면서 많은 사람이 혼란에 빠졌다. 국내 전문가조차 상장(IPO)은커녕 적자가 심해서 회사 존립이 어려울 것 같다고 예상하는 상황에서 엄청난 기업가치로 당당하게 전 세계에서 가장 큰 규모의 주식시장에 입성했기 때문이다. 회사 설립 후 단 한 번도 이익을 내 본 적 없는 수조원대의 적자기업이 어떻게 글로벌 시장에서 천문학적인 기업가치를 인정받을 수 있었을까.지금까지 기업가치는 회사의 순수익을 기준으로 평가하는 주가수익비율(PER)이나 회사가 보유한 순자산으로 평가하는 주가순자산비율(PBR)이 주로 사용하고 있다. 인수합병(M&amp;A)의 경우에는 영업에서 발생하는 이익으로 평가하는 기업가치/상각전영업이익(EV/EVBITDA)을 기준으로 하고 있다. 그러나 이러한 평가 방법은 기본적으로 기업이 현재 이익을 창출하거나 보유한 자산 규모가 비교적 큰 기업에 적용하도록 설계된 것이다.그러나 최근에 급성장하고 있는 플랫폼 기업이나 유니콘은 미래 가치가 아무리 높을 거라고 예상하더라도 대부분 적자 상태에 있기 때문에 기존의 평가 방법을 적용하기가 어렵다. 이 때문에 플랫폼 기업에는 기존의 전통적인 기업에 적용했던 가치평가방법이 아니라 전혀 다른 기준을 동원해야 한다.전통적인 가치평가에 익숙한 사람 입장에서는 유니콘(기업가치 10억달러 이상 스타트업)이니 데카콘(기업가치 100억달러 이상)이니, 심지어 1000억달러가 넘는 헥토콘이니 하는 스타트업이나 플랫폼 기업의 기업가치를 이해할 수 없다. '버블'이라거나 심각한 문제가 있는 것으로 생각한다. 이는 일반인들이 파블로 피카소, 에드바르 뭉크와 같은 세계적 대가의 작품이 수천억원에 팔리는 것을 이해하지 못하는 것과 비슷하다.그러나 새로운 산업이나 과거에 없던 비즈니스 모델을 전통적인 기업에 적용하던 PER, PBR, EV/EBITDA 등 과거의 잣대로만 평가한다는 것이 오히려 난센스다.최근 국내 플랫폼 기업이나 유니콘이 본격적으로 IPO를 추진하고 있다. 모빌리티 플랫폼 기업 쏘카와 e커머스 회사 원스토어는 최근 상장예비심사를 통과해 상반기 중 주식시장에 진입할 예정이다. 새벽배송 '마켓컬리'로 알려진 컬리가 지난달 코스피 상장을 위한 예비심사 청구서를 제출했다. 또한 '토스'를 운영하는 핀테크 기업 비바리퍼블리카, 패션 플랫폼 기업 무신사, e커머스 회사 SSG닷컴·오아시스·카카오모빌리티·K뱅크 등이 조만간 상장 절차를 밟을 것으로 알려졌다.이들이 과연 국내 주식시장에서 적자 상태로 상장이 가능할지, 어떤 방식으로 가치평가를 할지, 기업가치는 얼마나 될지, 시장 판도는 어떻게 될지, 공모주 청약을 해서 돈을 벌 수 있을지 등 많은 사람이 궁금해 한다.선진국에서는 상장을 위한 요건을 현재보다 미래 성장성에 비중을 두고 시장에 맡기고 있으나 우리나라에서는 기본적으로 흑자기업을 상장 기본 요건으로 하면서 복잡한 '상장특례' 제도를 네 가지나 운영하고 있다. 2005년에 도입된 코스닥 기술특례상장, 2017년에 도입된 성장성특례상장제도, 2017년에 도입한 '테슬라요건' 상장특례, 2021년에 도입된 유니콘 특례 상장이 있다. 명칭도 어렵고 어떤 차이가 있는지도 명확하지 않다. 절차도 복잡하고 기준도 모호해서 전문가들도 헷갈린다.그야말로 상장 여부가 복불복이다. 플랫폼 기업과 같은 적자기업은 상장 문턱을 가까스로 넘더라도 기본적으로 밸류에이션(기업가치) 산정에 어려움을 겪는 경우가 많다. 어떤 기업가치가 나오더라도 전통적인 평가방식으로는 고평가 논란에서 자유로울 수 없기 때문이다.딜리버리히어로가 인수한 배달의민족, 이마트가 인수한 이베이코리아, GS리테일이 인수한 요기요, 세콰이어의 무신사 투자, 쿠팡 상장에는 최근 플랫폼 기업의 가치 평가에서 가장 활발하게 사용되고 있는 총판매액(GMV)과 PSR(주가매출비율)이라는 새로운 개념의 가치평가 방식이 도입되었다.쿠팡이나 배달의민족 같은 기업은 가입자 규모 증대와 함께 거래액이 늘어났지만 수익성만 놓고 보면 적자를 면치 못한다. 그러나 적자라는 점만 놓고 전통적인 방식으로 실제 가치를 평가하기는 어렵다. 각자 속한 시장에서 1위 위치를 차지하고 있기 때문에 향후 성장 잠재력은 현재 가치보다 클 수밖에 없다. 충성 고객을 확보해서 비즈니스를 펼치는 플랫폼 사업의 특징을 고려한다면 가입자·고객 증가를 알 수 있는 GMV나 PSR가 오히려 합리적 지표가 되는 셈이다.유니콘과 플랫폼 기업은 국내시장이 아니라 세계시장에서 글로벌 공룡들과 힘겨운 싸움을 해야 한다. 이들이 속한 시장은 승자독식이다.우리나라에 상장된 기업은 2022년 4월 8일 현재 2502개(코스피 821, 코스닥 1552 코넥스 129)이고, 전체 기업가치는 2500조원 정도이다. 애플 하나의 기업가치는 무려 3500조원이다. 애플 하나를 팔면 삼성전자를 포함한 우리나라의 모든 상장기업을 사고도 1000조원이 남는다.우리가 가야 할 길은 너무 멀다. 기업들의 글로벌 경쟁력 강화를 위해 최소한 제도만이라도 글로벌 스탠더드를 도입하기를 간절히 희망한다.유효상 유니콘경영경제연구원장 hsryou600@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022.04.14.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>타다, ‘타다 넥스트’ 공식 출시…"서울 지역 연내 공급량 1500대까지 확대"</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005073969?sid=105</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>이정행 타다 대표모빌리티 플랫폼 ‘타다’가 14일 ‘타다 넥스트’ 공식 출시를 발표했다.신임 대표 부임 후 공개 석상에 처음으로 등장한 이정행 타다 대표는 "‘타다 넥스트’를 이용자뿐만 아니라 드라이버까지 모두가 만족할 수 있는 퀄리티 높은 모빌리티 서비스로 차별화하고, 서울지역 내 타다 넥스트 공급량을 연내에 1500대 그리고 2023년에는 총 3000대까지 확대하겠다"고 선언했다.호출 중개 비즈니스 모델인 타다 넥스트는 7~9인승의 승합차를 기반으로 최소 5년 이상 무사고 경력의 고급택시 면허를 보유한 운전자가 운행하는 모빌리티 서비스다. 반려동물과의 탑승은 물론, 늦은 밤 혼자 귀가하는 이용객, 가족 단위 고객 등 모두가 편안하고 안전하게 이동할 수 있고, 각종 전자 기기 충전 잭 구비 및 차내 와이파이 지원으로 움직이는 업무 공간 제공까지 가능하다.타다는 작년 11월 말 베타서비스 실시 이후 13만 명 이상의 신규 가입자를 유치했다. 현재까지의 누적 가입자 수는 210만 명에 달한다. 타다는 타다 넥스트를 경험한 고객들의 재탑승률이 회차가 반복될수록 높아지는 경향을 설명하며, 핵심 요인은 5점 만점 기준 평균 4.95에 달하는 높은 고객만족도 점수라고 강조했다. 3월 기준 타다 넥스트의 하차완료 수(호출해서 하차까지 완료한 횟수)는 전 달 대비 30% 가까이 증가했다.신규 UX 개편타다는 새로워진 타다 앱의 사용자 경험(UX)를 선보였다. 메인 화면이 대표적이다. 앱을 켰을 때 목적지 입력란만 보이도록 함으로써 자연스럽게 호출로 이어지도록 사용성을 강화했다. 최소 3번의 터치면 차량 호출이 가능하다. 자주 탑승 및 하차하는 위치를 기억하도록 해 다음에 이용할 때에는 직접 위치를 지정할 필요가 없어졌다. 이외에도 ‘사전 경유지 설정’, ‘호출 예약 기능’을 시연해 보였다.아울러 데이터 활용 능력을 기반으로 운행 효율성도 개선시킨다는 방침이다. 일반적인 택시의 공차율이 평균 40% 수준에 머무는 점을 설명하며 데이터를 분석해 미리 수요를 예측하고, 플랫폼 호출 최적화를 통해 공차율을 개선할 수 있다고 설명했다. 타다는 실시간으로 서울 지역 내의 수요 변화를 모니터링하는 시스템을 바탕으로 요일, 날씨, 시간, 지역별 수요를 미리 예측해 운행 효율을 높이고 있으며, 이를 통해 공차율을 최대 10%대까지 낮춘 경험을 갖고 있다. 이용자·드라이버 모두 만족하는 ‘퀄리티 라이드 포 올’ 비전 제시이날 타다는 이용자와 드라이버 모두가 만족할 수 있는 모빌리티 플랫폼이 되기 위한 비즈니스 핵심 이념으로 ‘퀄리티 라이드 포 올’을 소개했다. 이용자에게는 타다만이 선사할 수 있는 최상의 서비스를 제공하고, 이런 서비스를 제공할 수 있는 드라이버들과 파트너십을 맺기 위해 최고의 처우를 제공함으로써 양질의 일자리 마련에도 노력하겠다는 방침이다. 장기적으로는 자회사 ‘편안한이동’과의 파트너십을 기반으로 드라이버와의 공생 방안을 발굴하고 실행할 계획이다. 이를 위해 ‘타다 파트너 케어 센터’ 구축 계획을 발표했다. ‘타다 파트너 케어 센터’는 드라이버 운행 매뉴얼 제공부터 차량 상품화까지 한 번에 가능한 중앙 관리 거점이다.이 대표는 “쾌적한 여건에서 근무하는 드라이버가 이용자에게 최상의 서비스를 제공하고, 타다의 서비스에 만족한 이용자가 반복해서 타다를 탑승하는 선순환을 만드는 것이 타다의 목표”라며 “편안한이동은 이 목표를 위한 든든한 파트너가 될 것”이라고 설명했다.올해 타다는 공급량 확대를 위해 박차를 가할 계획이다. 토스와는 견고한 파트너십을 바탕으로 택시 시장에서 금융적으로 개선이 필요한 부분을 함께 발굴하고 긍정적인 방향으로 고도화해 나갈 예정이다.이 대표는 “모빌리티 플랫폼은 이미 대중화되었기에 이제부터는 서비스 경쟁이라고 생각한다”며 “타다 넥스트를 통해 최고 수준의 서비스로 비즈니스를 차별화하고, 타다 넥스트의 서비스가 택시 비즈니스의 새로운 이동 기준이 되도록 만들겠다”라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022.04.05.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>해외주식부터 가상자산까지… 증권사, 신규 서비스 봇물</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000800649?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>[머니S리포트-불안정한 증시… 증권사의 생존전략]③ "더 빠르고 더 편리하게"… MZ세대를 위한 맞춤형 출시[편집자주]올들어 주식 거래대금이 감소하면서 증권업계 리테일(개인) 부문의 이익 감소가 예상되는 가운데 각 증권사들의 올해 1분기 실적이 전년대비 감소세로 돌아설 것이라는 전망이 나온다. 이에 따라 증권사들은 자본확충으로 외형을 확장하며 사업 확대를 꾀하는 등 돌파구를 찾고 있다. IB(기업금융), WM(자산관리) 부문 등은 물론 그동안 다루지 않았던 새로운 분야에 진입해 저변을 넓히고 사업을 다각화하려는 노력이 예상된다. 가상자산 서비스, 해외주식 서비스, 디지털 역량 강화 등 새로운 먹거리 발굴도 돋보인다.증권사들이 다양한 신규 서비스를 선보이며 고객잡기에 나서고 있다. /사진=이미지투데이◆기사 게재 순서①'자본확충' 러시… 몸집불리기 나선 증권사②"떠나는 개미 잡는다"… 증권사, 증시 불황 돌파구는?③해외주식부터 가상자산까지… 증권사 신규 서비스 봇물역대급 실적 행진을 이어온 증권사들이 신규 서비스를 선보이며 고객잡기에 나서고 있다. 가상자산 관련 사업을 비롯해 해외주식에 투자하는 서학개미를 위한 다양한 서비스를 출시하고 있다. 특히 해외주식 투자자들이 급증하면서 소수점 거래를 비롯해 주간거래에 담보대출 서비스까지 확대되고 있다. 무료로 해외주식 양도소득세 신고를 대행해주는 서비스까지 나왔다.미래에셋그룹은 자회사 미래에셋컨설팅을 통해 가상자산 사업을 전담하기 위한 새로운 법인 설립 작업을 진행 중이다. 블록체인 지갑을 개발하고 운영하는 것 뿐만 아니라 다른 사람의 자산을 위탁 관리하는 수탁(커스터디) 서비스를 기획해 운영할 예정이다. 또한 기관을 대상으로 하는 솔루션 서비스 개발, 주문시스템 개발·관리 등을 계획하고 있다. SK증권은 지난해 가상자산 거래소 지닥의 운영사 피어테크와 블록체인 기술 전문기업 해치랩스 등과 협약을 맺고 디지털자산 관련 인프라 구축에 박차를 가하고 있다. SK증권은 피어테크의 디지털자산 수탁(커스터디) 기술을 활용해 디지털 자산 관리 플랫폼을 구축하고 해치랩스의 가상자산 지갑 등 블록체인 기술력을 바탕으로 자체 블록체인 금융 플랫폼 구축 사업을 추진하고 있다. 올해 1월에는 부동산 조각투자 플랫폼 기업 펀블과 업무협약을 맺고 블록체인 기반 부동산 디지털 유동화 시스템 구축에 나섰다. 삼성증권은 블록체인 기반 증권형토큰(STO·Security Token Offering) 사업 진출을 위해 지난해 하반기 STO 개발·운영 업무를 담당할 해외 석·박사급 인재 모집 채용을 진행했다. STO 발행 및 거래 플랫폼 개발 및 운용과 블록체인 스마트 컨트랙트 개발을 준비하기 위해서다. ━"서학개미 잡아라" 주간거래부터 자동주문 서비스까지 ━미국주식 투자가 급증하면서 서학개미를 잡기 위한 서비스도 다양해지고 있다. 삼성증권은 증권사 최초로 뉴욕증시에 상장된 미국 기업들의 주식을 낮 시간대에도 매매할 수 있는 주간 거래 서비스를 운영 중이다. 미국 대체거래소(ATS)인 블루오션과 1년간 계약을 맺으면서 관련 서비스가 시작됐다. 주간 거래 서비스는 오픈 이후 10영업일만에 거래대금 1000억원을 돌파한데 이어 지난달 7일 32영업일 만에 누적 거래금액 5000억원을 달성했다. NH투자증권은 미국주식 애프터마켓에 대한 거래시간을 기존 2시간에서 4시간으로 연장했다. 한국시간으로 오전 6시부터 10시까지 4시간 거래할 수 있다.한국투자증권은 다음달 말부터 뱅키스(BanKIS) 고객을 대상으로 해외주식 자동주문 서비스를 제공할 예정이다. 투자자가 미리 설정한 가격과 수익률 등에 맞춰서 자동으로 매수와 매도를 하는 예약 주문 시스템이다. 유안타증권은 미국 주식을 담보로 평가금액의 최대 55%까지 대출해주는 ‘미국 주식 담보 대출 서비스’를 출시했다. S&amp;P500지수 구성 종목이 대상이며 대출 한도는 최대 10억원이다.한화투자증권이 5월 해외주식 양도소득세·종합소득세 신고기간에 대비해 무료 신고대행 서비스를 실시한다./사진=한화투자증권대형사를 중심으로 운영되던 해외주식 소수점 거래는 중소형 증권사까지 번지고 있다. 한화투자증권은 오는 6월말 해외 우량 주식을 1주 미만 소수점으로 나눠 1000원 단위로 매매할 수 있는 ‘천원샵’ 서비스를 오픈한다. 토스증권은 4월부터 ‘실시간 해외 소수점 거래 서비스’를 제공한다. 기존의 해외 소수점 거래는 증권사가 일정 주기로 고객들의 소수점 주문을 모아서 1주로 만드는 구조였는데 토스증권은 즉시 거래가 성사될 수 있도록 업그레이드했다. 미래에셋증권과 키움증권 등은 무료로 해외주식 양도소득세 신고대행 서비스를 실시하고 있다. 지난해 해외주식 거래를 통한 양도차익이 250만원 이상일 경우 양도소득세를 내야한다. 증권사들은 고객을 유치하기 위해 제휴된 세무법인을 통해 대행 신고를 해주고 있다. 타사의 거래도 합산 신청이 가능하다. 키움증권은 현재 해외주식 0.07% 수수료, 95% 환율우대 이벤트, 미국주식 신규고객 40 달러 지급 이벤트, 해외주식 타사대체입고 이벤트, 상시 실전투자대회 등 해외주식 관련 다양한 이벤트를 진행하고 있다. ━"간편투자에 딱" 증권사 MTS 줄줄이 새단장━MZ세대의 간편 투자에 초점을 맞춰 모바일트레이딩시스템(MTS) 개편에도 속도를 올리고 있다. 삼성증권과 KB증권에 이어 올해 유진투자증권과 이베스트투자증권 등 중소형 증권사들도 MTS 간소화에 나섰다. 핀테크 증권사들의 MTS 출시와 해외주식 투자 인기로 투자자들의 선택 폭이 넓어진 만큼 실용성을 바탕에 둔 서비스 혁신이 잇따를 전망이다.유진투자증권은 지난달 MZ세대를 타깃으로 한 간편 투자앱 ‘유투(U.TOO)’를 출시했다. 유투는 국내주식과 미국·중국·홍콩 해외주식 거래 서비스를 제공한다. 자동 주문을 포함한 간편 투자앱의 핵심 기능 외에 타임라인과 포스팅 등 SNS에 친숙한 MZ세대를 위한 맞춤형 기능을 구현했다. 이베스트투자증권도 지난달 차세대 MTS ‘이베스트 온(eBEST ON)’을 출시했다. 이 증권사 역시 1년이 넘는 시간 동안 초보자부터 고수들까지 맞춤형으로 사용할 수 있는 MTS를 새롭게 개발했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022.04.07.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>지분가치 수조원…투자 잭팟 터뜨린 '증권 3인방'</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004683228?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>사진=한경DB벤처기업에 초기에 투자해 수조원의 수익을 거둔 증권사들이 주목받고 있다. 한국투자증권의 모회사인 한국금융지주는 카카오뱅크에 투자해 5조원에 달하는 수익을 올렸다. 두나무와 토스뱅크에 투자한 한화투자증권도 2조원에 달하는 평가차익을 내고 있다. 7일 증권업계에 따르면 한국금융지주는 카카오뱅크 지분 27.31%를 보유하고 있다. 카카오에 이은 2대 주주다. 직접 보유한 지분이 4.01%(1만9050주), 손자회사인 한국투자밸류자산운용을 통해 보유한 지분이 23.3%(1억1048만주)다. 한국금융지주는 2016년 카카오뱅크에 1740억원을 최초로 출자했다. 이후 2017년 2900억원, 2018년 1860억원, 2020년 1676억원 등 세 차례 유상증자에 참여해 총 8176억원의 자금을 투자했다.카카오뱅크 시가총액이 22조9739억원(전날 기준)이라는 점을 고려하면 한국금융지주의 지분 가치는 5조3428억원이다. 한국금융지주 시가총액(4조2518억원)을 넘어선다. 카카오뱅크로 얻은 평가 차익은 4조5000억원이 넘는다.  한화투자증권도 암호화폐 거래소 업비트 운영사 두나무에 투자해 1조원에 가까운 수익을 올렸다. 한화투자증권은 작년 2월 두나무 지분 6.14%(206만9450주)를 매입했다. 당시 두나무의 기업가치는 약 1조원, 한화투자증권의 인수대금은 582억원이었다. 현재 장외시장에서 두나무의 시가총액은 15조4975억원이다. 비트코인 가격이 급등하면서 업비트 기업가치가 15배 높아졌다. 한화투자증권의 두나무 지분가치도 9260억원으로 불어났다. 한화투자증권 시총(1조748억원)과 비슷한 수준이다. 한화투자증권은 2020년부터 디지털 강화 전략의 일환으로 핀테크 기업 지분을 잇달아 매입하고 있다. 이를 위해 핀테크 투자를 전담하는 디지털전략실을 두고 있다. 한화투자증권은 토스뱅크 지분도 10%(1100만주) 보유하고 있다. 2020년 지분 7.5%를 75억원에 매입한 이후 작년 4분기 475억원을 추가로 투자했다. 토스뱅크의 별도 기업가치는 발표되지 않았지만 5조~10조원에 이를 것으로 추정되고 있다. 이는 경쟁사의 기업가치를 참고한 계산이다. 상장사인 카카오뱅크 시총은 22조9739억원, 장외시장에서 거래되는 케이뱅크의 시총은 8조3029억원이다. 미래에셋증권은 네이버를 통해 5000억원에 가까운 수익을 내고 있다. 미래에셋증권은 2017년 네이버와 전략적 제휴 등의 목적으로 5000억원 규모의 지분을 맞교환했다. 당시 미래에셋증권이 받은 네이버 주식은 281만5315주(지분율 1.72%)다. 코로나19 이후 네이버 주가가 급등하면서 지분 가치도 9290억원으로 불어났다. 평가 차익은 4300억원에 달한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022.04.05.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>[영상 : THISCovery] ‘꿈의 직장’ 네카라쿠배당토 신입 사원 연봉은?</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002585435?sid=102</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>［THISCovery］연봉네이버·카카오 등 초봉 4천만원대@thiscovery_st 신입 초봉이 4천만원!? 머기업부터 인기기업까지! 머박 연봉 TOP3!#대기업#연봉#돈#월급#머기업#인기#취직#취업#신입#카카오#하이브#국정원#FYP#추천#틱톡교실#디스커버리#THISCovery#지식#정보#설명충 ♬ 오리지널 사운드 - THISCovery | 국룰정보원@thiscovery_st 취준생의 국룰, 네카라쿠배당토의 연봉을 알아보자!#네카라쿠배당토#월급#연봉#돈#네이버#카카오#배민#당근#쿠팡#라인플러스#토스#FYP#추천#틱톡교실#디스커버리#THISCovery#지식#정보#설명충 ♬ 오리지널 사운드 - THISCovery | 국룰정보원최근 취업시장에는 ‘네카라쿠배당토’라는 신조어가 있습니다. 한국 대표 정보통신기술(ICT) 플랫폼기업인 네이버·카카오·라인플러스·쿠팡·배달의민족·당근마켓·토스의 앞글자를 따서 줄여 만든 말입니다. ‘THISCovery’ 팀이 취업준비생에게 가장 인기 있는 직장으로 꼽히는 네카라쿠배당토의 신입 사원 평균 연봉(취업포털 ‘잡코리아’ 자료, 2020년 기준)을 알아봤습니다. 네이버는 4500만원으로 1위를 차지했고, 카카오 4200만원, 라인플러스 4239만원, 쿠팡 2797만원, 배달의민족 3881만원, 당근마켓 3769만원, 토스 3045만원이었습니다. 이들 기업의 전체 직원 평균 연봉 자료도 있으니 영상으로 확인하시죠. 유형별로 기업 연봉 순위를 분류해 보기도 했는데요, 평균 연봉이 가장 높은 기업은 하이투자증권(1억6674만원)으로, 신입 사원 초봉이 4천만원에 이르렀습니다. 인기 검색 기업 톱3은 카카오(1위)에 이어 국가정보원, 하이브(방탄소년단 소속사) 순서로 나타났습니다. 카카오의 평균 연봉은 1억309만원이었습니다.제작진CG｜문석진촬영｜장승호취재·구성｜김정필 오유민연출·편집｜위준영 도규만 김도성조연출｜임여경</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022.04.11.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>토스, 국내 최초 '데카콘' 된다…'몸값 10조대' 프리IPO 2분기 마무리</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006022447?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>기업가치 최대 15조까지 전망…국내 스타트업 최고 수준 카카오뱅크+카카오페이 시총 40조 고려시 더 높아질수도(토스뱅크 제공)© 뉴스1(서울=뉴스1) 강은성 기자 = 간편금융플랫폼 토스와 토스뱅크, 토스증권 등을 운영하는 비바퍼블리카(토스)가 국내에서 처음으로 '데카콘' 반열에 올라설 것으로 예상된다. 데카콘이란 기업가치가 100억달러(10조원) 이상인 비상장 신생벤처(스타트업)기업을 말한다. 전세계에서 데카콘은 54개 정도다.토스는 2분기 내에 '시리즈G'(프리IPO; 상장전 지분투자) 투자유치를 마무리할 계획이다. 이번 프리IPO에서는 토스의 기업가치가 보수적으로 평가해도 10조원에서 15조원 정도로 책정될 예정이어서 국내에서 실질적인 첫 '데카콘'이 탄생할 전망이다.11일 투자은행(IB)업계 등에 따르면 토스는 2분기 내에 프리IPO를 마무리한다는 계획이다. 현재 프리IPO 자문사로 모건스탠리와 크레디트스위스를 선정해 적극적으로 투자자들과 만나고 있다. 투자규모는 특정하지 않았다. 다만 지난해 6월 '프리G'(시리즈G 실시 전 사전 투자유치 형식) 유치 당시 총 4620억원을 유치하며 기업가치 8조2780억원을 인정받았던 것에 비춰볼 때 이번엔 최소 5000억원에서 최대 1조원 규모의 자금 유치가 가능할 것으로 업계는 보고 있다.IB업계 관계자는 "토스 초기 투자자부터 장기투자전문(롱온리) 글로벌 사모펀드(PEF), 헤지펀드들이 대거 이번 프리IPO에 투자 참여를 희망하고 있다"고 분위기를 전했다. (토스 제공)/뉴스1프리IPO를 통해 책정되는 토스의 기업가치는 보수적으로 잡아도 10조원에서 최대 15조원에 달할 것이라는 평가가 나온다. 비상장 거래플랫폼 서울거래 비상장에 따르면 이날 종가기준 토스(비바퍼블리카)의 장외 주가(기준가)는 주당 9만6000원, 장외 시가총액은 15조7293억원을 기록했다. 이렇게 되면 '신규투자'만으로 10조원을 넘는 국내 첫 데카콘 사례가 된다. 데카콘이란 머리에 10개의 뿔을 가진 상상속의 동물을 말한다. 기업가치 10억달러(1조원) 이상의 비상장 스타트업을 '유니콘 기업'이라 부르는데 유니콘보다 10배 이상 덩치가 큰 비상장 스타트업을 데카콘으로 별도로 칭하는 것이다. CB인사이트 조사에 따르면, 3월 기준 전세계 유니콘은 1074개, 그중 데카콘은 54개 정도에 불과하다. 국내에서도 쿠팡, 야놀자, 두나무 등의 유니콘이 '데카콘'으로 불리기도 했지만, 쿠팡은 상장 시점에서 10조원을 넘겼고 야놀자는 구주매출을 포함해 10조원을 넘겼다. 두나무는 평가액 수준일 뿐 실제 투자유치는 아니어서 이들은 CB인사이트 등 글로벌 조사기관이 선정한 '데카콘' 분류에서 빠져있다. 엄밀히 '비상장' 상태에서 신규투자유치만으로 데카콘 밸류를 받는 것은 토스가 처음이다.토스가 데카콘 반열에 오를 만큼 이번 프리IPO에서 투자자들이 특히 높은 관심을 보이는 이유는 지난해 잇따라 출범한 토스뱅크와 토스증권이 '대박'을 터트리며 시장에서 빠르게 영향력을 높여가고 있기 때문이다. 기존 '간편결제'라는 토스 플랫폼과 은행, 증권 사업 출범만으로도 토스의 투자유치 규모와 기업가치 평가액은 눈덩이처럼 증가한 바 있다. 토스는 지난 2018년 6월 시리즈E에서 440억원(기업가치 7890억원), 2018년 12월~8월 시리즈F(1~6)에서 4840억원(기업가치 3조1100억원), 2021년6월 시리즈 프리G에서 4620억원(기업가치 8조2780억원)을 각각 유치하며 몸값이 빠른 속도로 상승했다. 이런 상황에서 지난해 3월 공식 출범한 토스증권은 1년만에 MTS 가입자가 420만명에 달해 국내 증권사 사상 가장 빠른 신규고객 증가를 보였고 지난해 10월말 출범한 토스뱅크 역시 5개월만에 235만좌를 돌파하며 기록적인 성장세를 보이고 있다.  IB업계 관계자는 "쿠팡과 같은 유통·물류 플랫폼이나 OTT 등 콘텐츠 플랫폼 대비 핀테크 플랫폼은 생활에서 밀접하게 사용하며 고도의 트래픽을 일으키면서도 고정비용이나 시설투자비용이 적어 해외 기관투자자들, 장기 투자자들은 핀테크 업계를 매우 유망하게 보고 있다"면서 "토스의 경우 특히 라이선스(은행, 증권 사업권)를 2개나 보유한 것이 높은 평가에 일조하는 측면이 있다"고 강조했다. 토스는 이번 프리IPO 이후 2023년부터 본격적인 상장을 준비한다는 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022.04.01.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>우수 대부업자 은행 대출길 열렸지만…실효성 '아직'</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005179495?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>[무너지는 마지노선]②금리 연 3.47%~5.21% 수준...이전보다 2%P 절감1월말 은행 총 차입금 1900억...전체 차입금 5%토스, 카카오페이에 대부업 대출 상품 입점 안 돼[이데일리 노희준 기자] 대부업계가 최고금리 인상을 요구하는 데에는 저신용자를 포함한 ‘서민금융 창구’라는 대부업의 순기능이 원활하게 작동하지 못하는 이유도 있다. 금융당국이 우수 대부업자를 대상으로 은행 차입과 대출비교 플랫폼 입점을 허용했지만 실효성이 크지 않다는 평가가 지배적이다.(그래픽= 문승용 기자)금융위원회는 지난해 9월부터 우수 대부업자를 대상으로 일반 대부업체에는 금지하고 있는 인센티브를 허용한 ‘대부업 프리미어리그 제도’를 시행 중이다. 최고금리가 인하되면서 저신용자 자금 공급이 위축되는 것을 보완하기 위해서다.최근 3년간 대부업법 등 금융관계법령 위반 사실이 없고 저신용자 신용대출 실적이 70% 이상이거나 총 자산규모가 100억원 이상인 대부업자들은 은행으로부터 자금을 차입할 수 있고 온라인 대출 비교 플랫폼에 상품을 공급할 수 있게 했다.은행차입 허용으로 조달금리 수준은 나아졌다. 은행 차입금 금리는 연 3.47~5.21%지만 주요 금리대가 3%중후반에서 4%대에서 형성돼 과거 대부업체가 저축은행이나 캐피탈 회사로부터 자금을 조달할 때보다는 이자 부담이 적은 편이다.하지만 차입 규모가 절대적으로 부족하다는 게 대부업계 입장이다.윤창현 국민의힘 의원이 금융감독원에서 받은 ‘우수대부업자 은행 자금조달 현황’ 자료에 따르면 지난 1월말 현재 12개 우수대부업체가 은행권에서 빌린 총 차입금은 1917억원이다. 이들의 지난해말 차입금(4조원)의 5%에 불과하다. 더욱이 은행 차입도 아프로파이낸셜대부(러시앤캐시, 1205억원)와 바로크레디트대부(160억원), 태강태부(150억원), 앤알캐피탈대부(145억원) 등 일부 대형업체에 집중돼 있다는 비판도 있다.한 저축은행 대표는 “저축은행에서 빌리 때보다는 2%포인트 가까이 금리 부담이 줄긴 했다”면서도 “차입 규모가 적어 경영에 큰 도움이 되지는 않는다”고 말했다. 이는 금융거래의 특성상 초기부터 대규모 자금 거래를 하기 어려운 데다 여전히 대부업계와 손을 잡은 은행에 대한 부정적 ‘낙인효과’가 남아 있기 때문으로 풀이된다. 대부업계는 2025년까지 전체 차입금의 50%를 은행에서 빌릴 수 있길 기대하고 있다. 대부업체에 허용된 대출비교 플랫폼 입점 허용은 실효성이 더 적다는 지적이다. 토스나 카카오페이 등 대형 대출비교 플랫폼이 대부업 상품을 소개하지 않고 있어서다.금융당국 관계자는 “현재 대출비교 플랫폼 ‘알다’와 ‘핀넷N’에서 대부업계의 상품을 비교·확인할 수 있다”며 “3곳이 추가로 입점 허용을 준비 중”이라고 말했다.대부업권 제도 개선 방안. (자료= 금융위원회)</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022.04.12.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>원팀 된 삼성 금융 5社, 핀테크 판 흔든다</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004684974?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>공동 브랜드 '삼성 금융 네트웍스' 내놔협업 첫 작품은 공동 앱 '모니모"2000만명 쓰는 대형플랫폼 탄생'1500만 고객' 페이 결합 땐 시너지기업 칸막이 없애 MZ상품 개발"카카오페이·토스 따라잡을 것"삼성그룹 산하 금융 계열사인 삼성생명·화재·카드·증권·자산운용 등 5개사가 공동 브랜드인 ‘삼성 금융 네트웍스(Samsung Financial Networks)’를 12일 선보였다. 빅테크(대형 정보기술 기업)와 핀테크 업체의 ‘공습’이 격화되면서 각 계열사 간 협업과 시너지를 극대화하겠다는 전략으로 풀이된다. 14일 출시되는 통합 모바일 앱인 ‘모니모’를 시작으로 다양한 비대면·디지털 혁신 서비스 개발에 본격적으로 나설 것이란 관측이다. ‘글로벌 삼성’ 브랜드, 금융에 접목삼성 금융계열사들은 지난해 말 MZ세대(밀레니얼+Z세대) 직원을 모아 새 브랜드아이덴티티(BI) 도입을 위한 태스크포스(TF)를 꾸렸다. 그동안 각 사별로 느슨한 연대를 유지해왔지만 MZ세대 금융소비자의 변화된 욕구에 부응하고, 비대면 위주의 새 금융 환경에 대응하려면 각 사에 흩어진 자원을 결집해 시너지를 극대화해야 한다는 의견이 많았다.이 과정은 철저히 ‘보텀업(상향식)’ 방식으로 진행했다는 게 회사 측 설명이다. 브랜드 전문가들이 모여 직원 대상 심층 인터뷰, 고객 패널조사, 전문가 리뷰 등 과정을 거쳤고, 직원 투표를 통해 최종 BI를 결정했다.새 BI는 ‘삼성(Samsung)’ 표기에 금융과 협업을 의미하는 ‘금융 네트웍스(Financial Networks)’를 영문으로 표시한 형태다. 전문성과 시너지를 높이고 금융 생태계를 넓혀 나가겠다는 의지를 담았다는 설명이다. 혼돈을 막기 위해 별도의 한글 BI는 만들지 않았지만, ‘삼성 금융 네트웍스’로 표기할 수도 있다. 그룹의 맏형 격인 삼성생명이 상표 등록을 마쳤고, 소유권은 공동으로 나눠 갖는 방안을 검토하고 있다.새 브랜드는 삼성을 대표하는 금융 BI로 각 사별로 조만간 기업 이미지를 전면 교체할 예정이다. 옥외 간판과 명함 및 홈페이지는 물론 각 사 제품, 서비스에도 순차적으로 적용할 계획이다. 카카오페이·토스처럼…“원 앱 전략”삼성 금융 네트웍스의 첫 협업은 모바일 통합 앱인 모니모가 될 전망이다. 모니모는 삼성카드 주도로 계열사들이 힘을 합쳐 지난 1년여간 개발했다. 각 사가 앱에서 제공하던 간편결제, 보험료 청구, 내 자산 보기, 현금 포인트 등의 기능을 한데 모은 ‘슈퍼 앱’이다.금융권에선 모니모가 카카오페이와 토스 등 공룡 핀테크 앱의 대항마가 될 가능성이 있다고 보고 있다. 삼성생명·화재·카드·증권의 모바일 채널 고객 수는 중복 가입자를 포함해 약 3200만 명으로 알려져 있다. 중복 가입자를 빼더라도 약 2000만 명의 가입자를 단숨에 확보할 수 있는 대형 앱이 탄생하는 셈이다. 모바일 뱅킹 앱 1위 국민은행(1500만 명)을 넘어서고, 핀테크 1위 카카오페이(2000만 명)를 위협할 만한 숫자로 평가된다. 1500만여 명의 고객을 확보한 삼성페이와 결합할 경우 시너지가 작지 않을 것이라는 예상도 나온다.경쟁력 제고와 미래 지향적 이미지를 브랜드 통합의 목표로 내건 만큼 삼성 금융 네트웍스가 향후 어떤 공동 사업을 벌일지도 주목된다. 삼성 금융계열사들은 그동안 그룹 차원에서 규제 리스크가 큰 금융업에 대한 관심이 적다보니 공격적인 영업을 꺼린다는 평가를 받았다. 총자산이 529조원에 달하는 등 국내 4대 금융그룹과 어깨를 나란히 하지만 비금융 주력자로서 ‘삼성 후자’ 설움을 받은 것도 사실이다.일각에선 향후 금융지주사 체제 전환을 위한 포석이 아니냐는 해석도 나오지만 순수한 브랜드 강화 차원이라는 분석이 지배적이다. 김동양 NH투자증권 연구원은 이에 대해 “삼성이 상속세 완납을 비롯한 ‘정공법’을 추진하고 있는 만큼 금융 BI는 효율성 제고를 위한 방안으로 보는 게 타당할 것”이라고 했다.금융권 관계자는 “삼성은 디지털 역량이 뛰어나고 전략적인 협업에 장점이 있는 조직”이라며 “데이터 분석 역량과 강력한 브랜드 파워를 활용하면 금융 분야에서도 글로벌 삼성의 위상을 이어갈 수 있을 것”이라고 기대했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022.04.06.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>인터넷은행 중·저신용자 대출대상 늘린다</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003683736?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>KCB 신용점수 ‘850점 이하’까지   인터넷전문은행들의 중·저신용자 대출 대상이 코리아크레딧뷰로(KCB) 신용점수 기준으로 ‘820점 이하’에서 ‘850점 이하’로 확대됨에 따라 중·저신용 대출 대상자도 늘어날 전망이다.  6일 은행권에 따르면 KCB는 이달 1일부터 ‘개인신용평점 하위 50%’의 기준 점수를 820점에서 850점으로 상향해 공시했다.  금융당국은 인터넷은행들의 중·저신용자 대출 기준을 개인신용평점 하위 50%로 두고 있다. 이에 따라 기준 점수가 상향되면 인터넷은행의 중·저신용 대출 대상도 늘어난다.  예를 들어 KCB 기준 신용점수 821점인 고객은 지난달까지는 고신용자로 분류돼 고신용 대출을 중단한 카카오뱅크에서 신용대출을 받을 수 없었다. 하지만 이달부터는 최대 1억원 대출이 가능한 중신용 대출의 대상이 된다.  중·저신용자 신용대출 비중 확대에 주력하고 있는 인터넷은행 입장에서는 이번 기준 상향으로 비중이 오르는 효과를 기대할 수 있다.  인터넷은행 3사가 금융당국에 제출한 올해 말 중·저신용자 신용대출 비중 목표치는 카카오뱅크 25%, 케이뱅크 25%, 토스뱅크 42%다. 3사의 내년 말 목표치는 각각 30%, 32%, 44%로 높아진다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022.04.02.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>2000억 돌파 토스뱅크 '사장님대출' 비밀은 '포용금융'</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004727833?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>[[핀토크]토스뱅크 정희원 기업여신본부  PO, 정성진 CS 인터뷰]토스뱅크 사장님대출 기획·출시 담담자들이 31일 머니투데이와 인터뷰를 진행하고 있다. 왼쪽부터 정성진 리스크관리본부 CS(Credit Strategy Manager), 정희원 기업여신본부  PO(Product Owner)/사진=토스뱅크 제공"'포용금융'이라는 목표를 신용평가모형에 반영하기 위해 노력했다. 기존 신용평가 체계에서 소외되거나 불이익을 받는 고객들의 어려움을 해결하기 위해, 부정적인 정보가 아닌 긍정적인 정보를 최대한 평가에 활용했다."토스뱅크의 개인사업자대출 상품인 사장님대출 기획·출시 담당자들이 머니투데이와 인터뷰에서 한 말이다. 토스뱅크 사장님 대출은 출시 한 달 만에 누적 대출액 1000억원을 돌파하며 주목을 받았다. 특히 기존 은행에선 대출이 어려웠던 중·저신용자의 대출 비중이 40%를 넘어서며 신용평가 방식에 관심이 쏠렸다.정성진 토스뱅크 CS는 "토스뱅크의 신용평가 방식은 시중은행들이 쉽게 따라할 수 없다"고 자신했다. 정 CS에 따르면 토스뱅크 신용평가모형의 특장점은 대안 정보 활용 비율이다. 그는 "토스뱅크는 금융 정보와 대안 정보를 6대4 정도 비율로 해 신용을 평가하고 있다"며 "시중은행은 대안 정보를 일부 반영하는 수준인 것으로 안다"고 말했다.대안 정보는 비금융 정보를 의미한다. 최근 은행들은 상환이나 연체 이력 등 금융 정보에 더해 통신비 납부 이력, 온·오프라인 쇼핑 패턴 등을 고객 신용 평가에 활용하고 있다. 토스뱅크는 다른 은행에 비해 대안 정보의 범위 또한 넓게 설정했다. 대부분 은행이 체크카드 결제 내역에서 교육비나 쇼핑 지출 규모 등을 신용 평가에 활용하지만, 토스뱅크는 '거래 시간'까지 평가 지표로 두고 있다. 2000만명이 사용하는 토스 플랫폼에 축적되는 '빅데이터'가 상관 관계 분석과 실제 적용을 가능하게 했다. 사장님대출의 경우 금융 정보와 대안 정보의 원천은 '사장님' 서비스다. 이 서비스를 통해 자영업자 고객들은 토스 앱에서 매출 장부를 관리하고 급여명세서, 세금계산서 등을 발급할 수 있다. 일별·월별 매출액·경비 추이도 캘린더에 자동으로 정리된다. 정 CS는 "당장의 매출이 아니라 미래 매출을 예상하고 신용평가에 반영하는 방법도 개발 중에 있다"고 했다.성과도 속속 나고 있다. 지난달 30일 기준 사장님대출은 2000억원을 넘어섰다. 한달만에 1000억원을 넘었는데 두 달이 채 되지 않은 시점의 성과다. 특히 기존 신용평가에서 중·저신용자로 분류된 개인사업자의 45%가 토스뱅크 자체 신용평가모형을 거친 후에는 우량 고객으로 분류됐다. 절반에 가까운 중·저신용 개인사업자의  신용 점수가 상향 조정됐다는 의미다. 정희원 기업여신본부 PO는 "기존 신용 점수가 400점 후반대(8등급 수준)인 고객이 대출이 실행된 경우가 있다"고 말했다.신용평가 방식 혁신과 함께 토스뱅크가 공을 들인 부분은 상품 출시 시점이다. 정 PO는 "코로나19(COVID-19) 사태가 완화되는 분위기가 감지됐고, 이에 따라 사장님들이 자금이 필요한 시기가 다가오고 있다고 판단했다"며 "상대적으로 매출액이 크고 영업 경험이 풍부한 4050 사장님들이 코로나 2년을 거치며 모바일 프로세스에 '강제로' 익숙해진 분들이 많아진 시점이라는 점도 고려했다"고 말했다.본격적인 상품 개발에 걸린 시간은 1개월. 기존 은행에서 여신 상품을 개발하는 데는 최소 3개월 이상이 소요된다. 정 PO는 "1월에 기업 여신 스쿼드가 신설되면서 기업 여신을 담당하는 조직이 아예 독립적으로 분화됐다"며 "은행원과 개발자 분들이 같은 팀에 있다보니 의사소통이 효율적이었고, 기본 구상은 마쳐둔 상태여서 신속하게 진행됐다"고 말했다. 토스뱅크는 지난달 14일 사장님 대출을 출시했다. 부실 가능성에 대해선 토스뱅크도 주의를 기울이고 있다. 신용평가모형 자체가 과감하기도 하고, 개인사업자대출 자체 부실률이 가계대출에 비해선 높기 때문이다. 정 CS는 "내부적으로 대손충당금을 더 쌓고 위험 관리 팩터를 더 강화하고 있다"며 "기업대출 쪽 요건들을 가계대출보다 보수적으로 설정한 상태"라고 말했다.올해 토스뱅크는 공격적으로 대출 영업을 확대한다. 정 PO는 "현재 마이너스통장 대출 출시를 준비 중이고, 보증서 대출도 출시할 계획"이라며 "타 업체와 제휴 등 외부 채널을 통한 대출 판매를 고려하고 있다"고 말했다. 정 CS는 "토스뱅크는 신용평가모형에 머신러닝 방식을 도입했는데 고도화를 통해 평가 결과에 대한 이유까지 도출하고 있다"며 "평가모형을 계속 업데이트해 씬파일러 고객의 신용을 정확히 평가하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022.04.06.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>인터넷은행 가계대출 2조6600억 증가</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003683433?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>2022년 1분기 카카오뱅크 등 3곳중·저신용자 대출수요 몰려5대 은행은 5조8600억 감소    사진=뉴스1    올해 들어 5대 주요 시중은행의 가계대출이 월평균 2조원가량 줄어든 가운데 인터넷은행 3곳의 대출은 월평균 9000억원 가까이 증가했다. 고신용자의 대출 수요는 줄어든 반면, 중·저신용자 수요가 대거 유입된 영향으로 풀이된다.  5일 금융권에 따르면 카카오뱅크와 케이뱅크, 토스뱅크의 지난달 말(1분기 말) 기준 가계대출 잔액 합계는 36조1439억원으로 집계됐다. 지난해 말(33조4829억원) 대비 2조6610억원(7.9%) 증가한 규모다.  인터넷은행별로는 지난해 가계대출 영업을 시작한 토스뱅크가 석 달 새 5315억원에서 2조3688억원으로 1조8373억원 늘었다. 케이뱅크는 7조900억원에서 7조8100억원(7200억원 증가)으로, 카카오뱅크는 25조8614억원에서 25조9651억원(1037억원 〃)으로 증가했다.  반면 5대 주요 시중은행은 올해 1분기 들어 가계대출 잔액이 지난해 말보다 5조8594억원 감소했다.  이 같은 인터넷은행의 가계대출 증가는 중·저신용자를 대상으로 한 대출 확대 과정에서 나타난 결과로 보인다.  한편 카카오뱅크는 이날부터 주택담보대출 제한을 해제하고 대출 한도를 기존 6억3000만원에서 10억원으로 상향한다고 밝혔다. 다만, 투기 및 투기과열지구 소재의 시세 15억원 초과 아파트에 대한 주택구입 목적, 임차보증금 반환 목적의 대출은 제한된다.  이밖에 금융권에서 2분기 적격대출 판매 재개가 잇따르는 가운데, 전날 적격대출 판매를 재개한 NH농협은행은 하루 만에 2분기 한도 300억원 중 207억원(69%)에 대한 대출 신청 접수가 마무리됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022.04.11.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>삼성 금융 계열사 통합앱 '모니모' 14일 출시</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000668924?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>삼성생명·화재·카드 통합앱 '모니모' 14일 출시금융·정보·보상 콘텐츠 등 담길 예정고객수 2,500만 명... '공룡 플랫폼' 전망삼성로고삼성생명·화재·카드·증권 등 삼성 금융계열사 서비스를 한 번에 이용할 수 있는 통합 애플리케이션(앱) ‘모니모’가 이달 안에 출시된다. 삼성 금융계열사 고객인 약 2,500만 명(중복제외)이 이용하는 거대 금융플랫폼이다.11일 삼성카드에 따르면 삼성 금융계열사들은 ‘삼성카드 마이홈’ 앱을 재단장하는 방식으로 통합앱 ‘모니모’를 14일 선보인다. 삼성 금융계열사들은 지난해 4월부터 통합앱 개발에 착수했다. 삼성카드가 통합 플랫폼 구축과 운영을 맡았고 삼성생명·화재·증권이 공동시스템 구축을 위해 총 391억 원 규모의 비용을 삼성카드에 지급했다.모니모에는 △자산조회 △금융 팁 △무료송금 등의 금융서비스뿐만 아니라 △내 차 시세 조회 △신차 견적 △부동산 시세 조회 등 각 계열사의 데이터를 활용한 정보성 콘텐츠가 대거 담길 계획이다. 여기에 걷기, 저축 등의 목표를 달성하면 보상을 주는 등 ‘리워드’ 시스템도 도입된다.현재 삼성 금융계열사가 보유한 고객 수는 약 2,500만 명으로 추산된다. 국내 금융 앱 1위인 ‘토스’(2,000만 명), 최대 금융그룹인 KB금융(‘스타뱅킹’ 앱 기준 1,700만 명) 고객 수보다 많다. 이 때문에 업계에서는 국내 최대 '공룡 플랫폼'이 탄생할 것으로 보고 있다. 금융권은 특히 모니모와 삼성페이가 연계할 경우 더욱 큰 시너지 효과를 낼 것으로 전망하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022.04.11.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>[뉴스'까'페] 카뱅, 사잇돌대출 중단…중저신용자 대출 늘리기 '올인'</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000281847?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>카카오뱅크가 중저신용자 대상 정책금융상품인 '직장인 사잇돌대출'의 판매를 중단했습니다.'홀로선다'는 표현까지 써가며, 자체 신용대출 상품만으로 당초 은행 설립 취지인 '포용금융'을 확대해나가겠다고 밝혔습니다. 금융당국과 약속한 중저신용자(신용평가점수 850점 이하, 4등급 이하) 대상 신용대출 비중 목표치를 달성하겠다는 의지표현으로도 풀이됩니다. 하지만 이 과정에서 대출 차주들의 이자부담이 늘어날 가능성 등 중저신용자의 대출 여건이 악화될 수 있다는 우려도 나옵니다. 카뱅, 직장인 사잇돌대출 판매 중단…"자체 신용대출로 충분" 카카오뱅크는 오늘(11일)부터 '직장인 사잇돌대출'의 신규 신청을 중단한다고 밝혔습니다. 사잇돌대출은 신용대출의 이자부담을 덜어주는 정책금융상품입니다. SGI서울보증의 보증을 통해 주로 중저신용자에게 최고 10%대의 금리로, 최대 5년 상환 기간에 2000만원까지 내줍니다. 이번 판매 중단 결정과 관련해 카카오뱅크 관계자는 "그간 직장인 사잇돌대출 취급을 통해 중금리 대출 데이터와 노하우를 축적하고, 자체 신용 기반의 중신용 대출을 확대할 수 있었다"면서 "앞으로도 신용평가모형의 고도화를 통해 중저신용고객을 위한 금융포용 확대에 힘쓸 계획"이라고 말했습니다.카카오뱅크는 지난해 6월부터 적용하고 있는 자체 신용평가모형에 지난 2017년 7월부터의 사잇돌대출 취급 결과들을 반영해왔습니다. 이제 축적된 데이터와 노하우를 바탕으로 자체 신용대출 상품으로도 중저신용자들에게 사잇돌대출에 준하는 조건의 대출을 내줄 수 있다고 판단을 한 겁니다. 카카오뱅크는 가계부채 관리 기조에 맞춰 지난해 말부터 고신용자 대상 대출을 중단하고, 신용대출에 있어서는 '중신용대출'과 '중신용플러스대출', '햇살론15'을 판매하고 있습니다. 여전히 부족한 중저신용자 대출 비중…끌어올리기 '안간힘' 사잇돌대출 판매 중단으로 카카오뱅크는 중저신용자 대출 비중 확대에 속도를 낼 수 있게 됐습니다. 지난해 카카오뱅크는 케이뱅크, 토스뱅크와 함께 내년까지 점진적으로 신용대출의 중저신용자 대출 비중을 30% 수준까지 끌어올리겠다고 금융당국과 약속했습니다. 하지만, 카카오뱅크는 지난해말 17%를 기록하며, 연간 목표치인 20.8%를 충족하지 못했습니다. 올해 1분기말 기준으로 20%까지 올리기도 했지만, 역시 연말 목표치인 25%에는 부족한 상황입니다. 경쟁사인 토스뱅크(31.5%)와 케이뱅크(20.2%)와 비교해도 뒤쳐졌습니다. 하지만 중단된 사잇돌대출 수요를 자체 신용대출로 끌어들인다면, 비중을 빠르게 늘릴 수 있습니다. 중저신용자 대출 비중을 산정할 때는 사잇돌대출 같은 보증부 담보 대출은 제외되고 있기 때문입니다. 카카오뱅크 관계자는 "자체 신용대출의 한도나 금리 조건이 사잇돌대출보다 훨씬 유리한 상황이 됐다"며 "구체적인 공급액을 밝히긴 어렵지만, 사잇돌대출이 초기부터 카카오뱅크를 통해 활성화됐고, 이제는 자체 신용대출 위주의 중저신용자 대출이 시즌2를 맞이하는 것"이라고 설명했습니다.  "자체 신용평가모형 정교함 의문…골라받기에 대출 심사 탈락할 수도"하지만 중저신용자 대출 공급의 마중물 역할을 하던 사잇돌대출의 빈자리를 카카오뱅크의 자체 신용대출 상품들이 메울 수 있을지는 좀 더 지켜볼 필요도 있어 보입니다. 사잇돌대출의 이자부담 완화 효과가 계속 유지될 수 있을지에 대한 문제입니다. 어제(10일)기준 사잇돌대출의 금리는 연 4.769~9.8%였습니다. 반면, 연소득 2000만원 이상, 재직기간 1년 이상인 차주를 대상으로 내주는 중신용플러스대출의 금리는 연 5.471~14.266%를 나타냈습니다.최대 2000만원인 사잇돌대출에 비해 대출 한도가 최대 5000만원으로 더 높은 점을 감안해야겠지만, 금리 수준 역시 더 높은 상황입니다. 카카오뱅크 관계자는 "개별 차주가 신용대출 신청을 했을 때 내부적인 기준에 따라 개인 신용이나 상환능력 등을 평가해 중신용대출과 중신용플러스대출 중 더 적합한 대출이 안내되고 있다"면서 "신용점수가 더 낮거나 대출이 어려운분들에게 중신용플러스대출이 나간다"고 설명했습니다. 사잇돌대출을 받으려는 이들은 중신용플러스대출로 흡수될 가능성이 높은데, 단순히 금리 상하단을 따져봤을 때 이자부담이 늘어날 가능성도 있는 겁니다. 은행연합회 공시를 바탕으로 2월 중 카카오뱅크에서 실제 대출이 나간 차주들의 금리를 보더라도 전체 신용대출의 평균금리는 7.57%인 반면, 사잇돌대출과 햇살론15 등의 정책금융상품을 제외한 평균금리는 10.21%로 더 높았습니다. 서지용 상명대 경영학부 교수는 "카카오뱅크의 자체 신용평가모형이 얼마나 정교한지 잘 모르겠다"면서 "(대출 금리가 높아진다면) 기존에 똑같은 (신용) 리스크를 갖고 있는 차주라 하더라도 (사잇돌대출이 아닌) 카카오 자체의 신용대출을 이용할 때 대출비용이 높아져 대출 여건이 안 좋아졌다고 볼 수 있다"고 말했습니다. 그러면서 "카카오뱅크가 우량 차주들한테만 대출을 많이 해줬던 사례도 있다"면서 "앞으로 금리 상승 시점으로 접어들고 있고 부실한 차주들은 이자를 갚아나갈 능력이 좀 부족하다고 보면 오히려 우량 차주 위주로 대출을 하지 않을까 우려된다"고 덧붙였습니다. 카카오뱅크 자체 신용평가모형에 따른 선별로 인해, 기존에는 사잇돌대출을 받을 수 있었던 차주들이 대출 대상에서 탈락할 수 있다는 지적입니다. 카카오뱅크의 사잇돌대출 판매 중단 결정이 대출 목표치 달성을 위해 내놓은 고육지책일지, 포용금융을 향한 진척된 행보일지 좀 더 지켜볼 필요가 있어 보입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022.04.01.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>"천원으로 테슬라 산다" 치열한 소수점거래 경쟁…각사별 보니</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004727316?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>['실시간 거래' 놓고 신경전…증권사들, 다양한 이벤트 진행]해외주식에 투자하는 서학개미들이 늘어나면서 증권사들의 해외주식 소수점거래 서비스(이하 소수점거래) 경쟁도 치열해지고 있다. 각사마다 거래 방식, 거래 가능 대상, 수수료 등이 다른 만큼 증권사들은 투자자 유치를 위해 파격적인 수수료 혜택과 이벤트를 시행하기도 하고, 실시간 거래 등 다양한 서비스를 내놓고 있다. ━증권사 8곳 잇달아 소수점거래 시행━31일 관련 업계에 따르면 현재 소수점거래를 시행하고 있는 증권사는 8곳이다. 2019년 혁신금융서비스 지정을 받은 한국투자증권과 신한금융투자가 2020년 8월 처음으로 서비스를 시작했다. 이후 금융위원회가 지난해 11월 소수점거래가 가능한 증권사를 20개로 확대했고, KB증권, 삼성증권, 키움증권, 한화투자증권, NH투자증권, 카카오페이증권 등이 잇달아 서비스를 시행했다. 토스증권은 다음 달 중 서비스를 시작한다. 소수점거래는 투자자가 1000원 단위 소액을 투자해 0.1주, 1.2주 등 소수점 단위로 해외주식 매수를 주문하고, 증권사가 각 투자자들의 주문을 취합한 후 온주로 만들어 주문을 넣는 것이다. 만약 투자자들의 소수점거래 주문을 다 모았을 때 0.9주로 온주가 되지 않을 경우 증권사가 자체적으로 0.1주를 더해 주문하기도 한다. 각 회사마다 1~2시간 정도 시간차는 있지만 대부분의 증권사들은 미국시장 개장일에 한국시간으로 밤 10~11시까지 소수점거래를 주문을 받아서 취합한다. 이후 밤부터 다음 날 오전까지 주문을 체결하고, 이를 투자자들에게 분배한다. 한국투자증권, 신한금융투자, KB증권 등 전통 증권사들이 이 방식으로 소수점거래를 진행하고 있다. 이 때문에 투자자들은 하루 1번만 소수점거래를 주문을 할 수 있고, 투자자가 주문하는 시점과 실제 거래 시점이 차이가 난다. 지정가로 거래하기도 어렵다. ━'실시간 소수점거래' 놓고 토스증권·카카오페이증권 신경전━핀테크 증권사인 카카오페이증권과 토스증권은 이러한 점을 보완한 '실시간 소수점거래 서비스'를 내놓으며 시장 공략에 나섰다. 두 회사는 누가 실시간 소수점거래 최초 기업이냐를 놓고 신경전을 벌이기도 했다. 지난 28일 소수점 거래를 시행한 카카오페이증권은 투자자가 주문을 넣은지 최대 10분 내에 거래가 체결되는 자체 처리 시스템을 구축했다. 주문량에 따라 온주가 빨리 모일 경우 바로 체결하고, 온주가 모이지 않더라도 부족한 부분은 카카오페이증권사가 채워 최대 10분내에 거래 체결이 가능하게 했다. 덕분에 투자자들은 하루에 횟수 제한 없이 여러번 소수점 거래를 주문할 수 있다. 최근 거래가격의 ±3%로 지정가 주문을 할 수 있다. 다만 현재 카카오페이증권의 소수점거래 대상은 테슬라, 디즈니, 구글 등 미국 우량 주식 24개에 불과하다. 카카오페이증권은 이후 계속해서 거래 종목을 확대할 예정이다. 토스증권은 소수점거래를 할 수 있는 자격을 보유한 미국 회사와 손을 잡고 다음 달 서비스를 시작한다. 투자자가 소수점거래 주문을 넣으면 토스증권은 온주로 만드는 작업을 거치지 않고 바로 협업사로 보내고, 거래가 체결된다. 투자자가 주문을 넣는 즉시 거래가 체결되기 때문에 사실상 실시간 거래는 토스증권이 유일하다. 거래 횟수에는 제한이 없고, 시장가로 주문할 수 있다. 거래종목은 2700여 개 미국주식, ETF(상장지수펀드), ETN(상장지수증권), 리츠 등이다. ━키움증권 수수료 0.1%…증권사들 혜택 내놔━이처럼 증권사들은 거래대상 종목 수, 수수료, 거래방식 등에 차별화를 두며 경쟁을 펼치고 있다. 한국투자증권은 소수점거래 전용 미니스탁 앱을 운영하고 있다. 거래 대상 종목은 미국주식과 ETF를 포함해 735종이다. 이달에는 KB페이와 제휴해 KB페이로도 소수점거래를 할 수 있게 만들었다. 진입장벽을 보다 낮춰 고객을 끌어들이겠다는 전략이다. 한화투자증권은 MTS(모바일트레이딩시스템) '스텝스' 내에 해외주식 소수점 투자 서비스 '천원샵'을 개설했다. 해외주식 서비스 신청 고객에게 미국주식 거래 수수료 할인 혜택을 1년 동안 적용한다. 천원샵 내에서 소수점 주식 매수 시 자동환전 금액에 대해 85% 환전우대 혜택을 준다. 키움증권 소수점 거래 수수료는 0.1%로 저렴하고, 소수점 넷째자리까지 거래가 가능하다. 업계 관계자는 "해외투자에 나서는 투자자들이 늘어나면서 해외투자 서비스는 증권사들의 필수 항목이됐다"며 "특히 소수점거래는 MZ(1980년~2000년 초반 출생) 세대 투자자들로부터 호응을 얻고있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022.04.06.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>[스페셜리포트]디지털전환 고삐 죄는 지방금융지주</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003008404?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>지방금융지주 3사가 올해 일제히 디지털전환(DX)에 속도를 낸다. 마이데이터(본인신용정보관리업) 본시행으로 은행권과 빅테크 간 금융 플랫폼 경쟁이 치열해지면서 적극적으로 신규 고객을 유입시키고 MZ세대에 브랜드 인지도를 높일 필요가 커졌다. 지방금융지주가 보유한 지방은행의 경우 대형 시중은행 대비 디지털 인력 확보와 시스템 투자 여력이 상대적으로 적다. 이런 한계를 돌파하기 위해 번뜩이는 아이디어를 바탕으로 선택과 집중 전략을 구사해 자사 모바일뱅킹 앱의 브랜드 인지도와 사용자 확대를 꾀하고 있다.◇BNK금융, 가파른 비대면 채널 성장 '눈길'BNK금융그룹(회장 김지완)은 지난 3년간 BNK부산은행과 BNK경남은행의 모바일뱅킹 앱을 리뉴얼하며 고객 접근성과 편의성을 높이는데 주력해왔다. 동시에 비대면 금융상품 경쟁력을 강화하고 다양한 핀테크 기업과 전략적으로 제휴하며 맞춤형 비대면 금융서비스를 제공해왔다.특히 비대면 신용대출 비중이 가파르게 증가했다. 2018년 15%였던 비대면 신용대출 가입 비중은 작년 기준 76%로 급성장했다.비대면 비중이 높아지면서 수도권 비대면 신용대출 가입고객도 증가했다. 작년 기준 전체 비대면 신용대출 가입 고객 약 8만명 중 약 3만명이 수도권 비대면 가입자로 나타났다.이같은 노력에 힘입어 BNK금융은 작년까지 모바일 가입자 307만명, 비대면 여수신 잔액 3조원을 돌파했다. 오는 2023년 비대면 고객 500만명 확보, 비대면 여수신 잔액 10조원 달성을 목표로 잡았다.BNK금융은 2023년 목표 달성을 위해 금융서비스 부문을 크게 가계와 기업으로 구분하고 개별 전략을 가동하고 있다. 가계금융 부문에서는 전면적 비대면화 기반 고객 중심 종합 금융서비스 제공을, 기업금융 부문은 모바일·인공지능(AI)을 활용한 비대면 프로세스 확대를 각각 목표로 삼았다. 세부 실행과제를 부문별로 수립해 실행하고 있다.김지완 BNK금융그룹 회장은 “올해 디지털 전환을 속도감 있게 추진해 미래 성장동력을 확보하겠다”며 디지털 플랫폼 경쟁력 제고를 핵심 사업목표 중 하나로 강조했다.부산은행 모바일뱅킹 등 자사가 보유한 기존 디지털 금융 운영시스템과 지역화폐 동백전을 연계한 새로운 형태의 지역 생활 금융 플랫폼 구축도 목표로 했다. 코로나19 장기화 등으로 침체된 지역경제에 활력을 불어넣을 것으로 기대하고 있다.BNK금융은 이달 개설을 목표로 금융권 첫 그룹 빅데이터·인공지능 플랫폼을 구축하고 있다. 그룹 전 계열사의 금융 데이터를 수집·분석해 고객에게 최적화한 금융 정보와 서비스를 제공할 계획이다.작년 2월 서울 강남 BNK디지털타워에 설립한 'BNK디지털센터'는 석·박사급 데이터분석가를 비롯한 AI 전문가를 채용한다. BNK디지털센터는 우수한 디지털 전문인력을 확보하고 수도권 지역 핀테크 기업과 활발히 협업하기 위해 설립했다. 내부 인재 양성을 위한 프로그램도 운영하고 있다.◇핀테크 DNA 이식 적극 나선 DGB금융DGB금융그룹(회장 김태오)은 올해 디지털전환과 ESG 경영을 양대 축으로 삼고 내재 역량을 강화하는 전략을 추진한다. ESG 경영, DT 가속화, 내재역량 강화로 생존 기반을 혁신하고 내실 중심 성장을 이끌 방침이다. 사업 다각화로 신성장동력을 확대하는 전략도 병행한다.'미래로 도약하는 S.M.A.R.T. 금융그룹'을 중기 비전으로 삼았다. 5대 전략 방향성 중 핵심인 디지털전환 추진에 속도를 내고 있다.DGB금융그룹은 디지털 역량을 강화하기 위해 그룹 내 데이터 허브팀을 신설했다. 디지털 역량을 지속 성장시킬 수 있도록 효율적인 데이터 지원체계를 마련하고 향후 그룹 관점의 고객분석을 데이터 기반으로 실시해 새로운 인사이트를 발굴하는데도 나설 방침이다. 데이터 기반 의사결정과 사업 전략 수립으로 그룹 디지털 역량을 강화하는 기초를 다지는 역할을 하게 된다.DGB금융은 스타트업과의 협력에도 상당히 적극적이다. DGB금융은 스타트업과의 원활한 접점을 위해 서울 강남에 사무소를 운영하고 있다. 또 핀테크와 개발·제휴할 수 있도록 그룹 오픈API 플랫폼을 구축해 누구나 이를 이용해 혁신 서비스를 개발할 수 있도록 개방했다.DGB금융이 운영하는 스타트업 육성 프로그램 'DGB 피움랩(FIUM Lab)'은 2019년 지역에서 처음으로 시작한 핀테크 랩이다. 올해 4번째 참가사를 모집하고 있다.피움랩에서 선발·지원한 스타트업은 그동안 각 계열사와 다양한 협업을 추진하며 호평받았다. 올해 102개 지원사가 몰려 역대 최대 규모를 기록했다. DGB금융은 각 계열사 디지털 사업과 협업을 추진하는 스타트업과 공생할 수 있도록 피움랩을 기반으로 상생 문화를 구축해 나갈 계획이다.DGB금융은 메타버스 환경에도 적극 대응하고 있다. 국내 금융권에서 가장 먼저 메타버스를 업무에 활용하는 데 나서 주목받았다. 특히 디지털 혁신에 관심이 높은 김태오 회장이 메타버스 활용을 선제 주문해 눈길을 끌었다.DGB금융 관계자는 “회의, 홍보행사 같은 단순 업무보다 메타버스와 금융 서비스를 접목하는 방안을 모색하고 있다”며 “점차 성장하는 메타버스 환경에서 고객에게 더 실질적인 금융을 제공할 수 있도록 개발 방향을 잡고 있다”고 말했다.핵심 계열사인 DGB대구은행은 작년 9월 마이데이터(본인신용정보관리업) 본허가 사업자 인가를 획득하고 모바일뱅킹 앱 'IM뱅크' 경쟁력 강화에 주력하고 있다. 지난해 12월 1일 마이데이터 서비스를 선보였으며 지속적으로 연결 기관을 확대하고 서비스 질을 높이고 있다.대구은행은 올해 공공 데이터 활용 영역을 확대해 모바일 채널뿐만 아니라 인터넷뱅킹과 영업점 등에서도 이용 절차를 간소화해 증빙서류가 필요한 서비스를 원스톱 처리해 고객 편의성을 높이도록 구현할 방침이다.◇JB금융, 은행 장벽 깨고 '고객 중심 플랫폼' 시도JB금융그룹(회장 김기홍)은 올해부터 3년간 김기홍 회장 2기 체제가 출범하면서 작지만 젊고 강한 '강소금융그룹' 입지를 다지는데 더욱 힘을 싣는다.김기홍 회장은 “대내외 경제 여건이 불확실하지만 철저한 리스크 관리를 기반으로 안정적인 성장과 수익성 중심 내실 경영, 계열사 간 시너지 확대로 그룹 성장세를 이어나가겠다”며 △디지털 부문 경쟁력 제고 △사업 다각화와 그룹 시너지 극대화를 통한 미래성장 동력 확보 △수익성 중심 질적 성장을 목표로 제시했다.JB금융은 지난 3년간 사업 포트폴리오를 재정비해 지속가능한 수익 기반을 구축했다. 올해부터 핵심사업을 고도화하고 신규 핵심사업 발굴에 나선다. 내부등급법 승인을 받으면 자본비율이 상승하게 돼 계열사 간 시너지 높은 사업 중심으로 성장동력을 확보할 계획이다.특히 모바일뱅킹 플랫폼은 은행의 경계를 무너뜨리고 고객 개인인 '나' 중심으로 재편하는 전략을 가동한다. 또 외부 플랫폼과 협업하고 연계해 고객 유입을 확대하는 방안을 강구한다.우선 고객 중심 플랫폼 재편을 위해 전북은행 JB뱅크 앱과 광주은행 앱 중심으로 여러 JB금융 계열사 서비스를 제공하는 '수퍼앱'으로 변모할 계획이다. 오픈뱅킹을 적극 활용하면서 마이데이터를 기반으로 고객이 데이터 기반으로 최적의 상품·서비스·혜택을 누리도록 체계를 갖추고 고도화하고 있다.JB금융 관계자는 “데이터에 기반한 디지털 마케팅으로 고객 만족도와 상품 가입율을 높이고 있다”며 “마이데이터 본허가 사업자로서 장기적으로 '데이터 뱅크'로 성장하는 것이 목표”라고 강조했다.계열사 데이터를 모아 인공지능(AI) 기술을 접목한 그룹 통합 빅데이터 플랫폼 '데이터 허브'의 파급력도 기대를 모은다.작년 11월 구축한 데이터 허브는 그룹 계열사 금융데이터와 외부 공공데이터 등을 융합해 클라우드 환경에서 데이터를 분석할 수 있도록 조성됐다. 각 계열사는 영업점, 고객센터, 모바일·인터넷 채널에 흩어진 고객 데이터를 한 번에 분석해 기존 대비 최대 56배 빠르게 분석 업무를 할 수 있다. 단순 금융상품 소개를 넘어 각 고객 상황에 맞게끔 정교한 맞춤형 금융 서비스가 가능해진다.외부 플랫폼 사업자와 협업 관계도 강화한다. 이미 토스, 카카오엔터프라이즈, 네이버파이낸셜 등 다수 빅테크 플랫폼과 긴밀한 파트너십을 맺고 인적 교류를 하면서 디지털 마케팅과 미래채널 발굴을 위한 협업을 수행했다.미래 금융시장 변화에 대응하기 위해 이종산업 플랫폼 사업자와도 활발히 교류하고 있다. 전북은행은 지방은행 중 처음으로 가상자산거래소와 협업하고 있다. 고팍스에 실명계좌를 제공하면서 가상자산 시장 투명성 제고와 미래 시장 가능성에 먼저 뛰어들었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022.04.05.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>토스뱅크 "금리인하요구권 알림에…금리↓신용점수↑"</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011103630?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]이주혜 기자 = 토스뱅크가 고객들의 금리인하 기회를 먼저 안내한 결과, 금리인하가 승인된 고객들은 최초 대출시보다 5%포인트 가량 저금리 혜택을 받거나 신용점수가 최대 379점이나 개선되는 등 이른바 '크레딧 빌딩(Credit building)' 효과를 얻은 것으로 나타났다.토스뱅크는 출범 직후인 지난해 10월5일부터 올해 3월31일까지 전체 금리인하요구 건수가 총 2만4910건에 달했다고 5일 밝혔다. 이는 지난해 말 5대 시중은행이 6개월 간 고객들로부터 받은 평균 금리인하 신청건수(1만7809건) 대비 40% 가량 높다.토스뱅크에서 금리인하를 신청한 고객 5명 중 1명 이상(22%)이 혜택을 받았으며, 특히 중저신용 고객의 경우 5명 중 2명 이상(42.4%)의 요구가 수용된 것으로 나타났다.토스뱅크는 금리인하를 금융소비자로서의 '고객의 주권'이라고 판단, 신용도가 개선된 고객에게 이를 먼저 제안하고 있다.  토스뱅크 고객들은 신용도 개선 여부를 알지 못하더라도 앱 내에서 '금리 낮아질 때 알림받기'에 동의하면 토스뱅크로부터 먼저 제안받을 수 있다. 알림받기에 동의한 고객 3명 중 1명 이상(37.5%)은 금리인하 혜택을 누렸다.금리인하가 승인된 고객들은 5%포인트 이상 금리가 낮아지는 효과를 누렸다. KCB 기준 최대 379점(과거 기준 5개 등급)까지 신용도가 개선되며, '크레딧 빌딩' 효과도 발생했다. 금리인하 승인 고객 가운데 3명 중 1명(33%)은 신규 대출 후 일주일 이내 신청했음에도 받아들여지기도 했다.토스뱅크 관계자는 "토스뱅크의 고객이라면 금리인하요구는 반드시 누려야 할 권리"라며 "금리인하와 신용도 개선 등 금융소비자로서 고객들이 정당한 권리를 실현할 수 있도록 토스뱅크가 더 많은 부분을 고민하고 먼저 제안할 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022.04.12.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>[단독] "헉!! 내 주식 어디 갔지?"...토스증권 오류에 '화들짝'</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001025138?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>해외 주식계좌 잔고·수익률 표기 오류 발생토스증권 해외주식 계좌 시스템에 오류가 발생하면서 고객들이 불편을 겪고 있다.토스증권을 이용해 미국 주식을 거래하는 A(43·직장인) 씨는 "오늘 아침 계좌를 확인하러 들어갔다가 깜짝 놀랐다"며 놀란 가슴을 쓸어내렸다.보유하고 있던 테슬라 주식 10주가 사라지면서 1주로 표기된 데다 수익률 '마이너스 91%'가 떴기 때문이다.원인은 시스템 장애로 인한 표기 오류 때문.현재 토스증권 앱에는 "해외주식 잔고와 수익률 표시에 오류가 있다"며 "오늘 저녁 해외주식 장 시작 전에 복구될 예정"이라는 긴급 공지문이 내걸린 상태다.하지만 A씨는 "이전에도 매입 단가가 잘못 표기되는 등 이 같은 오류가 처음이 아니"라며 "고객센터에 민원도 넣었고 설마 별 일 있을까 싶지만 불안한 게 사실"이라며 불만을 토로했다.이어 "주식 초보자들도 많이 이용할 정도로 편리하고 인기가 많다 해서 계좌를 열었는데 자꾸 오류가 발생하니 신뢰성에 의문이 간다"며 "기존에 다른 증권사 계좌로 옮길까 고민 중"이라고 말했다.이에 대해 토스증권 관계자는 "미국 장 마감 이후 일부 계좌의 주식잔고와 수익률 표기에 오류가 있었다"며 "단순한 화면 오류로, 현재 긴급 안내와 함께 시스템 복구에 최선을 다하고 있다"고 설명했다.이어 "다행히 장중 거래는 문제 없이 정상적으로 진행이 됐다"며 "향후 오류가 반복되지 않도록 시스템 개선에 최선을 다하겠다"고 덧붙였다.이른바 '주린이(주식 초보)'도 쉽게 주식을 거래할 수 있도록 하겠다는 목표를 내걸며 지난해 3월 첫 선을 보였던 토스증권은 불과 1년 만에 420만 계좌와 월 기준 활성 이용자수 230만 명을 확보하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022.04.10.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>토스 이승건 대표, “테슬라 쏜다”던 만우절 이벤트…거짓말 아닌 진짜였네![CEO24시]</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000060388?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>[CEO 24시] 종합금융플랫폼 토스를 운영하는 비바리퍼블리카의 이승건 대표가 지난 4월1일 만우절 이벤트로 직원들에게 테슬라를 제공해 눈길을 끌고 있다.  사진은 토스 이승건 대표. 사진=비바리퍼블리카이승건 토스 대표의 만우절 이벤트가 화제다. 이 대표는 4월 1일 사내 공지문을 통해 “늘 몸보다 꿈이 앞선 사람들이라 다른 데면 편했을 삶을 굳이 여기 와서 사서 고생하는 나의 동지들에 대한 존경과 애정이 늘 있었다”며 “감사한 마음을 표현하기 위해 추첨을 통해 테슬라 자동차 20대를 증여하는 작은 이벤트를 준비했다”고 밝혔다.이 대표가 공지문을 올린 날은 만우절이었다. 이 때문에 직원들은 이 대표의 ‘테슬라 공약’을 만우절 농담으로 여기고 가볍게 넘겼다. 그런데 이 대표의 말은 ‘농담’이 아닌 ‘약속’이었다. 4월 4일 서울 강남구 역삼동 토스 본사 앞에 ‘테슬라 10대’가 도착한 것이다.이 대표가 만우절 이벤트에서 밝힌 것처럼 ‘테슬라 20대 차량 증여’는 아니지만 이 대표는 실제 직원들에게 테슬라 차량 10대를 1년간 무상 렌트하는 형식으로 제공했다. 무작위 추첨을 통해 토스·토스뱅크·토스증권·토스페이먼츠 등 계열사에서 10명의 직원을 뽑았고 테슬라 차량을 골고루 전달했다.이 대표는 이날 직원들에게 차량을 인도하기 위해 적지 않은 시간 동안 신경 써 테슬라 차량을 공수해 온 것으로 알려졌다. 차량 구매비용도 사비인 것으로 전해졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022.04.12.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>한쪽은 억대 연봉, 한쪽은 최저임금…개발자 노동 이중구조 왜?</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000669046?sid=102</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>[중간착취의 지옥도, 그 후]&lt;29&gt;IT개발의 하청, 재하청 구조발주기관과 직접 계약 8.7% 불과절반 이상 하청업체에 고용 상태'꿈의 직업' 뒷면 신규 개발자 착취관련법 부재로 임금 착복 고착화IT개발자는 각광받는 직업이 됐지만 신규 진입 개발자에 대한 파견·도급 업체들의 임금 중간착취로 노동시장의 양극화가 심하다. 한국일보 자료사진'네카라쿠배당토’. 네이버와 카카오, 라인플러스, 쿠팡, 배달의민족, 당근마켓, 토스는 개발자 취업 준비생 사이에서 꿈의 기업으로 꼽힌 지 오래다. 수요가 늘며 억대 연봉을 받는 개발자들도 많아졌다.  이런 이면에 신입 개발자들이 IT인력파견업체로부터 한 달 수백만 원의 임금 중간착취를 당하면서 최저임금을 받는 현실을 어떻게 설명해야 할까.  소프트웨어(SW) 개발자는 파견법 제5조 제1항과 하위법령에 따라 컴퓨터 관련 전문가·준전문가에 해당돼 법적 인력 파견이 가능하다. 고용창출과 노동 유연성 확보를 위한 조치였지만, 업계에서 이런 간접고용이 광범위하게 쓰이면서 파견 개발자들의  처우가 열악해지는 빌미가 됐다. 사업을 발주하는 발주기관과 원청(수주사)을 지나 하청에 재하청, 재재하청까지도 흔하게 이뤄진다. IT인력파견업체에서 일한 적이 있는 개발자 김모(28)씨는 "내가 계약을 하면서도 갑을병정 중 병인지, 정인지도 모르는 수준"이라고 설명했다. 일을 처음 시작한 신입 프리랜서 개발자는 업계의 상황을 잘 모를뿐더러 경력이 없으므로 이런 파견업체를 통해 계약을 체결하는 경우가 많다.소프트웨어정책연구소가 2020년 발표한 프리랜서 SW계약자 실태조사(1,032명 대상 온라인 조사)에서 발주기관과 직접 계약을 체결하는 비율은 8.7%에 불과했다. 절반 이상(59.1%)은 하청업체에 고용된 상태였고, 이 중 2차 이하의 하청업체에 고용된 비율도 23.2%에 달했다. 원청 고용은 25.8%였고, '잘 모른다'고 답한 비율도 6.4%였다.여러 단계의 하도급을 거칠수록 소개 수수료 등의 명목으로 실제 일하는 노동자에게 주어지는 돈은 줄어들 수밖에 없다.프리랜서 SW계약자 고용단계. 그래픽=송정근 기자특히 파견업체로 등록하지 않은 무허가 불법파견업체와, 프로젝트 일부를 하청받아 독립적으로 사업을 완성하는 도급계약을 맺어 놓고 실제로는 근로자를 파견해 원청의 지시를 받아 일하게 하는 위장도급(불법파견) 형태도 흔하다. 2014년 하도급 제한규정을 SW산업진흥법에 도입했으나, 공공사업만 규제를 받는다. 공공사업은 전체 프로젝트의 20% 안팎으로 추정된다.이종주 소프트웨어정책연구소 연구원은 'it서비스 분야의 근로환경 특수성과 개선방안 이슈리포트'에서 "다단계 하도급 구조에서 하층부 개발자는 낮은 고용안전성과 낮은 임금 등의 상황에 놓인다"면서 "초급 개발자는 이런 일자리가 열악함을 알면서도 생계와 경력을 쌓기 위해 어쩔 수 없이 받아들인다"고 말했다. 일부 업체나 개발자 교육기관에서는 "1~2년만 바짝 고생하면 다른 개발자들만큼 벌 수 있다"고 이들을 달래기도 한다는 것. 파견·용역 등 간접고용 노동자들이 임금 중간착취를 당하지 않도록 수수료 상한선을 정하거나 원청이 인건비를 지접 지급하는 방안 외에도, SW근로자를 위한 별도의 법이 필요하다는 목소리도 나온다. 이 연구원은 △SW근로자의 고용 개선 등에 관한 법률 △SW의 특성을 반영한 구체적인 감독 기준 △SW프리랜서 피해구제 체계 구축과 사회적 안전망 마련 등을 제안했다. 재하도급이 만연한 건설업계의 건설근로자법과 같이 SW개발자의 처우 개선을 위한 입법적 해결방안을 도모하고, 체불임금 및 금전손실을 막기 위한 '원스톱 소통창구'나 피해 상황 모니터링 등 제도적 지원이 병행되어야 한다는 설명이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022.04.01.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>토스, 지난해 매출 7808억원… "3년 연속 2배 성장"</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000799697?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>사진=토스모바일 금융 서비스 '토스'를 운영하는 비바리퍼블리카가 3년 연속 영업수익 2배 성장에 성공했다.토스는 지난달 31일 공시를 통해 2021회계연도 연결기준 영업수익 7808억원을 기록했다고 밝혔다. 이는 전년(3898억원) 대비 100% 증가한 수치로 최근 3개년 동안 토스의 영업수익 누적성장률은(CAGR) 연 142%에 달한다.PG계열사 토스페이먼츠가 효자 역할을 했다. 토스페이먼츠는 지난 해 구글, 지마켓글로벌, 우아한형제들, 컬리 등 대형 e커머스와 손을 잡으며 매출액을 확대했으며 토스의 머천트 부문 영업수익은 전년 대비 153% 증가한 5513억원을 기록했다.연결 영업손실은 1796억으로 전년대비 약 1070억원 증가했다. 토스 관계자는 "결제 부문의 공격적인 마케팅과 평생무료송금제 도입으로 인한 수수료수익 감소, 토스증권 등 사업 초기 계열사들의 실적이 반영된 것이 영향을 미쳤다"고 말했다.토스는 수익의 95%를 은행 등 금융회사에서 벌어들이는 B2B(기업간거래) 사업 모델을 운영하고 있다. 각 금융사들은 자사의 신용대출, 카드모집 등을 토스 플랫폼을 통해 더 많은 고객에 노출하고 고객은 금융사간 경쟁을 통해 더 유리한 선택을 하게 되는 구조다.토스 관계자는 "신종 코로나바이러스 감염증(코로나19)으로 금융의 비대면, 디지털 전환을 가속돼 토스와 같은 핀테크 플랫폼에서 고객을 확보하거나 스스로 플랫폼으로 변화를 시도하는 금융사들이 늘고 있다"고 설명했다.실제 토스가 45개 은행의 금리와 한도 조건을 한번에 조회할 수 있도록 구현한 '내게맞는대출' 서비스는 지난해 토스 플랫폼에서 가장 높은 성장률을 기록했다.모든 금융서비스를 토스 하나로 해결하겠다는 '수퍼앱' 전략은 성공적으로 진행 중이다. 최근 '모바일인덱스' 조사에 따르면 지난해 3월 토스증권 출범 이후 토스앱의 월간 활성유저는 약 1150만에서 연말 기준 약 1400만으로 성장했다.아울러 토스증권은 출범 1년만에 신규고객 420만명을 확보했다. 매월 토스증권을 이용하는 고객도 230만명에 달한다. 토스뱅크도 올해 초 본격적으로 영업을 시작하며 출범 5개월만에 고객 수 235만을 확보했다. 토스뱅크는 파격적인 2%통장과 중저신용자를 포용하는 여신 전략으로 눈길을 끌고 있다.해외 사업도 탄력을 받고 있다. 지난 해 초 본격적으로 성장한 '비바리퍼블리카 베트남'은 현지에서 300만 월 활성유저를 확보하고 최근 토스앱을 통한 신용카드 발급과 소액대출 서비스를 시작했다.토스는 이 외에도 인도네시아, 말레이시아, 태국, 필리핀, 인도 등 5개 동남아 국가에 지난해 9월 토스앱을 출시하고 초기유저 확보에 나서고 있다. 이달 초 싱가포르에 설립된 법인은, 향후 동남아 진출의 전초기지로 활용될 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022.04.03.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>토스뱅크, 개인사업자 대출 '인기몰이'</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004681331?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>출시 한달반 만에 2000억 넘어중저신용자 적극 공략 효과토스뱅크가 인터넷은행 처음으로 선보인 개인사업자 대출상품 잔액이 출시 한 달 반 만에 2000억원을 넘어섰다. 최근 금리 상승으로 가계대출 잔액이 줄어들면서 은행들이 고전을 면치 못하는 가운데 개인사업자 대출을 통해 활로를 뚫고 있다는 평가가 나온다.3일 은행권에 따르면 토스뱅크의 ‘사장님 대출’ 잔액은 지난달 31일 기준 2095억원으로 2월 말보다 197.5%(704억원) 늘었다. 토스뱅크는 지난 2월 14일 이 대출상품을 내놓으며 기업금융 분야에 첫발을 내디뎠다. 정책금융기관의 보증서나 부동산 담보 없이 개인사업자 대출을 자체 신용평가 시스템만으로 진행한다는 점에서 주목받고 있다. 대출 최대 한도는 1억원이다.사장님 대출 증가세는 시간이 갈수록 가팔라지고 있다. 출시 한 달 만인 3월 14일 잔액은 1167억원이었다. 최근 2주간은 하루 평균 약 59억2000만원을 대출한 것으로 집계됐다. 중저신용 개인사업자들의 대출 비중이 약 40%에 육박한 것으로 전해졌다.토스뱅크 관계자는 “운수업 종사자 등 기존에 증빙 소득으로 신용도를 평가받기 어려웠던 금융 사각지대 계층을 포용한 게 대출 증가의 원인”이라고 설명했다.대형 시중은행들도 개인사업자 대출에 집중하고 있다. 국민·신한·하나·우리·농협은행 등 5대 은행의 개인사업자 대출 잔액은 2월 말 303조5166억원에서 지난달 말 305조5078억원으로 2조원가량 늘었다.다른 인터넷 전문은행들도 개인사업자 대출 시장에 뛰어들 채비를 하고 있다. 케이뱅크는 오는 18일 신용보증재단중앙회와 협력해 개인사업자 운전자금 대출상품을 내놓을 예정이다. 카카오뱅크는 하반기에 개인사업자 대출상품을 출시하기로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022.04.01.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>조아제약, 간장약 '헤파토스시럽' 출시</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004813086?sid=103</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 조아제약이 간장 활성화제 '헤포스시럽'의 리뉴얼 제품 '헤파토스시럽'을 출시했다고 1일 밝혔다. 헤파토스시럽은 일반의약품으로 '지친 간에 새로운 힘을 준다'는 의미를 가진 간장 활성화제로 아르기닌과 베타인, 구연산 세 가지 성분의 상승효과로 간세포를 보호한다.   주성분인 아르기닌은 아미노산에서 유리된 독성 물질인 암모니아를 무독성의 요소로 중화시켜 체외로 배출함으로써 간세포를 보호하고 간 기능을 개선해 간장 질환의 예방 및 치료에 도움을 준다.   베타인은 콜린의 산화유도체로 콜린 대사과정에서 콜레스테롤 수치를 낮추고 담즙 분비를 증가시켜 지방대사 및 소화작용을 원활하게 한다. 또한 지방산 이용을 촉진시켜 체내 지방 축적을 방지해 지방간 등 간장 질환 치료 및 예방에 효과적이다.   구연산은 아미노산, 탄수화물, 지질 대사, 알코올 대사에 관여하며, 체내의 중요한 에너지원인 ATP를 생산하는 TCA 회로의 주요 인자로서 에너지 합성을 유도해 피로회복을 촉진한다.   헤파토스시럽은 액제로서 신속하게 체내에 흡수돼 간의 에너지 합성과 해독 작용 등에서 빠른 효과를 발휘하는 것이 특징이다. 앞서 헤포스시럽은 마시는 간장약이라는 점을 강조한 마케팅 활동을 펼쳐 2000년대 이후 직장인들 사이에서 '술 깨는 약'으로 불리기도 했다.   기존의 헤포스시럽에 함유돼 있던 백당을 제거해 당뇨 환자 등과 같이 당 섭취를 걱정하는 사람도 부담 없이 복용할 수 있다.   헤파토스시럽은 다양한 포장 형태로 복용 목적 및 선호에 따라 선택해 복용할 수 있으며, 1일 10~30mL를 약 반 컵의 물에 희석해 식간에 분할 복용한다. 약국에서 구매 가능하며, 제품에 대한 사항은 조아제약 고객상담실을 통해 문의하면 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022.04.15.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>靑 국민 개방…네이버·카카오로 ‘방문예약’ 받을듯</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003686594?sid=100</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>이르면 이달말 네이버 홈페이지, 카카오톡 메신저 등으로 靑 관광 신청    뉴스1     윤석열 대통령 당선인의 대통령직인수위원회는 오는 5월 10일 임기 시작과 동시에 실시되는 청와대 국민 개방과 관련해 네이버·카카오·토스 등을 통한 방문자 예약 시스템 구축 방안을 논의 중인 것으로 14일 확인됐다.   이날 인수위 관계자는 뉴스1과 통화에서 "민간 업체들과 협업을 통해 청와대 개방 직후 몰릴 인파를 분산시키려는 취지"라고 밝혔다. 인수위 측은 청와대 내부 시설 정비에 시간이 더 필요하다고 코로나 상황이 여전히 엄중하다는 점 등을 감안해 개방 초기 제한된 인원만을 받기로 결정한 것으로 알려졌다.   해당 안이 확정되면 이르면 이달 말부터 네이버 홈페이지와 카카오톡 메신저 등 민간 플랫폼을 통해 청와대 관광을 신청할 수 있을 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022.04.03.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>토스뱅크 개인사업자 대출 인기몰이…한달반 만에 2000억 돌파</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003682797?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>토스뱅크의 개인 사업자 대출이 출시 한 달 반 만에 2000억원을 돌파했다. 사진은 서울 강남구 토스뱅크 본사 모습. /뉴스1										인터넷 전문은행인 토스뱅크의 개인 사업자 대출이 출시 한 달 반 만에 2000억원을 돌파했다. 토스뱅크에 따르면 지난달 31일 기준 ‘사장님 대출’ 잔액은 2095억원으로 2월말 대비 197.5%(704억원) 증가했다. 토스뱅크는 지난 2월 14일 인터넷 은행 중 처음으로 개인 사업자 대출인 ‘사장님 대출’을 출시했다.토스뱅크의 ‘사장님 대출’은 출시 한 달 만인 지난달 14일에 1167억원을 기록한 데 이어 최근 2주 동안 하루 평균 약 59억2000만원 대출을 집행했다. 이 대출은 보증기관의 보증서나 대출자의 부동산을 담보로 하지 않고 개인 신용에 따라 최대 1억원을 한도로 부여한다. 시중은행의 비슷한 무보증 개인사업자 대출이 하루 평균 약 10억원 안팎인 것과 비교하면 토스뱅크의 대출 성장세는 두드러진다. 토스뱅크의 대출은 비금융 정보를 활용한 자체적인 신용평가 모형을 통해 개인 신용도를 평가해 이른바 ‘신 파일러(thin filer, 금융이력이 적은 대출자)’에게 인기를 끄는 것으로 알려졌다.다른 인터넷 은행도 개인사업자 대출을 조만간 출시하기 위해 준비 중이다. 케이뱅크는 오는 18일 신용보증재단중앙회와 협력한 개인사업자 운전자금 대출을 출시할 계획이다. 카카오뱅크도 하반기 개인사업자 대상 대출 출시를 준비하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022.04.09.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>인뱅, 금융당국 압박 속 중·저신용 대출 '딜레마'</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002592669?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>1분기에만 관련 대출 1조6600억금융 리스크 속 부실 관리 '숙제'서울 을지로 케이뱅크(왼쪽부터) , 경기도 성남 카카오뱅크, 서울 강남구 토스뱅크 본사 전경 ⓒ각사[데일리안 = 김효숙 기자] 인터넷전문은행들이 중·저신용자 대상 대출을 경쟁적으로 늘리고 있다. 정해진 시한까지 관련 대출 비중을 채우라는 금융당국의 압박 때문이다. 중·저신용 대출 대상이 확대되면서 목표치 달성에 청신호가 켜진 상황이지만, 시중 금리도 가파르게 오르고 있는 터라 부실 위험이 큰 대출을 늘려야하는 인터넷은행의 고민이 깊어지고 있다.9일 금융권에 따르면 카카오뱅크, 케이뱅크, 토스뱅크 등 인터넷은행 3사가 올해 1분기 중·저신용자에게 공급한 신용대출 규모는 1조6687억원이다.은행별로 보면 조사 대상 기간 동안 카카오뱅크가 중·저신용자에게 공급한 무보증 신용대출 이 6253억원으로 가장 많았고, 이어 토스뱅크 6203억원, 케이뱅크 4234억원 순이었다. 금리 인상 등 영향으로 5대 시중은행의 가계대출이 석 달 째 감소하는 가운데서도 인터넷은행의 가계대출은 중·저신용 대출에 힘입어 2조6610억원 늘었다.인터넷은행이 앞 다퉈 중·저신용자 유치를 늘리는 것은 금융당국을 의식한 행보로 풀이된다. 이들은 정부로부터 사업 인가를 받을 당시, 첨단 정보기술을 활용해 중·저신용자 신용대출에 적극적으로 나선다고 약속한 바 있다.하지만 기대와 달리 인터넷은행들의 중·저신용 대출이 미흡했다고 판단한 금융당국은 지난해 5월 이에 대한 관리감독을 강화하겠다고 나섰다. 내년까지 중저신용자 신용대출 비중을 30%까지 올리고, 계획을 제대로 지키지 않을 시 이를 신사업 인·허가 등에 고려하겠다고도 했다.2022년 인터넷전문은행 중·저신용자 대출 비중 ⓒ데일리안이런 경고에도 인터넷은행 3사는 지난해 각자 목표치를 달성하지 못해 정부의 따가운 눈총을 샀다. 지난해 말 카카오뱅크의 중·저신용자 대상 신용대출 비중은 17.0%, 케이뱅크는 16.6%, 토스뱅크는 23.9%로, 각각 목표치였던 20.8%, 21.5%, 34.9%에 모두 미달했다.지난해의 경우 정부의 가계대출 총량규제 등으로 제한이 있었던 만큼 인터넷은행들은 올해부터 더 적극적으로 중·저신용자 대출을 늘리겠다는 방침이다. 카카오뱅크와 케이뱅크는 지난달 말 기준 중·저신용 대출 비중이 20%를 넘겼으며, 토스뱅크도 31.6%를 기록했다. 이들은 올해 말까지 이 비중을 각각 25%, 25%, 42%까지 확대하기로 했다.다행히 신용평가 기준이 바뀌면서 중·저신용 대출규모가 확대될 것으로 전망된다. 신용평가기관 KCB가 지난 1일부터 중저신용자를 뜻하는 개인신용평점 하위 50%의 점수를 820점에서 850점으로 상향했기 때문이다. 신용점수가 821~850점에 속하는 사람들도 중·저신용 대출을 받을 수 있게 됐다.인터넷은행 관계자는 "지난해는 대출 중단도 겪은 만큼 인터넷은행 3사 모두 올해를 본격적인 중·저신용자 유치 경쟁 기간으로 보고있고, 신용평가기준 변경으로 대출 규모 확대도 기대하고 있다"고 말했다.다만 국내외 경제 여건 변화로 금융 리스크가 커진 상황에서 부실가능성이 상대적으로 높은 중·저신용 대출을 늘려야한다는 점은 이들에게 남겨진 고민거리다. 우크라이나 사태 등 대외 여건이 불안하고 코로나19로 가계대출도 누적된 상황에 시장 금리가 가파르게 오르면서 대출 부실 위험도 커지고 있다.또 다른 인터넷은행 관계자는 "중·저신용대출을 늘리면서 자산건전성을 지키는 것은 인터넷은행 3사의 최대 고민"이라며 "신용평가시스템 고도화하는 등 방법을 통해 부실 대출을 관리하고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022.04.14.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>평균연봉 보니…대기업서 스타트업 갈만하네</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004686051?sid=105</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>두나무 등 코인거래소가 최고야놀자·토스는 9000만원대"직무따라 차이 존재" 지적도사진=게티이미지뱅크두나무, 야놀자, 비바리퍼블리카 등 국내 주요 스타트업의 평균 연봉이 국내 대기업 수준에 육박하는 것으로 나타났다. 투자 시장 활성화로 상위 스타트업의 자금 사정이 나아진 데다 개발자 구인난으로 개발 인력의 임금이 급격히 올라간 영향으로 풀이된다.14일 한국경제신문이 국내 주요 유니콘 기업(기업 가치 1조원 이상 스타트업)과 예비 유니콘 기업 15곳의 사업보고서와 감사보고서를 분석한 결과 이들 기업의 평균 연봉은 9340만원으로 집계됐다. 지난해 지급된 급여 총액에서 지난해 말 기준 직원 수로 나눈 것이다. 최근 인크루트가 분석한 국내 시가총액 상위 50개사의 평균 연봉인 9400만원과 비슷한 수준이다.가장 평균 연봉이 높은 곳은 가상화폐거래소인 두나무와 빗썸코리아로, 각각 3억9294만원과 1억1800만원이었다. 야놀자의 직원 1인당 평균 급여는 9600만원, 금융 서비스 토스를 운영하는 비바리퍼블리카의 평균 연봉은 9300만원으로 집계됐다. 다만 미등기 임원을 포함한 수치여서 실제 일반 직원의 평균 연봉은 이보다 더 줄어들 것으로 추정된다. 두나무의 실제 직원 평균 연봉은 1억6000만원으로 추정된다.이들 기업 외에 대부분 유니콘 기업의 평균 연봉은 국내 직장인 평균보다 높았다. 국세청에 따르면 2020년 기준 직장인 1인당 평균 연간 급여는 3828만원이었다. 배달 서비스 ‘배달의민족’을 운영하는 우아한형제들(8341만원), 핀테크 업체 뱅크샐러드(8302만원) 등의 지난해 평균 연봉은 8000만원이 넘었다.송창현 전 네이버 최고기술책임자(CTO)가 창업한 자율주행 스타트업 포티투닷(7718만원), 지난해 손정의 소프트뱅크 회장에게 2000억원의 투자를 이끌어낸 인공지능(AI) 기반 교육 서비스업체 뤼이드(7180만원)의 연봉 수준도 높았다. 올해 상장을 앞둔 컬리(6423만원), 쏘카(5395만원)의 급여 수준도 스타트업계 상위권이었다.게임, 웹툰 등 콘텐츠 분야 상위 스타트업의 몸값도 업계 평균 수준을 넘었다. e북 서비스 ‘리디북스’를 운영하는 리디는 5652만원, 모바일 게임 ‘그랑사가’의 엔픽셀은 5415만원, 번역 전문 기업 아이유노글로벌은 5356만원 등이었다.스타트업계에서는 기업이 공개한 평균 연봉이 급여 수준을 정확히 보여주는 데 한계가 있다는 지적도 나온다. 업무에 따라 연봉 테이블이 크게 다르기 때문이다. 당근마켓 관계자는 “인턴도 급여 계산에 포함되기 때문에 당근마켓의 지난해 정직원 평균 연봉은 5162만원보다 많다”고 설명했다. 개발자와 비(非)개발자와의 급여 차이도 크다. 보통 신입 초봉에서도 개발자 연봉이 비개발자보다 1000만원 이상 높다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022.04.08.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>"업비트 독점 사라지나" 은행 실명계좌 제휴 코인 거래소 3곳 더 나온다</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000801954?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>연내 은행 실명확인 입출금계좌를 보유한 코인 거래소가 3곳까지 늘어날 것으로 보인다. 사진은 5일 서울 강남구 업비트 사옥의 모습./사진=뉴스1연내 은행 실명확인 입출금계좌를 보유한 코인(암호화폐) 거래소가 3곳까지 늘어날 것으로 보인다. 현재 국내 은행 가운데 신한은행과 농협은행, 케이뱅크가 코인 거래소와 실명확인 입출금계좌 발급 제휴를 맺고 있는만큼 하나은행과 우리은행, 카카오뱅크 등이 코인 거래소에게 추가로 계좌를 발급할 것으로 보인다.8일 금융권에 따르면 금융위원회는 암호화폐 거래소 활성화 방안을 대통령직인수위원회에 보고한 것으로 알려졌다.현재 은행 가운데 실명확인 입출금계좌 발급 제휴를 맺고 있는 곳은 3곳이다. 신한은행은 코빗, NH농협은행은 빗썸과 코인원, 케이뱅크는 업비트를 상대로 실명확인 입출금계좌를 내주고 있다.고팍스는 최근 JB전북은행과 실명확인계좌 제공 계약을 체결한 뒤 금융정보분석원(FIU)의 승인절차를 밟고 있다.은행들은 코인 거래소와 실명확인 입출금 계좌를 발급함으로써 수수료 이익도 얻고 있다. 이에 우리은행, 하나은행, 카카오뱅크, 토스뱅크 등이 코인 거래소와 실명확인 입출금계좌 제휴를 맺을 것으로 관측되고 있다.암호화폐를 법정화폐로 사고 파는 원화마켓을 운영하려면 은행의 실명확인 입출금 계정발급 확인서와 정보보호 관리체계(ISMS) 인증을 받아야 한다. 실명계좌를 확보하지 못하고 ISMS 인증만 받은 거래소는 원화마켓을 중단하고 암호화폐 간 거래만 하는 코인마켓으로 신고를 할 수 있다.국민의힘 측은 업비트의 시장 지배력이 지나치게 커질 수 있다는 점을 우려하며 원화마켓 거래소 확대를 주장해왔다.국회 정무위원회 소속 윤창현(국민의힘·비례대표) 의원에 따르면 지난해 8월 26일 기준 국내 전체 비트코인 거래량의 83.28%를 업비트가 차지했다. 이어 빗썸(11.62%), 코인원(3.10%), 지닥·후오비코리아(0.68%), 고팍스(0.55%), 코빗(0.21%) 순으로 나타났다.윤 의원은 "현재의 업비트 독점 구조는 시장질서와 소비자 선택이 아니라 행정 허가절차가 사실상 은행에 떠넘겨진 불공정 입법 때문으로 봐야 한다"며 "모든 거래소가 공정하게 심사받고 탈락하거나 정당한 프로세스를 거쳐 합격할 수 있도록 심사 공정성 회복을 위한 특금법 개정안 처리에 속도를 내야 할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022.04.13.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>핀다 대출 비교 서비스에 '토스뱅크' 합류</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002253675?sid=105</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>신용대출 및 사잇돌대출 연결핀테크 기업 '핀다'가 대출 비교 서비스에서 인터넷전문은행 '토스뱅크' 상품이 입점됐다고 13일 밝혔다.핀다 고객은 토스뱅크 대출을 선택해 신청하면 된다. 현재 핀다를 통해 토스뱅크의 직장인 신용대출과 사잇돌대출을 선택할 수 있으며,  향후 사업자대출까지 연계한다는게 회사 측 방침이다.핀다를 통해 주말에도 대출금을 받을 수 있는 금융사는 토스뱅크를 포함해 15곳이다. 실제 핀다로 주말에 대출을 받은 고객은 2021년 대비 7.8배 늘었고, 주말과 공휴일을 포함해 은행 영업시간(오전 9시부터 오후 4시 사이) 외에 대출을 받는 고객은 44% 비중을 차지했다.핀다는 1금융권을 비롯해 저축은행, 캐피탈, 카드, 보험 및 온라인투자연계금융업 등 60개 금융사와 제휴해 직장인과 주부, 프리랜서, 사업자 등 다양한 고객에 맞는 대출 상품을 200여개 보유하고 있다.박홍민 핀다 공동대표는 "핀다는 업계 가장 많은 종류의 대출 서비스를 중개하는 1등 대출 비교 플랫폼으로 자리를 굳건히 하고, 고객을 최우선의 가치로 생각하는 금융 플랫폼으로서 금융사와 플랫폼의 상생 경쟁력을 갖춰가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.04.01~2022.04.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.04.01~2022.04.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.04.06.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>이자 눈덩이인데…금리인하요구권 활용해볼까</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011105621?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>기사내용 요약대출 후 취업·승진 등 신용도 개선시 신청금리인상기 이자 부담 증가에 관심 커져[서울=뉴시스]이주혜 기자 = 최근 금리 상승으로 대출이자 부담이 커지면서 금리인하요구권에 대한 관심이 고조되고 있다.6일 은행권에 따르면 최근 은행들은 금리인하요구권을 적극 수용하고 있다. 수용 비율이 높지 않았던 이전과는 다른 분위기다.금리인하요구권이란 대출 계약 체결 후 취업이나 승진, 이직, 성실상환 등으로 신용도가 개선되고 경제·금융 여건이 나아진 대출자가 은행 등 금융사에 금리를 낮춰달라고 요구할 수 있는 권리다.은행 영업점에서 금리인하 신청서를 접수하고 증빙 서류를 제출하면 심사를 통해 승인된다. 은행법상 10영업일 이내에 결과를 통지해야 하나 통상 신청 이후 5영업일 정도가 소요된다. 심사 결과 승인되면 금리가 인하된다. 인터넷 홈페이지나 모바일 애플리케이션(앱) 등을 통해 비대면으로도 신청할 수 있다. 이에 '밑져야 본전'이라는 생각으로 시도해보는 경우도 많다.최근 금리 상승세에 이자 부담이 커지면서 금리인하요구권에 대한 관심이 커지고 있다. 기준금리 인상과 시장금리 상승에 시중은행의 주택담보대출 고정형 금리는 6%를, 변동형은 5%를 넘어섰다. 전세대출 금리도 5%대다.그동안 금리인하요구권 수용을 거절해왔던 은행권의 분위기도 달라졌다. 한 시중은행 관계자는 "금리인하요구를 신청하는 고객들이 증가하고 있다"며 "은행에서도 기준을 충족한다면 이를 수용하는 분위기"라고 말했다.인터넷전문은행 토스뱅크는 금리인하요구권을 적극 홍보하고 있다. 고객들이 신용도 개선 여부를 알지 못하더라도 앱 내에서 '금리 낮아질 때 알림받기'에 동의하면 토스뱅크로부터 금리인하요구권 신청을 먼저 제안받을 수 있다.토스뱅크에 따르면 지난해 10월5일부터 올해 3월31일까지 토스뱅크의 금리인하요구 건수는 총 2만4910건에 달하는 것으로 나타났다. 금리인하 신청 고객 5명 중 1명 이상(22%)이 혜택을 받았다. 알림받기에 동의한 고객은 3명 중 1명 이상(37.5%)이 금리인하 혜택을 누렸다.금리인하가 승인된 고객은 5%포인트 이상 금리가 낮아지는 효과를 누렸다. KCB 기준 최대 379점(과거 기준 5개 등급)까지 신용도가 개선되며, '크레딧 빌딩' 효과도 발생했다.시중 은행도 금리인하 요구권을 적극적으로 안내하는 추세다. 신한은행 관계자는 "2020년 3월부터 금리인하요구권 비대면 완결 프로세스를 구축해 고객 신청 즉시 금리인하 심사 및 실행 중"이라며 "정기안내 외에도 금리인하 가능 예상 고객에게 지난해 3월 개별 안내를 진행했으며 이달 중 추가 안내할 예정"이라고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.04.06.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>금리 뛰니 시중은행 예대율 ‘숨통’...인터넷 은행 ‘고심’</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002591685?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>5대은행 100% 안팎 “안정적 유동성 관리”케뱅・토뱅, 수신 대비 여신액 늘려야서울 중구 하나은행 영업부 대출 창구 모습 ⓒ 뉴시스[데일리안 = 이호연 기자] 코로나19 대응을 위해 완화됐던 예대율 규제가 오는 6월 정상화를 앞둔 가운데, 시중은행은 유동성 관리에 큰 문제가 없다는 입장이다. 본격 금리상승기를 맞아 가계대출 잔액이 줄고, 예・적금은 늘어나 예대율 관리가 더 수월해졌기 때문이다. 반면 인터넷뱅크는 예대율을 끌어올리기 위해 올해 공격적으로 대출 잔액 늘리기에 나선다.6일 금융권에 따르면 지난해 4분기 5대 시중은행(KB국민·신한·하나·우리・NH농협)의 평균 예대율은 97.46 수준이다. 5대 은행의 평균 예대율은 코로나19 발생 직전인 2019년 말 94.5%에서 2020년 말 99.8%까지 증가했으나, 지난해 3분기(98.97%)부터 2분기 연속 줄어드는 추세다. 같은 기간 은행별 예대율은 ▲KB국민 100.2% ▲신한 99.0% ▲하나 99.2% ▲우리 98.6% ▲NH농협 90.28%이다.예대율은 은행의 예금잔액에 대한 대출잔액의 비율이다. 은행은 건전성 관리를 위해 대출을 내주려면 그만큼의 예금 잔액을 확보해야 한다. 예대율이 낮으면 보유 예금 대비 대출자산이 부족하다는 뜻으로 영업측면에서 자금을 제대로 운용하지 못하는 것으로 평가된다. 반대로 예대율이 높으면 예금대비 보유 대출자산이 과도해 갑작스런 경제 악화 상황에 유동성 위기가 올 수 있다.KB국민은행과 하나은행이 경우 지난해 ‘빚투(빚내서 투자)’ 열풍에 유동성이 자산시장으로 쏠리며, 가계대출이 폭등하자 100%를 넘기도 했다. KB국민은행의 경우 가계대출 규모가 업계 1위인만큼 최근 3분기 연속 100%대를 기록중이다.그러나 올해 한은의 기준금리 인상과 미국 등 주요국 중앙은행의 공격적인 긴축정책 예고에 시장금리가 치솟으며 시중은행으로 자금이 쏠리고 있다. 예적금, 요구불 예금 등은 늘어나는 한편 대출 이자 부담으로 가계대출 잔액은 줄어드는 상황이다. 실제 5대 은행의 가계대출 잔액은 3개월 연속 감소하며, 지난달 말 703조1937억원대까지 쪼그라들었다. 은행권 전체 가계대출 잔액도 4개월 연속 감소할 가능성이 높다. 반면 2월 은행권 수신 잔액은 2144조7000억원으로 한 달만에 25조7000억원 늘어나면서 증가전환했다.이에 따라 오는 6월 예대율 기준치를 105%에서 기존 100%로 낮춰도 예대율 관리에 무리가 없을 것으로 관측된다.ⓒ 데일리안 이호연 기자반면 카카오뱅크, 케이뱅크, 토스뱅크 등의 인터넷은행은 예대율을 높여야 하는 상황이다. 이들 은행은 비대면으로 대출 영업을 하다보니 지난해까지도 개인 신용대출에 주력해왔다. 시중은행보다 수신잔액에 비해 대출잔액이 여실히 부족한 수준이다. 지난해 4분기 기준 각 사별 예대율은 카카오뱅크 86.1%, 케이뱅크 49%, 토스뱅크 3.85% 수준이다.토스뱅크의 경우 지난해 10월 출범 이후 곧바로 금융당국의 대출 총량 규제에 막혀 대출 영업을 중단할 수 밖에 없었다. 이같은 이유로 예대율 3%대에 그쳤으나, 올해 1분기 개인사업자 대출 등 활발한 영업으로 대출 잔액이 급증하며 예대율도 14.7%까지 올랐다.케이뱅크도 아파트담보대출에 이어 이달 신용보증재단중앙회와 협력한 개인사업자 대출을 출시하는 등 여신잔액 비중을 늘리기에 한창이다. 케이뱅크의 아파트담보대출 누적 취급액은 지난 1월11일 기준 1조원을 돌파했다. 카카오뱅크 또한 올해 비대면 주담대 상품을 선보이며 대출 영역을 확장했다. 출시 당시 주담대 조건을 KB부동산 시세 9억원 이하 수도권 아파트로 한정했음에도 누적 약정금액은 약 1100억원을 돌파했다. 카카오뱅크가 전날 시세 제한을 해제하며 주담대 잔액을 더욱 늘어날 전망이다. 유동성 관리에도 탄력이 붙을 것으로 기대된다.시중은행 관계자는 “예대율은 너무 높아도 낮아도 바람직하지 않고, 적정수준에서 관리하는 것이 중요하다”며 “지난해까지 폭증하던 가계대출이 금리 인상으로 한 풀 꺾였지만 언제든 상황이 급변할 수 있어 항시 모니터링에 힘쓰고 있다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.04.07.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>인터넷 은행이 바꾼 비대면·주담대...시중은행이 따라간다</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004729813?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>[편집자주] 국내에 인터넷전문은행이 설립된 지 꼭 5년이다. '기대반 우려반'으로 출범했지만 성공적으로 안착했다는 평가다. 우려가 완전히 사라지지는 않았지만 인터넷은행의 등장으로 금융 일상의 시공간 제약이 사라지고, 금융산업의 비대면화가 가속화하고 있다. 다섯 살이 된 인터넷은행의 혁신 시도가 바꾸고 있는 금융시장의 변화상을 들여다본다.[[MT리포트]인터넷전문은행 5년, 금융을 바꾸다(上)]━집주인·사장님도 이젠 "비대면·모바일 대출"━인터넷전문은행 출범 5년 만에 국내 '리테일 뱅킹'(소매금융·가계대출) 시장의 모바일화와 비대면화가 빠르게 진행되고 있다. 인터넷은행 3곳이 개인신용대출 중심에서 주택담보대출과 개인사업자 대출까지 영역을 급속히 확장하면서 금융판이 바뀌고 있다. 인터넷은행의 공격적인 가격(금리)·서비스 혁신 경쟁이 금융 소비자 편의성과 편익 개선으로 이어지고 있다는 평가도 나온다. 반면 고신용자에 집중하는 등 기존 은행을 답습하고 있고 인터넷은행 접근이 어려운 고령층 등 디지털 소외계층에 대한 배려가 부족하다는 지적도 나온다. 6일 은행권에 따르면, 카카오뱅크의 대출(여신) 잔액은 출범 첫 해인 2017년 말 4조6218억원에서 지난해 말 25조8614억원으로 4년 만에 5.6배 불었다. 2017년 4월3일 출범한 국내 첫 인터넷은행 케이뱅크의 대출 자산도 같은 기간 8200억원에서 7조900억원으로 8.6배 커졌다. 출범 후 은산분리 규제에 따른 케이뱅크의 증자 지연과 지난해 금융당국의 강도높은 가계대출 규제로 인터넷은행 영업 환경이 여의치 않았다는 점을 감안하면 의미 있는 성장세다. 올해 들어서도 인터넷은행의 성장성이 도드라진다. 카카오뱅크, 케이뱅크, 토스뱅크의 지난 1분기 가계대출 합산 잔액은 36조1439억원으로 전년 말(33조4829억원)보다 7.9% 늘었다. 지난해 하반기부터 이어진 대출 규제와 대출금리 상승에 1~3월 5대 시중은행(KB국민 신한 하나 우리 NH농협은행) 가계대출 잔액이 약 6조원 줄어든 것과 또렷이 대비된다. 특히 지난해 10월 출범 직후 9일 만에 대출 영업을 중단했던 토스뱅크 여신은 지난해말 5315억원에서 지난 3월 말 2조3688억원으로 3개월 만에 4.5배 성장했다. 인터넷은행의 약진은 비대면·모바일 플랫폼의 편의성과 상대적으로 싸고 후한 수수료·금리, 서비스 혁신 덕에 젊은 세대 중심의 이용 고객이 빠르게 유입되고 있어서다. 카카오뱅크 앱 가입자는 1827만명, 케이뱅크는 750만명에 달한다. 토스뱅크도 235만명의 가입자를 확보했고, 토스 앱 MAU(월간활성이용자)는 약 1400만으로 성장했다.대출 포트폴리오도 신용대출과 전월세대출에 이어 주담대, 가계대출 성격의 기업대출인 개인사업자(자영업자) 대출까지 확대되고 있다. 리테일 분야에서 인터넷은행이 몰고 온 모바일·비대면화가 가속화하고 있는 셈이다. 지난 2월 챗봇 대화형 인터페이스를 적용한 모바일 주담대를 선보인 카카오뱅크는 약 한 달만에 1000억원 넘게 팔았다. 전날부턴 대출 대상을 KB 부동산 시세 9억 원 이상으로 확대해 대출 한도를 6억3000만원에서 10억원으로 올렸다. 토스뱅크도 지난 2월 인터넷은행 최초의 개인사업자 대상 '사장님 대출'을 출시해 한 달 반인 지난달 말 대출 잔액 2000억원을 돌파했다. 케이뱅크는 오는 18일 개인사업자 대출을 출시하고 카카오뱅크도 올 하반기 소호(SOHO) 대출을 선보인다. 은행권 관계자는 "은행 산업이 투자업무(IB)와 대기업 중심의 대형 시중은행과 모바일 리테일 중심의 인터넷은행으로 재편되는 변화를 예상해 볼 수 있다"고 했다. 인터넷은행의 혁신이 몰고 온 가격·서비스 경쟁 활성화는 금융소비자 편익 증대로도 나타나고 있다. 인터넷은행 관계자는 "오프라인 점포 비용과 인건비가 적어 대출금리를 상대적으로 낮게 책정하거나 예금금리를 높게 가져갈 여력이 있다"며 "각종 수수료 감면과 중도상환료 면제, 금리인하요구권 확대로 소비자 편의와 편익이 동시에 개선되고 있다"고 자평했다.   과제도 없지 않다. 인터넷은행 3사 모두 지난해 설립 취지인 중저신용자 대출(중금리 대출) 비중 목표에 미달했다. 중금리 대출 확대로 고신용자 대출이 줄면서 자산 건전성 부담도 안고 있다. 인터넷은행들은 중금리 대출 확대 필요성엔 공감하면서도 목표 비율을 설정하기보단 '공급액' 기준 목표로 정책 전환이 이뤄져야 한다는 입장이다.━청소년 공략·주담대 비대면화…이제는 시중은행이 따라한다━인터넷전문은행은 지난 5년 동안 기존 은행이 하지 않던 시도들을 해왔다. '10대 청소년'이라는 틈새시장을 공략했고, 비대면화에 한계가 있다고 평가받아 온 주택담보대출을 상당 수준 비대면화했다. 이에 최근 시중은행은 은행업계 막내인 인터넷은행을 벤치마킹하기도 한다. 은행권 내에서 인터넷은행을 경쟁자로 인식하는 분위기도 점점 커지고 있다.◆트렌드가 된 인터넷은행 상품·서비스카카오뱅크는 2020년 은행권 최초로 10대 청소년 고객을 대상으로 하는 서비스 '카카오뱅크 mini(미니)'를 출시했다. 만14세부터 만18세까지 은행 계좌를 만들 수 없는 청소년들이 계좌 없이도 입금·송금을 할 수 있는 서비스다. 이 서비스는 출시 1년 만에 가입자 100만명을 확보했고, 현재는 120만명 이상의 청소년이 사용하고 있다.이후 1년 사이 시중은행에서 유사한 서비스가 쏟아졌다. 하나은행은 지난해 6월 '아이부자' 서비스를 내놨고, 신한은행과 KB국민은행은 각각 지난해 10월, 11월 '신한 밈(Meme) 카드', '리브 넥스트(Liiv Next)'를 출시했다. 하나은행은 10대 청소년 뿐만 아니라 아동으로까지 타깃 고객을 넓혔고, 신한·국민은행은 카카오뱅크와 같이 만14세~만18세 청소년을 이용 고객으로 정했다.틈새시장 공략 외에도 기존 상품·서비스를 파격적으로 바꾼 사례도 있다. 토스뱅크의 수시입출금 통장인 토스뱅크통장이 대표적이다. 수시입출금 통장은 고객이 언제든 돈을 넣고 뺄 수 있는 통장으로, 금리가 수신 상품 중 가장 낮다. 대부분 금리는 1% 이하였는데 토스뱅크는 금리를 예치금 1억원 이하에 대해 일괄 2%로 설정했다. 대중교통이나 편의점을 이용하면 현금 소액을 환급해주는 혜택도 달았다.은행들은 내부적으로 수시입출금뿐 아니라 예·적금 고객까지 유출될 수 있다고 판단, 최근 대응 방안을 모색하고 있다. 금리를 올리는 방향이 될 것으로 보인다. 은행연합회 비교공시에 따르면 5대 은행(KB국민·신한·하나·우리·NH농협은행)의 1년 만기 기준 예금 금리는 최고 2.05%이고, 적금의 경우도 대부분 2%대에 머무르고 있다. 시중은행 고위 관계자는 "지난해 말부터 예·적금 잔액이 사실상 늘지 않았는데 토스뱅크통장 영향이라는 분석이 있다"며 "예·적금 고객 확보를 위한 조치를 계획하고 있다"고 말했다. ◆기존 산업 구조에 도전장…비대면 영역 확대인터넷은행들은 상품·서비스에서 나아가 산업 구조 자체에도 영향을 주고 있다. 수신과 신용대출에서 비대면화를 가속화한 인터넷은행들은 비대면 영업 범위를 넓히는 시도를 계속하고 있다. 대표적인 예가 주택담보대출이다. 주담대는 비대면 전환이 까다로운 대출로 꼽힌다. 우선 신용대출과 달리 필요한 서류가 복잡하고 소유권 이전 등기는 대면으로 해야 한다. 아파트 외 주택에 대해선 현장 실사와 시세 책정이 필요하다.케이뱅크가 가장 먼저 주담대 비대면화에 도전했다. 2020년 케이뱅크는 은행권 최초로 비대면 아파트담보대출을 출시했다. 케이뱅크는 전자상환 위임장을 도입해 제출이 필요한 서류를 10여종에서 2종으로 간소화해 대출 실행이 2일 내에 이뤄지게 했다. 카카오뱅크는 지난 2월 주담대를 출시했다. 챗봇을 통해 대출이 진행되는데, 현재까지 고객 94.5%는 추가 상담을 받지 않았다. 소유권 이전 등기는 대면으로 하고 있지만, 향후 단독 주택 등에 대한 시세 평가는 외부 업체와의 제휴를 통해 해결할 계획이다.신용평가모형 고도화 경쟁이 촉진됐다. 인터넷은행들은 플랫폼 경쟁력을 기반으로 다양한 비금융 정보를 활용하는 대안 평가모형을 속속 구축했다. 토스뱅크는 택시 결제·쇼핑 내역 등을 활용하는데, 거래 시간까지 신용 평가에 활용한다. 개인사업자 대출에서 비금융 정보 활용 비율은 40%에 이른다. 은행권 관계자는 "기존 은행들은 활용할 수 있는 데이터에 한계가 있다"며 "인터넷은행들의 고도화 속도가 매우 빨라 은행들은 우선 핀테크와의 제휴를 확대하고 있다"고 말했다.◆향후 기업대출 확대, 건전성 관리 전략이 성패 갈라다만 은행권은 앞으로가 '진짜'라는 시각이다. 인터넷은행들이 본격적으로 대출 영업을 확대했지만 여전히 진출 분야가 좁다. 주담대의 경우, 카카오뱅크가 최근 '시세 9억원 미만 아파트'라는 제한을 해제했지만 여전히 수도권 소재 아파트에 대해서만 대출을 신청할 수 있다. 기업대출 부문엔 토스뱅크만 진출했다. 그것도 신용 평가에 기반을 둔 개인사업자 대출로 가계대출 성격이 짙다. 은행들은 담보 평가·현장 점검에 더해 '별도 영업'까지 필요한 중소기업·대기업 대출 분야에 인터넷은행이 진출하려면 시간이 필요하다고 본다. 한 시중은행 관계자는 "개인사업자 대출은 사실 가계대출에 가깝다"며 "우량 기업들에 대한 은행들의 대출 심사 기법은 수십년의 현장 경험이 녹아 있다"고 말했다. 그는 "또 기업대출은 특히나 영업이 중요한데, 인터넷은행들은 영업 기반이 없다"고 덧붙였다.중저신용자 대출도 기대에 미치지 못하고 있다. 지난해말 카카오뱅크, 케이뱅크, 토스뱅크의 중저신용자 대출 비중은 각각 17%, 16.6%, 23.9%로 각각 목표치 20.8%, 21.5%, 34.9%에 미치지 못한다. 올해 인터넷은행 3곳이 제시한 목표는 각각 25%, 25%, 42%다. 이들이 올해 최우선 과제를 중저신용자 대출 확대로 잡으면서 공격적으로 영업에 나선 이유다. 하지만 중저신용자 대출 확대는 건전성에 문제를 일으킬 수 있다. 한 인터넷은행 관계자는 "내부적으로 부실 우려가 있는 것이 사실"이라며 "충당금을 더 쌓는 등 주의깊게 살펴보고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.04.15.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>금리 상승 속 막내 '토뱅'의 반란…수신액 맏형 '케뱅' 넘어섰다</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000282363?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>[앵커]인터넷전문은행의 막내 토스뱅크가 출범 6개월 만에 맏형 케이뱅크를 위협하고 있습니다.수신잔액 규모에서 케이뱅크를 넘어섰는데, 향후 업계 지각 변동 가능성이 커졌습니다.최나리 기자의 보도입니다.[기자]지난해 말 13조7천900억원이었던 토스뱅크의 수신잔액이 지난달 18일 17조원까지 확대됐습니다.석 달 만에 3조원 넘게 늘었는데, 33조원대인 업계 1위 카카오뱅크 수신잔액을 절반 넘게 따라잡았습니다.[토스뱅크 관계자 : 토스뱅크 통장 하나만을 운영해 고객 편의성을 강화한 점이 고객들의 발길을 잡은 것 같고요. 연 2% 금리로 시중은행 대비 높은 혜택과 수시입출금이 가능해 활용도가 높은 점에서….]반면 같은 기간 케이뱅크의 수신잔액은 11조 3천억원에서 11조5천억원으로 약 2천억원 느는데 그쳤습니다.지난해 초부터 약 6개월 새 8조원가량 급증했던 것과는 다른 모습입니다.금리인상기를 맞아 '코인 열풍'이 꺾이면서 케이뱅크도 수신 확대 동력을 잃었다는 분석이 나옵니다.[김대종 / 세종대 경영학부 교수 : 우리 대출금리가 내년 7~8%까지 올라갈 것입니다. 수신된 예금이 있어야지 대출도 하기 때문에 둘 다 선순환 구조로 이뤄진다…. 수신이 증가하는 것이 여신도 같이 증가할 수 있기 때문에 (수신규모 확대가) 아주 중요한 역할을 할 것으로 보입니다.]한편에선 토스뱅크의 출범 초기 공격적인 영업과 관련해 자산건전성에 대한 우려도 나옵니다.차별화된 경쟁력과 자산건선성 확보가 향후 인터넷은행업계의 판도변화에 중요한 과제가 될 전망입니다.SBS Biz 최나리입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.04.05.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>"직원들에 테슬라 준다" 만우절 거짓말?…토스, 진짜 쐈다</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004728745?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>금융앱 '토스'를 운영하는 비바리퍼블리카의 이승건 대표가 테슬라 자동차 10대를 공수한 뒤 직원들에게 1년간 무상 대여해주기로 해 그 배경을 놓고 관심이 집중된다. 5일 비바리퍼블리카에 따르면 이승건 대표는 지난 1일 사내 메신저에서 "추첨을 통해 테슬라 자동차 20대를 증여하는 작은 이벤트를 준비했다"고 공지했다. 이 대표는 "늘 몸보다 꿈이 앞선 사람들이라, 다른 데면 편했을 삶을 굳이 여기 와서 사서 고생하는 나의 동지들에 대한 존경과 애정이 늘 있었다. 작년부터 이 마음을 어떻게 표현하는 게 좋을까 생각했다"며 이같이 말했다. 그가 메시지를 올린 시간은 1일 0시다. 직원들은 이 대표의 메시지가 당연히 만우절의 의례적인 거짓말일 것으로 생각했다고 한다. 하지만 지난 4일 오후 테슬라 차량 10대가 서울 역삼동 비바리퍼블리카 본사 앞에 도착하면서 이 대표의 말은 진실로 판명됐다. 다만 20대는 아니었다는 점에서 일부 거짓도 섞여 있었다. 이 대표는 사비를 들여 테슬라 차량을 공수했다. 10대의 차량은 토스, 토스뱅크, 토스증권, 토스페이먼츠 등 계열사에 전달됐다. 대외적인 이벤트가 아니라는 점에서 어떤 직원이 선정되는지 등 구체적인 내용은 공개되지 않았다. 한편 금융감독원 전자공시시스템에 따르면 비바리퍼블리카는 지난해 매출액이 전년대비 100% 증가한 7808억원을 기록했다. 매출액의 상당 부분은 PG사업 계열사인 토스페이먼츠가 견인했다. 영업손실은 725억원에서 2배 이상 확대된 1796억원을 기록했다. 비바리퍼블리카 관계자는 "토스뱅크, 토스증권 등 사업 초기로 인해 아직 영업적자인 상황"이라며 "토스페이먼츠의 경우 영업권 상각(무형자산상각비) 등의 영향으로 지난해까지 영업적자"라고 했다. 그러면서 "현금성 자산은 충분하며 올해 토스뱅크, 토스증권의 영업이 본격 시작되는 단계다. 이에 따라 손익 부문에서 많은 변화가 있을 것으로 기대한다"고 덧붙였다. [머니투데이 스타트업 액셀러레이팅 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.04.14.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>“타다와 토스 시너지..신규가입 늘고 이탈률 개선”</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004820280?sid=105</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>이정행 타다 대표, ‘타다 넥스트’ 출시 기자간담회타다 넥스트 서울 공급량 내년까지 3000대로 확대  [파이낸셜뉴스] 토스(비바리퍼블리카)가 인수한 모빌리티 스타트업인 타다가 ‘타다 넥스트’를 공식 출시했다. 타다 넥스트는 7~9인승 승합차 호출을 중개해주는 서비스다. 타다는 서울지역 내 타다 넥스트 공급량을 연내 1500대에서 2023년 총 3000대까지 확대하겠다는 목표다. 이 과정에서 토스와 타다의 협업 시너지도 극대화될 예정이다.  이정행 타다 대표가 14일 기자간담회를 통해 ‘타다 넥스트’ 모빌리티 경쟁력을 발표하고 있다. 타다 제공 이정행 타다 대표는 14일 기자간담회를 통해 “타다 넥스트는 이용자와 운전자(드라이버)가 모두 만족할 수 있는 모빌리티 서비스로 차별화했다”면서 “호출, 이동, 하차까지 전 과정에서 사소한 불편함을 제거해 매끄러운 이동 경험을 주는 심리스 모빌리티(Seamless Mobility)를 표방한다”고 밝혔다.   타다 넥스트는 최소 5년 이상 무사고 경력을 지닌 고급택시 면허 보유자가 운행한다. 또 각종 전자기기 충전과 와이파이 사용도 가능해 ‘움직이는 업무 공간’ 역할도 한다. 이는 곧 이용자 증가 및 만족도로 이어졌다.   이 대표는 “지난해 11월 말 타다 넥스트 베타 서비스 실시 이후 13만명 이상 신규 가입자를 유치, 현재까지 누적 가입자 수가 210만명에 달한다”면서 “타다 넥스트 고객들의 재탑승률이 회차가 반복될수록 높아지는 경향도 나타났다”고 설명했다. 이어 “5점 만점기준 평균 4.95에 달하는 고객만족도 점수를 기반으로 고객 탑승 수도 늘었다”고 덧붙였다. 3월말 기준 타다 넥스트 하차완료 수(호출해서 하차까지 완료한 횟수)는 전월대비 30% 가까이 증가했다.   타다는 토스와 견고한 파트너십을 바탕으로 택시 시장에서 금융으로 개선이 필요한 부분을 함께 고도화시킬 예정이다. 앞서 토스 운영사 비바리퍼블리카는 지난해 10월 쏘카가 보유한 VCNC(타다 운영사) 지분 60%를 인수했다. 택시시장 규모가 연간 매출액 기준 약 12조원에 달하고 이 중 절반가량이 호출 앱을 통해 이뤄지고 있는 만큼, 토스 결제사업과 타다 모빌리티 서비스 시너지가 높은 상황이다.   타다 노현철 비즈니스 책임자(Head of Biz)는 “토스 강점 중 하나인 간편 결제를 타다 플랫폼과 연동했더니 결제 수단 등록률이 압도적으로 높아졌고 이용자 이탈률도 기존 대비 10배 이상 개선됐다”면서 “타다 신규 가입자 중 20%가 토스를 통해 유입되는 등 양사 서비스 이용자 간 선순환 구조가 자리 잡고 있다”고 강조했다. 이어 “장기적으로는 타다 드라이버 금융 지원 등 모든 가능성을 열어 놓고 토스와 적극 협업할 것”이라고 덧붙였다.   타다는 자회사인 편안한이동과 파트너십을 기반으로 드라이버와 공생 방안을 발굴하고 실행할 계획이다. 이와 관련 ‘타다 파트너 케어 센터’ 구축안도 발표됐다. 타다 파트너 케어 센터는 드라이버 운행 매뉴얼 제공부터 차량 상품화까지 한 번에 가능한 중앙 관리 거점이다.   이 대표는 “모빌리티 플랫폼은 이미 대중화되었기에 이제부터는 서비스 경쟁이라고 생각한다”면서 “타다 넥스트를 통해 비즈니스를 차별화하고 타다 넥스트 서비스가 택시 비즈니스 새로운 이동 기준이 되도록 만들겠다”고 전했다. #토스 #타다 #비바리퍼블리카 #모빌리티 #VCNC</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.04.08.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>MZ세대도 어려운 은행앱... 투자 매력도 떨어진다</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001024715?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>&lt;앵커&gt;요즘은 다들 돈을 보내거나 받을 때 이외에도 예금을 하거나 대출을 받는 경우에도 은행앱을 많이들 이용할 텐데요.앞서 인터뷰에서도 봤지만 시중은행 앱보다 인터넷은행이 편리하고 직관적이라는 이유로 소비자들로부터 큰 호응을 얻고 있습니다.인터넷은행앱을 포함함 핀테크앱의 혁신은 무엇인지, 또 은행앱들은 왜 밀릴 수 밖에 없는 지, 자세한 내용 경제부 전민정 기자와 함께 짚어보겠습니다.&lt;기자&gt;일단 쉽고 편합니다.모든 기능이 직관적이고, 디테일하면서도 꼭 필요한 기능들만 담겨 있는 것이 인터넷은행 앱의 특징입니다.또 기존 시중은행들이 하지 못하거나 안했던 `최초`의 실험들이 소비자들에게는 `혁신적`으로 다가왔다고 할 수 있겠습니다.&lt;앵커&gt;최초의 실험이라 하니 더 궁금한데요. 더 사례를 들어 설명해주실까요.&lt;기자&gt;가장 최근 사례부터 들어볼까요.우선 인터넷전문은행 토스뱅크가 내놓은 `지금 이자받기` 서비스입니다.언제든 돈을 넣었다 뺄 수 있는 예금통장인, 이른바 파킹통장에 돈을 맡겨두면 이자를 하루단위로 정산해 지급하는 `일복리` 효과를 주는 서비스인데요.이 서비스는 앱에서 `지금이자받기` 클릭 한번으로 매월 한번 받던 이자를 매일 받을 수 있어 재미있고 참신하다는 호평을 얻으며 출시 일주일만에 88만여명 고객을 끌어모았습니다.또 다른 인뱅 앱의 혁신서비스를 예로 들어보겠는데요.모바일 앱은 10대들도 많이 쓰지 않습니까. 이 점을 겨냥해 흥행 돌풍을 일으킨 서비스가 바로 카카오뱅크의 선불전자지급 서비스 `카카오뱅크 미니`입니다.앵커는 혹시 초등학교, 중학교때 통장이 있었나요?&lt;앵커&gt;네. 세뱃돈을 저금하려고 만든 적이 있었던 것 같습니다.&lt;기자&gt;통장을 어떻게 만들었나요?&lt;앵커&gt;네 당연히 전 그때 신분증도 없었고 부모님이 함께 가서 만들어주셨죠.&lt;기자&gt;네, 앵커 말대로 기존 시중은행들은 신분증이 발급되지 않은 미성년자들의 경우 부모님과 함께 은행에 가야 통장을 만들 수 있고 거래도 가능한데요.하지만 카카오뱅크 미니는 기존 카카오페이나 네이버페이처럼 이용자가 금액을 충전하는 방식으로, 계좌를 개설하지 않고도 입금과 송금 서비스가 제공합니다.본인 휴대폰으로 얼마든지 이용이 가능하고요. 최대 보유한도가 50만원이기 때문에 사고 위험도 낮다고 합니다.또 카카오뱅크는 미래고객 확보를 위한 묘안도 발휘했는데요.별도의 앱으로 만들지 않고 카카오뱅크 앱에 넣어 10대 고객들이 나중에 자연스럽게 성인이 됐을 때 은행 계좌를 개설할 수 있도록 유도하고 있다고 합니다.이러한 혁신적인 발상의 전환이 가져온 효과는 컸습니다. 가입자 수가 출시 한달만에 50만명, 1년만에 100만명을 돌파한데 이어 지난달 말 기준으로 127만명을 넘어섰습니다.이밖에도 많이들 써보셨을텐데, 가족, 지인과 회비 관리를 손쉽게 할 수 있는 `모임통장` 서비스와 6개월 동안 매주 금액을 높여 적립하는 26주 적금 등도 있는데요.카카오톡과 연계해 편의성을 높인 이들 서비스는 카카오뱅크가 은행의 수익성 효자로 꼽히는 저원가성의 요구불 예금 비중을 높게 유지할 수 있었던 숨은 공신으로도 꼽힙니다.국내 최초 인터넷은행인 케이뱅크의 경우도 마찬가지인데요.케이뱅크는 신용대출과 달리 필요한 서류가 복잡하고, 소유권 이전 등기는 대면이 필수였기에 비대면 전환이 유독 까다로웠던 `주택담보대출`을 은행권에선 처음으로 비대면으로 구현했습니다.이러한 혁신 성과에 힘입어 여러 악재에도 5년여만에 흑자 전환, 750만명의 이용자 수 확보에 성공할 수 있었습니다 .&lt;앵커&gt;그렇다면 이제 은행앱 이야기를 해볼까요. 은행앱은 어렵다, 불편하다는 인식이 큰데, 여전한가요?&lt;기자&gt;최근 시장조사기관 컨슈머인사이트 조사에 따르면요.모바일에 가장 익숙한 세대인 20대가 금융앱 이용에서는 유독 다른 연령대에 비해 `어렵다`는 생각을 하고 있었습니다.20대 3명 중 1명은 금융 앱이 `다른 앱과 달리 한번에 바로 이용하기 어렵다`고 했고 `늘 쓰는 기능만 이용한다`는 응답도 3명 중 2명꼴로 가장 많았습니다.&lt;앵커&gt;왜 그런가요?&lt;기자&gt;2030세대는 디지털 친숙도가 높기 때문에 새로운 앱도 빠르게 받아들일 것이라 생각하지만 은행앱 만큼은 예외였던 겁니다.설문조사 결과를 보니 2030세대는 단 하나의 앱 내에서 다양한 금융기관을 동시에 거래할 수 있는 금융앱을 선호하기 때문에 인터넷은행앱을 포함한 핀테크앱 보다 기존 은행앱에 대한 접근성이 떨어질 수 밖에 없었습니다.또 MZ세대의 은행 앱 활용 범위는 입출금이나 이체, 결제에 한정돼 있을 뿐, 마이데이터와 같은 자산관리 서비스, 보험금 간편 청구, 부동산·자동차 매물 시세 확인과 같은 혁신서비스 활용도는 낮았습니다.실제 5대 시중은행들은 생활금융플랫폼을 지향하며 택배, 음식·꽃배달, 농축산물 공동구매 서비스까지 나서고 있지만 서비스가 모두 비슷비슷해 은행앱별로 차별화는 이뤄지지 않고 있는데요.하나의 앱에 너무 많은 기능들을 담으려다보니 오히려 접근성이 떨어진다는 지적도 있고요.또 참신한 서비스를 내놓기 보다는 인터넷은행들의 서비스를 뒤쫓아가는 모습까지 보이고 있습니다.앞서 언급한 카카오뱅크의 `미니` 서비스가 인기를 끌자 KB국민은행과 신한은행에서도 10대를 겨냥한 비슷한 서비스를 곧바로 내놓은 것이 대표적입니다.상황이 이렇자 시중은행들은 플랫폼 가치 평가 기준인 모바일앱 MAU, 월간활성사용자 수에서도 인터넷은행들에 뒤쳐지는 모습을 보이고 있는데요.모바일 빅데이터 플랫폼 기업 아이지에이웍스의 모바일인덱스 집계를 보면,지난달 기준으로 월간활성사용자(MAU) 수를 살펴보면 카카오뱅크는 약 1,280만명, 토스는 약 1,270만명이었습니다.우리은행 `우리원뱅킹(570만명)`, 하나은행 `하나원큐(500만명), 농협은행 `올원뱅크`(330만명)으로 인터넷은행앱 월 이용자수의 절반 수준에도 미치지 못하고 있는 상황입니다.나머지 은행앱들의 경우는 상황이 더욱 심각합니다.우리은행, 하나은행, 농협은행의 앱은 인터넷은행앱 월 이용자수의 절반 수준에도 미치지 못하고 있는 상황입니다.기존 금융권의 혁신성이 떨어진다는 지적은 뱅킹앱뿐만 아니라 상품과 마케팅에도 이어지는데요.고금리를 내세운 적금상품들이 속속 등장하고 있지만, 대부분 제휴카드를 만들거나 보험에 가입하는 등 까다로운 조건을 채워야 하기 때문입니다.장슬기 기자가 금융권의 고금리 적금상품을 분석해봤습니다.&lt;앵커&gt;인터넷은행들이 이러한 혁신성을 기반으로 성장하면서 인뱅의 주가도 많이 오르지 않았습니까.&lt;기자&gt;네 그렇습니다. 현재 KB금융지주와 카카오뱅크가 금융권 시가총액 1위 자리를 두고 경쟁을 벌이고 있는데요.KB금융이 시총 24조, 카카오뱅크가 21조 수준입니다.카카오뱅크는 지난해 8월 상장 이후 한때 시가총액이 40조 원을 넘어서며 국내 금융주 대장 자리에 오르기도 했죠.지금은 올 초 경영진의 스톡옵션 논란과 함께 실적마저 예상치를 밑돌면서 대장주를 내어준 데 이어 하락세를 보이고 있는 것이 사실입니다.하지만 새 정부가 플랫폼 육성에 대한 강한 의지를 드러내고 대출 규제를 완화할 움직임을 보이며 카카오뱅크는 다시 수혜주로 떠오르고 있는 모습입니다.그동안 금융당국의 대출 총량 규제와 중금리 대출 한도 규제, 금융소비자보호법 때문에 인터넷은행들의 활동에 제약에 있었던 것이 사실인데요.특히 윤석열 대통령 당선인이 기존 시중은행들에 대해 예대금리차 공시제와 같은 금리 규제를 시행할 것을 예고하면서 온라인 서비스에 특화되고 플랫폼 경쟁력을 가진 카카오뱅크의 투자 매력도가 높아지고 있습니다.관련해서 증권가에선 어떻게 보고 있는지 인터뷰를 통해 확인해보겠습니다.[서영수 / 키움증권 이사 : 인터넷은행은 시장 지배력 자체가 워낙 우월적이니깐…그동안 규제가 포텐셜(잠재력)을 막아 (주가가) 못 올랐던 것이기 때문에 규제가 풀려 회사의 장점이 확실히 부각된다면 상황은 달라질 것 같습니다. 오프라인 은행들과 비교해볼 때 성장을 보여주면 시장에서는 어느 정도 환호하지 않을까…][김현기 / 하이투자증권 연구원 : 기존 은행과 차별화된 점이 플랫폼적인 측면으로 밸류에이션(가치평가)이 되고 있기 때문에 앞으로도 비이자, 플랫폼 비즈니스가 성장하면서 고객유입이 지속될 것으로 보고 있습니다. 정부가 바뀌면서 디지털 플랫폼 쪽에 우호적이라면 그부분도 당연히 도움이 될 것이라고는 보고 있습니다.]&lt;앵커&gt;전 기자, 오늘 유튜브 제목과 해시태그는 뭘로 잡았나요?&lt;기자&gt;유튜브 제목은 "MZ세대도 어려워요…혁신 없는 은행앱", 해시태그는 `은행앱, 단순할 수는 없니?`, `금융앱도 재밌어야 혁신` 이렇게 하겠습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.04.06.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>핏소프트, 토스페이먼츠와 업무 제휴</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004729606?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>핏소프트(대표 서청원)가 최근 고객사에 편리한 결제 환경 및 다양한 혜택을 제공하기 위해 토스페이먼츠와 업무 제휴를 체결했다고 6일 밝혔다.이번 업무 제휴에 따라 토스페이먼츠는 전자결제 및 각종 혜택을, 핏소프트는 고객사의 전담 에이전시로서 기술을 제공한다. 특히 토스페이먼츠PG의 고객사는 노션·AWS 크레딧, 광고비 할인, 간편결제 프로모션 무료 예산 등 1000만원 이상의 혜택이 주어진다. 또 플랫폼 제작 시 문제로 꼽히던 수동 정산방식을 토스페이먼츠의 정산대행 서비스로 해결했다는 게 핏소프트의 설명이다.핏소프트 관계자는 "이번 업무 제휴로 파트너와의 동반성장이 가능해졌다"며 "빠르고 원활한 기술 상담도 할 수 있게 됐다"고 말했다. 이어 "고객사의 판매율 증진에도 도움을 줄 것으로 기대한다"고 덧붙였다.한편 핏소프트는 플랫폼 비즈니스 전문 업체다. 컨설팅, 기획, 디자인, 개발까지 턴키 방식으로 플랫폼을 제작한다. 토스페이먼츠는 CS 직영센터를 보유한 PG(전자지급결제대행)사다. 뛰어난 UI·UX(사용자 환경·사용자 경험)로 간편한 결제 프로세스를 갖췄다는 게 핏소프트 측 설명이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.04.05.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>"네이버·카카오도 슬랙으로 소통…2년만에 고객사 1000곳 넘었죠"</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004682180?sid=105</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>정응섭 슬랙 한국지사장메신저에 앱 2500개 연동 "해외선 카톡처럼 일상화"삼성·하이브·야놀자도 활용글로벌 기업용 메신저 서비스 '슬랙' 정응섭 한국지사장이 30일 서울 강남의 한 사무실에서 한국경제신문과 인터뷰 하고 있다. 김범준기자“‘네카라쿠배당토(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스)’라는 신조어가 있죠? 모두 ‘슬랙’을 사용하는 고객사입니다.”글로벌 1위 기업용 메신저 슬랙의 정응섭 한국지사장(사진)은 최근 한국경제신문과의 인터뷰에서 “슬랙의 국내 고객사가 1000곳을 넘어섰다”며 “2020년 초 한국 시장에 진출한 이후 2년여 만에 거둔 성과”라고 말했다.슬랙은 2009년 미국에서 게임업체로 출발했다. 2013년 메신저 서비스를 개발하며 급성장하기 시작했다. 정 지사장은 “우리로 치면 ‘카톡해’처럼 해외에선 ‘슬랙해(Slack me)’라는 말이 보편화됐을 정도로 빠르게 자리를 잡았다”고 설명했다.코로나19는 슬랙에 또 다른 기회가 됐다. 팬데믹(전염병의 대유행)이 심각해진 2020년 2분기 슬랙의 매출은 2억1590만달러(약 2576억1200만원)를 기록했다. 전년 동기 대비 49% 증가했다. 잇따라 글로벌 지사도 세웠다. 한국지사뿐만 아니라 독일, 프랑스 지사를 연이어 설립했다.슬랙은 개발자를 중심으로 입소문을 타면서 인기를 끌었다. 기본 틀은 메신저지만 연동 가능한 앱과 기능이 많은 덕분이다. 개발한 프로그램의 장애 알람 기능 등을 붙여 일종의 ‘관리자 페이지’처럼 사용 가능하다. 현재 슬랙에 연동되는 앱은 2500개에 달한다. 화상회의, 프로젝트 상황 공유, 설문 등 종류도 다양하다.일종의 채팅방인 ‘채널’별로 입장 권한을 부여할 수 있어 개발자, 협력사, 고객사 등이 한데 뭉치면서도 주제별로 다른 대화를 나눌 수 있도록 했다. 슬랙이 차별점으로 내세우는 기능이다.정 지사장은 “국내 대표 고객사로 꼽히는 우아한형제들(배달의민족) 비바리퍼블리카(토스) 등은 개발과 운영, 경영기획 조직의 업무 체계를 통합하기 위해 슬랙을 쓴다”고 말했다. 우아한형제들은 코로나19로 재택근무를 시작하며 슬랙 사용을 확대했다. 도입 1년이 지난 현재 채널 수가 3500개에 이른다. 휴가 신청이나 조직원 근무시간 확인도 슬랙으로 한다. 비바리퍼블리카는 계열사 개발자들이 채널을 만들어 함께 공부하기도 한다. 이 밖에 삼성전자 롯데ON 등 대기업과 방탄소년단(BTS)이 소속된 하이브와 야놀자 등도 슬랙을 업무에 활용하고 있다.슬랙은 모회사 세일즈포스와 연계해 고객을 늘려나간다는 전략이다. 미국 클라우드 컴퓨팅 기업 세일즈포스는 지난해 7월 슬랙을 277억달러에 인수했다. 앞으로 세일즈포스 앱과 슬랙을 연동해 기능을 개선할 계획이다. 인공지능(AI)과 데이터 분석 기술을 기반으로 한 맞춤형 서비스도 추진한다.정 지사장은 “슬랙 본사엔 70여 명 규모의 박사급 데이터 전문가 조직이 있다”며 “기업들에 없어서는 안 되는 ‘컴퓨터 운영체제(OS)’와 같은 솔루션으로 성장할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.04.14.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>부활한 타다... “연내 승합차 대형택시 1500대까지 늘린다”</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003685277?sid=105</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>모빌리티 호출앱 타다가 대형 택시 호출 서비스인 ‘타다 넥스트’를 정식 출시했다. 타다는 현재 400대 수준인 승합차 대형 택시를 올해 1500대까지 늘려 카카오모빌리티의 대형택시 ‘T벤티’와 본격 경쟁한다는 계획이다. 타다의 운영사 VCNC는 14일 온라인 기자간담회를 열고 “올해 서울 지역에 타다 넥스트를 1500대, 내년은 3000대까지 확대하겠다”고 했다.이정행 타다 대표이사가 14일 오전 온라인 기자간담회에서 대형택시 서비스 '타다 넥스트'의 출시를 발표하고 있다. /타다										타다 넥스트는 일명 ‘타다 금지법(여객자동차 운수사업법 개정안)’ 시행으로 2020년 4월 서비스를 종료한 승합차 호출 서비스 ‘타다 베이직’을 개편한 대형택시 호출 서비스다. 7~9인승 승합차를 5년 이상 무사고 경력의 택시 면허를 가진 드라이버가 운전하는 것이다. 타다는 지난해 11월 금융앱 토스에 인수되면서 시범서비스를 시작했고, 그동안 13만명의 이용자를 유치했다. 현재 누적 가입자 수는 210만명이다.타다는 2018년 서비스를 시작하며 ‘승차거부 없는 강제배차’와 ‘말 안거는 친절한 기사’를 업계에 도입했다. 새롭게 출발하는 타다는 이런 경험을 바탕으로 매끄러운 이동경험을 이용자들에게 선사한다는 계획이다. 예컨대 승객이 자주 탑승하거나 하차하는 위치를 앱이 기억해 다음 이용시에 다시 위치를 설정하지 않아도 된다. 또한 즐겨찾는 장소를 미리 입력해두면 단 세 번의 터치로 차량을 호출할 수도 있다. 이정행 타다 대표는 이날 “이용자뿐만 아니라 드라이버(기사)까지 모두가 만족할 수 있는 고품질 모빌리티 서비스로 경쟁하겠다”고 했다.지난달 25일 서울역 앞에서 모빌리티 플랫폼 타다를 통해 대형차를 호출하는 서비스 '타다 넥스트'가 시범운행을 하고 있다. /연합뉴스										타다는 현재 택시기사 구인난을 해결하기 위해 기사 처우를 개선하고 편의 시설을 확충하겠다고 밝혔다. 지난해 12월 설립한 운송 자회사 편안한이동과 파트너십을 기반으로 드라이버와의 공생 방안을 발굴하고, 차량 관리 거점인 파트너 케어 센터를 구축한다는 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.04.14.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>"내년까지 3000대 확보"…승합차 '타다 넥스트', 공식 서비스</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011122688?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]이정행 타다 대표.(사진=타다 제공) 2022.4.14 photo@newsis.com[서울=뉴시스] 박정규 기자 = 7∼9인승 승합차를 기반으로 한 모빌리티 서비스인 타다 넥스트가 공식 서비스를 시작한다. 내년까지 3000대를 운행할 수 있도록 서비스를 확대한다는 계획이다.모빌리티 플랫폼 타다는 14일 오전 온라인 기자간담회를 통해 '타다 넥스트' 공식 출시를 발표하고 이 같은 서비스 계획을 밝혔다.호출 중개 비즈니스 모델인 타다 넥스트는 7∼9인승의 승합차를 기반으로 최소 5년 이상 무사고 경력의 고급택시 면허를 보유한 드라이버가 운행하는 모빌리티 서비스다. 호출부터 이동, 하차까지 전 과정에서 사소한 불편을 제거해 매끄러운 이동 경험을 선사하는 심리스 모빌리티(Seamless Mobility)를 추구하는 서비스다. 어떤 차량을 호출하더라도 표준화된 서비스를 제공하도록 한다는 방침이다.반려동물과 탑승하려는 경우나 늦은 밤 혼자 귀가하는 이용객, 가족 단위 고객 등도 편안하게 이동할 수 있고 각종 전자기기 충전 잭 구비 및 차내 와이파이 지원으로 움직이는 업무공간도 제공 가능하다.타다는 2018년 11인승 승합차를 통해 국내 '승차 호출(Ride Hailing)' 서비스를 처음 선보인 모빌리티 스타트업으로 2년여 만에 200만명의 사용자를 확보하는 등 빠르게 성장했지만 지난해 4월 여객자동차운송사업법 개정으로 기존 서비스를 중단한 바 있다.이후 타다는 가맹택시인 타다 라이트와 준고급 택시 타다 플러스를 운영 중인 가운데 이번에 승합차 기반 타다 넥스트의 공식 서비스를 시작했다.타다 넥스트는 지난해 11월 말 베타서비스 실시 이후 13만명 이상의 신규 가입자를 유치했다. 이로써 현재까지 누적 가입자 수는 210만명에 이른다. 또 타다 넥스트를 경험한 고객들의 재탑승률이 회차가 반복될수록 높아진다는 점과 함께 고객만족도 점수도 5점 만점 기준 평균 4.95에 달했다고 회사 측은 강조했다.이날 타다는 타다 앱의 사용자경험(UX·User Experience)도 선보였다. 앱을 켰을 때 메인 화면에 목적지 입력란만 보이도록 해 사용성을 강화해 최소 3번의 터치로 차량 호출이 가능하도록 했다. 또 자주 탑승·하차하는 위치를 기억해 다음 이용할 때에는 직접 위치를 지정할 필요가 없어졌다. 이 외에 출발지와 목적지 사이에 원하는 곳에 들렀다 갈 수 있는 '사전 경유지 설정', 특정 시간대에 차량을 예약해 이용할 수 있는 '호출 예약 기능'도 선보였다.[서울=뉴시스]모빌리티 플랫폼 타다는 14일 오전 온라인 기자간담회를 통해 7∼9인승 승합차를 기반으로 한 모빌리티 서비스인 '타다 넥스트' 공식 출시를 발표했다.(사진=타다 제공) 2022.4.14 photo@newsis.com타다는 데이터 활용 능력을 기반으로 차량의 운행 효율성을 개선시키겠다는 방침이다. 일반적인 택시의 공차율이 평균 40% 수준에 머무는 점을 감안할 때 데이터를 분석해 미리 수요를 예측하고 플랫폼 호출 최적화를 통해 공차율을 개선할 수 있다는 설명이다.이 같은 운행 효율성 개선을 통해 이용자는 택시 수요가 많은 시간대나 지역에서도 원활하게 배차 받을 수 있고, 드라이버는 배회 시간이 줄어 안정적인 영업 활동이 가능해 서비스를 향상시킬 수 있다고 내다봤다.이용자와 드라이버 모두가 만족할 수 있는 모빌리티 플랫폼이 되기 위한 비즈니스 핵심 이념으로 '퀄리티 라이드 포 올(Quality Ride for All)'도 이날 소개했다. 특히 드라이버들에게는 장기적으로 자회사 '편안한이동'과의 파트너십을 기반으로 공생 방안을 발굴해 실행하기로 했다. 이를 위한 방안으로 드라이버 운행 매뉴얼 제공부터 차량 상품화까지 한 번에 가능한 중앙 관리 거점인 '타다 파트너 케어 센터' 구축 계획을 발표했다.타다는 올해 공급량 확대를 위해 박차를 가한다는 계획이다. 서울지역 내 타다 넥스트 공급량을 올해 안에 1500대, 내년에는 총 3000대까지 확대하겠다는 방침이다.또 모회사인 토스와는 견고한 파트너십을 바탕으로 택시 시장에서 금융 측면의 개선이 필요한 부분을 함께 발굴하고 고도화해나갈 예정이다.이정행 타다 대표는 "쾌적한 여건에서 근무하는 드라이버가 이용자에게 최상의 서비스를 제공하고, 타다의 서비스에 만족한 이용자가 반복해서 타다를 탑승하는 선순환을 만드는 것이 타다의 목표"라고 강조했다.이어 "모빌리티 플랫폼은 이미 대중화됐기에 이제부터는 서비스 경쟁이라고 생각한다"며 "타다 넥스트를 통해 최고 수준의 서비스로 비즈니스를 차별화하고 타다 넥스트의 서비스가 택시 비즈니스의 새로운 이동 기준(TADA NEXT STANDARD)이 되도록 만들겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.04.04.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>마이리얼트립, 대한민국 숙박대전 참가…추가 쿠폰 혜택</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004944433?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>[사진 제공 = 마이리얼트립] 여행 어플리케이션(앱)을 서비스하는 마이리얼트립이 'ESG와 함께하는 2022 대한민국 숙박대전'에 참가한다고 4일 밝혔다. 이 행사는 문화체육관광부와 한국관광공사가 공동으로 주관한다.2022 대한민국 숙박대전 쿠폰은 마이리얼트립 공식 웹사이트나 모바일 앱에서 받을 수 있다. 이달 7일부터 내달 8일까지 발급받아 6월 6일까지 입실하는 조건이다. 국내 호텔, 펜션, 풀빌라 등을 예약할 수 있다. 숙박쿠폰은 7만원 초과시 3만원권, 7만원 이하는 2만원권으로 구분된다. 마이리얼트립은 4일부터 대한민국 숙박대전 쿠폰 알림을 받는 사전 예약 서비스를 실시한다.마이리얼트립은 알림 이벤트에 참여한 고객을 대상으로 추첨을 통해 3명에게 시그니엘 서울 무료 숙박권을 지급한다. 1000명에게는 중복 사용이 가능한 마이리얼트립 1만원 포인트를 증정한다. 또 2022 대한민국 숙박대전 쿠폰을 발급받은 고객 모두에게 총 7만5000원 상당의 숙박 쿠폰팩을 준다. 쿠폰 사용 고객 중 10명을 추첨해 100만원 여행 포인트를 제공한다. 쿠폰 사용시 토스페이를 통해 7만원 이상 결제한 고객 선착순 3000명에게는 추가로 5%를 할인해준다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.04.07.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>증권 3인방 '8조 잭팟' 터졌다…어떤 회사 투자했길래</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004683263?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>한투·한화·미래에셋證 벤처 투자로 8조 잭팟한화 2조·미래에셋증권 1조한국투자는 5조 차익 올려사진=게티이미지뱅크벤처기업에 투자해 수조원의 수익을 거둔 증권사들이 주목받고 있다. 한국투자증권의 모회사인 한국금융지주가 카카오뱅크에 투자해 5조원에 육박하는 수익을 올린 게 대표 사례다. 한화투자증권이 두나무와 토스뱅크에 투자해 2조원에 이르는 평가차익을 내고 있는 것도 성공 사례로 꼽힌다.7일 증권업계에 따르면 한국금융지주는 카카오뱅크 지분 27.31%를 보유하고 있다. 카카오에 이은 2대 주주다. 직접 보유한 지분이 4.01%(1만9050주), 손자회사인 한국투자밸류자산운용을 통해 보유한 지분이 23.3%(1억1048만 주)다.한국금융지주는 2016년 처음으로 카카오뱅크에 1740억원을 출자했다. 이후 2017년 2900억원, 2018년 1860억원, 2020년 1676억원 등 세 차례에 걸쳐 유상증자에 참여했다. 쏟아부은 투자액만 총 8176억원에 달한다.카카오뱅크 시가총액이 22조9739억원(전날 기준)이라는 점을 고려하면 한국금융지주의 지분가치는 5조3428억원이다. 한국금융지주 시가총액(4조2518억원)을 넘어선다. 카카오뱅크 투자로 얻은 평가차익은 4조5000억원이 넘는다.한화투자증권도 암호화폐거래소 업비트 운영사인 두나무에 투자해 1조원에 가까운 수익을 올렸다. 작년 2월 두나무 지분 6.14%(206만9450주)를 582억원을 들여 샀다.현재 장외시장에서 두나무의 시가총액은 15조4975억원이다. 비트코인 가격이 급등하면서 업비트 기업가치가 15배나 뛰었다. 한화투자증권의 두나무 지분가치도 9260억원으로 덩달아 불어났다. 한화투자증권 시총(1조748억원)과 맞먹는 규모다.한화투자증권은 2020년부터 디지털 강화 전략의 일환으로 핀테크 기업 지분을 잇달아 매입하고 있다. 핀테크 투자를 전담하는 디지털전략실까지 두고 있다.한화투자증권은 토스뱅크 지분도 10%(1100만 주) 보유하고 있다. 2020년 지분 7.5%를 75억원에 매입한 이후 작년 4분기 475억원을 추가로 투자했다. 토스뱅크의 별도 기업가치는 발표되지 않았지만 적어도 5조원 이상일 것으로 업계는 보고 있다.미래에셋증권도 네이버에 투자해 재미를 봤다. 미래에셋증권은 2017년 네이버와 전략적 제휴 등의 목적으로 5000억원 규모의 지분을 맞교환했다. 당시 미래에셋증권이 받은 네이버 주식은 281만5315주(지분율 1.72%)다. 코로나19 이후 네이버 주가가 급등하면서 지분가치도 9290억원으로 불어났다. 평가차익만 4300억원에 달한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.04.12.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>[특징주] 이월드, 토스 몸값 최대 '15조' 전망… 국내 최초 '데카콘' 반열에 강세</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000802928?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>간편금융플랫폼 토스와 토스뱅크, 토스증권 등을 운영하는 비바퍼블리카(토스)가 국내에서 처음으로 '데카콘' 반열에 올라설 것으로 예상되면서 이월드의 주가가 강세다. 이월드는 계열사 이랜드가 토스뱅크 지분 7.5%를 보유하고 있는 것으로 알려지며 토스 관련주로 포함됐다./사진=이미지투데이 간편금융플랫폼 토스와 토스뱅크, 토스증권 등을 운영하는 비바퍼블리카(토스)가 국내에서 처음으로 '데카콘' 반열에 올라설 것으로 예상되면서 이월드의 주가가 강세다. 이월드는 계열사 이랜드가 토스뱅크 지분 7.5%를 보유하고 있는 것으로 알려지며 토스 관련주로 포함됐다. 12일 오후 1시21분 이월드는 전거래일대비 100원(4.12%) 오른 2525원에 거래되고 있다.토스는 2분기 내에 '시리즈G'(프리IPO, 상장전 지분투자) 투자유치를 마무리할 계획이다. 이번 프리IPO에서는 토스의 기업가치가 보수적으로 평가해도 10조원에서 15조원 정도로 책정될 예정이어서 국내에서 실질적인 첫 '데카콘'이 탄생할 전망이다.투자은행(IB)업계 등에 따르면 토스는 현재 프리IPO 자문사로 모건스탠리와 크레디트스위스를 선정해 적극적으로 투자자들과 만나고 있다. 투자규모는 특정하지 않았다. 다만 지난해 6월 '프리G'(시리즈G 실시 전 사전 투자유치 형식) 유치 당시 총 4620억원을 유치하며 기업가치 8조2780억원을 인정받았던 것에 비춰볼 때 이번엔 최소 5000억원에서 최대 1조원 규모의 자금 유치가 가능할 것으로 업계는 보고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.04.14.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>[스타트업을 흔드는 사람들] ⑥김창규 다올인베스트 대표 “중국 줄이고 인도·동남아 투자 늘린다...코인 환전 기술 주목”</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000806379?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>1994년부터 한 자리 지킨 다올인베 ‘산 증인’토스 투자, 지분 가치 최고 100배 올라탈중앙화 웹3.0이 화두…NFT 눈여겨보라”코인 환전, 에어택시가 차세대 먹거리”        다올인베스트먼트는 투자은행(IB) 업계 관계자들에게 생소한 이름이다. 국내 5위권 벤처캐피털(VC)인 KTB네트워크의 새 사명으로, 지난 달 모회사인 다올투자증권(옛 KTB투자증권)과 함께 간판을 바꿔 달았다.다올인베스트먼트의 뿌리는 1981년 정부 주도로 설립된 공기업 한국기술개발이다. 국내 최초의 VC인 셈이다. 1992년에는 한국종합기술금융으로 재편됐고, 1999년 권성문 전 회장이 인수한 후 민영화돼 KTB네트워크로 사명을 변경했다.김창규 다올인베스트먼트 대표이사 사장. /다올인베스트먼트 제공        현재 다올인베스트먼트를 이끌고 있는 김창규 대표는 회사가 아직 공기업이던 1994년 합류해 역사를 함께 한 산 증인이다. 이른바 ‘KTB 오비(OB)’로 불리는 안상준 코오롱인베스트먼트 대표, 박희덕 트랜스링크인베스트먼트 대표, 정성인 프리미어파트너스 대표 등이 회사를 떠난 동안 한자리에서 약 30년을 근무해왔다. 지난해에는 부사장에서 사장으로 승진하며 운용 자산(AUM)이 1조2000억원에 달하는 대형 VC의 수장이 됐다.김 대표는 “벤처캐피털리스트는 훈수는 잘 둬도 사업가는 절대 못 된다”고 말하는 천생 투자가다. 400개 넘는 포트폴리오를 꿰고 있으며, 끝없이 신산업과 신기술을 직접 공부한다. 지난 7일, 경기 분당 판교의 다올인베스트먼트 사무실에서 김 대표를 만나 올해 스타트업 시장의 전망과 VC의 새 먹거리 등을 물었다. 다음은 일문일답.지난해 투자 실적을 간략히 소개한다면.“벤처 펀드를 통해 1810억원을 신규 투자했고, 그 중 약 20%인 385억원이 해외 기업에 투자됐다. 회수 금액은 2864억원이었다. 투자원금 557억원에 대한 회수금이다.특히 ‘배달의 민족’을 운영하는 우아한형제들의 엑시트(투자금 회수) 성적이 좋았다. 앞서 2019년 우아한형제들이 독일 딜리버리히어로에 인수될 당시 절반은 현금으로, 나머지 절반은 딜리버리히어로 주식으로 회수했는데, 그 때 받았던 딜리버리히어로 주식을 작년 3월에야 완전히 청산했다. 투자원금은 총 23억원이었고, 약 30배의 수익을 냈다.반도체 검사 장비 업체 넥스틴도 작년 회수 실적에 크게 기여했다. 이 회사는 재작년 상장했고, 지난해 보유 지분을 팔아 14배를 회수하는데 성공했다. 그 외에 산업용 로봇을 만드는 레인보우로보틱스를 통해서도 투자금의 4~5배를 회수했다. 아직 팔지는 않았지만, 홍콩 증시에 상장한 바이오 기업 칼스젠에도 1500만달러를 투자해 작년 말 기준으로 지분 가치가 약 10배 올랐다.”‘토스’의 운영사 비바리퍼블리카에도 초기에 투자하지 않았나.“4~5번에 걸쳐 112억원을 투자했다. 최초로 투자했을 때 기업 가치가 700억~800억원 정도 됐으니, 이를 기준으로 단순 계산하면 (희석을 고려하지 않고) 지분 가치가 100배 가까이 올랐다.”요즘 어떤 산업을 특히 관심 갖고 지켜보나.“지난해까지는 기업과 소비자 간 거래(B2C) 이커머스(전자상거래)와 엔터테인먼트, 바이오 산업에 많이 투자했다면, 올해의 화두는 메타버스(가상세계)와 NFT(대체불가능토큰·Non-Fungible Token) 등이다. 특히 저뿐 아니라 최근 젊은 펀드 매니저들도 메타버스에 관심이 많다. 가장 좋아하는 투자의 키워드가 뭐냐고 물으면 대부분 메타버스라고 답한다.”가상자산 생태계에서 특히 메타버스와 NFT가 중요한 이유는 무엇일까.“요즘은 ‘가상자산(Cryptocurrency)’ 대신 ‘디지털 에셋(자산)’이라는 용어를 사용한다. 디지털 에셋에서 가장 중요한 키워드는 ‘탈중앙화’와 ‘웹3.0′이다. 플랫폼을 중심으로 중앙화된 시스템이 웹2.0이었다면, 웹3.0에서는 개인이 블록체인 기술을 토대로 데이터를 직접 소유하고 수익화한다. 디파이(Defi·탈중앙화 금융 서비스) 코인이 웹3.0의 대표적인 예라고 할 수 있다.NFT는 웹3.0 시스템에서 개인이 디지털 자산을 교환할 수 있는 유일한 매개이자 화폐다. 우리나라는 위메이드(112040) 등 기업들이 적극적으로 나서 NFT 시장 발전을 위해 노력 중이다. 아직까지는 과세를 어떻게 할지에 대해 명확히 정해지지 않지만, 지금 젊은 세대를 중심으로 NFT에 대한 관심이 워낙 높은 만큼 규제 완화는 불가피한 흐름이라고 본다.”김 대표가 언급한 대로 정부 부처간 NFT 과세를 놓고 의견이 갈린다. 지난해 기획재정부는 NFT가 과세 대상이 아니라고 본 반면 금융위원회는 과세가 가능하다고 밝혔다.분산과 탈중앙화가 디지털 에셋의 키워드라면, 그 안에서 VC가 투자할 만한 분야는.“서로 다른 코인을 교환해 환전할 수 있는 ‘크로스체인’을 눈여겨보고 있다. 아직 누가 1등이 될 지 알 수 없는, 덜 성숙한 시장이라 매력이 크다. 현재 이 분야에서 가장 앞서나가는 업체가 인도 스타트업 폴리곤이다. 현재 기업가치가 14조~15조원에 육박하는 것으로 알고 있다.폴리곤에 투자는 하지 못했다. 그러나 풀리곤과는 협업해서 함께 다른 회사에 투자하는 방안을 검토 중이다. 블록체인 경제를 활성화하려면 거래량을 많이 늘려야 하는데, 그러기 위해선 게임 등 여러 애플리케이션(앱)에 블록체인 기술을 도입해야 한다. 현재 게임이나 앱 등에 블록체인 기술을 활용하는 회사에 폴리곤과 함께 투자하는 방안을 검토하고 있다. 그 외에 국내에서 크로스체인 거래소를 만드는 스타트업에도 진지하게 투자를 검토 중이다. 어딘지는 말해줄 수 없다. 여러 곳에서 검토 중이라는 소문이 나면 우리가 투자할 기회가 없어질 수도 있으니까(웃음).”비트코인, 이더리움, 도지코인, 리플 등을 형상화한 이미지. 김창규 다올인베스트먼트 대표는 이종 코인 간 교환을 매개하는 플랫폼을 유망하게 보고 있다. /로이터·연합뉴스 디지털 에셋 외에 또 관심 있는 산업은.“모빌리티 관련 산업에 관심이 많다. 우리는 이미 포티투닷(현대·기아차가 초기부터 투자한 자율주행 스타트업으로, 송창현 현대차 사장이 대표이사를 맡고 있다.)의 첫 기관투자자로서 지분을 투자했고, 미국의 에어택시(도심항공모빌리티) 스타트업 조비에비에이션에도 3년 전에 투자했다.”조비에비에이션에 투자하게 된 계기는.“지금 전세계에서는 매년 100개가 넘는 유니콘(기업 가치가 1조원 이상인 비상장사)이 나오고 있다. 그 중 가장 많은 유니콘을 배출하는 나라가 미국과 중국이다. 두 나라의 유니콘은 성격이 다른데, 중국에서는 10개 중 8개가 이커머스 등 플랫폼 기업이다. 내수 시장이 워낙 커 엄청난 수요가 뒷받침되기 때문이다. 반면 기술력을 기반으로 한 유니콘 기업은 대부분 미국에서 나온다. 미국은 유니콘 10개 중 6개가 기술 기업이다.모빌리티 산업을 살펴보다 에어택시가 유망하다고 느꼈고, 기술력이 가장 앞선 미국 스타트업들 중 조비에비에이션을 찾아내 투자하게 됐다. 우리가 미국 법인을 운영하고 있어 좋은 회사를 빨리 알아보고 투자할 수 있었다. 다만 스팩(SPAC·기업인수목적회사)과 합병된 후 주가가 많이 오르지 않아 아직 엑시트(투자금 회수)할 만한 시기는 아니다.뉴욕 존F 케네디국제공항에서 맨해튼까지 에어택시로 이동하면 시간은 25분 밖에 걸리지 않으며, 전기로 운행하기 때문에 비용도 저렴하다. 현재 도요타가 조비에비에이션의 주요 투자자인데, 빠르면 내년이나 내후년부터 서비스를 시작한다. 서비스가 본격적으로 시작되면 기업 가치도 자연스럽게 오를 것이라 믿는다. 아직까지는 눈에 보이는 게 별로 없지 않나.”에어택시는 혁신적인 기술인데, 그만큼 규제와의 충돌도 불가피하지 않나.“미 항공당국인 연방항공청(FAA)의 정책 규제를 받는다. 에어택시가 도심 빌딩 꼭대기에 설치된 터미널에서 운항하는데, 주변에 장애물이 없어야 한다는 등 엄격한 법적 제한이 있다. 미국뿐 아니라 우리나라에서도 이와 관련된 규제를 정비하고 있는 것으로 안다.”기존 제도권의 규제를 받아온 많은 스타트업들이 제약만 해소되면 기업 가치가 수십, 수백배로 오르는 사례가 많다. 핀테크 업체인 토스가 대표적인 예다. 아직 규제의 대상이 되고 있는 스타트업에 투자한다면 높은 수익률을 기록할 수 있을 것 같은데, 이에 대해 어떻게 생각하는지.“꼭 그렇지만은 않다. 사용자의 수를 보고 판단해야 한다. 아주 많은 사람이 사용해야만 규제를 풀 명분도 생기기 때문이다. 이용자도 많지 않고 편하지도 않은 서비스는 규제를 풀어줄 리가 없다.”올해 스타트업 시장에 대해 어떻게 보는지. 전세계적으로 긴축 정책이 본격화하며 비상장 시장의 투자 심리도 약해지지 않겠나.“매크로(거시) 환경이 제일 중요할 것 같다. 연방준비제도(Fed·연준)가 한 마디 할 때마다 증시가 휘청거린다. 우리도 올해는 좀 보수적으로 투자해야 한다는 얘기를 많이 한다. 그러나 2000년대 초반 IT 버블이 터졌을 때도 수많은 인터넷 기업들이 사라져갔지만 결코 ‘섹터’ 자체는 사라지지 않았다. 각 섹터의 1~2등 기업은 모두 살아 남아 나머지 회사들의 멀티플(기업 밸류에이션을 산정하는 배수)을 가져가지 않았나.”이런 시기에 VC는 어떤 전략으로 투자해야 하나.“이럴 때일수록 초심으로 투자해야 하고, 후기 투자보다는 씨드(seed)부터 시리즈A까지 초기 투자에 집중해야 한다. 시리즈B까지는 투자해도 되겠지만 그보다 뒷단은 될 수 있으면 투자하지 않는 게 좋을 것 같다. 변동성이 큰 시장에서는 초기 스타트업에 투자해야 실패할 확률이 낮아진다. 뛰어난 창업자와 기술만 있다면 얼마든지 버틸 수 있다. VC의 본질은 초기 투자자다. 두번, 세번, 다섯번이고 스타트업이 성공할 때까지 밀어주는 게 VC 본연의 역할이다.또 흑자를 낼 수 있는 회사를 빨리 알아보고 투자할 필요가 있다. 이익을 창출하지 못하고 계속 외부 자금만 받아 규모를 확장하는 사업 모델은 바람직하지 못하다고 본다. 소비자만 이익을 보는 구조며, 회사는 비용만 과도하게 많이 쓸뿐이다.실제로 올해 대부분의 이커머스 플랫폼 업체들이 흑자 전환을 최우선 목표로 삼고 있다. 쿠팡도 딜리버리, 온라인동영상서비스(OTT) 등 사업 분야를 확장하고 있지만 이 모든 것이 제대로 인정 받으려면 본업에서 흑자를 내야 한다. 많은 투자자들이 ‘옥석 가리기’에 나설 것이다.”토스 서비스를 이용하는 모습. /비바리퍼블리카 제공 다올인베스트먼트에서 투자한 토스도 흑자를 내야 하지 않겠나. 핀테크가 흑자 전환하기 위해서는 어디에 집중해야 할까.“일단 이용자 수를 충분히 확보해야 하고, 토스처럼 충분한 이용자를 모았다면 이제는 광고비 등 비용을 줄이고 효율화에 나서야 한다. 토스는 성장 지표가 굉장히 좋은데 증권과 뱅크 등 신사업 때문에 연결 기준으로 손실이 많이 나는 상태다. 점차 손실을 줄여나갈 수 있을 것이다.”요즘 많은 바이오 스타트업들이 한국거래소의 상장 심사를 통과하지 못하고 있다. 이에 대해 어떻게 보는지.“상장한 바이오 기업 중 많은 회사들이 좋은 성적을 내지 못하니, 거래소 입장에서도 투자자를 보호하기 위해 수급 조절에 나선 것 같다. 이른바 ‘소부장’으로 불리는 소재·부품·장비 기업에는 문을 열어주고 바이오 스타트업의 상장 심사 기준은 많이 강화한 것으로 보인다. 바이오 기업의 수급 조절 차원에서는 어느 정도 필요한 방책이라고 생각한다.”VC 입장에서는 바이오 스타트업에 대한 투자를 어떻게 해야 할까. 줄이는 게 맞을까.“투자는 계속 해야 한다. VC가 투자를 줄이는 건 재고자산을 줄이는 일이다. 다만, 우리도 심사를 강화해야 한다. 라이선스아웃(기술이전) 가능성이 더 큰 회사를 위주로 엄격하게 심사해야 한다. 또 지금처럼 바이오 스타트업의 기업가치가 전반적으로 조정 받을 때 투자하는 것이 VC 입장에는 좋은 기회가 될 수 있다.”그 외에 투자할 때 특히 고려하는 점이 있다면.“해당 기업에 어떤 VC들이 투자했는지, 혹은 우리와 함께 투자하는 VC가 어떤 곳인지 늘 신경써서 살펴본다. 우리와 같은 투자 철학을 갖고 있으며 시너지를 낼 수 있는 VC가 투자한 스타트업이라면, 긍정적으로 보는 경우가 많다. 그래야만 후속 투자를 결정할 때도 수월하게 합의할 수 있다.”다올인베스트먼트만의 강점은 무엇일까.“우리 회사는 이직률이 매우 낮고 심사역의 근속 연수가 경쟁사들에 비해 매우 높다. 그만큼 투자 성과가 좋으니 받을 성과보수가 많아 회사에 오래 다니는 것이라고 생각한다. 또 다른 강점은 해외에 진출한지 오래 됐다는 것이다. 미국에 진출한 지는 30년, 중국에 진출한 지는 15년이 됐다. 지금은 중국 비중을 줄이고 동남아시아 시장에 많이 투자하고 있어, 세계 시장이 어떻게 돌아가는지 실시간으로 파악할 수 있다.역으로 한국 시장에서 성공한 사업모델을 참고해 해외 스타트업에 투자한 사례도 있다. 일례로 메가스터디가 국내에서 성공한 뒤, 중국 쉐얼쓰에듀에 투자해 미 뉴욕 증시에 상장시켜 4.3배의 수익을 올렸다.”중국 투자는 계속 활발히 하고 있는지.“중국은 미국과 패권 경쟁을 계속 하고 있는 등 투자 여건이 좋지 않은 상황이다. 중국 차량 공유 업체 디디추싱만 해도 나스닥에서 자진 상장폐지해버리지 않았나. 원래는 해외 투자금 가운데 중국 비중이 50%를 넘었는데, 이제는 10~20%수준까지 줄었다. 그 대신 인도와 동남아시아 스타트업에 많이 투자하고 있다.”인도 스타트업 시장은 어떤가. 중국으로 흘러들어가던 자본이 대신 인도로 유입돼 반사이익을 얻고 있나.“반사이익이 있는 건 맞다. 재밌는 건 그동안 인도에 가장 많이 투자한 회사가 바이두와 텐센트, 알리바바 등 중국 기업들이라는 것이다. 그런데 인도와 중국 간 사이가 나빠지자 중국계 자금 유입이 대폭 감소했고, ‘차이나 머니’가 빠진 자리에 우리 같은 한국계 VC가 들어갈 수 있게 됐다. 요즘 인도 스타트업들은 한국 VC들을 상대로 투자 유치를 하러 다닌다.”인도 스타트업 중에는 어떤 회사들이 가장 각광 받는지.“앞에서 얘기했듯 디지털 에셋 분야도 발달했고, 중국처럼 내수 시장이 워낙 크기 때문에 이커머스 사업도 잘 되고 있다. 배달의민족과 비슷한 ‘조마토’라는 플랫폼이 대표적인 예다. 우리는 조마토에 인수된 식료품 배달 업체 그로퍼스에 투자했다.”동남아시아 시장은 어떤가.“인도네시아가 단연 앞선다. 우리도 최근 2개 회사에 투자했다. 한 곳은 온라인 가구 커머스 업체 데코르마, 또 한 곳은 에듀테크 업체 코런이다.”다올인베스트먼트의 올해 목표는.“최대 3000억원 규모의 신규 펀드를 결성 중이다. 1500억원은 상반기 중 모을 수 있을 것 같다. 빠르면 내년, 늦으면 내후년까지 AUM을 2조원으로 만드는 게 목표다.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.04.03.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>“지금 사고, 결제는 나중에”…네·카·토 뛰어든 외상 서비스</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003682767?sid=102</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>선구매·후결제 서비스 잇따라 출시한 빅테크서비스 확대로 국내 결제 시장 판도 바꿀까모바일 금융 플랫폼 토스가 후불결제(BNPL· Buy Now Pay Later) 서비스를 시작한다. BNPL은 지금 사고 나중에 결제하는 선구매·후지불 방식이다. 2021년 서비스를 시작한 네이버파이낸셜과 카카오페이에 이어 국내에서 세 번째다. 네이버와 카카오, 토스 등 빅테크사들이 잇달아 BNPL 서비스를 선보이면서 국내 결제 시장의 지각 변동을 예고하고 있다.네이버와 카카오에 이어 토스가 BNPL(Buy Now Pay Later) 서비스를 시작하면서 국내 결제 시장에 지각 변동이 예고되고 있다. /토스 ◇외상의 귀환BNPL은 물건을 구매한 뒤 나중에 현금으로 지불하는 방식이다. 쉬운 말로 외상이다. 소비자가 BNPL 방식으로 결제하면 결제 업체는 소비자를 대신해 가맹점에 먼저 대금을 전액 지불한다. 소비자는 여러 차례에 걸쳐 BNPL 결제 업체에 돈을 갚으면 된다.언뜻 들으면 ‘신용카드와 뭐가 다른데?’라고 생각할 수 있다. 그러나 큰 차이가 있다. BNPL은 소비자 신용등급을 따지지 않는다. 발급과 한도 설정을 위해 까다로운 신용 조건을 요구하는 신용카드와 달리 만 19세 이상이면 누구나 쓸 수 있다. 신용카드사는 금융정보(소득, 신용점수 등)를 중심으로 결제한도를 부여한다. 반면 BNPL사는 금융정보 외에 비금융정보 등을 활용한 대안신용평가를 통해 결제한도를 부여한다. 금융정보가 부족한 청년·주부 등 씬파일러(Thin Filer·금융 이력 부족자)들이 BNPL을 이용할 수 있는 것도 이 때문이다.또 신용카드로 할부 서비스를 이용하면 꽤 높은 할부 수수료가 붙지만, BNPL은 수수료가 없다. BNPL 업체는 대신 가맹점에서 높은 수수료를 받아 수익을 챙긴다. 보통 신용카드 가맹점 수수료가 2~3%라면 BNPL 업체들은 가맹점 수수료를 5~6%까지 받는다.아직까지 국내에서 BNPL은 소액 후불결제로만 허용되고 있지만 향후 잠재력은 높다는 평가다. 뱅크오브아메리카(BOA)는 BNPL 시장 규모가 오는 2025년까지 1조달러까지 성장할 것으로 전망하기도 했다. 특히 돈은 없지만 구매 욕구는 강한 MZ세대(밀레니얼+Z세대) 소비자를 사로잡고 있다. ◇해외에선 이미 활성화, 국내 출시 잇따라BNPL은 2005년 스웨덴에서 처음 도입됐다. 코로나19가 지구촌 전역으로 확산됨에 따라 전자상거래 시장이 커지면서 BNPL 시장도 성장했다. 특히 현금·직불형 카드의 이용 비중이 높은 스웨덴, 독일, 호주 등을 중심으로 BNPL 시장이 확대되고 있다. 대표 기업으로는 스웨덴의 클라르나(Klarna), 호주의 애프터페이(Afterpay), 미국의 어펌(affirm) 등이 있다. 클라르나는 2005년에 대학원생이 설립한 기업으로, BNPL 서비스를 최초로 도입했다. 유럽의 최대 BNPL사로 17개국에 진출했고, 고객 9000만명과 가맹점 25만 개를 보유하고 있다. 애프터페이는 2015년 호주에서 스타트업으로 설립돼 호주 1위 BNPL사로 성장했다.BNPL 서비스를 처음 시작한 클라르나(Klarna)를 시작으로 이미 해외에선 BNPL 서비스가 활성화되고 있다. /클라르나 국내에서는 네이버페이가 2021년 금융규제 샌드박스를 통해 네이버페이 계정에 잔액(선불충전금)이 부족해도 소비자가 상품을 우선 구매하고, 결제대금은 나중에 지불할 수 있는 ‘네이버 후불 결제 서비스’를 출시했다. 네이버쇼핑의 스마트스토어 등에서 주문 시 이 서비스를 이용토록 했으며 네이버페이 포인트 1% 적립 혜택도 제공하고 있다. 이러한 결제서비스가 가능해진 이유는 네이버페이와 같은 선불업자도 후불결제 업무가 가능하도록 금융위원회가 특례를 부여했기 때문이다. 금융위는 2021년 2월 혁신금융서비스로 네이버페이 후불결제서비스를 지정했다. 2021년 4월 BNPL을 선보인 네이버파이낸셜은 8개월 만에 가입자 27만명, 거래금액 330억원을 돌파했다. 카카오페이는 2022년 1월말 BNPL을 정식 출시한 후 고객 범위를 넓혀가고 있다. 2022년 상반기에는 후불결제가 가능한 모바일 교통카드(한도 월 15만원)를 출시할 예정이다. 이 서비스를 이용하면, 선불충전금이 부족해도 후불결제 방식으로 대중교통을 이용할 수 있다.도입시기는 미정이지만 NHN페이코가 신한은행과 업무협약을 체결해 은행권 최초로 BNPL 서비스를 출시할 예정이다. 페이코와 신한은행은 MZ세대와 제휴 가맹점주를 위한 특화 금융상품을 공동 개발하고, 페이코 플랫폼에서 신한은행의 사업자대출과 전세대출 한도조회가 가능하도록 서비스를 확대할 계획이다.◇수익∙고객 확보 이점 크지만 활성화 한계도빅테크들이 잇달아 BNPL 시장에 진출하는 건 수익구조와 서비스 측면에서 얻는 게 많아서다. 먼저, 신용카드 수수료 절감이다. 후불결제는 플랫폼에서 송금·이체방식으로 결제되므로, 기존처럼 신용카드사에 지급하는 수수료가 없다. 고은아 하나금융경영연구소 수석연구원은 ‘MZ세대를 공략한 후불결제(BNPL) 서비스의 부상’이란 보고서에서 “금융 플랫폼에서 후불결제 서비스를 제공하는 경우, 결제액의 약 3%에 해당하는 카드사 수수료를 지불하지 않아도 돼 금융 플랫폼 페이사 입장에서 수익구조가 유리한 편”이라고 진단했다.BNPL 서비스를 도입하는 기업이 늘고 있지만 한도가 낮고 규제도 많아 국내 시장에서 활성화되기엔 한계가 있다는 지적도 나온다. /조선DB 또 신용점수가 낮은 씬파일러나 돈은 없지만 구매욕이 높은 MZ세대 등 새로운 고객을 유치할 수 있다. 결제 후 고객에게 지급되는 페이백 포인트는 결제 시에만 사용할 수 있어, 고객 이탈을 막는 락인 효과(Lock-in Effect)도 얻을 수 있다. 플랫폼 안에서 일어나는 자금 선순환도 가능하다.다만 전문가들은 국내는 해외와 달리 신용카드 무이자 할부 서비스, 휴대폰 소액결제 등 후불결제 수단이 발달돼 있고 소득이 있는 MZ세대는 이미 소액신용거래가 가능해 BNPL 시장 활성화까지는 제약이 있다고 설명했다.무엇보다 국내 후불결제 서비스는 해외처럼 분할 납부 기능이 없고 한도가 월 15만∼30만원으로 적다는 점이 한계로 꼽힌다. 여기에다 관련 규제도 명확히 정비돼 있지 않아 금융위원회의 ‘혁신금융 서비스’로 지정을 받아야만 서비스가 가능하다. 또 소득이나 신용점수가 낮은 씬파일러에게 신용공여를 한다는 거래 특성상 연체관리 문제가 발생할 수 있기 때문에 빅테크들이 보완해 나가야 할 점들도 많다.☞규제 샌드박스 : 기업들이 신기술을 활용해 혁신사업을 추진하다 규제에 가로막히는 경우, 규제를 한시적으로 유예해 시장 테스트 기회를 부여하고 사업의 안정성과 유효성을 검증할 수 있도록 해주는 것이다. ☞락인 효과(Lock-in Effect) : 특정 상품이나 서비스를 이용하기 시작하면 기존의 것을 계속 구매하게 되는 현상을 말한다. 락인 효과는 해당 상품에 익숙해지거나 기존 선택을 바꿀 때 발생하는 전환 비용이 클 때 나타난다. 또한 카카오톡처럼 남들이 다 써서 나도 쓸 수밖에 없는 상황일 때 생긴다. 고객을 가둔다는 의미로 ‘자물쇠 효과’, ‘잠금 효과’라고도 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.04.04.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>IBK기업은행도 전자서명인증 사업 검토…은행권 사설인증 사업 봇물</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002122079?sid=105</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] IBK기업은행이 전자서명인증사업 진출 검토에 나선다. 기업은행이 전자서명인증사업에 진출하면 은행권에선 이미 시스템을 구축한 KB국민은행, 신한은행, 하나은행외에 현재 사업을 진행 중인 우리은행, 농협은행에 이어 전방위적인 은행권의 인증시장 참여가 진행될 것으로 보인다. 전자서명인증사업은 전자서명인증서비스 안정성, 신뢰성을 확보하고 다양하고 편리한 전자서명선택권 보장을 위해 도입된 ‘전자서명인증사업자’ 인정지위를 취득하고, 인증이 필요한 제휴처 등에서 인증서를 이용토록 고객편의를 제공하는 사업이다. 특히 이러한 전자서명인증은 현재 금융 마이데이터 서비스의 본격화와 더불어 공공 마이데이터 서비스의 확장과 맞물려 그 중요성이 증대될 것으로 보인다. 현재 공공 누리집에서 이용가능한 민간 간편인증은 지난해까지 ▲카카오 ▲KB국민은행 ▲네이버 ▲삼성패스 ▲신한은행 ▲통신사패스 ▲페이코 7종이었으나, 올해 ▲토스 ▲뱅크샐러드 ▲하나은행, ▲드림인증이 추가돼 11종으로 확대됐다.행안부는 지난해 국민 생활과 밀접한 홈택스, 정부24, 국민비서, 복지로, 나이스 등 55개 공공 누리집에 민간 간편인증을 신속하게 적용한데 이어, 올해에는 110개(누적) 이상의 공공 누리집에 간편인증을 확산, 국민들이 다양한 디지털정부서비스를 보다 쉽고 편리하게 이용할 수 있도록 개선할 예정이다.기업은행은 이번 사업은 전자서명인증사업의 당위성 및 필요성 검토를 위한 것으로 사업기획 단계에서의 시간 단축 및 완성도 제고를 위한 외부 전문기관의 컨설팅을 통해 ‘전자서명인증사업자’ 인정지위 취득을 위한 운영기준과 공공기관 특수성 및 중·장기적인 사업 확장성 등을 고려한 합리적인 수준의 인프라 구축방안 수립을 준비한다. 기업은행은 컨설팅 사업자 선정을 통해 전자서명인증사업 타당성을 고려한 중장기 추진전략 을 수립하고 사업 확장성, 수익성 등을 고려한 중장기적 관점의 청사진을 마련한다. 또, ‘전자서명인증사업자’ 인정을 위한 업무요건 도출과 전자서명인증업무를 위한 필요 조직 및 인원 등 구성안 등을 만들 계획이다. 시스템 구축에 있어 시스템/네트워크/보안/용량 산정 등 세부요건을 정의하고 ‘전자서명인증사업자’ 인정을 위한 인프라 구축 제안요청서(RFP)를 도출할 계획이다.  한편 현재 우리은행이 사설인증서를 연내 출시하겠다는 계획으로 사업을 진행 중이다. 사설인증센터 환경 구성 사업 및 시스템 구축을 위한 하드웨어 사업을 발주하고 사업을 추진 중인 상황이다. 농협은행도 전자서명인증시스템 구축 사업 마무리 단계에 접어든 상태다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.04.04.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>[단독] 토스 이승건 대표, 테슬라 자동차 무상 지원...“팀원들 고마워”</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002591257?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>사기 독려, 1일 깜짝 추첨 이벤트1년간 테슬라 차량 10대 무상 렌트이승건 대표가 이벤트를 위해 준비한 테슬라 차량 10대가 늘어서있다. ⓒ 토스[데일리안 = 이호연 기자] 이승건 토스 대표가 임직원 사기 독려 차원에서 고가의 테슬라 차량을 무상 지원해 이목이 쏠리고 있다.4일 모바일 금융서비스 토스를 운영하는 비바리퍼블리카에 따르면 이승건 대표는 지난 1일 직원들의 노고를 치하하기 위한 테슬라 차량 증정 이벤트를 진행했다. 이 대표는 이날 사내 공지문을 통해 “늘 몸보다 꿈이 앞선 사람들이라, 다른 데면 편했을 삶을 굳이 여기와서 사서 고생하는 나의 동지들에 대한 존경과 애정이 늘 있었다”고 말했다.이어 “사실 작년부터 저의 이 마음을 어떻게 표현하는게 좋을까 생각하다가, 추첨을 통해 테슬라 자동차를 20대 증여하는 작은 이벤트를 준비했다”고 밝혔다.직원들은 만우절인만큼 농담으로 여겼으나, 실제 이 대표는 테슬라 차량 10대를 직원들에게 1년간 무상 렌트했다. 이를 위해 이 대표는 사비를 들여 꽤 오랜시간 동안 테슬라 차량을 공수해 왔다는 후문이다.  추첨을 통해 10대의 차량은 토스, 토스뱅크, 토스증권, 토스페이먼츠 등 각 계열사로 골고루 전해진 것으로 알려졌다.토스의 이번 깜짝 이벤트는 카카오 등 대형 IT업체나 금융업체들의 인재 확보를 위한 보상 차원의 연장선으로 풀이된다.토스 관계자는 “공식적인 회사 행사가 아니어서 자세한 사항을 말씀드리기 어렵다”면서도 “평소에도 직원들을 아끼고, 업계 최고 수준으로 연봉 및 복지를 대우해 온 이 대표의 성향이 엿보인 상징적인 이벤트”라고 밝혔다.한편 이승건 대표가 운영하는 토스는 꾸준히 몸집을 불리고 있다. 토스는 지난해 연결기준 전년보다 2배 증가한 7808억원의 매출을 기록했다. 3년 연속 매출 2배 성장 기조를 이어가는 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.04.12.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>삼성 금융사 ‘삼성 금융 네트웍스’ 출범, 통합앱 ‘모니모’도 출시</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003265170?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>삼성 금융 네트웍스 로고삼성그룹 내 금융 5개사가 공동브랜드인 ‘삼성금융네트웍스’를 출범한다. 해당 브랜드는 14일 출시될 통합금융앱 ‘모니모’를 비롯해 향후 삼성금융 협업물에도 적용될 예정이다. 비은행권 금융사가 통합 앱을 내놓는 건 처음이라 성공 여부에 관심이 쏠린다.12일 삼성금융 계열사에 따르면 삼성생명과 삼성화재, 삼성카드, 삼성증권, 삼성자산운용은 글로벌 경쟁력 강화와 미래지향적 이미지 형성을 위해 삼성금융네트웍스를 론칭한다고 밝혔다. MZ세대를 중심으로 새로운 브랜드 전략에 대한 요구가 제기된 결과로 각사별로 혼용해서 사용하던 기업 이미지도 공동 브랜드에 맞게 개편된다.통합 금융플랫폼 모니모는 자산조회와 무료 송금 기능, 자동이체 등 기본적인 금융 서비스는 물론 보험료 결제 등 다양한 서비스를 제공한다. 계열사 내부적으로는 모니모의 잠재 사용자를 2300만명으로 추산하고 있는데, 이는 카카오뱅크(1800만명)나 KB금융(1700만명) 등을 뛰어넘는 숫자다. 현재 1500만명이 사용 중인 삼성페이와 결합하면 빅테크기업이나 기존 금융기업을 뛰어넘는 성과를 낼 수 있으리라는 전망도 있다.일각에서는 새로운 기능을 계속 선보이는 네이버나 토스, 카카오와의 경쟁이 쉽지 않을 거란 관측도 있다. 업계 관계자는 “마이데이터와 비슷한 성격을 가진 것 같은데 다른 회사들이 이미 제공하고 있는 서비스라 차별화를 꾀하기 쉽지 않을 것 같다”고 말했다.민나리 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.04.13.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>금리폭등에 주목받는 금리인하요구권…인뱅이 선두</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002593672?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>토뱅·카뱅 수시 알림…시중은행 연 2회뿐건수 대비 낮은 수용률·집계방식 개선 필요카카오뱅크 서울 오피스, 서울 강남구 토스 본사 ⓒ카카오뱅크, 토스뱅크[데일리안 = 김효숙 기자] 대출 금리가 폭등하면서 금리인하요구권에 대한 차주들의 관심도 높아지고 있다. 금융당국이 금리인화 요구권 활성화를 주문한 지 5개월이 지난 가운데, 시중은행보다는 인터넷전문은행 중심으로 독려 알림 서비스가 활성화되고 있는 것으로 나타났다.금리인하요구권은 대출을 받은 사람이 취업, 승진 등 이유로 신용상태가 개선되면 금융회사에 금리를 인하해달라고 할 수 있는 법적 권리다. 지난 2018년 12월 금융회사가 금리인하요구권의 안내 의무를 부과하는 은행법, 보험업법 등이 개정된 이후 다음 해 6월부터 시행됐다.대내외 금리 인상 영향으로 대출 금리가 오르면서 차주들의 한숨이 깊어지자, 지난해 11월 금융당국이 구두 개입에 나서며 금융권에 금리인하요구권 활성화를 주문하기도 했다.13일 금융권에 따르면 인터넷은행 중심으로 금리인하요구권 행사 독려 서비스가 활성화되고 있다. 토스뱅크와, 카카오뱅크는 대출받은 사람의 신용도 등이 변화하면 수시로 금리인하요구권을 제안하는 알림 서비스를 운영 중이다.토스뱅크에 따르면 지난해 10월 5일부터 올해 3월 31일까지 토스뱅크에 접수된 금리 인하 요구 건수는 모두 2만4910건으로 집계됐다. 이는 지난해 말 6개월간 시중은행이 고객들로부터 받은 평균 금리인하 신청 건수(1만7809건)보다 약 40% 많은 수치다. 토스은행은 차주들에게 선제적으로 알림서비스를 보내 금리요구권을 제안한 덕으로 보고 있다.카카오뱅크도 신용도 변화 수치를 반영해 분기별마다 금리인하 요구 알림 서비스를 시행하고 있다. 카뱅 관계자는 "금융당국이 금리인하요구권을 활성화하라고 방침을 내리기 전부터 분기별로 신용상태가 개선된 경우 애플리케이션과 메일 알림을 통해 수시로 안내해왔다"고 설명했다.반면 KB국민, 신한 등 시중은행은 연 2회 알림 서비스를 하는 데 그친다. 이 역시 지난해 11월 금융당국이 내놓은 금리인하요구권 운영 개선책을 내놓자 시작한 조치다. 금리 변동 주기가 돌아오거나 대출 만기 시점이 왔을 때만 고객들을 상대로 알려주고 있지만, 수시로 알려주는 인터넷은행보다 서비스 접근성 떨어진다는 지적이 나온다.지난해 금리인하 신청 건수도 서비스 접근성이 좋은 인터넷 은행들이 시중은행보다 높았다. 김희곤 국민의힘 의원실이 지난 3월 금융감독원으로부터 받은 자료에 따르면, 지난해 10개 시중은행(KB국민, 신한, 우리, 하나, SC, 씨티, NH농협, 기업, 케이뱅크, 카카오뱅크) 중 금리인하 신청 건수가 가장 높은 곳은 카카오뱅크(54만1507건)였다. 케이뱅크(13만211건), 신한(12만9398건), 국민(2만573건) 순이었다.업계 관계자는 "해당 은행에서 대출을 받은 사람은 이미 잡은 물고기니, 이들의 편의를 더 생각하기보다 신규 고객 유치에 집중할 것"이라며 "또 팔았던 대출 상품의 금리가 깎이면 수익이 줄어드니 금리인하요구권을 수시로 알려줄 요인이 떨어질 수 있다"고 말했다.다만 금리인하요구 신청 건수에 비해 수용률이 낮은 것은 시중은행뿐 아니라 인터넷은행도 풀어가야 할 숙제다. 신청 건수가 제일 높은 카카오뱅크의 수용률은 25.7%다. 차주 100명이 카카오뱅크에 금리인하요구를 신청하면 25명의 대출 금리만 낮아졌다는 의미다. 카카오뱅크 관계자는 "금리인하요구를 쉽게 신청할 수 있도록 시스템을 만들다 보니, 애초에 요구권 행사 대상이 아닌 이들도 신청하는 경우가 있다"고 설명했다.한편, 금융감독원도 저조한 금리인하 수용률, 은행마다 다른 집계 방식 등을 개선하고자 8월부터 금융사들의 금리인하요구권 운영실적을 공시하기로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.04.04.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>이런 거짓말은 누구나 환영…만우절에 “테슬라 20대 쏜다”더니 10대 준 회사</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003683044?sid=105</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>4일 오후 3시 서울 강남구 역삼동 토스 본사 앞 주차장에 테슬라 차량 10대가 도열했다. 바로 토스 이승건 대표가 직원들을 위해 준비한 깜짝 선물이었다.4일 오후 이승건 토스 대표가 임직원을 위해 준비한 테슬라 차량 10대가 역삼동 토스 본사 앞에 도착한 모습. /토스										이날 금융앱 토스를 운영하는 비바리퍼블리카에 따르면, 이승건 대표는 지난 1일 만우절 이벤트로 사내 메신저에 깜짝 공지를 띄웠다. 이 대표는 “늘 몸보다 꿈이 앞선 사람들이라, 다른 데면 편했을 삶을 굳이 여기와서 사서 고생하는 나의 동지들에 대한 존경과 애정이 늘 있었다”며 “작년부터 이 마음을 어떻게 표현하는게 좋을까 생각하다가 추첨을 통해 테슬라 자동차 20대를 증여하는 작은 이벤트를 준비했다”고 했다.이 메시지가 올라온 시간은 1일 0시. 직원들은 당연히 대표의 이 메시지를 만우절 장난으로 치부했다고 한다. 하지만 이 대표의 말은 ‘반만 거짓말’이었다. 실제로 그는 테슬라 모델S와 모델3 차량 10대를 공수해 직원들에게 1년간 무상 렌트하기로 했다. 비용은 전부 이 대표가 사비로 댔다. 무작위 추첨을 통해 토스, 토스뱅크, 토스증권, 토스페이먼츠 등 계열사에 골고루 전달됐다. 토스 관계자는 “공정한 추첨을 위해 이승건 대표는 추첨 과정에서 제외됐다”고 말했다. 토스, 이승건 대표 사비로 ‘테슬라’ 10대 1년간 대여							간편결제로 시작한 토스는 지난해 증권과 인터넷 은행 서비스까지 영역을 넓혔다. 2018년부터 연평균 146% 성장했으며, 이용자만 2200만명에 달한다. 지난해 매출은 전년보다 2배 늘어난 7808억원. 기업가치는 23조원으로 추산된다.이번 테슬라 깜짝 1년 렌트 이벤트도 기업 성장을 위해 헌신한 직원들의 사기를 진작시키기 위한 것으로 전해진다. 토스 뿐 아니라 IT 스타트업들은 최근 개발자 채용뿐 아니라 이들을 지키기 위한 고연봉과 스톡옵션을 제시하며 임금 인상 경쟁을 벌이고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.04.06.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>김범수·이재용, 한국 최고 부자 공동 1위…3위 서정진</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001517179?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>미국 포브스  ‘2022년 세계 억만장자 명단’ 발표11조900억, 김범수·이재용 국내 1위 공동 등극국내 자산 부호 10위 중 4명이 삼성 오너 일가김범수 카카오 이사회 의장(왼쪽 사진)과 이재용 삼성전자 부회장. 카카오 제공, 연합뉴스김범수 카카오 창업자와 이재용 삼성전자 부회장이 한국 최고 부자인 것으로 조사됐다. 미국 경제전문지 포브스가 집계해 발표하는 ‘2022년 세계 억만장자 명단’에서 이들 두 사람은 모두 재산 91억달러(약 11조900억원)를 기록하며 전체 223위, 국내 1위에 올랐다.포브스는 5일(현지시간) 자산 10억달러(약 1조2200억원) 이상의 세계 부호를 집계한 해당 명단을 발표했다. 김범수 전 카카오 의장은 일년 동안 자산이 2억달러 감소하며 1위 자리를 이 부회장과 공유하게 됐다. 이 부회장의 자산은 고(故) 이건희 회장의 상속 영향으로 지난해보다 8억달러 늘어났다.3위는 서정진 셀트리온 명예회장으로, 그의 자산은 79억달러(약 8조5300억원)로 집계됐다. 게임업체 스마일게이트의 권혁빈 창업자가 68억달러(8조2900억원)로 뒤를 이었다. 각각 세계 343위, 363위에 포진했다.이 부회장의 어머니인 홍라희 전 리움미술관장은 63억달러(7조6800억원)로 국내 5위, 세계 403위에 자리했다. 이 부회장의 동생인 이부진 호텔신라 사장(41억달러·709위)과 이서현 삼성복지재단 이사장(35억달러·851위)도 각각 한국 10위에 올랐다. 삼성 오너 일가 4명이 세계 1000위 안에 든 것이다.가상화폐 거래소 경영진들이 억만장자 명단에 새로 이름을 올려 눈길을 끌었다. 업비트 운영사인 두나무의 송치형 회장은 자산 37억달러(약 4조5100억원)로 한국 8위, 세계 801위에 올랐다. 김형년 두나무 부회장은 19억달러(2조3100억원)로 한국 20위, 세계 1579위를 기록했다.게임업체 넥슨 창업자 고 김정주 NXC 이사의 부인 유정현 NXC 감사도 자산 29억달러(3조5300억원)를 기록하며 한국 12위, 세계 1053위에 자리했다. 이 외에 코로나19 신속진단키트로 사세를 확장한 SD바이오센서의 조영식 의장이 자산 23억달러(2조8000억원)로 한국 16위, 세계 1341위에 올라 억만장자 반열에 올랐다.최연소 한국인 억만장자는 40세의 핀테크 기업 토스 창업자인 이승건 비바리퍼블리카 대표(12억달러)였다.세계 억만장자 2668명 가운데 한국인 부호는 41명으로 지난해보다 3명 줄었다. 스마일게이트(권혁빈), 펄어비스(김대일), 크래프톤(장병규) 등 게임회사 창업자들이 8명으로, 게임업종이 전체에서 가장 큰 비중을 차지했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.04.05.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>토스뱅크, 고객에 ‘금리인하’ 먼저 말했을 뿐인데…</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001973211?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>금리인하 승인 고객, 신용점수 최대 379점 상승 금리도 5%포인트 낮아져[헤럴드경제=서정은 기자] ‘제시하니 통했다’토스뱅크가 고객들에게 금리인하 기회를 먼저 안내한 결과 시중은행 대비 금리인하 요구건수가 약 40%가량 늘어난 것으로 나타났다. 금리인하가 승인된 고객들은 최초 대출시보다 5%포인트 가량 저금리 혜택을 받거나 신용점수가 최대 379점이나 개선되는 등 이른바 ‘크레딧 빌딩(Credit building)’ 효과도 얻었다.5일 토스뱅크에 따르면 출범 직후인 지난해 10월 5일부터 올해 3월 31일까지 전체 금리인하요구 건수가 총 2만4910건에 달하는 것으로 나타났다. 이는 지난해 말 5대 시중은행이 6개월 간 고객들로부터 받은 평균 금리인하 신청건수(1만7809건) 대비 40% 가량 높다.토스뱅크는 신청건수가 타은행 대비 압도적으로 높은 배경으로 금리인하 요구권을 제안했던 효과를 꼽았다. 토스뱅크에서 금리인하를 신청한 고객 5명 중 1명 이상(22%)이 혜택을 받았으며, 특히 중저신용 고객의 경우 5명 중 2명 이상(42.4%)의 요구가 수용된 것으로 나타났다.토스뱅크는 금리인하를 금융소비자로서의 ‘고객의 주권’이라고 판단, 신용도가 개선된 고객에게 이를 먼저 제안하고 있다. 대출 계약 체결 후 취업이나 승진, 이직, 성실상환 등 신용점수가 상승된 사실을 근거로 고객이 발동할 수 있는 정당한 권리다.그동안 고객들은 은행 앱에서 숨겨진 항목을 어렵게 찾아들어가 신청하거나, 고객센터를 통해 문의해야 하는 등 번거로움이 있었다. 신청 후에도 직접 필요한 서류를 발급받아 신용도 개선 사실을 스스로 입증해야 하는 등 어려움도 있었다.토스뱅크 앱 내에서 ‘금리 낮아질 때 알림받기’에 동의하면 토스뱅크로부터 먼저 제안받을 수 있다. 알림받기에 동의한 고객 3명 중 1명 이상(37.5%)은 금리인하 혜택을 누렸다.금리인하가 승인된 고객들은 5%포인트 이상 금리가 낮아지는 효과를 누렸다. KCB 기준 최대 379점(과거 기준 5개 등급)까지 신용도가 개선되며, ‘크레딧 빌딩’ 효과도 발생했다. 금리인하 승인 고객 가운데 3명 중 1명(33%)은 신규 대출 후 일주일 이내 신청했음에도 받아들여진 경우도 있었다.특히 중저신용 고객들의 경우 토스뱅크에서 대출을 받은 뒤 기존에 보유하고 있던 현금서비스나 카드론 등 제2, 제3금융권의 대출을 상환하는 등 모습도 나타났다. 예컨데 제2금융권에서 2600만 원 상당의 대출을 보유하고 있던 A 고객의 경우 토스뱅크에서 2000만 원 상당의 대출을 받을 당시 신용점수는 475점이었다. 최초 금리는 12.5%였지만, 대출 신청 후 기존 대출 가운데 일부를 상환하면서 약 한 달 만에 토스뱅크에서 신용점수가 상승한 것으로 받아들여졌다. 금리는 8.3%로 낮아졌으며, 신용점수는 100점 가량 상승했다.금리인하가 거절된 고객들은 연소득이 감소했거나 추가 대출을 받는 등의 사유로 신용점수가 하락한 것이 주 원인으로 분석됐다. 토스뱅크에서 대출을 받은 이후 저축은행, 카드사 등 제2, 제3 금융권에서 추가 대출을 받은 경우 등이었다.토스뱅크 관계자는 “토스뱅크의 고객이라면 금리인하요구는 반드시 누려야 할 권리”라며 “금리인하와 신용도 개선 등 금융소비자로서 고객들이 정당한 권리를 실현할 수 있도록 토스뱅크가 더 많은 부분을 고민하고 먼저 제안할 것”이라고 밝혔다.토스뱅크는 모든 고객이 손쉽게 금리인하를 요구할 수 있도록 ‘원클릭’ 체계를 갖추고 있다. 고객은 언제든 금리인하 요구를 할 수 있으며, 토스뱅크의 자체 신용평가모형(TSS, Toss Scoring System)에 따라 금리인하 가능 여부를 즉각 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.04.14.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>가계대출 줄때 기업대출 뛰었다…사장님 모시는 은행</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004733085?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>최근 4개월 은행 대출 잔액 추이/그래픽=이지혜 디자인기자은행권 가계대출이 사상 처음으로 4개월 연속 줄었지만 기업대출은 큰 폭으로 늘었다. 지난달 증가폭은 역대 두번째로 크다. 14일 한국은행에 따르면 지난달 은행권 가계대출 잔액은 1059조원으로 4개월 연속 감소 곡선을 그렸다. 같은기간 기업대출은 큰 폭의 증가세를 보였다. 지난해 말 1065조7000억원이던 기업대출 잔액은 지난달 1093조9000억원으로 3개월 만에 28조2000억원 불었다. 가계대출은 금리 상승, 주택시장 부진 등으로 좀처럼 잔액이 늘지 않는다. 다만 새 정부가 규제 완화 정책을 본격적으로 펼 경우 수요가 많아질 여지는 있다. 기업대출은 대기업과 중소기업 모두 시설자금 수요가 늘어난 덕분에 증가 규모가 확대됐다. 중소기업, 개인사업자에 대출 원금 상환과 이자 납입을 미뤄주는 코로나19(COVID-19) 금융지원 조치가 연장된 영향도 더해졌다.  기업대출 덕분에 전체 대출을 방어할 수 있게 된 은행들은 한숨을 덜었다. 이자이익에 대한 우려도 씻겨냈다. 은행들은 앞으로도 기업대출 확대에 좀 더 주력할 방침이다. 수요가 꾸준할 것으로 예상돼서다. 애초에 연간 대출 목표를 기업대출 성장 중심으로 짜놓은 은행도 있다.인터넷전문은행 3사도 올해 기업대출에 도전장을 내는 만큼 기존 은행은 비대면 경쟁력을 키우는 일에 집중하고 있다. 하나은행은 이달부터 법인사업자가 기업여신을 연장할 때 영업점 방문 없이 비대면으로 처리가 가능하도록 서비스를 마련했다. 하나은행 기업인터넷뱅킹으로 전자서명을 하면 약정이 완료된다. 중소기업 지원 프로그램을 가동하면서 신규 고객 확보에도 애쓴다. KB국민은행은 중소·중견기업에 무료로 ESG(환경·사회·지배구조) 자가진단을 받아보도록 서비스를 지원하면서 ESG 우수기업을 추려 우대금리 등 혜택을 제공하기로 했다. 우대금리 혜택을 내세운 만큼 신규 고객 유입 효과가 따를 것으로 보인다. 인터넷전문은행 3사는 그동안 기존 은행에서 제대로 평가받지 못했던 개인사업자, 중소기업을 품으려 한다. 먼저 시장에 뛰어든 토스뱅크는 보증기관 보증서, 부동산 등을 담보로 하는 것이 아닌 개인 신용에 따라 한도를 부여하는 '개인사업자 신용대출'로 호응을 얻었다. 매출액이 크지 않아도 매출이 꾸준히 발생한다면 높은 평가를 받는 상품이다. 중저신용자여서 은행권 대출이 어려웠던 고객이 토스뱅크에서는 3%대 금리로 대출을 받을 수 있게 됐다. 한편으로 은행들은 기업대출 성장세가 가팔라지는 만큼 건전성 관리의 고삐를 조인다. 원금 상환과 이자 납입을 미뤄줬던 코로나 지원 조치가 오는 9월 끝나면 부실이 발생할 수 있어서다. 조치가 시작된 2020년 4월부터 지난 1월까지 지원 대상이 된 대출 원리금은 291조원 규모다. 시중은행 관계자는 "아직까지 연체율 등 건전성 지표가 손상되지는 않았는데 흐름을 예의주시 중"이라며 "영업점 현장에서 고객들에 갚을 수 있는 대출은 조금씩 갚아나가도록 연착륙을 유도하고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.04.13.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>"오픈소스 고마워" 한글 글꼴 다양성에 날개 달았다</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004948810?sid=105</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>알파벳 26자만 만드는 영어와 달리한글, 가부터 �R까지 1만 글자 달해컴퓨터 한글 글꼴 개발비용 컸지만누구나 쓰고 바꾸는 오픈소스 덕에프리텐다드 등 다양한 무료글꼴 나와리멤버·카카오뱅크 등 기업서도 채택프리텐다드 글꼴. [사진 제공 = 길형진 디자이너 깃허브] 26자 vs 1만1172자. 각각 영어, 한글 컴퓨터 글꼴에 필요한 글자의 개수로, 한눈에 보기에도 상당한 차이가 난다. 영어는 ABC부터 시작해 Z까지 총 26개 글자만 만들면 되지만, 한글은 '가갸거겨'부터 시작해 '�R'까지 1만개가 넘는 글자를 일일이 다 만들어야 하기 때문이다. 이에 영어권에는 1957년 만들어진 헬베티카(Helvetica) 등 역사와 전통을 지닌 수많은 글꼴이 있는 데 반해, 한국은 개발 비용 등의 문제로 선택의 폭이 꽤나 적은 상황이다. 그 때문에 정보기술(IT) 기업들은 2004년 맑은고딕(마이크로소프트), 2008년 나눔고딕(네이버), 2012년 산돌고딕네오(애플) 등 각자에게 맞는 글꼴을 자체 개발하여 사용하고 있다.이들 기업에서 만든 글꼴은 사용 목적이 제한되어 있어 무단으로 사용할 경우 자칫하면 소송의 대상이 되기도 한다. 그런데 최근 기업이 아닌 개인이 직접 자신에게 맞는 글꼴을 만들어 무료로 배포하고, 역으로 이를 각종 기업에서 채택하는 사례가 늘고 있다. 프리텐다드 제작과정. [사진 제공 = 길형진 디자이너 블로그] 대표적인 사례는 2021년 개발된 프리텐다드(Pretendard)다. 프리텐다드는 디자이너 길형진 씨가 만든 글꼴로, 한글 글꼴인 '본고딕'과 영문 글꼴인 '인터(Inter)'를 기반으로 모양·굵기·위치 등을 조금씩 조정해 만들었다. 길 디자이너는 "글꼴 제작에 대한 지식이 없는 상태에서 만드느라 시행착오를 많이 겪었다"며 "주위 사람들의 도움 덕분에 지금 모습으로 공개할 수 있었다"고 말했다. 해당 글꼴이 공개된 이후 길 디자이너 블로그에는 "가독성이 좋고 작업하기 용이하다" "제작자가 들숨에 건강을, 날숨에 재력을 얻길 바란다" 등 900개가 넘는 댓글이 달렸다.  프리텐다드가 사용된 대표적인 사례는 명함 관리 애플리케이션(앱) 리멤버다. 리멤버는 과거 iOS와 안드로이드에서 서로 다른 글꼴을 쓰고 있었다. 각 운영체제에서 기본으로 제공하는 글꼴을 그대로 사용했기 때문이다. 그러나 두 글꼴의 크기와 자간 등이 달라, 앱을 디자인할 때 똑같은 화면을 운영체제마다 2개씩 만들어야 하는 문제가 있었다.리멤버를 운영하는 드라마앤컴퍼니는 이러한 문제를 해결하기 위해 상업용으로 사용할 수 있는 무료 글꼴을 사용하기로 결정했다. 후보군에는 여러 글꼴이 올랐으나, 최종적으로는 프리텐다드가 채택됐다. 강민석 리멤버 프로덕트디자이너는 회사 블로그에 "유료 글꼴을 구입하기에는 비용 면에서 부담스러웠다"며 "다양한 굵기를 지원하고 글자의 높낮이가 적절한 프리텐다드를 사용하게 됐다"고 밝혔다.이보다 앞선 2015년, 스타트업 스포카는 자사의 글꼴인 '스포카 한 산스'를 공개했다. 스포카는 원래 자영업자를 위한 비용 관리 서비스를 하는 업체로, 사내에서 사용하려고 만든 글꼴을 누구나 쓸 수 있게 공개한 것이다. 스포카 관계자는 "기존에 사용하던 글꼴이 한글·영문·숫자의 크기가 제각각이라 이를 통일하기 위해 만든 것"이라고 전했다. 현재 국내에서는 토스, 타다 등 많은 업체가 이 글꼴을 사용하고 있다.최근 이와 비슷한 과정을 통해 만들어진 또 다른 글꼴은 수트(SUIT)가 있다. 수트는 'UI에 최적화된 글꼴'이라는 뜻을 갖고 있다. 윤병선 디자이너는 매일경제와 통화에서 "기존 글꼴의 여백·자간 등이 UI 제작에는 부적합한 경우가 많아 이에 맞는 글꼴을 직접 만들었다"며 "본고딕의 한글을 조금씩 수정하고, 이에 어울리는 영문·숫자·특수문자를 직접 디자인해 합친 것"이라고 설명했다.  이렇게 많은 글꼴이 개인에 의해 만들어지고 기업에 의해 채택될 수 있었던 이유는 다름 아닌 '오픈소스' 덕분이다. 오픈소스란 개발자나 디자이너가 만든 결과물을 누구나 자유롭게 사용할 수 있도록 공개해 놓는 것을 말한다. 공개된 결과물은 누구나 자유롭게 수정해 사용할 수 있고, 마찬가지로 이를 다시 사람들에게 공개해야 한다.본고딕은 2014년 만들어진 오픈소스 글꼴로, 상대적으로 글자 수가 많은 한글·한자에 적당한 무료 글꼴이 마련돼 있지 않다는 문제 의식에 따라 제작됐다. 산돌커뮤니케이션(한국)·창저우 사이노타이프(중국)·이와타(일본) 등 3개 국가의 글꼴 제작 업체가 모두 뛰어든 탓에, 발표 당시 세계 최대 규모의 오픈소스 글꼴로 주목받았다. 한국의 프리텐다드·수트·스포카 한 산스뿐만 아니라 미나모토노 마코토 고딕(일본)·타이페이 산스(대만) 등 수많은 글꼴이 어도비와 구글에서 만든 본고딕을 기반으로 제작됐다. 산돌커뮤니케이션 관계자는 "본고딕은 애초에 무료 배포를 염두에 두고 만들어진 글꼴로, (프리텐다드처럼) 수정 배포하는 것에 대해 문제 삼지 않고 있다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.04.10.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>IT리스크 검사, 전자금융업자 확대</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002728846?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>대형 금융사 위주로 실시하던 IT 리스크 상시 평가가 모든 금융사와 전자금융업자로 확대된다. 네이버파이낸셜, 카카오모빌리티, 토스페이먼츠, 인터파크, 롯데쇼핑, 야놀자 등 IT 리스크에 대한 검사 범위가 전 업종으로 확대되는 셈이다. 금융당국은 또 자산 2조원 이상 금융사에 대해서는 IT 리스크 계량평가를 실시한다. 검사 결과 취약업체에 대해서는 자체 감사 요구제도를 도입한다.금융감독원은 10일 '2022년도 IT 리스크 상시 감시 및 검사 업무 운영 방향'에서 전자금융업무를 수행하는 모든 금융사와 전자금융업자에 대해 'IT 리스크 계량 평가'를 실시한다고 밝혔다.자산 규모가 2조원 이상이거나 IT 의존도가 높은 금융사에 대해서는 'IT 리스크 계량 평가'를 하고, 중소형 금융사와 전자금융사업자에 대해서는 계량 평가 항목을 간소화한 간이평가를 실시한다.IT 리스크 상시 평가 대상 확대로 177개(3월17일 기준) 전자금융업자 전체가 IT 리스크 검사 대상으로 편입된다. 메리츠종합금융증권, 신한금융투자 등 기존 금융사보다는 네이버파이낸셜, 카카오모빌리티, 토스페이먼츠, 인터파크 등 IT 인프라 안전성에 대한 관심이 높은 전자금융업체가 주요 대상이 될 것으로 전망된다. 금감원은 IT감사, IT경영, 시스템 개발과 유지보수, IT 서비스 제공·지원, IT 보안 등의 부문에서 업권별 특성을 반영해 계량평가 지표를 추가하기로 했다. 간이평가 지표는 IT 인프라 안전성 확보에 필수적인 항목을 선정해 평가할 예정이다.또 금융당국은 인프라 운영과 정보보호 등에 대한 상시 평가 과정에서 취약점이 확인되는 경우 자체 감사를 요구하는 '자체 감사 요구제도'를 도입해 시범적으로 실시할 계획이다.이는 IT 리스크 상시평가 등급이 일정 기준 이하인 경우 해당 금융사가 자체 감사를 통해 취약점을 자율 시정하도록 하는 방안이다. 금융사의 자체 감사 결과가 부적정한 것으로 평가될 경우 금감원이 직접 검사를 나서게 된다.금융업권에 대한 IT 부문 정기검사는 2~5년 주기로 실시한다.정기 검사는 IT 업무 전반에 대한 실태 평가와 상시 평가 결과에서 확인된 취약점에 대해 중점적으로 들여다볼 계획이다. 정기검사 주기는 지주계열 시중은행에 대해 2.5년, 대형 저축은행 2년, 종합금융투자사업자 3년, 인터넷전문은행·지방은행 3.5~4.5년, 대형 생·손보사 3~4년, 중형 생·손보사 5년, 대형 증권사와 카드사·대형 캐피탈사 5년 등이다.망 분리 규제 준수, 보안대책 소홀에 따른 침해사고 발생, 인터넷뱅킹과 모바일 앱 등 대고객 서비스 관련 시스템의 장애 사고 등에 대해서는 테마검사를 강화한다는 방침이다.IT리스크 상시평가 결과, IT 부문의 내부통제가 취약해 사고 개연성이 높은 금융회사나 대형 전자금융업자에 대해서는 내부통제 점검을 위한 현장검사를 실시할 예정이다.금감원은 "전자적 침해사고와 장애사고로 인한 소비자 피해를 예방할 수 있도록 금융부문의 IT 리스크에 대한 사전예방적 감독과 검사를 강화할 계획"이라면서 "금융부문의 핵심 업무에 대한 IT 리스크 수준의 조기 판별이 가능한 상시평가 모형을 개발하겠다"고 밝혔다.김현동기자 citizenk@dt.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.04.12.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>삼성발 플랫폼 역공…비대면금융 `태풍의 눈` 예고</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001025243?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>삼성 금융계열사 공동 브랜드 론칭  14일 통합 금융플랫폼 출시  계열사간 협업으로 디지털 전환 속도&lt;앵커&gt;삼성 금융계열사들이 오늘 공동 브랜드를 신규 론칭했습니다. 새 브랜드를 통해 계열사간 시너지 확대는 물론, 금융 통합플랫폼을 출시해 디지털 전환을 본격화하겠다는 방침입니다. 관련해 자세한 내용, 취재 기자와 만나 이야기 나눠보겠습니다. 경제부 장슬기 기자 나와있습니다.장 기자, 오늘 `삼성 파이낸셜 네트워크`라는 삼성 금융사의 공동 브랜드가 탄생했습니다. 통합 브랜드 어떤 의미인지 간략하게 설명해주시죠.&lt;기자&gt;새로운 삼성 공동브랜드는 삼성생명과 화재, 카드, 증권, 자산운용사까지 삼성 5개 금융사간의 협업을 강조한 것이 특징입니다. 금융사간 시너지와 전문성을 제고하고 금융 생태계를 확장하겠다, 이런 비전을 표현하는 의미라고 회사 측은 설명하고 있습니다.사실 그간 삼성의 금융계열사는 삼성 내에서도 큰 관심을 받지 못하는 사업이었다, 이런 평들이 있었습니다. 때문에 다른 계열사들에 비해 공격적인 영업을 하지 않는 업권으로 인식돼 왔는데, 이번에는 공식적으로 그리고 보다 공격적으로 계열사간 힘을 모았다, 이런 시그널로 볼 수 있습니다.특히 삼성 금융사들은 지난해 4월부터 삼성금융 통합 플랫폼인 `모니모` 출시를 추진해왔습니다. 5개 금융사 고객들이 모두 사용할 수 있는 대규모 통합 플랫폼인데, 이 금융플랫폼 출시에 앞서 새로운 브랜드 출범을 통해 초석을 다진 것으로 분석됩니다.&lt;앵커&gt;삼성 금융계열사들이 공동 브랜드를 통해 출시하는 플랫폼 `모니모`는 구체적으로 어떤 기능을 갖고 있습니까?&lt;기자&gt;공식적인 플랫폼 오픈은 오는 14일입니다. 아직 출시 전이기 때문에 구체적인 기능들은 오픈되지 않은 상태이지만, 기존 삼성생명이나 화재, 카드 등 각 고객들이 개별적으로 생명앱과 화재앱을 따로 활용했다면, 14일부터는 하나의 앱으로도 모든 금융 업무가 가능해집니다.생명과 화재가 참여한 만큼 보험료 결제나 청구 등의 서비스가 포함될 예정이고요, 자동차보험과 더불어 신차 견적이나 내 차 시세 조회 등이 가능할 것으로 전망되고 있습니다. 여기에 삼성카드 결제 관련 서비스나 증권서비스 역시 하나의 앱에 모두 담길 예정입니다.&lt;앵커&gt;현재 금융사들이 마이데이터 서비스를 통해서 여러 금융정보를 한 번에 모아주는 서비스를 제공 중인데, 이와 유사한 서비스라고 보면 됩니까?&lt;기자&gt;네. 그런데 현재 삼성 금융계열사는 삼성생명의 암보험 미지급과 관련한 징계로 1년간 신사업 진출이 불가능해진 상태입니다. 이 때문에 다른 금융사들과 같이 마이데이터 서비스에는 진출하지 못하고 있는 상황인데요. 대신 이번 통합플랫폼 서비스는 삼성 계열사간 고객 데이터만을 활용하는 시스템이기 때문에 신사업 진출과는 별개로, 서비스 제공이 가능합니다.최근 전통 금융사뿐만 아니라 핀테크사, 그리고 나아가 빅테크까지 금융산업에 뛰어들면서 경쟁 구도를 갖추고 있는 만큼, 삼성은 계열사간 협업을 무기로 디지털 시장의 판도를 바꾸겠다, 이런 방침을 세운 것으로 전해집니다.&lt;앵커&gt;삼성 금융계열사들이 출시하는 플랫폼이라고 하면 업계의 파장이 만만치 않을 것 같은데요. 전망은 어떻게 보십니까?&lt;기자&gt;일각에서는 해당 통합 플랫폼은 삼성 금융사의 고객들만 활용할 수 있는 서비스로 한정돼 있어서 한계가 있을 것이다, 이렇게 보는 시각도 있습니다. 다만 삼성 금융계열사 고객 수가 만만치 않다는 점은 강점으로 꼽힙니다.삼성생명과 삼성화재의 경우 보험업계 자산규모 1위를 차지하고 있고, 삼성증권과 삼성카드 역시 업계 상위권을 차지하고 있습니다. 현재 삼성 금융계열사 고객은 중복 가입자를 포함해 약 3,200만 명에 달합니다. 전체 국민의 절반 이상이 삼성 금융계열사를 이용하고 있다는 의미입니다. 이용자 수만 봤을 때 현재 핀테크 1위인 카카오페이(2,000만 명)보다, 그리고 기존 전통금융사인 KB금융(1,700만 명)보다 훨씬 많은 수준입니다.통합 플랫폼에 어떤 기능이 담길지, 편의성을 얼마나 높였는 지 이런 부분들이 관건이 되겠지만, 기본적인 고객 수 자체가 다른 금융사들보다 압도적으로 많기 때문에 삼성 금융계열사의 플랫폼은 금융시장의 또 다른 거대 공룡이 될 것이란 관측도 나옵니다. 기존 금융사들이 긴장할 수밖에 없는 이유입니다.&lt;앵커&gt;코로나19 이후 디지털 전환이 빨라지면서 비대면 금융시장도 굉장히 커지고 있는데, 이런 부분에도 영향을 줄 것으로 보입니다.&lt;기자&gt;네. 최근 기존 전통 금융사들은 물론이고 빅테크까지 앱을 통한 비대면 금융서비스에 사활을 걸며 치열한 경쟁을 하고 있습니다.  인터넷은행들 역시 공격적으로 영역 확장을 하면서 카카오뱅크 앱 가입자는 1,800만 명, 케이뱅크는 750만 명, 토스뱅크도 235만 명에 달하는 고객 수를 보유하고 있습니다. 수많은 사람들이 은행에 가지 않아도 비대면으로 금융서비스를 이용하고 있다는 의미입니다.그런데 은행을 제외한 비은행 계열사들이 뭉쳐서 통합 앱을 만든 사례는 이번이 최초입니다. 여기에 3,000만 고객을 무기로 한 통합 플랫폼이 등장하는 만큼 비은행 서비스의 디지털 전환 속도도 굉장히 빨라질 것으로 전망됩니다.&lt;앵커&gt;장 기자, 잘 들었습니다. 유튜브 제목과 해시태그 정해주시죠.&lt;기자&gt;유튜브 제목은 `삼성, 비대면 금융시장 도장깨러 왔다`, 해시태그는 #카카오덤벼 #네이버덤벼 입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.04.12.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>외국 나가서도 ‘야놀자’ ‘여기어때’ 비용 결제 ‘토종 페이’로 간편하게</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003140161?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>앱으로 해외여행객 잡기 ‘분주’[경향신문] 해외 입국자 격리 면제로 해외여행에 대한 수요가 늘면서 여가·모빌리티 플랫폼들도 해외여행에 나선 국내 여행객들을 붙잡기 위한 경쟁에 나섰다. 국내에서 쓰던 애플리케이션(앱)을 외국에서도 똑같이 사용하는 강점을 활용해 시장을 확대하려는 전략이다. 12일 업계에 따르면 여가 플랫폼 야놀자는 2019년 야심차게 준비했다 코로나19 직격탄을 맞은 해외여행 서비스 준비에 공을 들이고 있다. 야놀자의 강점은 해외에서도 국내 여행 서비스를 그대로 받을 수 있는 편의성이다. 365일 오전 9시부터 새벽 3시까지 고객상담센터를 운영한다. 해외에서 결제를 할 때도 국내 이용자들에게 익숙한 카카오페이, 스마일페이, 토스 등 다양한 간편결제 시스템을 제공한다. 국내에서 적립한 야놀자 포인트를 해외 호텔 결제 시에도 사용할 수 있다. 또 해외 숙박 플랫폼에서는 세금이 포함되지 않은 금액이 표시됐다가 최종 결제 단계에서 세금이 추가되는 일이 많은데, 야놀자에선 처음부터 세금이 포함된 숙박 금액을 확인할 수 있다. 지난해 인터파크를 인수하기도 한 야놀자는 항공권과 공연 예약을 연계해 ‘원스톱’으로 여행을 준비할 수 있는 시스템을 구축한다. 국내로 들어오는 외국인 여행객을 겨냥해 K팝 스타 공연 예약과 숙박, 항공권을 엮는 기획 상품도 구상하고 있다. 야놀자 경쟁사인 여기어때도 해외여행 수요를 잡기 위해 분주하다. 조만간 실시간 국내외 항공편을 예약하고, 해외 숙소를 예약하는 서비스를 선보일 계획이다. 지난해 온라인 기반 해외여행 전문 여행사인 ‘온라인투어’ 지분 20%를 인수, 올해 상반기엔 온라인투어와 합작한 첫 해외여행 상품도 내놓는다.모빌리티 업체들도 해외여행객을 잡기 위해 노력 중이다. 카카오모빌리티는 지난 7일 카카오T 출시 7주년 기자간담회에서 올해를 글로벌 진출 원년으로 삼겠다고 발표했다. 해외에서도 카카오T 앱을 열어 현지 차량 호출 서비스를 이용할 수 있도록 하는 것이 핵심 전략이다. 베트남과 일본에서 현지 업체와 연계해 이미 서비스를 제공 중이다. 류긍선 대표는 “연내 카카오T 앱 지원 국가를 120개까지 늘리는 게 목표”라고 말했다. 카카오모빌리티는 해외 이용자들이 한국을 방문했을 때 카카오T를 쓸 수 있도록 영문 플랫폼도 준비하고 있다. 티맵모빌리티는 세계적인 차량공유 플랫폼 우버와 손잡았다. 지난해 우버와 합작한 법인 ‘우티’를 설립하고 티맵택시 앱을 업그레이드했다. 우티 앱은 우버와 연동되고 사용자 환경도 동일해 외국에 나가서도 우버와 똑같이 차량을 호출할 수 있다. 해외여행 고객에게 티맵 앱에서 공항버스 좌석을 예약하고, 항공기 이착륙 정보와 연동해 목적지로 가는 공항버스 확인 서비스도 연내 제공할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.04.04.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>[초점] 인터넷은행 '삼국시대'…담보대출이나 사업자대출이냐</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000663939?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>시중은행 대출시장에 도전장…"인뱅만의 차별화된 데이터로 승부"토스뱅크의 출범으로 삼국시대를 맞은 인터넷전문은행업계가 각각 담보대출과 개인사업자대출로 진검승부를 벌이고 있다. 카카오뱅크는 '주택담보대출'을 케이뱅크는 '아파트담보대출'을 토스뱅크는 '개인사업자대출'로 시중은행에 도전장을 내밀었다. 하지만 중금리대출 확대와 건전성 유지도 동시에 확보해야하는 숙제도 남았다.카카오뱅크, 토스뱅크. 케이뱅크 로고. [사진=박은경기자]◆ 사장님대출·비대면 주담대 등 인뱅 대출상품 '청신호'4일 토스뱅크에 따르면 토스뱅크의 '사장님 대출' 잔액은 지난달 31일 기준 2천95억원으로, 2월 말 대비 197.5%(704억원) 증가했다. 출시 한 달 반 만에 3천억원에 육박하는 실적과 200%에 달하는 성장세를 보인 셈이다.앞서 토스뱅크는 지난 2월 14일 인터넷전문은행 최초로 개인사업자 대출 상품인 '사장님 대출'을 출시하며 기업금융 공략의 포문을 열었다.사장님 대출은 출시 한 달만인 3월 14일 잔액이 1천167억원을 돌파한 데 이어, 최근 2주간은 하루 평균 약 59억2천만원의 대출이 이뤄질 정도로 순항하고 있다.시중은행의 보증부 대출을 제외한 개인사업자 대출(무보증)이 하루 평균 6억7천만∼10억원 규모로 취급되는 것을 고려하면 토스뱅크의 개인사업자 대출 성장세가 두드러진다.카카오뱅크의 비대면 주택담보대출도 성공적인 신호탄을 올리고 있다. 카카오뱅크가 지난달 22일 출시한 비대면 주택담보대출 상품은 지난달 30일 기준 누적 약정금액 1천억원을 돌파했다. 신규 주담대 취급 평균 금리는 3.69%로, 주택담보대출 누적 조회 건수는 7만건이 넘었다.은행연합회 공시에 따르면 지난 2월말 기준 KB국민·신한·하나·우리·NH농협은행 등 5대 은행의 평균 주택담보대출 금리가 4.1%인 것과 비교하면 금리경쟁력을 바탕으로 시장 공략에 분주한 모습이다.케이뱅크의 아파트담보대출도 빠르게 실적을 쌓아가고 있다. 지난 1월 11일 기준 케이뱅크의 아파트담보대출 누적 취급액은 1조원을 돌파했다.인터넷전문은행들의 실적도 빠른 개선세를 보이고 있다.지난해 카카오뱅크의 당기순이익은 2천41억원으로 전년 대비 79.9% 증가하며 사상최대를 기록했으며, 케이뱅크는 224억원의 당기순이익으로 출범 후 처음으로 흑자를 냈다. 토스뱅크는 지난해 영업 9일만에 대출을 잠정 중단하며 112억원의 순손실을 냈으나 올해 영업을 재개한 뒤 여신과 수신 취급액이 지난 18일 기준 2조5천억원, 17조원까지 늘어나며 순항중이다.◆ 치열해진 시장…중금리대출 확대·건전성 관리는 '숙제'이처럼 인터넷전문은행들은 저마다의 신규 상품을 통해 성공적으로 시장에 안착하는 모양새다. 하지만 숙제는 남아있다. 중금리대출 확대와 그에 따른 연체율관리다.지난해 말 기준 인터넷전문은행의 중·저신용자 대출 비중은 케이뱅크가 16.6%, 카카오뱅크가 17%, 토스뱅크가 23.9%로 집계됐다. 당초 이들 은행이 목표로 제시했던 21.5%, 20.8%, 34.9%에는 못 미치는 수준이다. 이들 인터넷전문은행은 오는 2023년까지 카카오뱅크 30%, 케이뱅크 32%, 토스뱅크 44% 비중으로 끌어올려야 한다.여기에 시장이 커지며 경쟁이 심화된 데다 중금리대출 증가에 따른 건전성관리 부담도 상승하는 만큼 업황은 우호적이지만은 않다는 것도 넘어야할 산이다.박선지 나이스신용평가 금융평가본부 수석연구원은 "올해 인터넷전문은행의 사업환경은 금융당국의 대출규제, 경쟁심화, 중저신용자 대출비중 확대 압력 등으로 일부 저하될 것으로 전망된다"면서 "토스뱅크의 가세로 경쟁강도가 상당 폭 상승할 것으로 예상되는 데다, 중저신용자 대출 비중 확대 노력은 인터넷전문은행간 뿐 아니라 증권사, 저축은행 등 비은행 금융기관의 경쟁을 심화시킬 수 있다"고 말했다.이어 "특히, 대출금리 상승에 따른 중저신용자의 상환부담 상승은 인터넷전문은행의 자산건전성 저하로 이어질 수 있다"고 경고했다.업계에선 중금리대출 확대와 건전성 확보에는 문제가 없다는 입장이다.인터넷전문은행업계 한 관계자는 "현재 중금리대출이 대부분을 차지하고 있기 때문에 향후 중금리대출을 늘리는 데는 무리가 없다"고 말했다.다른 인터넷전문은행 관계자는 "인터넷전문은행은 상품 출시 단계부처 시중은행은 갖지 못한 앱데이터를 기반으로 상품을 출시한 만큼, 차별화된 데이터 분석 능력과 여신 관리 프로세스로 리스크를 대응하고 있다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.04.10.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>아시아 MZ세대 파고든다…빅테크·핀테크 "해외로"</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004040279?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>토스 베트남 누적 이용자 1000만명카카오페이 日·마카오 가맹점 70만곳연령대 젊어 디지털·간편함으로 어필진출 초기 단계···이익 실현은 과제로2019년 베트남에서 출시된 ‘토스 베트남’ 애플리케이션 화면. 사진 제공=토스 베트남 홈페이지 갈무리[서울경제] 국내 빅테크·핀테크 기업들이 동남아시아·일본 등 해외 금융 시장 진출에 속도를 내고 있다. 특히 국민 연령대가 낮고 금융업이 상대적으로 발달하지 않은 동남아 시장은 이들 기업의 글로벌 시장 진출을 위한 발판이 되고 있다.10일 금융 업계에 따르면 토스는 지난달 초 싱가포르에 해외 법인을 설립하고 영업에 들어갔다. 관계사로 일본 기업 ‘라인’을 두고 있는 네이버파이낸셜을 제외하면 국내 빅테크·핀테크 기업의 해외 거점 설립은 토스가 처음이다. 토스는 싱가포르 본부를 동남아 진출의 전초기지로 활용할 계획이다. 토스는 2019년 베트남에 이어 지난해 인도·말레이시아·필리핀·인도·태국 등 총 6개국에 자사 애플리케이션(앱)을 내놓았다. 특히 ‘토스 베트남’ 누적 이용자 수는 지난해 말 기준 약 1000만 명, 월간 활성 이용자 수는 300만 명에 달한다. 앱 출시 초기 만보기 서비스 등으로 이용자를 확보한 토스는 최근 신용카드 발급, 소액 대출 서비스 등을 본격 개시했다.토스가 비금융 및 생활 금융 서비스로 이용자를 빠르게 확보해 나가고 있다면 카카오페이는 가맹점을 확대해 결제 기반을 구축하는 방식으로 해외 진출을 확대하고 있다. 카카오페이 측은 일본과 마카오에 70만 개 이상의 가맹점을 확보했다고 밝혔다. 지난해 말 유가증권시장 상장을 앞두고 글로벌 핀테크 기업과의 협업 등을 통한 해외 진출 계획을 강조하기도 했다.해외 시장 공략에 나선 건 국내 핀테크 회사도 마찬가지다. 효성그룹의 핀테크 계열사 갤럭시아머니트리(베트남), 음악 저작권료 청구권 투자 플랫폼 뮤직카우(미국), 부동산 조각 투자 플랫폼 카사(싱가포르) 등이 있다. 핀테크 업계의 한 관계자는 “동남아는 K팝·K드라마 등으로 한국에 대한 우호적 인식이 마련돼 있다”며 “연령대가 젊어 디지털, 간편함을 어필할 수 있다는 점도 장점”이라고 말했다. 실제 2019년 베트남 통계청 인구총조사에 따르면 인구의 70%가 30대 미만으로 집계됐다.다만 국내 금융 기술 기업의 해외 진출이 초기 단계인 만큼 이익 실현은 공통 과제다. 금융감독원 전자공시에 따르면 갤럭시아머니트리 베트남 법인 ‘머니트리 베트남’ 역시 2019년 설립 후 지난해 처음으로 약 3억 원의 매출을 올렸지만 순손실도 전년 대비 약 1억 원 늘어난 5억 원을 기록했다. 토스 베트남은 지난해 매출액이 25배 가까이 늘었지만 순손실도 약 9배 늘어난 82억 원을 기록했다. 토스 관계자는 “베트남에서 300만 명이라는 활성 유저를 모으는 데 걸린 비용이 한국과 비교하면 매우 적어 흑자로 가기 위한 부담도 줄어든 상태”라며 “베트남 이외 해외 진출 국가에서도 초기 반응을 보고 나라별로 어떤 모델을 적용하는 것이 좋을지 검토해 나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.04.06.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>토스 알림이 왔다, 대출이자 낮출 수 있다고…시중은행은 왜 조용할까?</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002585665?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>카뱅·토뱅 신용 오를 때마다 ‘금리인하 가능’ 알림 보내‘금리인하 요구권’ 행사 독려…시중은행은 연간 2회뿐토스뱅크 모바일 애플리케이션 화면 갈무리일부 인터넷 은행이 고객에게 신용 상태 변화에 따른 대출 금리 인하 가능성을 수시로 먼저 알려 금융 소비자의 금리인하요구권 행사를 독려하는 것과 달리, 대부분 시중은행은 1년에 2차례 ‘최소한의’ 알림 서비스만 운영하고 있는 것으로 나타났다. 금융 소비자의 권리 보장을 위해 은행들이 보다 적극적으로 나서야 한다는 지적이 나온다. 6일 인터넷 전문은행인 카카오뱅크와 토스뱅크에 따르면, 이들 은행은 소득이 오르거나 대출 상환 등 여러 이유로 신용점수가 오른 고객에게 금리인하요구권 행사를 독려하는 수시 알림 서비스를 운영하고 있다. 신용 상태가 나아져 보다 낮은 대출 금리를 적용받을 수 있을 가능성이 있으니 요구권을 행사해보라는 취지의 알림이다. 실제 금리 인하 여부는 소비자가 요구권을 행사해봐야 알 수 있지만 은행이 먼저 고객의 신용상태 개선에 따른 금리 인하 가능성을 알려준다는 점에서 소비자의 권리 보장에 기여한다고 볼 수 있다.예컨대 카드사 대출 2600만원을 갖고 있던 ㄱ 씨는 인터넷은행 토스뱅크에서 연 12.5% 금리로 2000만원을 대출 받았다. 금리가 높았지만 자신의 신용점수(475점)가 너무 낮아 어쩔 수 없었다. 새로 대출받은 돈으로 카드론을 일부 갚았더니 토뱅에서 알림이 왔다. 신용에 변화가 생겨 이자가 더 싸졌을 수 있으니 금리인하요구를 해보라는 거였다. 신용점수가 100점 정도 올라 12.5%이던 금리는 8.3%가 됐다.카뱅, 토뱅 등 일부 인터넷 은행과 달리 국내 4대 시중은행(케이비(KB)국민, 신한, 하나, 우리은행)과 1호 인터넷 은행인 케이뱅크 등을 비롯한 대부분의 은행들은 지난해 11월 금융위원회의 금리인하요구권 운영 개선 방침에 따라 대출 기간 중 연 2차례 정기 알림만 하고 있다. 금리 변동 주기(6개월)가 돌아오거나 대출 만기 시점이 왔을 때 금리인하요구권에 대한 일반적인 정보를 안내하는 식이다. 아예 안내를 안 하는 것보다는 낫지만 현실적으로 소비자가 매일같이 신용점수의 오르내림을 파악하고 요구권을 행사하기는 쉽지 않다. 시중 은행들이 소비자의 금리인하요구권 행사 독려에 소극적이라고 볼 수 있는 대목이다. 카뱅, 토뱅 등이 운영하는 수시 알림 서비스와도 비교된다.카뱅, 토뱅 등 인터넷 은행의 금리 인하 가능성 먼저 알림 서비스에 대해 한 시중은행 관계자는 “소비자 이익을 위해 잘하고 있는 것 같긴 하다”면서도 시중은행이 수시 알림을 왜 하지 않느냐는 물음에 대해서는 “다만 인터넷은행의 고객 규모가 시중은행보다 상대적으로 작기 때문에 가능한 것”이라고 해명했다.인터넷 은행의 ‘메기 효과’로 일부 시중은행은 이러한 수시 알림 서비스 도입을 위한 내부 프로그램 개발에 나서고 있다. 하나은행의 경우 올 상반기 중 수시 알림이 가능하도록 프로그램 개발에 착수한 상태다. 올 상반기 안에 고객들에게 금리 인하 가능성을 수시로 알릴 수 있도록 하겠다는 목표다. 신한은행도 내부적으로 관련 방안 도입 여부를 고민하는 것으로 전해진다. 아직 국민, 우리은행 쪽에서는 움직임이 없다.은행법에 명시된 금리인하요구권이란 대출을 이용하는 소비자의 신용상태가 재산 증가 또는 신용 평점 상승 등의 이유로 개선됐을 때 금융회사에 금리를 낮춰 달라고 요구할 수 있는 권리다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.04.12.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>시중은행, '올해 갈 곳 잃은 돈' 15조↑...고금리 예금 통장 주목</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002593308?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>요구불예금 잔액 710조, 2개월째 ↑우리・SC제일・토뱅, 특판 상품 인기서울 시중은행의 한 영업 창구 ⓒ 연합뉴스[데일리안 = 이호연 기자] 올해 국내 은행의 대기성 자금이 지난해보다 15조원 이상 늘었다. 대내외 불확실성 확대로 부동산, 주식 등 자산시장 변동성이 확대되고 시장금리가 급등하며, 투자처를 찾지 못한 돈이 은행으로 몰린 것으로 보인다. 여기에 한국은행이 올해 추가 기준금리 인상을 예고하고 있어 갈 곳 없는 돈이 더 증가할 전망이다.12일 금융권에 따르면 5대 은행 (KB국민·신한·하나·우리·NH농협)의 지난달 기준 요구불예금은 710조6651억원으로 전월 대비 9조3230억원 늘었다. 요구불예금 잔액은 1월 684조6822억원, 2월 701조3421억원, 지난달 710조6651억원으로 증가하는 추세다. 올해 3개월 동안 15조4201억원의 대기성 자금이 모인 것이다.요구불예금은 예금자가 원할 때 언제든 찾아 쓸 수 있는 예금으로 당좌 예금, 보통 예금 등이 있다. 투자를 위한 대기 자금 성격이 강하기 때문에 정기 적금이나 예금보다 금리가 낮다. 시중은행의 요구불예금 금리 수준은 0.3% 안팎이다.은행 입장에서는 이자 비용 부담이 낮은 예금으로 자금을 조달할 수 있어 은행 수익을 극대화 할 수 있다. 다만 언제든 나갈 수 있는 돈이기 때문에 요구불예금 비중이 높으면 예대율 관리가 쉽지 않을 수 있다.ⓒ 데일리안 이호연 기자이에 따라 시중 은행들은 고금리 예·적금 상품을 출시하며 유동성 확보에 주력하고 있다. 우리은행은 이달 초 창립 123주년을 기념해 ‘우리고객님 고맙습니다 예금’을 내놓았는데, 이 상품은 판매 10일 만에 한도 잔액 1조3000만원이 소진됐다. 기본금리 연 1.63%에 우대금리 0.40%포인트를 더해 최고 연 2.03%를 제공한다. 전북은행에서 지난 2월 출시한 ‘어흥 호랑이 정기예금(1년, 최고 금리 2.4%)’도 한 달 만에 다 팔렸다.SC제일은행은 다음달 31일까지 수시입출금 통장인 ‘SC제일마이시그니처통장’에 가입하는 첫 거래 고객에게 연 최고 1.7%의 금리를 제공하는 이벤트를 진행한다.인터넷은행들은 기업대출, 주택담보대출 등 여신 상품을 늘리며, 예대율 균형을 맞추기 위해 더욱 공격적으로 가입자를 끌어모으고 있다. 토스뱅크가 연 2% 이자를 지급하는 수시입출금 ‘토스뱅크통장’은 지난달 말 기준 235만명의 고객을 확보했다. 지난달 16일부터는 매일 이자를 받을 수 있는 ‘지금 이자 받기’ 기능을 선보이며 이목을 집중시켰다.요구불예금 잔액은 한은의 추가 기준금리 인상이 가시화되면서 더 늘어날 것으로 관측된다. 시장은 올해 한은이 기준금리를 현재 연 1.25%에서 1.75~2.00%로 인상할 것으로 보고 있다. 기준금리가 인상하면 대출금리도 더 오르고 이는 여신보다 요구불 예금을 포함한 수신 잔액이 증가할 가능성이 더 높다.한편 5대 은행의 가계대출 잔액은 지난 3월 기준 703조1937억원으로 전월보다 2조7436억원 감소했다. 3개월 연속 감소세로 감소폭도 2월(1조7522억원)보다 더 확대됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.04.10.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>[DD주간브리핑] 국내외 불확실성 여전…TSMC 실적발표, 반도체 투심 살릴까</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002122490?sid=105</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>- 윤석열 당선자, 차기 정부 내각 후보자 공개…검증 정국 ‘점화’  - 인플레이션 심화, 러시아·미국·중국 악재 지속  - VM웨어, 14일 DD튜브 웨비나 개최…‘탄주’ 솔루션 소개   [디지털데일리 윤상호 기자] 윤석열 제20대 대통령 당선자가 국무총리 후보자에 이어 경제부총리 등 8명의 내각 후보자를 발표했다. 우리나라 새 정부에 대한 윤곽이 드러나고 있다.   경제부총리 겸 기획재정부 장관은 추경호 국민의힘 의원을 내정했다. 산업통상자원부 장관 후보자는 이창양 카이스트 경영공학부 교수를 선임했다. 과학기술정보통신부 장관 후보자는 이종호 서울대 전기공학부 교수를 임명했다.   중앙방역대책본부는 코로나19 대응 체제 전면 개편을 예고했다. 2년여에 걸친 비상 체제를 조만간 종료할 전망이다. 국내 경제 활성화 최대 걸림돌이 사라진다. 근무환경 등 코로나19 이후를 준비하는 손길이 바빠졌다.   국내 정치경제 불확실성은 완화했다. 하지만 세계 경제에 드리운 먹구름은 그대로다.   러시아는 우크라이나 침공을 지속했다. 러시아는 동부와 남부로 공세의 초점을 옮겼다. 러시아에 대한 세계 경제 제재는 강도를 높이고 있다. 세계 각국 인플레이션이 심화했다.   미국 연방준비제도(Fed)와 연방공개시장위원회(FOMC)는 금리 인상 필요성을 예고했다. 인플레이션 대응을 위해서다. 전례없던 유동성의 시대가 막을 내리고 있다. 부채가 높은 국가와 기업에 비상이 걸렸다.   중국은 ‘제로 코로나’ 정책이 위기를 맞았다. 상하이 등 봉쇄가 길어지면서다. 분석기관 등은 중국이 올해 경제성장 목표에 미달할 것이라는 예측을 쏟아냈다. 세계 공급망(SCM) 정상화 악재다.   이번 주(10일~16일)는 현 상황을 참여자들이 어떻게 판단하고 있는지 엿볼 수 있는 시기다.   윤 당선자의 첫 내각 후보자에 대한 검증이 본격화한다. 한덕수 국무총리 내정자에 대한 의혹과 함께 부정적 기류가 강해질 경우 혼란이 불가피하다. 방역 정책도 마찬가지다.   세계 D램 점유율 4위 난야(11일) 세계 반도체 수탁생산(파운드리) 1위 TSMC(14일)가 이번 주 1분기 실적을 발표한다. 난야와 TSMC 실적은 준수할 것으로 여겨진다. 반도체 업계 호황은 코로나19 시대 대표적 현상이다.   문제는 이들의 실적을 바라보는 투자자의 심리다. 지난 7일 삼성전자와 LG전자는 역대급 1분기 실적을 예고했지만 투심 악화를 피하지 못했다. 특히 삼성전자는 52주 최저가까지 떨어지는 등 체면을 구겼다. 이번에도 세계 반도체 업계 주가가 반등하지 않는다면 투심은 현재의 호조보다는 미래의 불확실성 쪽으로 기울었다는 뜻이다.   다음은 이번 주 주요 일정이다.   ◆대만 반도체 기업 TSMC·난야, 1분기 실적발표=대만 대표 반도체 업체 2곳이 1분기 실적을 발표한다. 난야 11일 TSMC 14일이다.   난야는 D램 점유율 4위 업체다. 1분기 잠정 매출액은 ▲1월 67억7200만대만달러 ▲2월 64억3300만대만달러 ▲3월 67억4100만대만달러다. 전년동월대비 ▲1월 22.4% ▲2월 11.1% ▲3월 5.2% 증가했다.   TSMC는 세계 파운드리 점유율 1위 업체다. 1분기 잠정 매출액은 ▲1월 1721억7600만대만달러 ▲2월 1469억3300만대만달러 ▲3월 1719억6700만대만달러다. 전년동월대비 ▲1월 35.8% ▲2월 37.9% ▲3월 33.2% 상승했다.   ◆국내 OTT 산업 미래 있나…12일 토론회=한국OTT포럼은 12일 오후 3시 서울 중구 한국프레스센터 국제회의장에서 ‘국내 온라인동영상서비스(OTT) 산업 지속 성장을 위한 법제도 개선과 새 정부의 과제’ 세미나를 진행한다. 황용석 건국대 교수가 좌장이다. 이종관 법무법인 세종 수석전문위원이 발제를 맡았다. 토론자는 ▲허승 왓챠 이사 ▲이희주 콘텐츠웨이브 실장 ▲권남용 쿠팡 부장 등이 참석한다. OTT업계는 OTT업체 세액공제와 콘텐츠 자율등급제 도입 등을 원하고 있다.   ◆메타버스 시대, 인공지능(AI) 보안 역할은=13일 과학기술정보통신부와 한국인터넷진흥원(KISA)은 13일 서울 강남구 코엑스에서 ‘제4회 AI 시큐리티 데이 세미나’를 연다. 주제는 ‘메타버스 시대 AI 보안 역할과 방향에 대한 논의’다. 각계 전문가가 현황과 미래를 조망한다. 참석자와 질의응답 시간도 가질 계획이다.   ◆타다, 다시 달린다…14일 ‘타다 넥스트’ 발표=모빌리티 플랫폼 타다는 14일 온라인 기자간담회를 개최한다. 타다는 ‘타다 넥스트’를 출시할 에정이다. 타다는 법인택시 면허를 확보하고 운전자를 모집했다. 토스 운영사 비바리퍼블리카가 타다를 인수한 후 첫 결과물이다. 토스페이 등과 연계도 점쳐진다.   ◆데브시스터즈, 14일 온라인 쇼케이스=데브시스터즈는 14일 오전 10시 온라인 쇼케이스 ‘데브나우’를 갖는다. 데브시스터즈는 역할수행게임(RPG) ‘쿠키런: 킹덤’이 대표 게임이다. 데브나우에서는 준비하고 있는 게임과 기존 게임 업데이트 등 향후 전략을 소개할 방침이다.   ◆VM웨어, 14일 하이브리드 멀티클라우드 솔루션 공개=VM웨어는 14일 오후 1시30분 &lt;디지털데일리&gt; 웨비나 플랫폼 DD튜브를 통해 ‘하이브리드 멀티클라우드의 효율적 통합 운영 솔루션’을 온라인 소개한다. ‘쿠버네티스 오퍼레이션스 용도로서 VM웨어 탄주(Tanzu)’가 주제다. 최용권 상무가 발표자로 나선다. 탄주는 ▲멀티 클라우드 컨테이너 인프라 기반 ▲클라우드 운영 간소화 ▲데이터 엔드 투 엔드 보호 ▲테이터 운영 최적화 등이 특징이다. 웨비나 시청은 무료다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.04.04.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>마이리얼트립, 대한민국 숙박대전 참가…추가 쿠폰 혜택</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/144/0000803677?sid=103</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>[스포츠경향] 마이리얼트립이 문화체육관광부와 한국관광공사가 공동 주관으로 진행하는 ‘ESG와 함께하는 2022 대한민국 숙박대전’에 참가한다.‘2022 대한민국 숙박대전’ 쿠폰은 마이리얼트립 공식 웹사이트나 모바일 앱에서 7일부터 5월 8일까지 발급 받아 6월 6일까지 입실 하는 조건으로 국내 호텔, 펜션, 풀빌라 등 예약에 이용 할 수 있다. 숙박쿠폰은 7만원 초과시 3만원, 7만원 이하는 2만원으로 구분 돼 있다.이와 함께 마이리얼트립은 대한민국 숙박대전 쿠폰 발급 알림을 받는 사전 예약 서비스를 실시한다. 지난해 실시한 사전 예약 서비스 기간에는 총 5만명 이상이 모이며 빠르게 쿠폰이 소진 된 바 있다. 마이리얼트립은 알림 이벤트에 참여한 고객을 대상으로 추첨을 통해 3명에게는 시그니엘 서울 무료 숙박권을, 1000명에게는 중복 사용이 가능한 마이리얼트립 1만원 포인트를 증정할 예정이다.또 마이리얼트립은 ‘2022 대한민국 숙박대전’을 기념해 쿠폰을 발급받은 고객 모두에게 총 7만 5000원의 숙박 쿠폰팩을, 쿠폰 사용 고객 중 10명을 추첨해 100만원 여행 포인트를 지급한다. 뿐만 아니라 쿠폰 사용 시 추가로 토스페이를 통해 7만원 이상 결제한 고객 중 선착순 3000명에게 5% 추가 할인을 제공한다.마이리얼트립은 백패킹, 도슨트 투어 등 이색 체험을 즐길 수 있는 ‘제주플러스’를 비롯해 지난 달 국내 최대 키즈 여행 플랫폼 동키를 인수를 통해 다양한 테마의 여행 캠프를 비롯해 음악, 미술, 서핑 클래스 등 가족이 함께 즐길 수 있는 프로그램들을 선보이고 있다.생활경제부</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.04.07.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>인터넷은행, 중·저신용자 대출 ‘공격적’</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003684069?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>2022년 1분기 1조8000억원 공급카뱅, 2021년 동기비 12배 늘어신한은행 대출금리 인하 가세   인터넷전문은행 3사가 중·저신용자를 대상으로 올해 1분기에 약 1조8000억원의 신용대출을 공급했다. 전체 신용대출에서 중·저신용자를 대상으로 한 대출 비중은 카카오뱅크와 케이뱅크가 20%, 토스뱅크가 30%를 돌파하며 금융당국에 제출한 목표를 향해 순항하는 모습이다.   7일 금융권에 따르면 인터넷은행 3사가 올해 1분기(1∼3월) 중·저신용자(KCB : 신용점수 분포 하위 50%)에게 공급한 신용대출은 1조7960억원으로 집계됐다.   은행별로는 카카오뱅크가 6253억원으로 지난해 1분기(538억원) 대비 약 12배로 증가했다. 케이뱅크는 4234억원으로 전년 동기(1061억) 대비 약 4배를 공급했고, 지난해 10월 출범한 토스뱅크는 올해 1분기에 7473억원을 공급해 전 분기(1270억원) 대비 6배 가까운 규모로 늘었다.   카카오뱅크의 중·저신용자 대출 잔액은 전년 말 대비 2269억원 불어난 2조6912억원으로, 비중은 17%에서 20%로 3%포인트 늘었다. 케이뱅크는 20.2%로, 토스뱅크는 31.55%로 각각 늘면서 금융당국에 제출한 중·저신용자 대출 목표를 무난히 달성할 것으로 보인다.   인터넷은행 3사가 금융당국에 제출한 올해 말 중·저신용자 신용대출 비중 목표치는 카카오뱅크 25%, 케이뱅크 25%, 토스뱅크 42%다. 3사의 내년 말 목표치는 각각 30%, 32%, 44%로 높아진다.   한편, 시중은행들이 최근 대출금리를 인하하는 움직임이 이어지고 있다. 신한은행은 8일부터 주택담보대출과 전세자금대출 금리를 최대 0.10∼0.25%포인트 낮추기로 했다. 이에 따라 주담대의 경우 변동·고정금리 구분 없이 대면(창구) 대출 금리가 0.2%포인트, 앱 등 비대면 대출 금리가 0.1%포인트 낮아진다. 3가지 전세자금대출 상품(주택금융공사·서울보증·주택도시보증)을 이용하면서 금융채 2년물 기준의 고정금리를 선택해도 0.25%포인트 낮은 금리를 적용받는다. 농협은행도 8일부터 주담대 금리를 0.3%포인트 인하할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.04.14.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>대형차량 '타다 넥스트' 정식 출시…연내 서울 1천500대 공급</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013113525?sid=105</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>누적 가입자 210만 명 확보…내년까지 대형차량 3천대 확대 계획타다 넥스트 공식 출시 기자간담회[타다 제공]    (서울=연합뉴스) 최현석 기자 = 모빌리티 플랫폼 '타다'가 14일 대형차량 이동 서비스 '타다 넥스트'를 공식 출시했다.     이정행 타다 대표는 이날 오전 온라인 기자간담회에서 타다 넥스트 출시를 선언하고 "서울지역 내 타다 넥스트 공급량을 연내 1천500대, 내년 3천대까지 확대하겠다"고 밝혔다.    타다는 1천500대가 공급되면 탑승 대기 시간이 현재 8~9분에서 5~6분으로 줄어들어 이용자가 호출했을 때 바로 온다는 느낌을 가질 수 있으리라고 설명했다.     타다 넥스트는 7~9인승 승합차를 기반으로 최소 5년 이상 무사고 경력의 고급택시 면허를 보유한 드라이버가 운행하는 모빌리티 서비스다. 가족 단위 고객이 편안하고 안전하게 이동할 수 있으며 반려동물과 탑승할 수 있다고 회사가 설명했다. 각종 전자 기기 충전 잭과 차내 와이파이도 지원된다.    타다는 작년 11월 말 베타서비스 실시 이후 13만 명 이상 신규 가입자를 유치했다. 이 가운데 약 20%가 모기업인 토스로부터 유입된 것으로 추정됐다. 현재까지 누적 가입자 수는 210만 명에 달한다.     지난달 타다 넥스트의 하차완료(호출해서 하차까지 완료) 횟수는 전월대비 30% 가까이 증가했다. 타다는 고객만족도가 5점 만점에 평균 4.95점에 이른다고 전했다.    타다는 타다 넥스트 정식 출시에 맞춰 타다 앱의 사용자경험(UX)을 변경했다. 앱을 켰을 때 메인 화면에 목적지 입력란만 보이도록 함으로써 자연스럽게 호출로 이어지도록 사용성을 강화했다. 터치 3∼4번이면 차량 호출이 가능하다는 것이 타다의 설명이다.    승객이 자주 탑승하거나 하차하는 위치를 앱이 기억하기 때문에 다음 이용 때 다시 위치를 지정하지 않아도 된다.    타다는 출발지와 목적지 사이에 원하는 곳을 들렀다 갈 수 있는 '사전 경유지 설정', 특정 시간대에 차량을 예약해 이용할 수 있는 '호출 예약 기능'도 앱에 추가했다.    타다는 이용자와 드라이버 모두가 만족할 수 있는 모빌리티 플랫폼이 되기 위한 비즈니스 핵심 이념으로 '퀄리티 라이드 포 올(Quality Ride for All)'을 소개하고, 작년 12월 설립한 운송 자회사 '편안한이동'과의 파트너십을 기반으로 드라이버와의 공생 방안을 발굴하고 실행하겠다고 밝혔다.    이를 위해 드라이버 운행 매뉴얼 제공부터 차량 상품화까지 한 번에 가능한 중앙 관리 거점 '파트너 케어 센터'를 구축하기로 했다.    이 대표는 "쾌적한 여건에서 근무하는 드라이버가 이용자에게 최상의 서비스를 제공하고, 타다 서비스에 만족한 이용자가 반복해서 탑승하는 선순환을 만드는 것이 목표"라며 "편안한이동은 이 목표를 위한 든든한 파트너가 될 것"이라고 설명했다.    그는 "토스가 2천100만 명 고객과 방대한 금융 데이터를 구축하고 있는 만큼 택시 시장에서 금융적으로 개선이 필요한 부분을 함께 발굴하고 긍정적인 방향으로 고도화시키기 위해 협업할 계획"이라고 덧붙였다.     한편 타다는 타다 넥스트 공식 출시를 기념해 오는 30일까지 타다 앱 신규 가입자를 대상으로 '1만 원 쿠폰'과 '50% 할인 쿠폰' 랜덤 선물 이벤트를 실시한다. 대형차 호출 서비스 '타다 넥스트'(서울=연합뉴스) 김인철 기자 = 25일 서울역 앞에서 모빌리티 플랫폼 타다를 통해 대형차를 호출하는 서비스 '타다 넥스트'가 시범운행을 하고 있다. 2021.11.25 yatoya@yna.co.kr    harrison@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.04.11.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>배민이 배달, 토스로 대출… 여기는 베트남입니다</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003684299?sid=105</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>인구 60%가 30대이하 ‘젊은시장’ 한국 스타트업들 속속 공략 나서							한국에서 비행기로 4시간 반쯤 떨어진 동남아 국가 베트남에선 한국에서처럼 ‘배달의민족’으로 음식을 시켜먹고, ‘토스’로 송금과 대출을 받을 수 있다. 국내 배달 주문, 금융 분야 1위 앱이 나란히 진출해 베트남 소비자 사이에서 점유율을 높이고 있기 때문이다. 서비스명도 한국과 같은 ‘BAEMIN’(배민)과 ‘toss’(토스)다. 두 회사는 지난 2019년 베트남에 진출했다. 배민은 현재 호찌민·하노이 등 21개 도시에서 월 이용자 350만명 이상을 확보해 배달 주문 앱 3위에 올랐다. 토스도 현지 누적 다운로드 900만, 월 이용자 280만을 달성했다. 특히 베트남 금융시장은 외국 기업에 문턱이 높은데도, 유력 금융사도 아닌 한국 스타트업이 금융 분야 앱 7위까지 올랐다. 인건비가 싸고 젊은 노동력 덕분에 한국 제조업 생산 기지 역할을 해온 베트남이 한국 스타트업의 유망 시장으로 떠올랐다.베트남 호찌민시에 있는 '배민존(BAEMIN Zone)'에서 현지 배달원 등이 '배민'을 홍보하고 있다. 배민존은 우아한형제들이 앱 홍보를 위해 번화가 제휴 식당 간판을 자사의 상징색인 민트색으로 꾸민 지역이다. /우아한형제들 '젊은 소비국’ 베트남 공략 나선 韓 스타트업							1억에 육박하는 인구(9700만명)를 가진 ‘젊은 소비국가’ 베트남을 한국 스타트업들이 공략하고 있다. 베트남은 인구의 60% 이상이 30대 이하일 만큼 젊은 인구 층이 두껍다. 중위 연령(전체 인구를 일렬로 세웠을 때 중간값)이 32.5세다.베트남은 그간 한국 대기업들도 시장 공략에 나섰다가 고배(苦杯)를 마시고 철수했을 만큼 쉽지 않은 곳이다. SK텔레콤이 2000년 LG전자, 동아일렉콤 등과 함께 베트남 이동통신 시장에 뛰어들었다가 2700억원의 손해를 보고 철수한 것이 대표적이다. 지금도 한국 기업의 투자는 인건비가 싸고 젊은 노동력 활용을 위한 ‘제조 생산기지’에 쏠려 있다. 코트라(KOTRA)에 따르면, 한국의 대(對)베트남 투자 73.5%가 제조업이다. 삼성·LG의 최대 생산기지가 모두 이곳에 있다.반면 스타트업은 젊은 인구 덕에 급속히 디지털화가 진행 중인 베트남의 온라인 시장을 노린다. 토스가 베트남을 첫 해외 타깃으로 삼은 것도 모바일 결제 이용자가 전체 인구의 29%로 중국·한국에 이어 세계 3위라는 점 때문이다. 토스는 걸으면 돈 주는 ‘만보기 앱’으로 초기 이용자를 끌어모은 뒤 송금, 계좌 개설, 소액 대출 등으로 영역을 확장해 나갔다. 토스 정희균 PO(프로덕트 오너)는 “일반 금융사라면 현지 업체를 인수했겠지만 우린 스타트업답게 최소 기능 제품으로 최대한 빨리, 최대한 많은 시장 테스트를 통해 가장 효율적인 방법으로 이용자를 끌어모았다”고 했다.										배민도 친근하게 다가가기 위해 베트남 사람이라면 누구나 아는 현지 전래동화를 활용한 에코백을 만들거나 ‘이거 엄마한테 맡기지 마’ 같은 재미난 문구를 담은 ‘뗏(한국 설날)’용 세뱃돈 봉투 등으로 젊은 층을 파고들어 3년 만에 배달 주문 앱 3위를 꿰찼다. 베트남 시장조사업체 Q&amp;Me(큐앤미)의 고객만족도 조사에서 주문 배달 앱 부문 2년 연속 1위다. Q&amp;Me는 “그랩푸드가 1위지만 지난 1년 새 가장 높은 성장률을 보인 앱은 배민”이라고 했다.동남아 진출 교두보, 인재 공급처							한국의 다른 스타트업도 업종을 불문하고 속속 베트남으로 향하고 있다. ‘코코트럭’이란 서비스를 운영하는 AI 물류 스타트업인 코코넛사일로는 지난해 베트남에 진출했고, 호텔 업계의 디지털 전환을 돕는 스타트업 H20호스피탈리티도 현지 진출을 염두에 두고 지난달 베트남 숙박 플랫폼 업체 리비에 전략적 투자를 했다. 직무 관련 소셜미디어 ‘커리어리’를 운영하는 퍼블리는 지난 6일 베트남 버전 앱을 내놨다. AI 코딩 교육 스타트업인 엘리스, 쇼트폼 동영상(짧은 동영상) 서비스 업체 셀러비도 연내 베트남 시장에 진출할 계획이다. 스타트업 업계 관계자는 “베트남은 동남아에서 유니콘 기업이 셋째로 많을 만큼 스타트업 시장이 급성장하는 국가”라며 “지리적으로도 동남아 진출의 교두보가 될 수 있다”고 했다.동남아 인구 3위인 베트남은 연구⋅개발(R&amp;D) 거점이자 인재 공급처로도 주목받고 있다. 네이버가 지난해 베트남 하노이과학기술대(HUST), 우정통신대학과 각각 손잡고 현지에 두 곳의 AI(인공지능) 센터를 세운 것이 대표적이다. 네이버 관계자는 “현지 우수한 기술 인재를 육성, 확보하는 동시에 다방면으로 협력해 ‘글로벌 AI R&amp;D 벨트’의 핵심축으로 키울 것”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.04.07.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>인터넷은행들, 중·저신용 대출 비중 목표 달성 ‘감감’</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002585910?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>신용 관리 역량 한계 드러나나카카오뱅크 제공카카오뱅크 등 국내 인터넷전문은행들이 모두 중·저신용자 신용대출 취급 비중 목표치를 채우지 못한 것으로 나타났다. 인터넷전문은행들은 정부로부터 사업 인가를 받을 때 빅데이터 등 첨단 정보기술(IT)을 활용해 중·저신용자 신용대출에 적극적으로 나선다고 약속한 바 있다.7일 인터넷전문은행 쪽 얘기를 들어보면, 카카오뱅크는 지난 3월 말 현재 중·저신용자(신용등급 4등급 이하) 신용대출 잔액은 2조7천억원으로 전체 가계 신용대출 대비 비중은 20%다. 지난해 말에 견줘선 중·저신용자 대출 비중이 3%포인트 뛰어오른 것이지만 지난해 5월 정부와 소비자에게 제시한 ‘2021년 말 목표치’(20.8%)에는 여전히 미치지 못한다. 지난해 11월 고신용자 신용대출 취급 중단이라는 고육책까지 동원했지만 약속을 지키지 못한 셈이다. 케이뱅크 사정도 다르지 않다. 이 은행의 3월 말 현재 중·저신용자 신용대출 비중은 20% 수준으로, 지난해 말 목표치(21.5%)를 밑돈다. 특히 이 은행은 지난해 목표치 달성은커녕 한 해 전(2020년, 21.4%)보다 중·저신용자 신용대출 비중이 줄어들었다. 지난해 말 기준 비중은 16.6%였다. 이 은행 관계자는 &lt;한겨레&gt;와 한 통화에서 “2019년 4월부터 1년 넘게 자본 부족으로 대출 영업을 전면 중단한 영향”이라고 말했다. 지난해 10월 출범한 토스뱅크는 지난 3월 말 기준 중·저신용자 대출 비중이 31.55%로 인터넷 은행 3사 가운데 가장 높다. 하지만 자신들이 제시한 지난해 말 목표(34.9%)에도 이르지 못했다. 이런 양상은 신용 분석 노하우와 대출 관리 역량의 한계를 이들 은행들이 드러내는 것 아니냐는 해석을 낳는다. 특히 시장 금리의 가파른 상승에 따라 대출 부실 위험도 커지고 있는 터라 앞으로도 중·저신용자 신용대출을 적극적으로 공급할 수 있을지에 대해서도 의문이 뒤따른다. 카뱅과 케이뱅크, 토스뱅크가 각각 제시한 올해 말 중·저신용자 신용대출 비중 목표치는 25%, 25%, 42%다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.04.13.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>돼지고기 덕후, 대기업을 먹다</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/053/0000031045?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>장영화   변호사를 그만두고 스타트업 인재 교육 기업 오이씨랩을 창업했다. 청소년 기업가정신 교육서비스인 앙트십스쿨을 만들었고, 스타트업 인재 매칭 서비스인 조인스타트업을 통해 700명 이상의 스타트업 인재를 매칭했다. ‘장단’은 닉네임이다. 사람은 누구나 장점과 단점이 있다는 사실을 명심하자는 다짐이 들어있다.‘초록마을’을 인수한 신선식품 스타트업 ‘정육각’ 김재연 대표.photo 정육각지난 3월 신선식품 스타트업 ‘정육각’이 대상홀딩스의 유기농 유통기업 ‘초록마을’을 인수해 화제가 됐다. 162억원 매출의 정육각이 어떻게 10배 이상의 매출을 내는 초록마을을 인수할 수 있었을까? 스타트업의 대기업 인수 사례는 정육각에 한정하지 않는다. 지난 1월 부동산 스타트업 ‘직방’이 삼성SDS 홈 IoT(사물인터넷) 부문을, 지난 2월 비대면 세탁 서비스 ‘런드리고’를 운영하는 의식주컴퍼니가 아워홈의 호텔 세탁 사업을 인수했다. 디지털 DNA로 무장한 스타트업의 성장세가 눈부신 요즘이다. 초록마을 인수로 식품의 제조, 유통, 배달의 전 과정을 수직 계열화해 신선 식품 시장의 스타로 떠오른 정육각의 사례를 통해 스타트업 세상을 까본다.유학 준비하던 돼지고기 덕후의 반전    정육각 김재연 대표는 돼지고기 덕후다. 친구 집에 갈 때는 꼭 돼지고기를 사 가서 구워 먹었다. 그러던 그의 인생을 바꾼 사건이 일어난 것은 2016년이었다. 당시 김 대표는 카이스트를 졸업하고 미국 유학을 떠날 예정이었다. 유학을 떠나기 전에 좋아하는 돼지고기를 맘껏 먹어보고 싶은 마음에 도축장을 찾았다. 도축장에서 살 수 있는 최소 분량은 20㎏이었다. 그렇게 사온 돼지고기는 실컷 구워 먹은 후 냉장고를 가득 채우고도 남았다. 처치 곤란이 된 고기를 지인들에게 나눠주었다. 그런데 그에게 돼지고기를 받은 지인들의 반응이 기대 이상이었다. “어디서 살 수 있냐” “다시 먹고 싶다”는 반응이 밀려들었다. 대학 시절 창업한 경험이 있는 김 대표에게 지인들의 반응은 신선하고 짜릿했다. 친구와 자연어 처리 프로그램을 개발했지만 아쉽게 접어야 했던 경험이 떠올랐다. 맛있는 돼지고기를 파는 일은 수익모델도 명확하고 재미도 있어 좋을 것 같았다. 어차피 유학을 떠날 날짜가 정해져 있으니 떠나기 전까지 돼지고기도 먹고, 유학 자금도 모을 겸 장사를 해보기로 했다.    도축장 근처에 있는 허름한 아파트 상가를 작업실로 얻고 네이버 농축수산물 직거래 카페를 플랫폼 삼아 신선한 돼지고기 판매를 시작했다. 하루 종일 고기만 썰어도 시간이 모자랄 정도로 고객의 반응이 폭발적이었다. 온라인으로 맛있는 돼지고기를 파는 정육각의 시도는 소비자들의 반응을 단박에 끌어냈다. 결국 시간 때우기로 시작했던 돼지고기 장사가 사업으로 커졌다.    디지털 세대가 사업을 꾸려가는 방식은 전통 산업과는 달랐다. 김 대표는 축산 전문가, 유통 전문가 대신 고난의 행진을 함께할 수 있는 지인을 중심으로 어벤저스팀을 꾸렸다. 군대 동기인 제품 담당 김환민 이사, 어렸을 때부터 질리도록 코딩을 한 개발 담당 박준태 이사, 대기업에서 온라인 신사업을 담당하던 이소해 이사가 그의 엉뚱한 상상에 합류했다. 역할은 달라도 모두 디지털 DNA를 가졌다는 공통점을 갖고 있었다. 스타트업은 사람이 전부다. 스타트업은 열에 아홉이 실패한다. 그럼에도 불구하고 스타트업은 ‘함께 꾸는 꿈’을 통해 수많은 장애를 돌파한다. ‘이 사람들과 함께라면 실패해도 괜찮다’는 서로에 대한 믿음이 ‘불가능해 보이는 성공’을 가능케 한다. 초기 단계 스타트업에 투자하는 투자회사들이 투자를 결정할 때 가장 중요하게 생각하는 기준이 팀인 이유다. 그런 투자자들의 눈에 정육각 창업팀이 갖고 있는 디지털 DNA와 혁신은 더딘 30조원 정육 시장을 바꿀 너무나 매력적인 자원이었다.    통상적으로 축산물 유통은 ‘농장-도축장-육가공 공장-도매 시장-세절 공장-소매점’의 6단계를 거쳐 소비자에게 판매된다. 유통 단계가 길어지면서 신선도는 떨어지고 가격은 높아진다. 정육각은 이러한 유통단계를 ‘농장-도축장-육가공 공장-정육각’으로 대폭 간소화해 유통 기간을 줄이고, 가격을 낮췄다. 공학을 전공한 창업자들은 유통구조의 혁신뿐 아니라 생산 현장의 자동화에도 집중했다. 창업 초기에는 정육각도 자동 발주 알고리즘 없이 일했다. 고기를 썰면서 머릿속으로 주문량과 작업량, 작업 순서를 실시간으로 계산해 나갔다. 그렇게 현장에서 데이터를 쌓아가며 개발한 자동 발주 시스템을 통해 서울·경기권에서는 당일 오전에 주문받은 고기를 오후 7시 전에 배송하는 것이 가능해졌다. 재고가 남지 않도록 주문량과 실제 재고량, 작업분을 실시간으로 계산해 데이터베이스화해서 고객 수요를 예측하고, 주문과 생산, 포장 사이에 병목이 생기는 것을 해소했다.    일반적으로 정육업체의 인건비는 매출의 30% 수준을 차지한다. 정육각은 자동 발주 시스템을 사용해 인건비의 비중을 10%까지 낮췄다. 6년 전 ‘초신선 돼지고기’로 시작한 사업은 이제 당일 도계한 닭고기, 저온 숙성 소고기, 당일 산란한 달걀, 당일 착유한 우유 등의 축산물과 초신선 재료를 이용한 밀키트, 그리고 수산물에 이르기까지 상품을 확장했다. 그렇게 신선식품 온라인 사업자로 성장세를 보여주던 정육각이 전국에 400여개 매장을 둔 초록마을을 인수했다.    초록마을은 1999년에 설립된 친환경 유기농 신선식품 기업으로 전국에 400여개의 매장을 보유하고 있다. 대상그룹은 2009년 한겨레플러스로부터 초록마을을 인수해 경영실적을 개선해 왔다. 하지만 2018년부터 30억~40억원에 달하는 영업손실을 내면서 초록마을은 M&amp;A 시장에 매물로 나오게 되었다. 매출이 10분의1도 안 되는 정육각이 초록마을을 인수할 수 있었던 힘은 뭘까? 혁신 DNA를 갖춘 인재와 모험자본의 결합이 만들어낸 결과다. 이번 거래의 인수대금은 정육각의 혁신 DNA를 신뢰하는 투자자들(스톤브릿지벤처스, 에이티넘인베스트먼트, 프리미어파트너스, 신한벤처투자)이 마련했다. 지난 6년 동안 정육각이 디지털 역량으로 신선식품의 제조, 유통, 배달까지 혁신을 이루어냈으니 오프라인 거점 마련을 통해 더 큰 성장을 이루어낼 수 있을 거라는 기대감에서다.스타트업, M&amp;A 시장의 공식을 깨다    이번 초록마을 인수전에 마켓컬리, 이마트에브리데이 등이 뛰어든 이유는 갈수록 치열해지는 신선식품 시장에서 확고한 승기를 잡기 위해서였다. 정육각은 마켓컬리와 이마트를 제치고 초록마을을 인수하면서 온·오프라인을 통합하는 신선식품 전문 기업으로 존재감을 드러내게 되었다. 하지만 정육각의 도전은 수많은 물음표를 제거해 나가야 한다. 오프라인 유통 경험이 없는 정육각이 조직 통합을 성공적으로 이뤄낼 수 있을지 의문을 표하는 이들도 많다. 이 모든 의문에 대한 대답은 정육각이 시간을 통해 증명하게 될 것이다.    그동안 우리가 목격해온 대기업·스타트업 간 인수·합병은 대기업이 미래 먹거리 마련을 위해 유망 스타트업을 인수하는 경우가 일반적이었다. 하지만 정육각의 초록마을 인수와 같이 그 흐름에 변화가 생겨나고 있다. 부동산 스타트업 직방은 지난 1월 삼성SDS로부터 홈 IoT 부문을 1000억원가량에 인수했다. 삼성SDS는 보유하고 있는 사업 중에 유일하게 직접 소비자를 대상으로 하는 사업부의 효율화에 한계를 느껴왔다. 홈 IoT 사업을 통해 주거 콘텐츠 사업을 확장하려는 직방은 삼성SDS 사업부 인수를 통해 사업 개발에 드는 시간과 비용을 아끼고 싶었다. 이와 같은 두 기업의 니즈가 만나 인수·합병이 이루어지게 되었다. 비대면 세탁서비스 ‘런드리고’를 운영하는 의식주컴퍼니도 지난 2월 아워홈의 국내 최대 규모 호텔 세탁공장 ‘크린누리’의 사업과 세탁공장 일체를 인수했다. 이로써 3년 동안 소비자를 대상으로 비대면 세탁서비스를 운영해온 의식주컴퍼니는 본격적으로 기업 대상 사업 영역까지 확장할 수 있게 되었다.    인터넷과 모바일의 등장은 우리의 일상 구석구석을 바꾸고 있다. 오프라인 세상이 디지털 세상으로 바뀌어가는 지점을 이끌어가는 주인공이 바로 디지털로 무장한 스타트업이다. 종래 초기 창업기업인 스타트업은 보호의 대상으로 여겨졌다. 하지만 기술력과 모험심으로 무장한 스타트업은 우리의 일상을 바꾸는 혁신의 주체로 빠른 성장을 일궈내고 있다. 정육각, 직방, 의식주컴퍼니의 사례는 시작에 불과하다. 지금 이 시간에도 혁신하지 못하는 고래에게 다가가 속살을 해체하는 용기 있는 새우들이 생겨나고 있으니까 말이다. 애플의 창업자 스티브 잡스는 ‘애플의 경쟁사는 어느 기업이냐’는 질문에 “지금 이 순간 차고에 틀어박혀 무언가를 시작하는 스타트업”이라고 답한 바 있다. 지금부터라도 스타트업이 만들어가는 어쩌면 가능한 용기를 눈여겨 살펴보자. 내 삶이 한 뼘 더 흥미롭고, 풍요로워질 것이다.   스타트업 생태계가 만들어지기까지 안정보다 도전 DNA로 움직이는 곳… ‘유니콘’들이 달린다    스타트업(벤처기업)은 1980년 무렵 ‘기술집약형 중소기업’ ‘모험기업’ ‘신기술기업’으로 불리며 등장했다. 국내에서 ‘벤처기업’이라는 용어가 공식적으로 사용된 것은 1997년 8월 ‘벤처기업육성에관한특별조치법’이 제정되면서부터다. 1세대 벤처기업에는 1980년 무렵 등장한 삼보컴퓨터, 큐닉스컴퓨터, 다우기술, 메디슨, 휴맥스, 비트컴퓨터 등이 해당한다. 1998년 2000여개에 불과했던 벤처기업의 수는 2020년 말 기준 3만9000여개로 20배가량 늘었고, 종사자 수도 81만7000여명으로 4대 그룹 고용 69만8000여명보다 많다.(벤처기업정밀실태조사)    벤처기업이 대중적으로 인식되기 시작한 것은 1990년대 후반 무렵이었다. IMF외환위기를 극복하기 위해 정부가 IT산업을 집중 지원하면서부터다. 정부는 IT산업의 육성을 위해 전국에 초고속 인터넷망을 설치했다. 매월 500개 이상의 벤처기업이 생겨났고 벤처 열풍을 타고 우수한 인재들이 벤처기업으로 몰려들었다. 네이버, 카카오(합병 전 다음커뮤니케이션), 인터파크 등 인터넷 기업이 대중의 삶으로 들어온 것도 이 무렵이었다. 2000년 3월 10일에는 코스닥 지수가 2834.4로 사상 최대치를 찍었으니(2022년 3월 31일 기준 944.53) 당시 벤처 투자의 열기가 얼마나 뜨거웠는지 짐작할 수 있다. 하지만 거센 벤처 투자 열풍은 그리 오래가지 못했다. 미국의 나스닥이 ‘인터넷 거품’ 붕괴로 무너지면서 코스닥 지수도 추락했다. 당시 뜨거운 인기를 얻었던 프리챌, 아이러브스쿨, 네띠앙, 엠파스 등의 인터넷 기업이 역사 속으로 사라졌다.    2004년 12월 정부는 건강한 벤처 생태계 조성을 위해 벤처기업 활성화를 위한 벤처캐피털 및 벤처기업 지원책을 발표했다. 이에 따라 2005년에는 한국벤처투자주식회사가 설립되었고, 벤처투자펀드에 출자하는 모태펀드가 출범하면서 벤처생태계는 전환점을 맞이하게 되었다. 2008년에는 금융위기 속에서도 벤처기업의 수가 지속적으로 증가했다. 스마트폰의 등장 이후 스타트업이라는 용어가 본격적으로 사용되기 시작했고, 카카오 김범수 창업자가 카카오의 전신 아이위랩을 설립한 것이 2006년이었다. 스타트업 생태계의 성장세를 확인하게 된 정부는 2017년 7월 기존의 중소기업청에 ‘벤처’를 더해 중소벤처기업부로 이름을 변경하고 성장을 적극 지원하고 있다. 모바일 빅뱅 이후 설립된 쿠팡은 2021년 나스닥에 상장했고, 우아한형제들, 당근마켓, 마켓컬리, 야놀자, 토스, 직방, 두나무 등이 기업가치 1조원을 넘은 유니콘 스타트업으로 성장했다.    실패의 확률이 큰 스타트업에 모여드는 사람들은 성장과 성공에 대한 열망이 강하다. 스타트업이 합병, 상장을 하게 되면 월급 이외의 수익을 단박에 얻게 된다. 지난 3월 주총 시즌을 맞아 공개된 자료에 의하면 지난해 상장한 하이브의 창업 멤버 피독(본명 강효원)이 스톡옵션 행사이익과 급여 등으로 400억7000만원을, 크래프톤의 공동창업자 김효섭이 218억원을 받은 것으로 공시됐다. 이 같은 변화의 흐름을 반영하듯 대기업이 제공하는 안정감을 뒤로하고 주도적인 성장과 성공을 위해 스타트업과 창업을 선택하는 이들이 늘어나고 있다. 스타트업은 조직이 역동적으로 변화하는 과정에서 주도적 성장이 가능하고, 다양한 경험을 통해 창업을 준비할 수도 있다. 창업은 위험이 큰 선택인 만큼 신중할 필요가 있지만, 세대를 아울러 창업이 늘어나고 있는 것은 우리 사회에 다양성이 증가하고 있음을 보여주는 신호라고 할 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.04.09.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>카카오페이증권 vs 토스증권 '진검승부'…개미의 선택은?</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004947289?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>[사진 제공 = 카카오페이증권, 토스증권] 핀테크증권사인 토스증권과 카카오페이증권 간 경쟁이 치열해지고 있다. 재미있고 간편한 투자를 목표로 개인 투자자들의 유입을 위해 노력해 온 두 증권사가 이번에는 실시간 해외주식 소수점 거래를 사이에 두고 시장 점유율 확보에 매진하고 있다.9일 금융투자업계에 따르면 토스증권은 다음 주 해외주식 실시간 소수점 거래 서비스를 개시한다. 소수점 단위 주식을 모아 온주로 만드는 과정을 생략하면서 투자자가 주문을 넣는 즉시 거래가 체결된다는 설명이다. 이처럼 한 주 단위로 거래할 때와 별다른 차이를 느낄 수 없는 실시간 방식을 도입한 것은 토스증권이 최초다.토스증권은 미국주식과 상장지수펀드(ETF), 상장지수증권(ETN), 리츠(REITs) 등 총 2700여개 종목에 실시간 소수점 거래를 적용한다. 최소 주문 금액은 1000원 또는 1달러다. 별도의 환전은 필요하지 않다. 수수료는 해외주식 거래 수수료(0.1%)와 동일하다. 다만 원하는 가격으로 매수 주문을 거는 지정가 매매가 불가능하고 시장가 매매만 가능한 부분은 아쉽다는 평가다.앞서 카카오페이증권도 지난달 28일 해외주식 실시간 소수점 거래 서비스를 내놨다. 온주가 되는 즉시 거래를 체결할 수 있도록 자체 시스템을 구축했다. 온주가 완성되지 않아도 카카오페이증권이 부족한 양을 채워 매매를 완료한다. 이 경우 최대 10분의 딜레이가 발생할 수 있다. 엄밀히 말해 실시간에 가까운 거래인 셈이다. 카카오페이증권은 우량주 위주의 24개 종목에 이 서비스를 적용했다.현재 해외주식 소수점 거래 서비스를 운영 중인 한국투자증권, 신한금융투자, NH투자증권, 삼성증권, KB증권 등 대형증권사들은 대부분 하루에 한 차례 소수점 거래가 이뤄지고 있다. 그렇다 보니 주문 시점과 체결 시점이 달라 투자자들은 자신이 몇 주를 얼마에 거래하게 될지 예상할 수 없었다. 급변하는 주식시장 상황에 대응해 투자 전략을 세우기도 쉽지 않았다. 토스증권과 카카오페이증권이 이같은 단점을 보완하면서 대형증권사들도 실시간 소수점 거래 서비스 출시를 고민하고 있다. 파트너사를 찾는 움직임을 보인 증권사도 있는 것으로 전해진다.토스증권과 카카오페이증권이 시장 주도권을 쥐게 된 상황에서 어느 증권사의 MTS에 서학개미들이 정착하게 될지에 투자시장의 관심이 쏠리고 있다. 지난해 3월 출범한 토스증권은 1년 만에 420만계좌와 230만명의 월간활성이용자수(MAU)를 확보했다. 카카오페이증권은 지난해 말 기준 500만계좌를 돌파했다. 지난 2020년 증권업에 진출한 지 2년 만이다.증권가에서는 이용해 온 MTS에 대한 투자자들의 충성도가 높아 눈에 띄는 '갈아타기' 흐름이 나타나지 않을 것이라는 분석을 내놓고 있다. 이미 사용하는 데에 익숙해진 거래 플랫폼을 바꾸기 쉽지 않다는 것이다.성종화 이베스트투자증권 연구원은 "새로운 MTS 출시를 통해 다른 증권사 MTS 이용자를 흡수한다기보다 중장기적으로 청년층 중심의 신규 고객을 유입한다는 취지가 더 크다"며 "MTS 관련 시스템 구축과 인력 투자 등으로 초기 비용은 바로 늘어나지만 신규 고객 유치에 따른 매출 증가는 시간이 걸릴 수 있는 만큼 단기적으로는 손익 악화 요인이 될 수 있다"고 분석했다.한편 카카오페이증권은 다음 주 MTS 정식 버전을 선보인다. 현재 카카오페이증권의 MTS는 베타 버전이라는 표시가 돼 있을 뿐 정식 버전과 동일한 시스템에서 서비스를 제공 중이라, 정식 버전으로 업그레이드돼도 이용자들은 불편을 느끼지 못할 것으로 관측된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.04.06.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>'신의 직장' 은행문 박차고 카뱅·케뱅·토뱅 가는 MZ 은행원</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004729551?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>[편집자주] 국내에 인터넷전문은행이 설립된 지 꼭 5년이다. '기대반 우려반'으로 출범했지만 성공적으로 안착했다는 평가다. 우려가 완전히 사라지지는 않았지만 인터넷은행의 등장으로 금융 일상의 시공간 제약이 사라지고, 금융산업의 비대면화가 가속화하고 있다. 다섯 살이 된 인터넷은행의 혁신 시도가 바꾸고 있는 금융시장의 변화상을 들여다본다[[MT리포트-인터넷전문은행 5년, 금융을 바꾸다]]카카오뱅크 임직원수 추이/그래픽=이지혜 디자인기자"카카오뱅크 경력 합격자 연락 왔나요?" 인터넷전문은행이 대규모 채용 문을 열 때마다 은행원들이 모인 앱(애플리케이션)이 들썩인다. 문의글 작성자는 모두 내로라하는 대형 시중은행 직원이다. MZ세대(1980년대 초반~2000년대 초반 출생) 은행원은 '신의 직장'으로 통했던 대형은행을 스스로 나와 인터넷전문은행으로 '대이동' 중이다. 6일 머니투데이가 대형은행에서 카카오뱅크, 케이뱅크, 토스뱅크 3곳의 인터넷전문은행으로 이직한 은행원 5명을 인터뷰한 내용을 종합하면 이들은 사내 분위기, 조직문화, 업무방식 등 면에서 만족감을 드러냈다. 연봉, 복지 면에서도 후회 없는 선택이라고 했다. 실제 지난해 은행원 연봉을 보면 카카오뱅크가 은행권 최고 수준에 이름을 올렸다. 지난해 카뱅 임직원 평균보수는 1억5300만원으로 고연봉 은행으로 손꼽히는 한국씨티은행(1억2000만원), KB국민은행(1억1000만원)을 앞질렀다. 스톡옵션(주식매수선택권) 영향이 더해진 결과다. 특히 개발자 등 디지털 인력의 연봉 만족도가 높았다. 지난해 카뱅으로 이직한 개발자 A씨는 "시중은행에서는 연공서열에 따라 호봉의 한계를 넘어서기에 한계가 있었는데 현 직장에서는 연차, 경력에 상관 없이 올해의 성과, 수행한 프로젝트 자체로 평가받기 때문에 연봉 만족도가 훨씬 높다"고 말했다. 이직을 결심한 이유로는 경직된 분위기, 안정을 추구하는 문화 등을 들었다. 2018년 카뱅으로 적을 옮긴 B씨는 "안정적이어서 새로운 도전이 어려웠다"며 "누군가가 장점으로 말하는 '안정'이 나를 떠나게 했다"고 말했다. 그는 "은행 선배들, 팀장, 부장이 '은행이 몇 년 안에 카뱅 혁신을 금방 따라잡을 것'이라며 만류했지만 그 '몇 년'은 아직 도래하지 않은 것 같다"고 했다. 시중은행에서 토스뱅크로 이직한 C씨는 "출시하는 상품, 서비스가 은행마다 비슷해서 뭘 내놓아도 후발주자라고 느낄 때가 많았다"며 "지금은 완전히 새로운 상품과 서비스를 만들고 있어 갈증이 해소됐다"고 했다. 조직문화, 분위기 면에서도 기존 은행과 인터넷전문은행 사이 큰 차이를 보였다. 기존 은행도 보수적인 문화를 벗어나 유연한 환경을 조성하기 위해 복장과 호칭을 자율화하는 등 애쓰고 있지만 단번에 바뀌기 어려워서다. 인터넷전문은행에서는 반바지 차림의 직원을 마주하는 일이 예사다. 카뱅은 서로를 영어 이름으로 부르고 케이뱅크과 토스뱅크는 '님'으로 호칭한다.  지난해 카뱅에 경력으로 입사한 D씨는 "자유로운 복장으로 출근하라기에 고심해서 셔츠와 면바지, 단화를 샀는데 출근 첫날 만난 청바지, 운동화, 모자 차림의 직원들을 보고 괜한 쇼핑을 했다는 생각이 들었다"고 말했다. 호칭과 관련해서는 "감히 '팀장님'의 이름을 부를 수 없어 한동안 호칭을 하지 못하고 머뭇거리며 대화를 시작하곤 했다"고 했다. 이직 후 업무 면에서도 만족감을 표했다. 지난해 케이뱅크로 이직한 E씨는 "과거에는 일을 하면서도 조직생활이 먼저였는데 지금은 업무 그 자체가 가장 중요해졌다"며 "그러다보니 업무가 훨씬 효율적으로 진행된다"고 말했다. 인터넷전문은행은 출범 후 지금까지 대규모 경력직 채용을 통해 시중은행 인력을 끌어들였다. 특히 카카오뱅크는 거듭된 세 자리 수 공개채용으로 몸집을 불렸다. 2017년 7월 출범 당시 300명에 불과했던 직원은 지난달 말 기준 1172명으로 4배 가까이 늘었다. 은행권 관계자는 "기존 은행은 점포 수와 함께 인력도 줄이는 반면, 인터넷전문은행은 새로운 서비스가 많은 만큼 인력이 계속해서 필요한 상황"이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.04.14.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>MZ세대 잡아라… 콘텐츠까지 만드는 금융사</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003265625?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>은행, 청소년·대학생 전용 앱 제작MZ마케팅 조직 신설해 상품 출시재미있는 브이로그로 ‘취향 저격’증권사, MTS 개편해 편의성 높여보험사, 골프·등산보험 등 차별화카카오뱅크, 토스 등 편의성 높은 금융앱이 MZ세대(1980년대 초반~2000년대 초반 출생) 소비자를 선점한 가운데 기존 금융사들도 미래고객 유치를 위한 경쟁에 뛰어들었다. MZ세대 맞춤형 앱 출시는 기본이고, 금융사라는 딱딱한 이미지를 벗어던지려고 콘텐츠를 만들고 회사 내 별도 조직도 꾸리고 있다. 은행·증권·보험과 거래를 막 시작하려는 MZ세대가 특정 금융사의 앱이나 콘텐츠로 긍정적인 인상을 받으면 자연스럽게 고객으로 유입될 수 있어서다.은행권은 우선 맞춤형 앱을 만들어 MZ세대 끌어들이기에 나섰다. 신한은행은 지난 2월 금융권에서 처음으로 대학생 전용 모바일 통합 앱인 ‘헤이영 스마트 캠퍼스’를 출시했다. 이 앱에서는 모바일 학생증, 전자출결, 학사행정, 학교 커뮤니티 이용 등이 모두 가능하다. 숙명여대를 시작으로 다른 대학까지 확장할 계획이다. 카카오뱅크가 2020년 10월 출시한 10대 청소년 전용 서비스 ‘미니’가 128만명(지난달 말 기준)을 끌어모으면서 Z세대를 겨냥한 금융앱도 쏟아지고 있다. 하나은행은 지난해 6월 금융플랫폼인 ‘아이부자’를 통해 청소년뿐 아니라 아동까지 타깃 고객을 넓히고 있다. KB국민은행도 지난해 11월 출시한 ‘리브 넥스트’를 통해 청소년 고객 유치에 나섰다.상품 출시뿐 아니라 MZ세대 취향을 저격해 접점을 넓히는 작업도 이어지고 있다. 우리은행은 지난해 12월 디지털그룹 내 MZ마케팅팀을 신설했다. 과장급 팀장을 포함해 팀원 모두가 MZ세대인 이 팀은 MZ세대 대상의 플랫폼, 신규 콘텐츠, 상품, 융복합 서비스를 개발하고 있다. Sh수협은행의 유튜브 채널을 맡고 있는 ‘Sh크리에이터’는 은행 안팎의 일상을 담은 브이로그로 눈길을 끌고 있다. 이들이 만든 콘텐츠 중 MZ세대와 기성세대 간 직장 내 갈등을 다룬 ‘MZ세대 VS 꼰대’ 시리즈는 조회수가 180만회를 넘어서기도 했다. 하나은행은 MZ세대에게 주목받는 상품을 내건 이벤트를 진행 중이다. 하나은행은 ‘티키타카 FLEX-스타일 오픈런’ 이벤트를 통해 디올 스카프, 나이키 골프화, 보테가 베네타 카세트백 등 10종을 경품으로 준다. 하나은행 앱인 하나원큐에 가입하고 로그인하면 이벤트 페이지에서 참여할 수 있다.증권사들은 모바일트레이딩시스템(MTS) 개편을 통해 편의성을 높이는 방법으로 MZ세대 유치에 나섰다. 삼성증권은 지난해 6월 기존 MTS와 비교해 전체 메뉴 수는 줄이고 자주 쓰는 기능은 한 화면에 모으는 등 편의성을 보강한 간편투자 앱 ‘오투’를 출시했다. KB증권도 지난해 8월 필수 콘텐츠를 탑재한 간편 MTS인 ‘마블 미니’를 내놨다.보험업계도 자기 취향이 뚜렷하고 모바일에 친숙한 MZ세대 특성에 발 맞춰 상황에 맞게 필요한 혜택을 제공하는 상품으로 차별화에 나섰다. 삼성화재는 지난달 ‘다이렉트 스크린홀인원보험’을 선보였다. 스크린골프 18홀 한 경기의 보험료는 1000원으로, 홀인원을 달성하는 경우 사용한 증정용 기념품 구입비용, 만찬비용, 스크린골프 비용을 최대 20만원까지 보장한다.에이스손해보험도 지난해 990원의 저렴한 가입비로 등산 도중의 골절 진단비를 최대 100만원까지 지급하는 ‘Chubb 원데이 레저보험(등산플랜)’ 등 미니보험을 출시했다. 하나손해보험은 등산, 야구, 배드민턴, 테니스 등 운동을 선택해 당일 보험 적용을 받는 ‘원데이 레저보험’을 운영하고 있다.손재희 보험연구원 연구위원은 최근 발간한 ‘디지털 보험시대, 보험소비자 경험 분석: MZ세대를 중심으로’ 리포트에서 “디지털 전환으로 MZ세대가 주력 소비층으로 성장한 가운데 이들을 공략하는 것이 보험사에도 생존의 문제로 떠오른 것”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.04.06.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>개인정보위 "출입명부 개인정보 QR·안심콜 57억건 파기 확인"</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000664499?sid=105</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>개인정보위, 지난 3월 10일~30일까지 집중 점검 결과코로나19 출입명부 의무화 중단에 따라 큐알(QR)·안심콜 총 57억건을 파기한 것으로 확인됐다.지난 2년간 QR 코드·안심콜 수집 건수 [사진=개인정보보호위원회]개인정보보호위원회(위원장 윤종인)는 코로나19 상황에서 불가피하게 수집된 다중이용시설 출입명부에 대한 파기와 수집중단 여부에 대한 집중 점검 결과를 6일 발표했다.방역당국이 지난 2월 28일 역학조사를 출입명부와 방역패스 의무화를 중단하기로 결정함에 따라, 개인정보위는 지난 3월 10일부터 3월 30일까지 개인정보 수집 중단 여부에 대한 점검을 실시했다.개인정보위가 전자출입명부를 수집하는 한국사회보장정보원, 네이버, 카카오, 케이티, 에스케이텔레콤, 엘지유플러스, 비바리퍼블리카(토스) 등에 대해 파기 및 수집중단 여부를 점검한 결과, 수집한 지 4주 후 자동 파기되던 큐알코드는 누적 42억2천만 건(2020년 6월~2022년 2월)이 수집됐다. 해당 데이터(지난 2월 28일 기준)는 모두 파기되고 데이터베이스에도 저장되지 않음을 확인했다. 이 중 2천만 건(0.47%)이 역학조사에 활용됐다.또 4주 후 자동 파기되던 안심콜은 누적 15억3천만 건(2020년 10월~2022년 2월)이 수집됐고, 이들도 모두 파기되고 데이터베이스에도 저장되지 않았다. 23만 건(0.02%)이 역학조사에 활용된 것으로 나타났다.백신패스에 사용되는 접종증명서는 개인 휴대전화에만 저장되고, 각 서비스 기관에는 저장되지 않음을 확인했따. 또 개인 휴대전화에 저장된 접종증명서도 국민이 앱을 갱신(업데이트)하면 자동으로 삭제된다는 사실을 확인했다.개인정보위는 5개 권역 12개 지자체를 대상으로 식당, 카페 등 600개 다중이용시설의 수기명부 파기여부를 점검하고, 수기명부를 보관 중인 일부시설(127개)에 즉시 파기토록 했다.개인정보위는 질병관리청, 지방자치단체, 한국외식산업협회와 협력해 지자체에서 다중이용시설의 수기명부 파기여부를 점검하도록 하는 한편, 보관 중인 수기명부를 즉시 파기하도록 안내해 코로나19 출입명부에 대한 국민의 개인정보 오·남용 우려를 해소할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.04.06.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>[단독] 와이제이엠게임즈, 글로벌 NFT 거래소 오픈씨 초기 투자 '대박'</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000664399?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>23억 투자로 24배 이상 수익…오픈씨 단일 수익률은 100배 이상 추정와이제이엠게임즈가 간접 투자를 통해 세계 최대 NFT(대체불가토큰) 거래소 오픈씨(OpenSea)에 투자해 100배가 넘는 수익률을 낸 것으로 알려졌다.6일 투자은행(IB)업계와 금융감독원 전자공시시스템에 따르면 와이제이엠게임즈는 지난 2018년 구미 크립토스(gumi Cryptos) 펀드 조합(1호)을 통해 오픈씨에 간접적으로 투자한 것으로 나타났다. 당시 오픈씨의 기업가치는 1억~2억 달러 수준으로, 최근 책정된 가치는 133억 달러(약 15조원)으로 알려졌다.이를 감안할 경우 구미 크립토스 펀드의 오픈씨 관련 투자 수익률은 최소 약 100배 이상이며, 펀드 전체 수익률은 24배를 넘어선 것으로 전해졌다.와이제이엠게임즈가 구미 크립토스 펀드 조합(1호)를 통해 세계 최대 NFT 거래소에 초기 투자(시드 머니)를 진행했고, 올해 3월 기준으로 100배 이상의 수익률을 낸 것으로 알려졌다. [사진=와이제이엠게임즈]구체적인 투자 규모는 ▲와이제이엠게임즈의 2019년부터 2021년 사업보고서 ▲오픈씨 시리즈C 투자라운드 ▲구미 크립토스 펀드의 운용사인 구미 크립토스 캐피탈(Gumi Cryptos Capital, GCC)의 공식 발표에서 확인할 수 있다.와이제이엠게임즈는 2018년 설립된 구미 크립토스 펀드 조합에 지분투자를 했으며, 약 10%(약 23억원 투자)의 지분을 가지고 있다. 조합 규모는 총 3천만 달러(약 320억원)다.구미 크립토스 펀드의 오픈씨 투자 시기는 2018년이며 투자 단계는 시드 머니(Seed Money) 투자다. 당시 오픈씨는 총 1천260만 달러를 유치했다. 구미 크립토스 펀드는 210만 달러를 투자했다.오픈씨의 투자 가치는 최근 급격히 증가했다. 지난해 7월만 해도 오픈씨의 가치는 15억 달러(약 1조 8천억원)였지만 올해 1월 오픈씨는 3억 달러(약 3천594억원) 규모의 시리즈C 투자 라운드를 성공적으로 마감했으며 당시 인정받은 기업 가치는 무려 133억 달러(약 15조원)이다.IB업계 관계자는 “보통 각 투자라운드에서 10~20%의 신주를 발행한다”며 “2019년 오픈씨의 가치는 1억 달러에서 2억 달러 사이일 것으로 추정된다"고 말했다.GCC는 지난 3월 두 번째 펀드를 1.1억 달러 규모로 모집했다고 밝히며 구미 크립토스 펀드(펀드 1호)의 수익률이 약 24.6배 났다고 공개한 바 있다. 아직 전체 펀드가 청산되지 않은 만큼 수익률은 더 올라갈 것으로 보인다.GCC가 밝힌 수익률에 따르면 와이제이엠게임즈가 투자한 23억원은 현재까지 약 500억원의 평가 수익을 거뒀을 것으로 추정된다. 또한 오픈씨 관련 수익률은 2019년 당시 1억 달러 가치로 투자했을 경우 최근 133억 달러로 평가된 만큼, 약 100배 이상 수익률이 예상된다.국내 상장사 중 오픈씨에 투자한 기업은 와이제이엠게임즈가 유일하다.와이제이엠게임즈 관계자는 “구미 크립토스 관련 투자는 공시된 사항이 전부”라며 “펀드사의 개별 투자처에 대해서는 알 수 없다”고 답했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.04.08.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>"주린이 다 뺏길라"…증권사, MTS 개편 잇따라</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000664856?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>"기존 서비스를 융합한 새로운 서비스 제공 목적"최근 국내 증권사들이 경쟁적으로 모바일트레이딩시스템(MTS) 개편에 나서고 있다. 토스증권 등이 간편성에 초점을 맞춘 MTS로 젊은 고객들을 끌어 모으는 것을 지켜본 기존 증권업계에 변화의 바람이 부는 모습이다. 특히 '주린이'(주식투자자+어린이)로 불리는 젊은 층의 주식 투자가 늘어나면서 이들에게 적합한 MTS 개편은 증권사들의 중요한 과제로 부상하고 있다.8일 금융투자업계에 따르면 키움증권은 기존 MTS인 '영웅문S'를 전면 개편하고, 하반기 중으로 새로운 MTS를 선보일 예정이다. 국내와 해외주식 거래 애플리케이션(앱)이 나눠져 있던 불편함과 다자인 등이 개선된다. 또 작년 9월 마이데이터(본인신용정보관리업) 사업 본허가를 획득한 만큼 이번에 출시되는 MTS는 위탁매매와 자산관리 서비스가 통합돼 제공될 것으로 예상된다.7일 금융투자업계에 따르면 키움증권은 기존 MTS인 '영웅문S'를 전면 개편하고, 하반기 중으로 새로운 MTS를 선보일 예정이다. 사진은 여의도 증권가.[사진=정소희 기자]삼성증권도 주린이를 공략하기 위한 간편투자 앱 '오투(O2)'를 출시했다. 간편성에 초점을 맞춘 만큼 전체 메뉴 수가 크게 줄었다. 기존 MTS는 510개의 메뉴로 구성돼 있지만, 오투는 6분의 1 수준인 78개로 줄였다. 또 자주 쓰는 기능을 한 화면에 모았다는 점도 기존 MTS와의 차별점이다. 앱에서 사용되는 어려운 증권 용어를 주린이가 이해하기 쉽도록 직관적으로 개편한 점도 두드러진 특징으로 꼽힌다.이베스트투자증권도 차세대 MTS '이베스트 온(eBEST ON)'을 내놨다. 여러 기능을 통합해 투자 편의성을 높이는 데 초점을 맞췄다. 유진투자증권도 간편투자에 적합한 MTS '유투(U.TOO)'를 출시했다. 특히 유투는 간편주문과 자동주문 등 핵심 기능 이외에도 '타임라인', '포스팅' 등 소셜미디어(SNS)에 친숙한 'MZ(밀레니얼+Z)세대'를 위한 기능들을 포함해 차별화했다.기존에 증권시장을 장악하고 있던 플레이어들이 MTS 개편에 적극적으로 나서는 배경에는 후발주자인 핀테크 증권사들의 눈에 띄는 성장세도 한 몫하고 있다.토스증권은 MTS 출시 이후 1년 만에 420만명의 고객을 확보한 것으로 추정된다. 기존 증권사들의 MTS와는 달리 쉽고 편리한 기능으로 MTS를 구성한 점이 주효했다는 평가다. 카카오페이증권도 편의성에 초점을 맞춰 MTS를 개발했다. 특히 카카오페이증권의 강점은 카카오톡과의 연계성이다. 카카오페이증권은 올해 안으로 카톡에서 주식 매매 기능을 제공할 계획이다.또한 주식시장에 '2030'세대가 대거 유입된 점도 MTS 개편 작업에 불이 붙은 원인 중 하나로 지목된다.한국예탁결제원에 따르면 지난해 12월 결산 상장법인의 주식을 소유하고 있는 20대는 204만명으로 전년(107만명)보다 91% 증가했다. 30대 투자자도 전년(181만명) 대비 58% 증가한 286만명으로 집계됐다.이규희 나이스신용평가 선임연구위원은 "증권사들이 편의성을 높이고, 이용자를 집중시키기 위해 여러 앱을 하나의 앱으로 통합하는 추세를 보이고 있다"며 "증권사들이 기존 서비스들을 융합해서, 통합한 앱에 새로운 서비스를 출시하려는 목적도 있다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.04.04.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>토스뱅크 개인사업자 대출 한달반 만에 2000억 돌파</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003682553?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>부동산 담보없이 신용별 한도 케뱅·카뱅 등도 상품 출시 예고토스뱅크가 인터넷 전문은행 최초로 출시한 개인사업자 대출 상품의 잔액이 출시 한 달 반 만에 2000억원을 넘어섰다. 3일 은행권에 따르면 토스뱅크의 개인사업자 대출 상품인 ‘사장님 대출’ 잔액은 지난달 31일 기준 2095억원으로, 2월 말 대비 197.5%(704억원) 늘어났다. 토스뱅크는 지난 2월14일 인터넷 전문은행 중에서 처음으로 개인사업자 대출 상품을 선보이며 기업금융에 첫발을 내디뎠다.  사장님 대출은 출시 한 달만인 지난달 14일 잔액 1167억원을 돌파했고, 최근 2주간은 하루 평균 약 59억2000만원의 대출을 취급했다. 시중은행의 보증부 대출을 제외한 개인사업자 대출(무보증)이 하루 평균 6억7000만∼10억원 규모로 취급되는 점을 고려하면 토스뱅크의 개인사업자 대출 성장세가 두드러지는 것이다.  토스뱅크의 사장님 대출은 보증기관의 보증서나, 고객의 부동산 등을 담보로 하지 않고 개인의 신용에 따라 한도(최고 1억원)를 부여한다. 다양한 비금융 정보를 활용해 개발한 자체 신용평가모형(CSS)으로 개인의 신용도를 평가하고 있어 ‘신 파일러(금융 이력 부족자)’ 고객들 사이에서 인기가 높다. 중·저신용 개인사업자들의 대출 비중은 잔액의 약 40%에 육박하는 것으로 집계됐다.  토스뱅크의 선전 속에 다른 인터넷 전문은행들도 개인사업자 대출 준비에 힘쓰고 있다. 케이뱅크는 오는 18일 신용보증재단중앙회와 협력한 개인사업자 운전자금 대출을 출시할 예정이다. 카카오뱅크는 올 하반기 개인사업자 대상 소호(SOHO) 대출 출시를 준비 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.04.09.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>“믿을 건 미국 뿐” 코스피에 발등 찍힌 동학개미, 미국 증시로 ‘우르르’</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000802153?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>[머니S리포트 주춤한 동학개미, 여전한 서학개미①] 해외주식 서비스 경쟁 ‘후끈’[편집자주]국내 증시에서 이탈해 해외 증시로 눈을 돌리는 서학개미(해외주식 개인 투자자)가 꾸준히 증가하는 추세다. 글로벌 긴축 기조와 러시아·우크라이나 전쟁 등 대내외적 악재로 국내 증시의 변동성이 확대되고 있어서다. 특히 미국 증시에 투자하는 국내 개인 투자자들이 늘면서 주로 어떤 종목을 담는지도 관심사로 떠올랐다. 업계에서는 향후 국내 주식시장에 대한 불안 요소가 잠재워지지 않는 한 국내 투자자 중 서학개미의 비중이 더욱 커질 것으로 내다보고 있다. 서학개미 열풍의 이유와 성적표를 들여다봤다.그래픽=머니S 김은옥 기자◆기사 게재 순서①“믿을 건 미국 뿐” 코스피에 발등 찍힌 동학개미, 미국 증시로 ‘우르르’②여전한 테슬라·애플 사랑… 서학개미 장바구니 살펴보니③미국주식 투자, 국내와 어떻게 다른가연초부터 이어진 미국 기준금리 인상 및 러시아 우크라이나 전쟁으로 글로벌 증시가 크게 흔들린 가운데 동학개미(국내주식 투자자)와 서학개미(해외주식 투자자)의 희비가 엇갈렸다. 미국 주요 기업들은 올 초 대내외적 악재로 주가가 급락했지만 3월 들어 시장이 안정을 찾으면서 바닥을 찍고 반등에 성공했다. 반면 국내 증시는 여전히 수익권을 크게 밑돌면서 투자자들의 한숨이 깊어지고 있다.━몸집 커진 서학개미… 1년 만에 보관액 5배 ‘쑥’━그래픽=머니S 김은옥 기자한국예탁결제원 증권정보포털 세이브로에 따르면 국내 투자자들의 미국주식 보관 규모는 신종 코로나바이러스 감염증(코로나19) 이후 지속적으로 확대되고 있다. 지난 2020년 1분기 88억달러(약 10조6664억원)였던 보관금액(투자잔액)은 지난해 1분기 464억달러(56조2414억원)까지 올랐다. 1년 만에 5배 이상 급증한 셈이다. 올해 1분기 기준으로는 전년동기대비 49.57% 오른 694억달러를 기록했다.국내 투자자들이 미국으로 몰려간 이유는 변동성 장세에서 미국 증시가 피난처로 주목받았기 때문이다. 러시아의 우크라이나 침공 이후 세계 경제 전망이 어두워지면서 글로벌 증시가 전체적으로 침체됐지만 상대적으로 미국 경제의 장점이 부각되면서 투자자들이 몰린 것으로 보인다. 러시아에 대한 에너지 의존도가 높은 유럽이나 코로나19가 재확산 중인 중국보다 미국 시장에 대한 상대적 선호도가 높아졌다는 설명이다.미국 증시는 전반적인 지수 상승 탄력도 크다. 올해 미국 다우존스지수는 지난해 말 3만6338.30에서 3월 초 3만2632.64까지 급락한 뒤 이달 들어선 다시 3만4900대를 회복한 상태다. 나스닥지수는 1만5644.97에서 3월 중순 1만2581.22까지 떨어진 뒤 현재는 1만4500대까지 지수를 회복했다. S&amp;P500지수 역시 지난해 4766.18에서 2월 말 4225.50까지 떨어진 뒤 현재는 4580대까지 올라왔다. 다우존스 지수와 나스닥지수, S&amp;P500지수는 각각 4%, 7%, 4%씩 하락했다. 이와 달리 국내 주식시장은 공매도 등으로 인해 여전히 약세장을 벗어나지 못하는 분위기다. 코스피지수는 지난해 말 2999.55에서 이달 초 2750선을 기록했으며 같은 기간 코스닥지수는 1033.98에서 950선으로 움직였다. 두 지수 모두 8%씩 하락했다. 수치만 놓고 보면 큰 차이는 없어 보이지만 미국 증시에서는 서학 개미들이 주로 투자하는 테슬라, 애플, 구글 등을 중심으로 주가가 상승했다. 반면 국내 증시에서는 삼성전자, 네이버, 카카오 등 대장주를 중심으로 주가 하락 폭이 큰 탓에 국내 투자자들의 체감 하락 폭이 더욱 큰 것으로 풀이된다.업계에서는 2분기 미국 증시 전망도 밝게 보고 있다. 그동안 증시에 영향을 미쳤던 러시아-우크라이나 리스크가 완화된 데 이어 연준의 통화정책 불확실성이 완화되고 미국 스태그플레이션 우려도 완화됐기 때문이다.문남중 대신증권 연구원은 “4월을 시작으로 2분기 동안 시장에서 우려하는 불확실성이 제압되고 증시 체력은 견고해질 것”이라며 “나스닥지수나 IT, 2차전지, 전기차, 메타버스 등 성장주 중심의 투자 기회로 삼아야 한다”고 조언했다.이어 “4월부터는 현재 시장에서 우려하고 있는 경기와 이익도 확신과 안도를 통해 견고한 증시 체력을 뒷받침하는 해석으로 바뀔 것”이라며 “2분기에는 물가에 대응하는 연준의 긴축강도가 강해질수록 증시가 상승할 것”이라고 말했다.━“서학개미 모셔라” 불붙은 유치 경쟁━사진=이미지투데이서학 개미의 인기가 갈수록 커지면서 증권사들도 해외주식 신규 서비스에 열을 올리는 분위기다. 소액 투자자들이 부담 없이 투자할 수 있도록 해외주식 소수점 매매 서비스를 오픈하는가 하면 야간에만 거래할 수 있었던 미국주식을 주간에도 거래할 수 있도록 해 높은 호응을 얻고 있다.현재 해외주식 소수점거래 서비스를 제공 중인 증권사는 신한금융투자, 한국투자증권, KB증권, NH투자증권, 삼성증권, 키움증권, 카카오페이증권, 토스증권 등 8곳이다. 해외주식 소수점 거래는 투자자가 1000원 단위 소액을 투자해 0.1주, 1.2주 등 소수점 단위로 해외주식 매수를 주문하는 서비스로 소액 투자자들도 우량 주식에 부담 없이 접근할 수 있는 것이 특징이다.증권사들은 각각 거래대상 종목 수, 수수료, 거래방식 등에 차별화를 두며 저마다 다른 해외주식 소수점거래 서비스를 운영 중이다. 거래 종목이 가장 많은 곳은 토스증권으로 2700여개이며 가장 적은 곳은 카카오페이증권으로 24개다. 수수료가 가장 저렴한 곳은 토스증권과 키움증권으로 0.1%씩이다. 다만 토스증권은 오는 7월부터 이벤트 종료로 인해 수수료가 0.25%로 오를 예정이다.삼성증권은 증권사 최초로 뉴욕증시에 상장된 미국 기업들의 주식을 낮 시간대에도 매매할 수 있는 주간 거래 서비스를 운영 중이다. 주간 거래 서비스는 오픈 이후 10영업일만에 거래대금 1000억원을 돌파한 데 이어 지난달 7일 32영업일 만에 누적 거래금액 5000억원을 달성하는 등 투자자들을 빠르게 끌어모으고 있다.일부 증권사에서는 5월 양도세 시즌을 맞아 해외주식 양도소득세 무료 신고대행 서비스를 진행하고 있다. 현행 과세 체계에서 해외주식은 국내 주식과 달리 소액주주 비과세가 적용되지 않기 때문에 1주를 팔더라도 양도소득세를 내야 한다. 이 때문에 양도소득세 신고에 익숙하지 않은 투자자들을 위해 증권사들이 무료로 신고를 대행해주고 있다.한국투자증권은 4월25일까지 온라인 주식거래 서비스 ‘뱅키스(BanKIS)’에서 신청한 고객을 대상으로 전문 세무법인과 제휴해 양도소득세 신고서 작성 및 접수 등 관련 업무 일체를 처리해주는 해외주식 양도소득세 무료 신고대행 서비스를 제공한다.이외에도 키움증권, 한화투자증권, KB증권, 미래에셋증권 등도 해외주식 양도세 신고대행 서비스를 운영 중이다. 양도소득세뿐 아니라 종합소득세, 증여세에 대한 대행 서비스를 제공해주는 곳도 있다.한화투자증권은 4월15일까지 양도소득세와 함께 증여세 신고대행 서비스도 시행한다. 해당 서비스는 한화투자증권에 자산 1억원 이상을 예치한 고객이거나 한화투자증권이 판매하는 펀드, 주가연계증권(ELS) 등에 5000만원 이상 가입한 우수 고객을 대상으로 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.04.14.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>靑 개방시 카톡·네이버 등 사전예약 시스템 검토</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011122633?sid=100</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>기사내용 요약원활한 관람객 관리 등 협의 위해 에버랜드 접촉[서울=뉴시스] 정병혁 기자 = 윤석열 대통령 당선인이 기자회견을 통해 새로운 대통령 집무실로 용산 국방부 청사를 지목했다. 윤 당선인은 기존 청와대는 5월 10일 새 정부 출범에 맞서 공원으로 개방한다고 밝혔다. 사진은 20일 오후 서울 종로구 청와대의 모습. 2022.03.20. jhope@newsis.com[서울=뉴시스] 박준호 이지율 기자 = 대통령직인수위원회가 윤석열 대통령 당선인의 대선 공약인 청와대 전면 개방과 관련해 방문자 예약 시스템을 구축하는 방안을 검토중인 것으로 파악됐다.14일 인수위에 따르면 청와대 이전 태스크포스(TF)는 최근 카카오, 네이버, 토스 등 민간업체들과 청와대 방문자 예약 시스템 구축 가능 여부와 운영방식, 절차 등을 협의중인 것으로 알려졌다.이는 청와대 개방 초기 많은 인파가 몰릴 것에 대비해 혼잡도를 줄이기 위한 일환으로 카카오톡 메신저나 네이버 홈페이지, 토스 애플리케이션(앱) 등을 통해 청와대 관광 신청이 가능하도록 할 예정이다. 인터넷이나 앱 활용이 익숙하지 않은 노약자 등을 위해 온라인 예약 외에 다른 방안도 검토 중이다.TF는 대형 놀이공원인 에버랜드 측과도 접촉해 청와대 개방 시 발생할 수 있는 관람객 사고 등의 문제점과 원활한 관리 방안을 다각도로 논의한 것으로 알려졌다.    인수위는 대통령 침실 등과 같이 내부 시설 정비가 필요한 공간의 경우 당분간 관람 대상에서 제외하고 개방 시기도 조정할 계획이다. 코로나 상황 등을 감안해 청와대 개방 초기에는 사전 예약으로 관람을 신청받고, 관람 인원과 시간 등을 제한하는 방안을 검토하고 있다.인수위 관계자는 "지금 여러 가지 아이디어가 나오고 있는데 확정된 건 아니다"라며 "취임과 동시에 국민들에게 돌려드린다라는 원칙은 분명하고 청와대 경내에는 들어갈 수 있지만, 내부 시설 공개(시점)까지는 지금 논의가 진전이 안 됐다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.04.08.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>주담대 금리 '농협'이 가장 저렴…신용대출 금리는 어디? [WEALTH]</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004947081?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>금리 인상기, 이자 줄이는 꿀팁주택대출 농협전세대출 국민신용대출 우리금리 가장 낮네[사진 출처 = 게티이미지뱅크] 회사원 김 모씨(47)는 최근 신용대출 만기가 4월 중순으로 다가왔다는 은행의 문자를 받았는데 연장 후 예상 대출 금리를 보고 깜짝 놀랐다. 연 3%대 금리가 4%대 중반으로 훌쩍 뛰었기 때문이다. 김씨는 문자를 통해 비대면(은행 애플리케이션)으로 연장이 가능했지만 이 금리로 이자를 내는 게 부담스러웠다. 결국 김씨는 금리인하요구권을 발동해 대출 연장 이후 조금이라도 금리를 낮추기로 했다. 금리인하요구권이란 대출 계약 체결 후 취업이나 승진 등으로 소득이 증가했거나 성실하게 빚을 갚아 신용도가 개선됐을 때 은행 등에 금리를 내려달라고 요구할 수 있는 권리다.   미국의 긴축적인 통화 정책과 한국은행의 기준금리 인상 기조로 은행 대출금리가 급등하면서 대출 수요자들의 이자 부담이 가중되고 있다. 이에 따라 대출 수요자 입장에서 이자를 조금이라도 적게 낼 수 있는 시중은행에 대한 관심이 커지고 있다.올해 들어 금리가 오르고 있지만 금리 급등에 놀란 일부 수요자가 빚을 갚으면서 은행 입장에서 가계대출이 급감하자 은행별로 금리를 낮추고 있는 점은 그나마 대출 수요자에게 희소식이다. 새 정부가 서민들 이자 부담을 챙기고 있는 점도 은행들이 금리를 조금씩 내리는 이유로 작용하고 있다. 신호탄은 KB국민은행이 쐈다. 지난 5일부터 주택담보대출과 전세대출에 대한 금리를 최대 0.45~0.55%포인트씩 낮춘 것이다. 이에 따라 8일 기준 국민은행의 신규 코픽스(변동형) 기준 주담대 금리는 연 3.4~4.9%다. 금융채 5년물(고정형) 기준 주담대 금리는 3.74~5.24%다. 그러나 이날 NH농협은행도 국민은행처럼 금리 인하(0.3%포인트)를 단행하면서 맞불을 놨다. 농협은행의 주담대 금리는 변동형 기준 3.18~4.38%로, 시중 5대 은행 중 가장 낮아졌다. 주담대 이자 부담이 가장 작다는 뜻이다. 고정형 주담대 금리는 최고 6%까지 올라 변동형과 격차가 큰 편이다. 변동형과 고정형을 비교했을 때 일반적으로 고정형이 금리가 한 단계 높다. [사진 출처 = 게티이미지뱅크] 변동형의 기준이 되는 코픽스 금리는 은행 비용 등을 고려해 시장 금리에 따라 수개월 단위로 변화하는 반면 고정형은 금리가 더 비싼 대신 1년 이상 기간으로 금리가 고정된다. 시중은행들은 금리가 지속적으로 오를 것이라고 판단되면 고정형을 택하는 것이 낫다고 조언하고 있다. 반면 국민은행 전세자금대출 금리는 6개월 변동형 기준으로 3.17~4.37%다. 최저 금리 기준으로 5대 은행 중 가장 낮다. 1등급 우량 고객을 기준으로 하면 국민은행 대출 금리가 싼 편이지만 다른 은행들도 금리를 내리기 시작했기 때문에 시시각각 확인이 필요하다는 의견이 나온다.   실제 국민은행의 신용대출 금리(6개월 변동 기준)는 3.72~4.62%로, 하나·우리은행보다 최저금리가 더 높다. 시중은행들이 가계대출 감소를 예상해 금리를 내리고 있어 은행별, 상품별로 금리가 서로 다른 상황이다. 급하지 않다면 조금 기다려 보는 것도 낮은 금리로 대출을 받을 수 있는 방법이다.한 시중은행 관계자는 "국민은행의 금리 인하 폭이 예상보다 커 다른 은행들 발등에 불이 떨어졌다"며 "그동안 금융당국의 옥죄기로 대출이 어느 정도 유지되다가 올해 금리가 급등하면서 대출이 줄어들었는데 최대 은행이 금리를 크게 내리면서 시중은행들이 너도나도 금리를 내릴 수밖에 없는 상황"이라고 전했다. 올해 1분기 5대 시중은행의 가계대출은 이례적으로 줄었다. 국민·신한·하나·우리·농협은행의 지난 3월 말 가계대출 잔액은 703조1937억원으로, 작년 말보다 5조8600억원 감소했다. 이 와중에 정치권의 예대금리차 지적은 은행권을 긴장시켰다. 은행 고객 입장에서 예금 이자는 수입이고 대출 이자는 비용인데, 정치권에선 두 금리의 차이가 지나치게 크다며 금리 인하를 유도하고 있다. 강민국 국민의힘 의원실에 따르면 작년 5대 은행 중 신한은행의 예대금리 차이가 1.83%포인트로 가장 컸다. 그다음으로 큰 곳이 국민은행(1.8%포인트)이었다. 이에 따라 신한은행 역시 8일 금리 인하(0.25%포인트)를 단행했다. 이 은행 변동형 주담대 금리는 3.43~4.48%며, 고정형은 4.25~5.08%다. 전세자금대출은 변동형 3.22~4.12%, 고정형 3.63~4.53%다. 신용대출은 6개월 변동 기준 3.8~4.3%며 적격대출은 국민은행과 마찬가지로 다루지 않는다. 국민·신한은행은 적격대출을 아직 취급하지 않고 있는데 과거 제로금리 시절 적격대출의 금리 수준이 상대적으로 높아 인기가 없었기 때문이다. 그러나 최근 적격대출이 이달 한도를 풀자마자 수요가 쏠리면서 인기가 뛰어오르고 있어 이들 은행도 적격대출을 하반기에 취급할 것이란 예상이 나온다. 적격대출이란 10~40년의 약정 만기 동안 고정금리로 원리금을 매달 갚는 주담대 상품이다. 신청자는 무주택자 또는 1주택자여야 하며 담보 주택 가격이 9억원을 넘어선 안 된다. 대출 최대 한도는 5억원이다. 하나·우리·농협은행이 적격대출을 취급하고 있는데 이달 소진 예상까지 나올 정도로 인기가 뜨겁다. 그만큼 무주택자 등 실수요자들에게 3%대 대출 상품이 매력적이라는 뜻이다. 이들 은행의 적격대출 금리는 똑같이 3.95%다. 시중은행이 주거래은행이라면 금리 인하 혜택이 많기 때문에 인터넷전문은행(인뱅)을 굳이 살펴볼 필요가 없지만 금융 초년생에게는 낮은 금리와 편리한 가입이 장점인 인뱅의 대출 상품을 찾는 것이 아직 유리하다. 20·30대 고객이 증가하면서 카카오뱅크, 케이뱅크, 토스뱅크의 지난 3월 말 기준 가계대출 잔액은 36조1439억원으로 집계됐다. 작년 말보다 2조6610억원, 7.9% 증가한 것으로 일반 시중은행과 정반대 행보다. 카카오뱅크의 변동형 기준 주담대 금리는 연 3.01%로 시중은행보다 훨씬 낮다. 케이뱅크의 전세대출 금리는 지난 2월 기준으로 2.9%로 전체 금융권에서 가장 낮은 것으로 나타났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.04.14.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>김민석 더핑크퐁컴퍼니 대표 "'핑크퐁' '아기상어' 넘어…패밀리 엔터 꿈"</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000074353?sid=102</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>[CEO LOUNGE]‘아기상어 뚜루루뚜루~’.영유아를 둔 부모에게 ‘핑크퐁’과 ‘아기상어’는 설명을 위해 별다른 수식어가 필요 없다. 한번 들으면 아이돌 그룹 후크송(hook와 song이 결합된 신조어)처럼 귓가를 맴도는 중독성 강한 동요 ‘핑크퐁 상어가족’이 글로벌 영유아 콘텐츠 시장을 정복 중이다. ‘핑크퐁’과 ‘아기상어’는 진작 평정한 국내를 넘어 동남아는 물론 영미권까지 휩쓸었다. 핑크퐁과 아기상어 콘텐츠로 잘 알려진 더핑크퐁컴퍼니(옛 스마트스터디)가 최근 미국 시사주간지 타임이 발표한 ‘세계에서 가장 영향력 있는 100대 기업’에 선정됐다. 방탄소년단 소속사 하이브 외에 이번 명단에 포함된 한국 기업은 더핑크퐁컴퍼니가 유일하다. 디지털 플랫폼 시장에서 영·유아 콘텐츠 산업을 개척한 성과를 인정받은 덕분이다. 대표 콘텐츠 ‘핑크퐁 아기상어체조’ 영상은 전 세계 유튜브 조회 수 1위를 기록한 데 이어 100억뷰를 달성했다. 핑크퐁 유튜브 영어 채널은 구독자 수 5000만명을 넘겼다. 타임은 “신종 코로나바이러스 감염증(코로나19) 팬데믹 상황에서 더핑크퐁컴퍼니는 콘텐츠 업계 리더로서 혁신을 보여줬다”며 “핑크퐁 아기상어는 귀에 맴도는 음악을 넘어 하나의 문화적 신드롬이 됐다”고 평가했다.더핑크퐁컴퍼니를 이끄는 김민석 대표(41)는 탁월한 사업가 집안으로 잘 알려져 있다. 그는 김진용 삼성출판사 회장 아들이다. 김진용 회장 동생이 패션 업계에서 혁신을 주도하는 CEO로 정평이 난 김창수 F&amp;F 사장이다. 이들 3명의 CEO가 이끄는 기업의 단순 합산 시가총액만 7조원을 넘는다. 김 대표는 아버지 회사인 삼성출판사에 2008년 신사업 담당으로 합류했다. 당시 김 대표는 게임 개발에 푹 빠져 있었다. 그는 고교 시절 정보올림피아드에서 수상한 정보특기자로 2000년 연세대 화학공학과에 입학했다. 대학교 1학년 때 게임사 넥슨에 취업했다. 이후 학업과 일을 병행하며 게임 기획·개발·마케팅 등을 맡아왔다. 디지털과 모바일의 최일선에서 기본기를 갈고 닦았다. 그는 삼성출판사에서 유아용 책을 모바일 앱으로 만드는 일부터 시작했다. 동요 네 편을 담은 ‘율동동요’에 1분짜리 애니메이션을 붙였다. 콘텐츠 무료 사용에 익숙한 한국에서 이 동요의 첫해 매출이 3억원을 넘겼다. 영유아 콘텐츠의 가능성을 본 김 대표는 게임 기획자로서 경험을 십분 발휘해 붉은색 여우 캐릭터 ‘핑크퐁’을 만들었다. 2010년에는 삼성출판사의 자회사 형태로 옛 스마트스터디를 차렸다. ▶유튜브, 핑크퐁 글로벌화 기폭제  ▷영어 채널 구독자 수 5000만 돌파  결과는 대성공. 설립 첫해(2011년) 3억5000만원이던 매출액은 2020년 677억원, 지난해 3분기 누적 510억원을 각각 기록했다. 10년여 만에 200배가량 성장했다. 콘텐츠 매출 비중이 70% 안팎으로 가장 높고 제품, 광고, 게임, 기타·상품 매출 순의 구조를 갖췄다. 영업이익은 관계사인 삼성출판사를 앞지른 지 오래다. 더핑크퐁컴퍼니의 성공 비결은 무엇보다 구상 단계부터 모바일 최적화에 집중했다는 데 있다. 모바일은 화면이 작아 보다 역동적이고 과장된 캐릭터라야 재미를 준다. 핑크퐁 캐릭터를 개발한 것도 이런 배경에서다. 또 하나의 비결은 ‘원소스 멀티유즈(One Source Multi-Use)’다. 많지 않은 멜로디를 지속적으로 활용해 다양한 콘텐츠를 만들었다. 교육적 요소가 가미된 점도 부모들이 선호하는 이유로 꼽힌다.특히 유튜브는 핑크퐁 글로벌화에 기폭제가 됐다. 거액의 마케팅비 없이 입소문만으로 대세에 등극하는 데 혁혁한 기여를 했다. 이미 지난해 8월 ‘핑크퐁’ 유튜브 영어 채널은 구독자 수 5000만명을 돌파하며 루비버튼 ‘5000만 어워드(50 Million Award)’를 수상했다. 국내에서는 5000만 구독자를 확보한 채널로 ‘3B’가 꼽힌다. 블랙핑크(BLACKPINK)와 방탄소년단(BTS), 아기상어(Baby Shark)가 등장하는 핑크퐁 유튜브 영문 채널의 앞글자를 땄다. 핑크퐁 유튜브 영문 채널은 2018년 8월 구독자 수 1000만명을 기록한 이후 연평균 구독자가 30%가량 증가했다. 올 하반기 김 대표는 콘텐츠 IP 다각화를 위한 밑그림을 그리는 데 주력한다. 사명을 스마트스터디에서 더핑크퐁컴퍼니로 바꾼 것도 유·아동 콘텐츠에 국한된 이미지를 극복하고 IP 전략 다각화를 위한 포석이었다. 우선 김 대표는 기존 3~5세 유·아동 콘텐츠 소비층의 로열티를 더욱 강화하기 위해 ‘슈퍼 IP’ 핑크퐁과 아기상어를 2차 콘텐츠로 제작한다. 지난해 미국 넷플릭스 5위권을 기록한 애니메이션 ‘핑크퐁 시네마 콘서트’는 이미 후속편 제작에 돌입했다. 미국 방영 첫날 유·아동 시청률 1위를 기록했던 ‘베이비샤크 빅 쇼’ 시리즈는 시즌2와 극장용 애니메이션으로 업그레이드한다. 글로벌 사업 확장에도 속도를 낸다. 더핑크퐁컴퍼니는 미국 로스앤젤레스, 중국 상하이, 홍콩에 이어 싱가포르에 4번째 해외 법인을 설립했다. 싱가포르 법인은 동남아 사업 확장의 교두보가 될 전망이다.  IP 를 위해 상장 작업을 속도감있게 추진하는 것도 과제다. 벤처캐피털(VC) 업계에서 더핑크퐁컴퍼니는 이미 1조원 이상 기업가치를 인정받았다는 후문이다. 쿠팡, 우아한형제들(배달의민족), 비바리퍼블리카(토스), 야놀자, 무신사, 쏘카 등에 이어 유니콘 기업(기업가치 1조원 이상 비상장사)으로 도약했다. 다만, 계속기업으로 장기 성장성을 입증하는 것이 김 대표가 풀어야 할 숙제다. 슈퍼 IP ‘핑크퐁’ ‘아기상어’의 존재는 퀀텀점프의 발판이 됐지만 한편으로는, IP 다각화에 뜻하지 않은 걸림돌로도 작용한다. 조직의 모든 자원이 이들 캐릭터를 중심으로 배분되고 익숙한 혁신에 몰두하다 보면 새로운 IP를 키우는 데 자원을 투입하기가 녹록지 않은 것이 사실이다. 특히 상장을 검토·추진 중인 상황에서는 당장 돈이 되지 않는 사업이나 조직 개편 등에 관심을 갖고 자원을 재배치하기가 더욱 힘들다. 일각에서는 메가 히트 IP인 ‘아기상어’의 인기가 예전만 못하다는 평가가 나오는 것도 사실이다. 실적도 조금씩 하락세를 탔다. 더핑크퐁컴퍼니는 2019년 매출 768억원으로 사상 최대 실적을 거뒀으나 2020년에는 677억원에 그쳤다. 이는 약 12% 감소한 수치다. 2020년 영업익은 184억원으로 2019년(312억원) 대비 절반 가까이 줄었다. 김민석 대표는 “지금까지 콘텐츠 업계에서 전례 없는 최초의 역사를 쓰면서 교육을 넘어 유튜브, 영화·애니메이션, 음원, 공연, 게임 사업까지 사업 영역을 확장해왔다”며 “웹툰, 웹소설, 스포츠 신사업을 전개하고 차세대 IP와 신규 해외 거점을 기반으로 글로벌 패밀리 엔터테인먼트 기업으로 진화할 것”이라고 각오를 다졌다. [배준희 기자 / 일러스트 : 강유나] [본 기사는 매경이코노미 제2154호 (2022.04.13~2022.04.19일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
